--- a/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E423AF48-A495-4B4A-9D63-0B202B5EED82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED316B26-6BA4-BE4A-A146-9786297D01AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10491,7 +10491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="501">
+  <cellXfs count="503">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11812,6 +11812,96 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11821,62 +11911,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11887,6 +11938,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11896,75 +11974,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11974,26 +11983,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14150,9 +14156,9 @@
   </sheetPr>
   <dimension ref="A1:AL977"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
@@ -14164,7 +14170,7 @@
     <col min="6" max="11" width="1.1640625" style="7" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="6.33203125" style="7" customWidth="1"/>
     <col min="13" max="13" width="11.1640625" style="248" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" style="447" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="444" customWidth="1"/>
     <col min="15" max="16" width="5.33203125" style="7" customWidth="1"/>
     <col min="17" max="19" width="1.83203125" style="7" customWidth="1"/>
     <col min="20" max="20" width="30.83203125" style="7" customWidth="1"/>
@@ -14174,49 +14180,49 @@
     <col min="25" max="27" width="1.83203125" style="7" customWidth="1"/>
     <col min="28" max="28" width="30.83203125" style="7" customWidth="1"/>
     <col min="29" max="29" width="50.83203125" style="248" customWidth="1"/>
-    <col min="30" max="32" width="3.33203125" style="450" customWidth="1"/>
+    <col min="30" max="32" width="3.33203125" style="447" customWidth="1"/>
     <col min="33" max="16384" width="12.6640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="440" t="s">
+      <c r="A1" s="470" t="s">
         <v>1910</v>
       </c>
-      <c r="B1" s="441"/>
-      <c r="C1" s="441"/>
-      <c r="D1" s="441"/>
-      <c r="E1" s="441"/>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
-      <c r="I1" s="441"/>
-      <c r="J1" s="441"/>
-      <c r="K1" s="441"/>
-      <c r="L1" s="441"/>
-      <c r="M1" s="460"/>
-      <c r="N1" s="456" t="s">
+      <c r="B1" s="471"/>
+      <c r="C1" s="471"/>
+      <c r="D1" s="471"/>
+      <c r="E1" s="471"/>
+      <c r="F1" s="471"/>
+      <c r="G1" s="471"/>
+      <c r="H1" s="471"/>
+      <c r="I1" s="471"/>
+      <c r="J1" s="471"/>
+      <c r="K1" s="471"/>
+      <c r="L1" s="471"/>
+      <c r="M1" s="453"/>
+      <c r="N1" s="497" t="s">
         <v>1911</v>
       </c>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="457"/>
-      <c r="R1" s="457"/>
-      <c r="S1" s="457"/>
-      <c r="T1" s="457"/>
-      <c r="U1" s="457"/>
-      <c r="V1" s="458"/>
-      <c r="W1" s="459" t="s">
+      <c r="O1" s="498"/>
+      <c r="P1" s="498"/>
+      <c r="Q1" s="498"/>
+      <c r="R1" s="498"/>
+      <c r="S1" s="498"/>
+      <c r="T1" s="498"/>
+      <c r="U1" s="498"/>
+      <c r="V1" s="499"/>
+      <c r="W1" s="500" t="s">
         <v>1968</v>
       </c>
-      <c r="X1" s="460"/>
-      <c r="Y1" s="460"/>
-      <c r="Z1" s="460"/>
-      <c r="AA1" s="460"/>
-      <c r="AB1" s="460"/>
-      <c r="AC1" s="460"/>
-      <c r="AD1" s="460"/>
-      <c r="AE1" s="460"/>
-      <c r="AF1" s="461"/>
+      <c r="X1" s="501"/>
+      <c r="Y1" s="501"/>
+      <c r="Z1" s="501"/>
+      <c r="AA1" s="501"/>
+      <c r="AB1" s="501"/>
+      <c r="AC1" s="501"/>
+      <c r="AD1" s="501"/>
+      <c r="AE1" s="501"/>
+      <c r="AF1" s="502"/>
     </row>
     <row r="2" spans="1:33" ht="93">
       <c r="A2" s="181" t="s">
@@ -14261,12 +14267,12 @@
       <c r="P2" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="462" t="s">
+      <c r="Q2" s="479" t="s">
         <v>1923</v>
       </c>
-      <c r="R2" s="463"/>
-      <c r="S2" s="463"/>
-      <c r="T2" s="464"/>
+      <c r="R2" s="480"/>
+      <c r="S2" s="480"/>
+      <c r="T2" s="481"/>
       <c r="U2" s="236" t="s">
         <v>6</v>
       </c>
@@ -14279,16 +14285,16 @@
       <c r="X2" s="183" t="s">
         <v>2000</v>
       </c>
-      <c r="Y2" s="462" t="s">
+      <c r="Y2" s="479" t="s">
         <v>2001</v>
       </c>
-      <c r="Z2" s="463"/>
-      <c r="AA2" s="463"/>
-      <c r="AB2" s="464"/>
+      <c r="Z2" s="480"/>
+      <c r="AA2" s="480"/>
+      <c r="AB2" s="481"/>
       <c r="AC2" s="236" t="s">
         <v>2012</v>
       </c>
-      <c r="AD2" s="454" t="s">
+      <c r="AD2" s="451" t="s">
         <v>12</v>
       </c>
       <c r="AE2" s="223" t="s">
@@ -14315,7 +14321,7 @@
       <c r="L3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="499" t="s">
+      <c r="M3" s="468" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="129" t="s">
@@ -14367,7 +14373,7 @@
       <c r="L4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="499" t="s">
+      <c r="M4" s="468" t="s">
         <v>24</v>
       </c>
       <c r="N4" s="129" t="s">
@@ -14419,7 +14425,7 @@
       <c r="L5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="499" t="s">
+      <c r="M5" s="468" t="s">
         <v>20</v>
       </c>
       <c r="N5" s="129" t="s">
@@ -14471,7 +14477,7 @@
       <c r="L6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="499" t="s">
+      <c r="M6" s="468" t="s">
         <v>31</v>
       </c>
       <c r="N6" s="129" t="s">
@@ -14523,7 +14529,7 @@
       <c r="L7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="499" t="s">
+      <c r="M7" s="468" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="129" t="s">
@@ -14576,7 +14582,7 @@
       <c r="L8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="499" t="s">
+      <c r="M8" s="468" t="s">
         <v>31</v>
       </c>
       <c r="N8" s="129" t="s">
@@ -14629,7 +14635,7 @@
       <c r="L9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="499" t="s">
+      <c r="M9" s="468" t="s">
         <v>20</v>
       </c>
       <c r="N9" s="129" t="s">
@@ -14682,7 +14688,7 @@
       <c r="L10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="499" t="s">
+      <c r="M10" s="468" t="s">
         <v>31</v>
       </c>
       <c r="N10" s="129" t="s">
@@ -14735,7 +14741,7 @@
       <c r="L11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="499" t="s">
+      <c r="M11" s="468" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="129" t="s">
@@ -14788,7 +14794,7 @@
       <c r="L12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="499" t="s">
+      <c r="M12" s="468" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="129" t="s">
@@ -14849,7 +14855,7 @@
       <c r="T13" s="284"/>
       <c r="U13" s="314"/>
       <c r="V13" s="243"/>
-      <c r="W13" s="500" t="s">
+      <c r="W13" s="469" t="s">
         <v>1957</v>
       </c>
       <c r="X13" s="297" t="s">
@@ -15709,7 +15715,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" ht="15">
-      <c r="A27" s="443"/>
+      <c r="A27" s="440"/>
       <c r="B27" s="91"/>
       <c r="C27" s="91"/>
       <c r="D27" s="91"/>
@@ -16455,7 +16461,7 @@
       <c r="AF38" s="104"/>
     </row>
     <row r="39" spans="1:32" ht="15">
-      <c r="A39" s="443"/>
+      <c r="A39" s="440"/>
       <c r="B39" s="91"/>
       <c r="C39" s="91"/>
       <c r="D39" s="91"/>
@@ -16471,7 +16477,7 @@
         <v>1848</v>
       </c>
       <c r="N39" s="303"/>
-      <c r="O39" s="444"/>
+      <c r="O39" s="441"/>
       <c r="P39" s="101"/>
       <c r="Q39" s="102"/>
       <c r="R39" s="103"/>
@@ -27334,7 +27340,7 @@
       <c r="U196" s="416" t="s">
         <v>1913</v>
       </c>
-      <c r="V196" s="445"/>
+      <c r="V196" s="442"/>
       <c r="W196" s="96"/>
       <c r="X196" s="93"/>
       <c r="Y196" s="94"/>
@@ -28136,7 +28142,7 @@
         <v>2048</v>
       </c>
       <c r="AE207" s="342"/>
-      <c r="AF207" s="452"/>
+      <c r="AF207" s="449"/>
     </row>
     <row r="208" spans="1:32" ht="90">
       <c r="A208" s="2" t="s">
@@ -29679,7 +29685,7 @@
       <c r="L232" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M232" s="495"/>
+      <c r="M232" s="464"/>
       <c r="N232" s="133" t="s">
         <v>1508</v>
       </c>
@@ -29692,7 +29698,7 @@
       <c r="U232" s="415" t="s">
         <v>2059</v>
       </c>
-      <c r="V232" s="446"/>
+      <c r="V232" s="443"/>
       <c r="W232" s="269" t="s">
         <v>297</v>
       </c>
@@ -29853,7 +29859,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="8"/>
       <c r="L235" s="12"/>
-      <c r="M235" s="496" t="s">
+      <c r="M235" s="465" t="s">
         <v>141</v>
       </c>
       <c r="N235" s="133" t="s">
@@ -29975,7 +29981,7 @@
       <c r="J237" s="431"/>
       <c r="K237" s="428"/>
       <c r="L237" s="432"/>
-      <c r="M237" s="496" t="s">
+      <c r="M237" s="465" t="s">
         <v>141</v>
       </c>
       <c r="N237" s="123" t="s">
@@ -31401,7 +31407,7 @@
       <c r="J258" s="51"/>
       <c r="K258" s="51"/>
       <c r="L258" s="52"/>
-      <c r="M258" s="497"/>
+      <c r="M258" s="466"/>
       <c r="N258" s="132" t="s">
         <v>1852</v>
       </c>
@@ -31431,7 +31437,7 @@
       <c r="AD258" s="327" t="s">
         <v>61</v>
       </c>
-      <c r="AE258" s="455"/>
+      <c r="AE258" s="452"/>
       <c r="AF258" s="327"/>
     </row>
     <row r="259" spans="1:32" ht="30">
@@ -31616,7 +31622,7 @@
       <c r="AC261" s="351"/>
       <c r="AD261" s="396"/>
       <c r="AE261" s="394"/>
-      <c r="AF261" s="453"/>
+      <c r="AF261" s="450"/>
     </row>
     <row r="262" spans="1:32" ht="15">
       <c r="A262" s="2" t="s">
@@ -32967,10 +32973,10 @@
       <c r="Z281" s="248"/>
       <c r="AA281" s="139"/>
       <c r="AB281" s="246"/>
-      <c r="AC281" s="451"/>
-      <c r="AD281" s="449"/>
-      <c r="AE281" s="449"/>
-      <c r="AF281" s="449"/>
+      <c r="AC281" s="448"/>
+      <c r="AD281" s="446"/>
+      <c r="AE281" s="446"/>
+      <c r="AF281" s="446"/>
       <c r="AG281" s="304"/>
       <c r="AH281" s="248"/>
       <c r="AI281" s="139"/>
@@ -32983,47 +32989,47 @@
       <c r="M282" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="N282" s="476" t="s">
+      <c r="N282" s="473" t="s">
         <v>2025</v>
       </c>
-      <c r="O282" s="477"/>
-      <c r="P282" s="477"/>
-      <c r="Q282" s="477"/>
-      <c r="R282" s="477"/>
-      <c r="S282" s="477"/>
-      <c r="T282" s="478"/>
-      <c r="U282" s="469" t="s">
+      <c r="O282" s="474"/>
+      <c r="P282" s="474"/>
+      <c r="Q282" s="474"/>
+      <c r="R282" s="474"/>
+      <c r="S282" s="474"/>
+      <c r="T282" s="475"/>
+      <c r="U282" s="456" t="s">
         <v>1840</v>
       </c>
-      <c r="V282" s="468"/>
-      <c r="W282" s="470"/>
-      <c r="X282" s="470"/>
-      <c r="Y282" s="470"/>
-      <c r="Z282" s="470"/>
-      <c r="AA282" s="471"/>
+      <c r="V282" s="455"/>
+      <c r="W282" s="457"/>
+      <c r="X282" s="457"/>
+      <c r="Y282" s="457"/>
+      <c r="Z282" s="457"/>
+      <c r="AA282" s="458"/>
       <c r="AB282" s="305"/>
     </row>
     <row r="283" spans="1:38" ht="15">
       <c r="L283" s="54"/>
-      <c r="M283" s="498" t="s">
+      <c r="M283" s="467" t="s">
         <v>21</v>
       </c>
-      <c r="N283" s="479"/>
-      <c r="O283" s="480"/>
-      <c r="P283" s="480"/>
-      <c r="Q283" s="480"/>
-      <c r="R283" s="480"/>
-      <c r="S283" s="480"/>
-      <c r="T283" s="481"/>
-      <c r="U283" s="469" t="s">
+      <c r="N283" s="476"/>
+      <c r="O283" s="477"/>
+      <c r="P283" s="477"/>
+      <c r="Q283" s="477"/>
+      <c r="R283" s="477"/>
+      <c r="S283" s="477"/>
+      <c r="T283" s="478"/>
+      <c r="U283" s="456" t="s">
         <v>1841</v>
       </c>
-      <c r="V283" s="468"/>
-      <c r="W283" s="470"/>
-      <c r="X283" s="470"/>
-      <c r="Y283" s="470"/>
-      <c r="Z283" s="470"/>
-      <c r="AA283" s="471"/>
+      <c r="V283" s="455"/>
+      <c r="W283" s="457"/>
+      <c r="X283" s="457"/>
+      <c r="Y283" s="457"/>
+      <c r="Z283" s="457"/>
+      <c r="AA283" s="458"/>
       <c r="AB283" s="305"/>
     </row>
     <row r="284" spans="1:38">
@@ -33031,24 +33037,24 @@
       <c r="M284" s="251" t="s">
         <v>89</v>
       </c>
-      <c r="N284" s="483" t="s">
+      <c r="N284" s="482" t="s">
         <v>2026</v>
       </c>
-      <c r="O284" s="482"/>
-      <c r="P284" s="482"/>
-      <c r="Q284" s="482"/>
-      <c r="R284" s="482"/>
-      <c r="S284" s="482"/>
+      <c r="O284" s="483"/>
+      <c r="P284" s="483"/>
+      <c r="Q284" s="483"/>
+      <c r="R284" s="483"/>
+      <c r="S284" s="483"/>
       <c r="T284" s="484"/>
-      <c r="U284" s="469" t="s">
+      <c r="U284" s="456" t="s">
         <v>1842</v>
       </c>
-      <c r="V284" s="468"/>
-      <c r="W284" s="470"/>
-      <c r="X284" s="470"/>
-      <c r="Y284" s="470"/>
-      <c r="Z284" s="470"/>
-      <c r="AA284" s="471"/>
+      <c r="V284" s="455"/>
+      <c r="W284" s="457"/>
+      <c r="X284" s="457"/>
+      <c r="Y284" s="457"/>
+      <c r="Z284" s="457"/>
+      <c r="AA284" s="458"/>
       <c r="AB284" s="305"/>
     </row>
     <row r="285" spans="1:38">
@@ -33063,40 +33069,40 @@
       <c r="R285" s="486"/>
       <c r="S285" s="486"/>
       <c r="T285" s="487"/>
-      <c r="U285" s="469" t="s">
+      <c r="U285" s="456" t="s">
         <v>1843</v>
       </c>
-      <c r="V285" s="468"/>
-      <c r="W285" s="470"/>
-      <c r="X285" s="470"/>
-      <c r="Y285" s="470"/>
-      <c r="Z285" s="470"/>
-      <c r="AA285" s="471"/>
+      <c r="V285" s="455"/>
+      <c r="W285" s="457"/>
+      <c r="X285" s="457"/>
+      <c r="Y285" s="457"/>
+      <c r="Z285" s="457"/>
+      <c r="AA285" s="458"/>
       <c r="AB285" s="305"/>
     </row>
     <row r="286" spans="1:38" ht="15">
       <c r="L286" s="54"/>
-      <c r="M286" s="498" t="s">
+      <c r="M286" s="467" t="s">
         <v>61</v>
       </c>
-      <c r="N286" s="440" t="s">
+      <c r="N286" s="470" t="s">
         <v>2031</v>
       </c>
-      <c r="O286" s="441"/>
-      <c r="P286" s="441"/>
-      <c r="Q286" s="441"/>
-      <c r="R286" s="441"/>
-      <c r="S286" s="441"/>
-      <c r="T286" s="442"/>
-      <c r="U286" s="469" t="s">
+      <c r="O286" s="471"/>
+      <c r="P286" s="471"/>
+      <c r="Q286" s="471"/>
+      <c r="R286" s="471"/>
+      <c r="S286" s="471"/>
+      <c r="T286" s="472"/>
+      <c r="U286" s="456" t="s">
         <v>1844</v>
       </c>
-      <c r="V286" s="468"/>
-      <c r="W286" s="470"/>
-      <c r="X286" s="470"/>
-      <c r="Y286" s="470"/>
-      <c r="Z286" s="470"/>
-      <c r="AA286" s="471"/>
+      <c r="V286" s="455"/>
+      <c r="W286" s="457"/>
+      <c r="X286" s="457"/>
+      <c r="Y286" s="457"/>
+      <c r="Z286" s="457"/>
+      <c r="AA286" s="458"/>
       <c r="AB286" s="305"/>
     </row>
     <row r="287" spans="1:38">
@@ -33104,24 +33110,24 @@
       <c r="M287" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="N287" s="440" t="s">
+      <c r="N287" s="470" t="s">
         <v>2027</v>
       </c>
-      <c r="O287" s="441"/>
-      <c r="P287" s="441"/>
-      <c r="Q287" s="441"/>
-      <c r="R287" s="441"/>
-      <c r="S287" s="441"/>
-      <c r="T287" s="441"/>
-      <c r="U287" s="469" t="s">
+      <c r="O287" s="471"/>
+      <c r="P287" s="471"/>
+      <c r="Q287" s="471"/>
+      <c r="R287" s="471"/>
+      <c r="S287" s="471"/>
+      <c r="T287" s="471"/>
+      <c r="U287" s="456" t="s">
         <v>1845</v>
       </c>
-      <c r="V287" s="468"/>
-      <c r="W287" s="470"/>
-      <c r="X287" s="470"/>
-      <c r="Y287" s="470"/>
-      <c r="Z287" s="470"/>
-      <c r="AA287" s="471"/>
+      <c r="V287" s="455"/>
+      <c r="W287" s="457"/>
+      <c r="X287" s="457"/>
+      <c r="Y287" s="457"/>
+      <c r="Z287" s="457"/>
+      <c r="AA287" s="458"/>
       <c r="AB287" s="305"/>
     </row>
     <row r="288" spans="1:38" ht="15">
@@ -33138,17 +33144,17 @@
       <c r="R288" s="489"/>
       <c r="S288" s="489"/>
       <c r="T288" s="490"/>
-      <c r="U288" s="473" t="s">
+      <c r="U288" s="460" t="s">
         <v>1863</v>
       </c>
-      <c r="V288" s="474"/>
-      <c r="W288" s="474"/>
-      <c r="X288" s="474"/>
-      <c r="Y288" s="474"/>
-      <c r="Z288" s="474"/>
-      <c r="AA288" s="461"/>
+      <c r="V288" s="461"/>
+      <c r="W288" s="461"/>
+      <c r="X288" s="461"/>
+      <c r="Y288" s="461"/>
+      <c r="Z288" s="461"/>
+      <c r="AA288" s="454"/>
       <c r="AB288" s="248"/>
-      <c r="AC288" s="450"/>
+      <c r="AC288" s="447"/>
       <c r="AE288" s="248"/>
       <c r="AF288" s="248"/>
     </row>
@@ -33157,24 +33163,24 @@
       <c r="M289" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="N289" s="465"/>
-      <c r="O289" s="466"/>
-      <c r="P289" s="466"/>
-      <c r="Q289" s="466"/>
-      <c r="R289" s="466"/>
-      <c r="S289" s="466"/>
-      <c r="T289" s="467"/>
-      <c r="U289" s="473" t="s">
+      <c r="N289" s="491"/>
+      <c r="O289" s="492"/>
+      <c r="P289" s="492"/>
+      <c r="Q289" s="492"/>
+      <c r="R289" s="492"/>
+      <c r="S289" s="492"/>
+      <c r="T289" s="493"/>
+      <c r="U289" s="460" t="s">
         <v>1864</v>
       </c>
-      <c r="V289" s="474"/>
-      <c r="W289" s="474"/>
-      <c r="X289" s="474"/>
-      <c r="Y289" s="474"/>
-      <c r="Z289" s="474"/>
-      <c r="AA289" s="461"/>
+      <c r="V289" s="461"/>
+      <c r="W289" s="461"/>
+      <c r="X289" s="461"/>
+      <c r="Y289" s="461"/>
+      <c r="Z289" s="461"/>
+      <c r="AA289" s="454"/>
       <c r="AB289" s="248"/>
-      <c r="AC289" s="450"/>
+      <c r="AC289" s="447"/>
       <c r="AE289" s="248"/>
       <c r="AF289" s="248"/>
     </row>
@@ -33183,24 +33189,24 @@
       <c r="M290" s="61" t="s">
         <v>1860</v>
       </c>
-      <c r="N290" s="465"/>
-      <c r="O290" s="466"/>
-      <c r="P290" s="466"/>
-      <c r="Q290" s="466"/>
-      <c r="R290" s="466"/>
-      <c r="S290" s="466"/>
-      <c r="T290" s="467"/>
-      <c r="U290" s="473" t="s">
+      <c r="N290" s="491"/>
+      <c r="O290" s="492"/>
+      <c r="P290" s="492"/>
+      <c r="Q290" s="492"/>
+      <c r="R290" s="492"/>
+      <c r="S290" s="492"/>
+      <c r="T290" s="493"/>
+      <c r="U290" s="460" t="s">
         <v>1865</v>
       </c>
-      <c r="V290" s="474"/>
-      <c r="W290" s="474"/>
-      <c r="X290" s="474"/>
-      <c r="Y290" s="474"/>
-      <c r="Z290" s="474"/>
-      <c r="AA290" s="461"/>
+      <c r="V290" s="461"/>
+      <c r="W290" s="461"/>
+      <c r="X290" s="461"/>
+      <c r="Y290" s="461"/>
+      <c r="Z290" s="461"/>
+      <c r="AA290" s="454"/>
       <c r="AB290" s="248"/>
-      <c r="AC290" s="450"/>
+      <c r="AC290" s="447"/>
       <c r="AE290" s="248"/>
       <c r="AF290" s="248"/>
     </row>
@@ -33209,24 +33215,24 @@
       <c r="M291" s="400" t="s">
         <v>1861</v>
       </c>
-      <c r="N291" s="491"/>
-      <c r="O291" s="492"/>
-      <c r="P291" s="492"/>
-      <c r="Q291" s="492"/>
-      <c r="R291" s="492"/>
-      <c r="S291" s="492"/>
-      <c r="T291" s="493"/>
-      <c r="U291" s="473" t="s">
+      <c r="N291" s="494"/>
+      <c r="O291" s="495"/>
+      <c r="P291" s="495"/>
+      <c r="Q291" s="495"/>
+      <c r="R291" s="495"/>
+      <c r="S291" s="495"/>
+      <c r="T291" s="496"/>
+      <c r="U291" s="460" t="s">
         <v>1866</v>
       </c>
-      <c r="V291" s="474"/>
-      <c r="W291" s="474"/>
-      <c r="X291" s="474"/>
-      <c r="Y291" s="474"/>
-      <c r="Z291" s="474"/>
-      <c r="AA291" s="461"/>
+      <c r="V291" s="461"/>
+      <c r="W291" s="461"/>
+      <c r="X291" s="461"/>
+      <c r="Y291" s="461"/>
+      <c r="Z291" s="461"/>
+      <c r="AA291" s="454"/>
       <c r="AB291" s="248"/>
-      <c r="AC291" s="450"/>
+      <c r="AC291" s="447"/>
       <c r="AE291" s="248"/>
       <c r="AF291" s="248"/>
     </row>
@@ -33235,5515 +33241,5515 @@
       <c r="M292" s="307" t="s">
         <v>2028</v>
       </c>
-      <c r="N292" s="440" t="s">
+      <c r="N292" s="470" t="s">
         <v>2030</v>
       </c>
-      <c r="O292" s="441"/>
-      <c r="P292" s="441"/>
-      <c r="Q292" s="441"/>
-      <c r="R292" s="441"/>
-      <c r="S292" s="441"/>
-      <c r="T292" s="442"/>
-      <c r="U292" s="475" t="s">
+      <c r="O292" s="471"/>
+      <c r="P292" s="471"/>
+      <c r="Q292" s="471"/>
+      <c r="R292" s="471"/>
+      <c r="S292" s="471"/>
+      <c r="T292" s="472"/>
+      <c r="U292" s="462" t="s">
         <v>2029</v>
       </c>
-      <c r="V292" s="468"/>
-      <c r="W292" s="472"/>
+      <c r="V292" s="455"/>
+      <c r="W292" s="459"/>
       <c r="X292" s="439"/>
-      <c r="Y292" s="472"/>
-      <c r="Z292" s="472"/>
-      <c r="AA292" s="494"/>
-      <c r="AB292" s="449"/>
-      <c r="AC292" s="448"/>
+      <c r="Y292" s="459"/>
+      <c r="Z292" s="459"/>
+      <c r="AA292" s="463"/>
+      <c r="AB292" s="446"/>
+      <c r="AC292" s="445"/>
     </row>
     <row r="293" spans="12:32">
       <c r="L293" s="54"/>
       <c r="M293" s="249"/>
       <c r="P293" s="54"/>
-      <c r="U293" s="448"/>
+      <c r="U293" s="445"/>
       <c r="W293" s="304"/>
       <c r="X293" s="306"/>
       <c r="Y293" s="304"/>
       <c r="Z293" s="304"/>
       <c r="AA293" s="304"/>
       <c r="AB293" s="304"/>
-      <c r="AC293" s="448"/>
+      <c r="AC293" s="445"/>
     </row>
     <row r="294" spans="12:32">
       <c r="L294" s="54"/>
       <c r="M294" s="249"/>
       <c r="P294" s="54"/>
-      <c r="U294" s="448"/>
+      <c r="U294" s="445"/>
       <c r="X294" s="54"/>
-      <c r="AC294" s="448"/>
+      <c r="AC294" s="445"/>
     </row>
     <row r="295" spans="12:32">
       <c r="L295" s="54"/>
       <c r="M295" s="249"/>
       <c r="P295" s="54"/>
-      <c r="U295" s="448"/>
+      <c r="U295" s="445"/>
       <c r="X295" s="54"/>
-      <c r="AC295" s="448"/>
+      <c r="AC295" s="445"/>
     </row>
     <row r="296" spans="12:32">
       <c r="L296" s="54"/>
       <c r="M296" s="249"/>
       <c r="P296" s="54"/>
-      <c r="U296" s="448"/>
+      <c r="U296" s="445"/>
       <c r="X296" s="54"/>
-      <c r="AC296" s="448"/>
+      <c r="AC296" s="445"/>
     </row>
     <row r="297" spans="12:32">
       <c r="L297" s="54"/>
       <c r="M297" s="249"/>
       <c r="P297" s="54"/>
-      <c r="U297" s="448"/>
+      <c r="U297" s="445"/>
       <c r="X297" s="54"/>
-      <c r="AC297" s="448"/>
+      <c r="AC297" s="445"/>
     </row>
     <row r="298" spans="12:32">
       <c r="L298" s="54"/>
       <c r="M298" s="249"/>
       <c r="P298" s="54"/>
-      <c r="U298" s="448"/>
+      <c r="U298" s="445"/>
       <c r="X298" s="54"/>
-      <c r="AC298" s="448"/>
+      <c r="AC298" s="445"/>
     </row>
     <row r="299" spans="12:32">
       <c r="L299" s="54"/>
       <c r="M299" s="249"/>
       <c r="P299" s="54"/>
-      <c r="U299" s="448"/>
+      <c r="U299" s="445"/>
       <c r="X299" s="54"/>
-      <c r="AC299" s="448"/>
+      <c r="AC299" s="445"/>
     </row>
     <row r="300" spans="12:32">
       <c r="L300" s="54"/>
       <c r="M300" s="249"/>
       <c r="P300" s="54"/>
-      <c r="U300" s="448"/>
+      <c r="U300" s="445"/>
       <c r="X300" s="54"/>
-      <c r="AC300" s="448"/>
+      <c r="AC300" s="445"/>
     </row>
     <row r="301" spans="12:32">
       <c r="L301" s="54"/>
       <c r="M301" s="249"/>
       <c r="P301" s="54"/>
-      <c r="U301" s="448"/>
+      <c r="U301" s="445"/>
       <c r="X301" s="54"/>
-      <c r="AC301" s="448"/>
+      <c r="AC301" s="445"/>
     </row>
     <row r="302" spans="12:32">
       <c r="L302" s="54"/>
       <c r="M302" s="249"/>
       <c r="P302" s="54"/>
-      <c r="U302" s="448"/>
+      <c r="U302" s="445"/>
       <c r="X302" s="54"/>
-      <c r="AC302" s="448"/>
+      <c r="AC302" s="445"/>
     </row>
     <row r="303" spans="12:32">
       <c r="L303" s="54"/>
       <c r="M303" s="249"/>
       <c r="P303" s="54"/>
-      <c r="U303" s="448"/>
+      <c r="U303" s="445"/>
       <c r="X303" s="54"/>
-      <c r="AC303" s="448"/>
+      <c r="AC303" s="445"/>
     </row>
     <row r="304" spans="12:32">
       <c r="L304" s="54"/>
       <c r="M304" s="249"/>
       <c r="P304" s="54"/>
-      <c r="U304" s="448"/>
+      <c r="U304" s="445"/>
       <c r="X304" s="54"/>
-      <c r="AC304" s="448"/>
+      <c r="AC304" s="445"/>
     </row>
     <row r="305" spans="12:29">
       <c r="L305" s="54"/>
       <c r="M305" s="249"/>
       <c r="P305" s="54"/>
-      <c r="U305" s="448"/>
+      <c r="U305" s="445"/>
       <c r="X305" s="54"/>
-      <c r="AC305" s="448"/>
+      <c r="AC305" s="445"/>
     </row>
     <row r="306" spans="12:29">
       <c r="L306" s="54"/>
       <c r="M306" s="249"/>
       <c r="P306" s="54"/>
-      <c r="U306" s="448"/>
+      <c r="U306" s="445"/>
       <c r="X306" s="54"/>
-      <c r="AC306" s="448"/>
+      <c r="AC306" s="445"/>
     </row>
     <row r="307" spans="12:29">
       <c r="L307" s="54"/>
       <c r="M307" s="249"/>
       <c r="P307" s="54"/>
-      <c r="U307" s="448"/>
+      <c r="U307" s="445"/>
       <c r="X307" s="54"/>
-      <c r="AC307" s="448"/>
+      <c r="AC307" s="445"/>
     </row>
     <row r="308" spans="12:29">
       <c r="L308" s="54"/>
       <c r="M308" s="249"/>
       <c r="P308" s="54"/>
-      <c r="U308" s="448"/>
+      <c r="U308" s="445"/>
       <c r="X308" s="54"/>
-      <c r="AC308" s="448"/>
+      <c r="AC308" s="445"/>
     </row>
     <row r="309" spans="12:29">
       <c r="L309" s="54"/>
       <c r="M309" s="249"/>
       <c r="P309" s="54"/>
-      <c r="U309" s="448"/>
+      <c r="U309" s="445"/>
       <c r="X309" s="54"/>
-      <c r="AC309" s="448"/>
+      <c r="AC309" s="445"/>
     </row>
     <row r="310" spans="12:29">
       <c r="L310" s="54"/>
       <c r="M310" s="249"/>
       <c r="P310" s="54"/>
-      <c r="U310" s="448"/>
+      <c r="U310" s="445"/>
       <c r="X310" s="54"/>
-      <c r="AC310" s="448"/>
+      <c r="AC310" s="445"/>
     </row>
     <row r="311" spans="12:29">
       <c r="L311" s="54"/>
       <c r="M311" s="249"/>
       <c r="P311" s="54"/>
-      <c r="U311" s="448"/>
+      <c r="U311" s="445"/>
       <c r="X311" s="54"/>
-      <c r="AC311" s="448"/>
+      <c r="AC311" s="445"/>
     </row>
     <row r="312" spans="12:29">
       <c r="L312" s="54"/>
       <c r="M312" s="249"/>
       <c r="P312" s="54"/>
-      <c r="U312" s="448"/>
+      <c r="U312" s="445"/>
       <c r="X312" s="54"/>
-      <c r="AC312" s="448"/>
+      <c r="AC312" s="445"/>
     </row>
     <row r="313" spans="12:29">
       <c r="L313" s="54"/>
       <c r="M313" s="249"/>
       <c r="P313" s="54"/>
-      <c r="U313" s="448"/>
+      <c r="U313" s="445"/>
       <c r="X313" s="54"/>
-      <c r="AC313" s="448"/>
+      <c r="AC313" s="445"/>
     </row>
     <row r="314" spans="12:29">
       <c r="L314" s="54"/>
       <c r="M314" s="249"/>
       <c r="P314" s="54"/>
-      <c r="U314" s="448"/>
+      <c r="U314" s="445"/>
       <c r="X314" s="54"/>
-      <c r="AC314" s="448"/>
+      <c r="AC314" s="445"/>
     </row>
     <row r="315" spans="12:29">
       <c r="L315" s="54"/>
       <c r="M315" s="249"/>
       <c r="P315" s="54"/>
-      <c r="U315" s="448"/>
+      <c r="U315" s="445"/>
       <c r="X315" s="54"/>
-      <c r="AC315" s="448"/>
+      <c r="AC315" s="445"/>
     </row>
     <row r="316" spans="12:29">
       <c r="L316" s="54"/>
       <c r="M316" s="249"/>
       <c r="P316" s="54"/>
-      <c r="U316" s="448"/>
+      <c r="U316" s="445"/>
       <c r="X316" s="54"/>
-      <c r="AC316" s="448"/>
+      <c r="AC316" s="445"/>
     </row>
     <row r="317" spans="12:29">
       <c r="L317" s="54"/>
       <c r="M317" s="249"/>
       <c r="P317" s="54"/>
-      <c r="U317" s="448"/>
+      <c r="U317" s="445"/>
       <c r="X317" s="54"/>
-      <c r="AC317" s="448"/>
+      <c r="AC317" s="445"/>
     </row>
     <row r="318" spans="12:29">
       <c r="L318" s="54"/>
       <c r="M318" s="249"/>
       <c r="P318" s="54"/>
-      <c r="U318" s="448"/>
+      <c r="U318" s="445"/>
       <c r="X318" s="54"/>
-      <c r="AC318" s="448"/>
+      <c r="AC318" s="445"/>
     </row>
     <row r="319" spans="12:29">
       <c r="L319" s="54"/>
       <c r="M319" s="249"/>
       <c r="P319" s="54"/>
-      <c r="U319" s="448"/>
+      <c r="U319" s="445"/>
       <c r="X319" s="54"/>
-      <c r="AC319" s="448"/>
+      <c r="AC319" s="445"/>
     </row>
     <row r="320" spans="12:29">
       <c r="L320" s="54"/>
       <c r="M320" s="249"/>
       <c r="P320" s="54"/>
-      <c r="U320" s="448"/>
+      <c r="U320" s="445"/>
       <c r="X320" s="54"/>
-      <c r="AC320" s="448"/>
+      <c r="AC320" s="445"/>
     </row>
     <row r="321" spans="12:29">
       <c r="L321" s="54"/>
       <c r="M321" s="249"/>
       <c r="P321" s="54"/>
-      <c r="U321" s="448"/>
+      <c r="U321" s="445"/>
       <c r="X321" s="54"/>
-      <c r="AC321" s="448"/>
+      <c r="AC321" s="445"/>
     </row>
     <row r="322" spans="12:29">
       <c r="L322" s="54"/>
       <c r="M322" s="249"/>
       <c r="P322" s="54"/>
-      <c r="U322" s="448"/>
+      <c r="U322" s="445"/>
       <c r="X322" s="54"/>
-      <c r="AC322" s="448"/>
+      <c r="AC322" s="445"/>
     </row>
     <row r="323" spans="12:29">
       <c r="L323" s="54"/>
       <c r="M323" s="249"/>
       <c r="P323" s="54"/>
-      <c r="U323" s="448"/>
+      <c r="U323" s="445"/>
       <c r="X323" s="54"/>
-      <c r="AC323" s="448"/>
+      <c r="AC323" s="445"/>
     </row>
     <row r="324" spans="12:29">
       <c r="L324" s="54"/>
       <c r="M324" s="249"/>
       <c r="P324" s="54"/>
-      <c r="U324" s="448"/>
+      <c r="U324" s="445"/>
       <c r="X324" s="54"/>
-      <c r="AC324" s="448"/>
+      <c r="AC324" s="445"/>
     </row>
     <row r="325" spans="12:29">
       <c r="L325" s="54"/>
       <c r="M325" s="249"/>
       <c r="P325" s="54"/>
-      <c r="U325" s="448"/>
+      <c r="U325" s="445"/>
       <c r="X325" s="54"/>
-      <c r="AC325" s="448"/>
+      <c r="AC325" s="445"/>
     </row>
     <row r="326" spans="12:29">
       <c r="L326" s="54"/>
       <c r="M326" s="249"/>
       <c r="P326" s="54"/>
-      <c r="U326" s="448"/>
+      <c r="U326" s="445"/>
       <c r="X326" s="54"/>
-      <c r="AC326" s="448"/>
+      <c r="AC326" s="445"/>
     </row>
     <row r="327" spans="12:29">
       <c r="L327" s="54"/>
       <c r="M327" s="249"/>
       <c r="P327" s="54"/>
-      <c r="U327" s="448"/>
+      <c r="U327" s="445"/>
       <c r="X327" s="54"/>
-      <c r="AC327" s="448"/>
+      <c r="AC327" s="445"/>
     </row>
     <row r="328" spans="12:29">
       <c r="L328" s="54"/>
       <c r="M328" s="249"/>
       <c r="P328" s="54"/>
-      <c r="U328" s="448"/>
+      <c r="U328" s="445"/>
       <c r="X328" s="54"/>
-      <c r="AC328" s="448"/>
+      <c r="AC328" s="445"/>
     </row>
     <row r="329" spans="12:29">
       <c r="L329" s="54"/>
       <c r="M329" s="249"/>
       <c r="P329" s="54"/>
-      <c r="U329" s="448"/>
+      <c r="U329" s="445"/>
       <c r="X329" s="54"/>
-      <c r="AC329" s="448"/>
+      <c r="AC329" s="445"/>
     </row>
     <row r="330" spans="12:29">
       <c r="L330" s="54"/>
       <c r="M330" s="249"/>
       <c r="P330" s="54"/>
-      <c r="U330" s="448"/>
+      <c r="U330" s="445"/>
       <c r="X330" s="54"/>
-      <c r="AC330" s="448"/>
+      <c r="AC330" s="445"/>
     </row>
     <row r="331" spans="12:29">
       <c r="L331" s="54"/>
       <c r="M331" s="249"/>
       <c r="P331" s="54"/>
-      <c r="U331" s="448"/>
+      <c r="U331" s="445"/>
       <c r="X331" s="54"/>
-      <c r="AC331" s="448"/>
+      <c r="AC331" s="445"/>
     </row>
     <row r="332" spans="12:29">
       <c r="L332" s="54"/>
       <c r="M332" s="249"/>
       <c r="P332" s="54"/>
-      <c r="U332" s="448"/>
+      <c r="U332" s="445"/>
       <c r="X332" s="54"/>
-      <c r="AC332" s="448"/>
+      <c r="AC332" s="445"/>
     </row>
     <row r="333" spans="12:29">
       <c r="L333" s="54"/>
       <c r="M333" s="249"/>
       <c r="P333" s="54"/>
-      <c r="U333" s="448"/>
+      <c r="U333" s="445"/>
       <c r="X333" s="54"/>
-      <c r="AC333" s="448"/>
+      <c r="AC333" s="445"/>
     </row>
     <row r="334" spans="12:29">
       <c r="L334" s="54"/>
       <c r="M334" s="249"/>
       <c r="P334" s="54"/>
-      <c r="U334" s="448"/>
+      <c r="U334" s="445"/>
       <c r="X334" s="54"/>
-      <c r="AC334" s="448"/>
+      <c r="AC334" s="445"/>
     </row>
     <row r="335" spans="12:29">
       <c r="L335" s="54"/>
       <c r="M335" s="249"/>
       <c r="P335" s="54"/>
-      <c r="U335" s="448"/>
+      <c r="U335" s="445"/>
       <c r="X335" s="54"/>
-      <c r="AC335" s="448"/>
+      <c r="AC335" s="445"/>
     </row>
     <row r="336" spans="12:29">
       <c r="L336" s="54"/>
       <c r="M336" s="249"/>
       <c r="P336" s="54"/>
-      <c r="U336" s="448"/>
+      <c r="U336" s="445"/>
       <c r="X336" s="54"/>
-      <c r="AC336" s="448"/>
+      <c r="AC336" s="445"/>
     </row>
     <row r="337" spans="12:29">
       <c r="L337" s="54"/>
       <c r="M337" s="249"/>
       <c r="P337" s="54"/>
-      <c r="U337" s="448"/>
+      <c r="U337" s="445"/>
       <c r="X337" s="54"/>
-      <c r="AC337" s="448"/>
+      <c r="AC337" s="445"/>
     </row>
     <row r="338" spans="12:29">
       <c r="L338" s="54"/>
       <c r="M338" s="249"/>
       <c r="P338" s="54"/>
-      <c r="U338" s="448"/>
+      <c r="U338" s="445"/>
       <c r="X338" s="54"/>
-      <c r="AC338" s="448"/>
+      <c r="AC338" s="445"/>
     </row>
     <row r="339" spans="12:29">
       <c r="L339" s="54"/>
       <c r="M339" s="249"/>
       <c r="P339" s="54"/>
-      <c r="U339" s="448"/>
+      <c r="U339" s="445"/>
       <c r="X339" s="54"/>
-      <c r="AC339" s="448"/>
+      <c r="AC339" s="445"/>
     </row>
     <row r="340" spans="12:29">
       <c r="L340" s="54"/>
       <c r="M340" s="249"/>
       <c r="P340" s="54"/>
-      <c r="U340" s="448"/>
+      <c r="U340" s="445"/>
       <c r="X340" s="54"/>
-      <c r="AC340" s="448"/>
+      <c r="AC340" s="445"/>
     </row>
     <row r="341" spans="12:29">
       <c r="L341" s="54"/>
       <c r="M341" s="249"/>
       <c r="P341" s="54"/>
-      <c r="U341" s="448"/>
+      <c r="U341" s="445"/>
       <c r="X341" s="54"/>
-      <c r="AC341" s="448"/>
+      <c r="AC341" s="445"/>
     </row>
     <row r="342" spans="12:29">
       <c r="L342" s="54"/>
       <c r="M342" s="249"/>
       <c r="P342" s="54"/>
-      <c r="U342" s="448"/>
+      <c r="U342" s="445"/>
       <c r="X342" s="54"/>
-      <c r="AC342" s="448"/>
+      <c r="AC342" s="445"/>
     </row>
     <row r="343" spans="12:29">
       <c r="L343" s="54"/>
       <c r="M343" s="249"/>
       <c r="P343" s="54"/>
-      <c r="U343" s="448"/>
+      <c r="U343" s="445"/>
       <c r="X343" s="54"/>
-      <c r="AC343" s="448"/>
+      <c r="AC343" s="445"/>
     </row>
     <row r="344" spans="12:29">
       <c r="L344" s="54"/>
       <c r="M344" s="249"/>
       <c r="P344" s="54"/>
-      <c r="U344" s="448"/>
+      <c r="U344" s="445"/>
       <c r="X344" s="54"/>
-      <c r="AC344" s="448"/>
+      <c r="AC344" s="445"/>
     </row>
     <row r="345" spans="12:29">
       <c r="L345" s="54"/>
       <c r="M345" s="249"/>
       <c r="P345" s="54"/>
-      <c r="U345" s="448"/>
+      <c r="U345" s="445"/>
       <c r="X345" s="54"/>
-      <c r="AC345" s="448"/>
+      <c r="AC345" s="445"/>
     </row>
     <row r="346" spans="12:29">
       <c r="L346" s="54"/>
       <c r="M346" s="249"/>
       <c r="P346" s="54"/>
-      <c r="U346" s="448"/>
+      <c r="U346" s="445"/>
       <c r="X346" s="54"/>
-      <c r="AC346" s="448"/>
+      <c r="AC346" s="445"/>
     </row>
     <row r="347" spans="12:29">
       <c r="L347" s="54"/>
       <c r="M347" s="249"/>
       <c r="P347" s="54"/>
-      <c r="U347" s="448"/>
+      <c r="U347" s="445"/>
       <c r="X347" s="54"/>
-      <c r="AC347" s="448"/>
+      <c r="AC347" s="445"/>
     </row>
     <row r="348" spans="12:29">
       <c r="L348" s="54"/>
       <c r="M348" s="249"/>
       <c r="P348" s="54"/>
-      <c r="U348" s="448"/>
+      <c r="U348" s="445"/>
       <c r="X348" s="54"/>
-      <c r="AC348" s="448"/>
+      <c r="AC348" s="445"/>
     </row>
     <row r="349" spans="12:29">
       <c r="L349" s="54"/>
       <c r="M349" s="249"/>
       <c r="P349" s="54"/>
-      <c r="U349" s="448"/>
+      <c r="U349" s="445"/>
       <c r="X349" s="54"/>
-      <c r="AC349" s="448"/>
+      <c r="AC349" s="445"/>
     </row>
     <row r="350" spans="12:29">
       <c r="L350" s="54"/>
       <c r="M350" s="249"/>
       <c r="P350" s="54"/>
-      <c r="U350" s="448"/>
+      <c r="U350" s="445"/>
       <c r="X350" s="54"/>
-      <c r="AC350" s="448"/>
+      <c r="AC350" s="445"/>
     </row>
     <row r="351" spans="12:29">
       <c r="L351" s="54"/>
       <c r="M351" s="249"/>
       <c r="P351" s="54"/>
-      <c r="U351" s="448"/>
+      <c r="U351" s="445"/>
       <c r="X351" s="54"/>
-      <c r="AC351" s="448"/>
+      <c r="AC351" s="445"/>
     </row>
     <row r="352" spans="12:29">
       <c r="L352" s="54"/>
       <c r="M352" s="249"/>
       <c r="P352" s="54"/>
-      <c r="U352" s="448"/>
+      <c r="U352" s="445"/>
       <c r="X352" s="54"/>
-      <c r="AC352" s="448"/>
+      <c r="AC352" s="445"/>
     </row>
     <row r="353" spans="12:29">
       <c r="L353" s="54"/>
       <c r="M353" s="249"/>
       <c r="P353" s="54"/>
-      <c r="U353" s="448"/>
+      <c r="U353" s="445"/>
       <c r="X353" s="54"/>
-      <c r="AC353" s="448"/>
+      <c r="AC353" s="445"/>
     </row>
     <row r="354" spans="12:29">
       <c r="L354" s="54"/>
       <c r="M354" s="249"/>
       <c r="P354" s="54"/>
-      <c r="U354" s="448"/>
+      <c r="U354" s="445"/>
       <c r="X354" s="54"/>
-      <c r="AC354" s="448"/>
+      <c r="AC354" s="445"/>
     </row>
     <row r="355" spans="12:29">
       <c r="L355" s="54"/>
       <c r="M355" s="249"/>
       <c r="P355" s="54"/>
-      <c r="U355" s="448"/>
+      <c r="U355" s="445"/>
       <c r="X355" s="54"/>
-      <c r="AC355" s="448"/>
+      <c r="AC355" s="445"/>
     </row>
     <row r="356" spans="12:29">
       <c r="L356" s="54"/>
       <c r="M356" s="249"/>
       <c r="P356" s="54"/>
-      <c r="U356" s="448"/>
+      <c r="U356" s="445"/>
       <c r="X356" s="54"/>
-      <c r="AC356" s="448"/>
+      <c r="AC356" s="445"/>
     </row>
     <row r="357" spans="12:29">
       <c r="L357" s="54"/>
       <c r="M357" s="249"/>
       <c r="P357" s="54"/>
-      <c r="U357" s="448"/>
+      <c r="U357" s="445"/>
       <c r="X357" s="54"/>
-      <c r="AC357" s="448"/>
+      <c r="AC357" s="445"/>
     </row>
     <row r="358" spans="12:29">
       <c r="L358" s="54"/>
       <c r="M358" s="249"/>
       <c r="P358" s="54"/>
-      <c r="U358" s="448"/>
+      <c r="U358" s="445"/>
       <c r="X358" s="54"/>
-      <c r="AC358" s="448"/>
+      <c r="AC358" s="445"/>
     </row>
     <row r="359" spans="12:29">
       <c r="L359" s="54"/>
       <c r="M359" s="249"/>
       <c r="P359" s="54"/>
-      <c r="U359" s="448"/>
+      <c r="U359" s="445"/>
       <c r="X359" s="54"/>
-      <c r="AC359" s="448"/>
+      <c r="AC359" s="445"/>
     </row>
     <row r="360" spans="12:29">
       <c r="L360" s="54"/>
       <c r="M360" s="249"/>
       <c r="P360" s="54"/>
-      <c r="U360" s="448"/>
+      <c r="U360" s="445"/>
       <c r="X360" s="54"/>
-      <c r="AC360" s="448"/>
+      <c r="AC360" s="445"/>
     </row>
     <row r="361" spans="12:29">
       <c r="L361" s="54"/>
       <c r="M361" s="249"/>
       <c r="P361" s="54"/>
-      <c r="U361" s="448"/>
+      <c r="U361" s="445"/>
       <c r="X361" s="54"/>
-      <c r="AC361" s="448"/>
+      <c r="AC361" s="445"/>
     </row>
     <row r="362" spans="12:29">
       <c r="L362" s="54"/>
       <c r="M362" s="249"/>
       <c r="P362" s="54"/>
-      <c r="U362" s="448"/>
+      <c r="U362" s="445"/>
       <c r="X362" s="54"/>
-      <c r="AC362" s="448"/>
+      <c r="AC362" s="445"/>
     </row>
     <row r="363" spans="12:29">
       <c r="L363" s="54"/>
       <c r="M363" s="249"/>
       <c r="P363" s="54"/>
-      <c r="U363" s="448"/>
+      <c r="U363" s="445"/>
       <c r="X363" s="54"/>
-      <c r="AC363" s="448"/>
+      <c r="AC363" s="445"/>
     </row>
     <row r="364" spans="12:29">
       <c r="L364" s="54"/>
       <c r="M364" s="249"/>
       <c r="P364" s="54"/>
-      <c r="U364" s="448"/>
+      <c r="U364" s="445"/>
       <c r="X364" s="54"/>
-      <c r="AC364" s="448"/>
+      <c r="AC364" s="445"/>
     </row>
     <row r="365" spans="12:29">
       <c r="L365" s="54"/>
       <c r="M365" s="249"/>
       <c r="P365" s="54"/>
-      <c r="U365" s="448"/>
+      <c r="U365" s="445"/>
       <c r="X365" s="54"/>
-      <c r="AC365" s="448"/>
+      <c r="AC365" s="445"/>
     </row>
     <row r="366" spans="12:29">
       <c r="L366" s="54"/>
       <c r="M366" s="249"/>
       <c r="P366" s="54"/>
-      <c r="U366" s="448"/>
+      <c r="U366" s="445"/>
       <c r="X366" s="54"/>
-      <c r="AC366" s="448"/>
+      <c r="AC366" s="445"/>
     </row>
     <row r="367" spans="12:29">
       <c r="L367" s="54"/>
       <c r="M367" s="249"/>
       <c r="P367" s="54"/>
-      <c r="U367" s="448"/>
+      <c r="U367" s="445"/>
       <c r="X367" s="54"/>
-      <c r="AC367" s="448"/>
+      <c r="AC367" s="445"/>
     </row>
     <row r="368" spans="12:29">
       <c r="L368" s="54"/>
       <c r="M368" s="249"/>
       <c r="P368" s="54"/>
-      <c r="U368" s="448"/>
+      <c r="U368" s="445"/>
       <c r="X368" s="54"/>
-      <c r="AC368" s="448"/>
+      <c r="AC368" s="445"/>
     </row>
     <row r="369" spans="12:29">
       <c r="L369" s="54"/>
       <c r="M369" s="249"/>
       <c r="P369" s="54"/>
-      <c r="U369" s="448"/>
+      <c r="U369" s="445"/>
       <c r="X369" s="54"/>
-      <c r="AC369" s="448"/>
+      <c r="AC369" s="445"/>
     </row>
     <row r="370" spans="12:29">
       <c r="L370" s="54"/>
       <c r="M370" s="249"/>
       <c r="P370" s="54"/>
-      <c r="U370" s="448"/>
+      <c r="U370" s="445"/>
       <c r="X370" s="54"/>
-      <c r="AC370" s="448"/>
+      <c r="AC370" s="445"/>
     </row>
     <row r="371" spans="12:29">
       <c r="L371" s="54"/>
       <c r="M371" s="249"/>
       <c r="P371" s="54"/>
-      <c r="U371" s="448"/>
+      <c r="U371" s="445"/>
       <c r="X371" s="54"/>
-      <c r="AC371" s="448"/>
+      <c r="AC371" s="445"/>
     </row>
     <row r="372" spans="12:29">
       <c r="L372" s="54"/>
       <c r="M372" s="249"/>
       <c r="P372" s="54"/>
-      <c r="U372" s="448"/>
+      <c r="U372" s="445"/>
       <c r="X372" s="54"/>
-      <c r="AC372" s="448"/>
+      <c r="AC372" s="445"/>
     </row>
     <row r="373" spans="12:29">
       <c r="L373" s="54"/>
       <c r="M373" s="249"/>
       <c r="P373" s="54"/>
-      <c r="U373" s="448"/>
+      <c r="U373" s="445"/>
       <c r="X373" s="54"/>
-      <c r="AC373" s="448"/>
+      <c r="AC373" s="445"/>
     </row>
     <row r="374" spans="12:29">
       <c r="L374" s="54"/>
       <c r="M374" s="249"/>
       <c r="P374" s="54"/>
-      <c r="U374" s="448"/>
+      <c r="U374" s="445"/>
       <c r="X374" s="54"/>
-      <c r="AC374" s="448"/>
+      <c r="AC374" s="445"/>
     </row>
     <row r="375" spans="12:29">
       <c r="L375" s="54"/>
       <c r="M375" s="249"/>
       <c r="P375" s="54"/>
-      <c r="U375" s="448"/>
+      <c r="U375" s="445"/>
       <c r="X375" s="54"/>
-      <c r="AC375" s="448"/>
+      <c r="AC375" s="445"/>
     </row>
     <row r="376" spans="12:29">
       <c r="L376" s="54"/>
       <c r="M376" s="249"/>
       <c r="P376" s="54"/>
-      <c r="U376" s="448"/>
+      <c r="U376" s="445"/>
       <c r="X376" s="54"/>
-      <c r="AC376" s="448"/>
+      <c r="AC376" s="445"/>
     </row>
     <row r="377" spans="12:29">
       <c r="L377" s="54"/>
       <c r="M377" s="249"/>
       <c r="P377" s="54"/>
-      <c r="U377" s="448"/>
+      <c r="U377" s="445"/>
       <c r="X377" s="54"/>
-      <c r="AC377" s="448"/>
+      <c r="AC377" s="445"/>
     </row>
     <row r="378" spans="12:29">
       <c r="L378" s="54"/>
       <c r="M378" s="249"/>
       <c r="P378" s="54"/>
-      <c r="U378" s="448"/>
+      <c r="U378" s="445"/>
       <c r="X378" s="54"/>
-      <c r="AC378" s="448"/>
+      <c r="AC378" s="445"/>
     </row>
     <row r="379" spans="12:29">
       <c r="L379" s="54"/>
       <c r="M379" s="249"/>
       <c r="P379" s="54"/>
-      <c r="U379" s="448"/>
+      <c r="U379" s="445"/>
       <c r="X379" s="54"/>
-      <c r="AC379" s="448"/>
+      <c r="AC379" s="445"/>
     </row>
     <row r="380" spans="12:29">
       <c r="L380" s="54"/>
       <c r="M380" s="249"/>
       <c r="P380" s="54"/>
-      <c r="U380" s="448"/>
+      <c r="U380" s="445"/>
       <c r="X380" s="54"/>
-      <c r="AC380" s="448"/>
+      <c r="AC380" s="445"/>
     </row>
     <row r="381" spans="12:29">
       <c r="L381" s="54"/>
       <c r="M381" s="249"/>
       <c r="P381" s="54"/>
-      <c r="U381" s="448"/>
+      <c r="U381" s="445"/>
       <c r="X381" s="54"/>
-      <c r="AC381" s="448"/>
+      <c r="AC381" s="445"/>
     </row>
     <row r="382" spans="12:29">
       <c r="L382" s="54"/>
       <c r="M382" s="249"/>
       <c r="P382" s="54"/>
-      <c r="U382" s="448"/>
+      <c r="U382" s="445"/>
       <c r="X382" s="54"/>
-      <c r="AC382" s="448"/>
+      <c r="AC382" s="445"/>
     </row>
     <row r="383" spans="12:29">
       <c r="L383" s="54"/>
       <c r="M383" s="249"/>
       <c r="P383" s="54"/>
-      <c r="U383" s="448"/>
+      <c r="U383" s="445"/>
       <c r="X383" s="54"/>
-      <c r="AC383" s="448"/>
+      <c r="AC383" s="445"/>
     </row>
     <row r="384" spans="12:29">
       <c r="L384" s="54"/>
       <c r="M384" s="249"/>
       <c r="P384" s="54"/>
-      <c r="U384" s="448"/>
+      <c r="U384" s="445"/>
       <c r="X384" s="54"/>
-      <c r="AC384" s="448"/>
+      <c r="AC384" s="445"/>
     </row>
     <row r="385" spans="12:29">
       <c r="L385" s="54"/>
       <c r="M385" s="249"/>
       <c r="P385" s="54"/>
-      <c r="U385" s="448"/>
+      <c r="U385" s="445"/>
       <c r="X385" s="54"/>
-      <c r="AC385" s="448"/>
+      <c r="AC385" s="445"/>
     </row>
     <row r="386" spans="12:29">
       <c r="L386" s="54"/>
       <c r="M386" s="249"/>
       <c r="P386" s="54"/>
-      <c r="U386" s="448"/>
+      <c r="U386" s="445"/>
       <c r="X386" s="54"/>
-      <c r="AC386" s="448"/>
+      <c r="AC386" s="445"/>
     </row>
     <row r="387" spans="12:29">
       <c r="L387" s="54"/>
       <c r="M387" s="249"/>
       <c r="P387" s="54"/>
-      <c r="U387" s="448"/>
+      <c r="U387" s="445"/>
       <c r="X387" s="54"/>
-      <c r="AC387" s="448"/>
+      <c r="AC387" s="445"/>
     </row>
     <row r="388" spans="12:29">
       <c r="L388" s="54"/>
       <c r="M388" s="249"/>
       <c r="P388" s="54"/>
-      <c r="U388" s="448"/>
+      <c r="U388" s="445"/>
       <c r="X388" s="54"/>
-      <c r="AC388" s="448"/>
+      <c r="AC388" s="445"/>
     </row>
     <row r="389" spans="12:29">
       <c r="L389" s="54"/>
       <c r="M389" s="249"/>
       <c r="P389" s="54"/>
-      <c r="U389" s="448"/>
+      <c r="U389" s="445"/>
       <c r="X389" s="54"/>
-      <c r="AC389" s="448"/>
+      <c r="AC389" s="445"/>
     </row>
     <row r="390" spans="12:29">
       <c r="L390" s="54"/>
       <c r="M390" s="249"/>
       <c r="P390" s="54"/>
-      <c r="U390" s="448"/>
+      <c r="U390" s="445"/>
       <c r="X390" s="54"/>
-      <c r="AC390" s="448"/>
+      <c r="AC390" s="445"/>
     </row>
     <row r="391" spans="12:29">
       <c r="L391" s="54"/>
       <c r="M391" s="249"/>
       <c r="P391" s="54"/>
-      <c r="U391" s="448"/>
+      <c r="U391" s="445"/>
       <c r="X391" s="54"/>
-      <c r="AC391" s="448"/>
+      <c r="AC391" s="445"/>
     </row>
     <row r="392" spans="12:29">
       <c r="L392" s="54"/>
       <c r="M392" s="249"/>
       <c r="P392" s="54"/>
-      <c r="U392" s="448"/>
+      <c r="U392" s="445"/>
       <c r="X392" s="54"/>
-      <c r="AC392" s="448"/>
+      <c r="AC392" s="445"/>
     </row>
     <row r="393" spans="12:29">
       <c r="L393" s="54"/>
       <c r="M393" s="249"/>
       <c r="P393" s="54"/>
-      <c r="U393" s="448"/>
+      <c r="U393" s="445"/>
       <c r="X393" s="54"/>
-      <c r="AC393" s="448"/>
+      <c r="AC393" s="445"/>
     </row>
     <row r="394" spans="12:29">
       <c r="L394" s="54"/>
       <c r="M394" s="249"/>
       <c r="P394" s="54"/>
-      <c r="U394" s="448"/>
+      <c r="U394" s="445"/>
       <c r="X394" s="54"/>
-      <c r="AC394" s="448"/>
+      <c r="AC394" s="445"/>
     </row>
     <row r="395" spans="12:29">
       <c r="L395" s="54"/>
       <c r="M395" s="249"/>
       <c r="P395" s="54"/>
-      <c r="U395" s="448"/>
+      <c r="U395" s="445"/>
       <c r="X395" s="54"/>
-      <c r="AC395" s="448"/>
+      <c r="AC395" s="445"/>
     </row>
     <row r="396" spans="12:29">
       <c r="L396" s="54"/>
       <c r="M396" s="249"/>
       <c r="P396" s="54"/>
-      <c r="U396" s="448"/>
+      <c r="U396" s="445"/>
       <c r="X396" s="54"/>
-      <c r="AC396" s="448"/>
+      <c r="AC396" s="445"/>
     </row>
     <row r="397" spans="12:29">
       <c r="L397" s="54"/>
       <c r="M397" s="249"/>
       <c r="P397" s="54"/>
-      <c r="U397" s="448"/>
+      <c r="U397" s="445"/>
       <c r="X397" s="54"/>
-      <c r="AC397" s="448"/>
+      <c r="AC397" s="445"/>
     </row>
     <row r="398" spans="12:29">
       <c r="L398" s="54"/>
       <c r="M398" s="249"/>
       <c r="P398" s="54"/>
-      <c r="U398" s="448"/>
+      <c r="U398" s="445"/>
       <c r="X398" s="54"/>
-      <c r="AC398" s="448"/>
+      <c r="AC398" s="445"/>
     </row>
     <row r="399" spans="12:29">
       <c r="L399" s="54"/>
       <c r="M399" s="249"/>
       <c r="P399" s="54"/>
-      <c r="U399" s="448"/>
+      <c r="U399" s="445"/>
       <c r="X399" s="54"/>
-      <c r="AC399" s="448"/>
+      <c r="AC399" s="445"/>
     </row>
     <row r="400" spans="12:29">
       <c r="L400" s="54"/>
       <c r="M400" s="249"/>
       <c r="P400" s="54"/>
-      <c r="U400" s="448"/>
+      <c r="U400" s="445"/>
       <c r="X400" s="54"/>
-      <c r="AC400" s="448"/>
+      <c r="AC400" s="445"/>
     </row>
     <row r="401" spans="12:29">
       <c r="L401" s="54"/>
       <c r="M401" s="249"/>
       <c r="P401" s="54"/>
-      <c r="U401" s="448"/>
+      <c r="U401" s="445"/>
       <c r="X401" s="54"/>
-      <c r="AC401" s="448"/>
+      <c r="AC401" s="445"/>
     </row>
     <row r="402" spans="12:29">
       <c r="L402" s="54"/>
       <c r="M402" s="249"/>
       <c r="P402" s="54"/>
-      <c r="U402" s="448"/>
+      <c r="U402" s="445"/>
       <c r="X402" s="54"/>
-      <c r="AC402" s="448"/>
+      <c r="AC402" s="445"/>
     </row>
     <row r="403" spans="12:29">
       <c r="L403" s="54"/>
       <c r="M403" s="249"/>
       <c r="P403" s="54"/>
-      <c r="U403" s="448"/>
+      <c r="U403" s="445"/>
       <c r="X403" s="54"/>
-      <c r="AC403" s="448"/>
+      <c r="AC403" s="445"/>
     </row>
     <row r="404" spans="12:29">
       <c r="L404" s="54"/>
       <c r="M404" s="249"/>
       <c r="P404" s="54"/>
-      <c r="U404" s="448"/>
+      <c r="U404" s="445"/>
       <c r="X404" s="54"/>
-      <c r="AC404" s="448"/>
+      <c r="AC404" s="445"/>
     </row>
     <row r="405" spans="12:29">
       <c r="L405" s="54"/>
       <c r="M405" s="249"/>
       <c r="P405" s="54"/>
-      <c r="U405" s="448"/>
+      <c r="U405" s="445"/>
       <c r="X405" s="54"/>
-      <c r="AC405" s="448"/>
+      <c r="AC405" s="445"/>
     </row>
     <row r="406" spans="12:29">
       <c r="L406" s="54"/>
       <c r="M406" s="249"/>
       <c r="P406" s="54"/>
-      <c r="U406" s="448"/>
+      <c r="U406" s="445"/>
       <c r="X406" s="54"/>
-      <c r="AC406" s="448"/>
+      <c r="AC406" s="445"/>
     </row>
     <row r="407" spans="12:29">
       <c r="L407" s="54"/>
       <c r="M407" s="249"/>
       <c r="P407" s="54"/>
-      <c r="U407" s="448"/>
+      <c r="U407" s="445"/>
       <c r="X407" s="54"/>
-      <c r="AC407" s="448"/>
+      <c r="AC407" s="445"/>
     </row>
     <row r="408" spans="12:29">
       <c r="L408" s="54"/>
       <c r="M408" s="249"/>
       <c r="P408" s="54"/>
-      <c r="U408" s="448"/>
+      <c r="U408" s="445"/>
       <c r="X408" s="54"/>
-      <c r="AC408" s="448"/>
+      <c r="AC408" s="445"/>
     </row>
     <row r="409" spans="12:29">
       <c r="L409" s="54"/>
       <c r="M409" s="249"/>
       <c r="P409" s="54"/>
-      <c r="U409" s="448"/>
+      <c r="U409" s="445"/>
       <c r="X409" s="54"/>
-      <c r="AC409" s="448"/>
+      <c r="AC409" s="445"/>
     </row>
     <row r="410" spans="12:29">
       <c r="L410" s="54"/>
       <c r="M410" s="249"/>
       <c r="P410" s="54"/>
-      <c r="U410" s="448"/>
+      <c r="U410" s="445"/>
       <c r="X410" s="54"/>
-      <c r="AC410" s="448"/>
+      <c r="AC410" s="445"/>
     </row>
     <row r="411" spans="12:29">
       <c r="L411" s="54"/>
       <c r="M411" s="249"/>
       <c r="P411" s="54"/>
-      <c r="U411" s="448"/>
+      <c r="U411" s="445"/>
       <c r="X411" s="54"/>
-      <c r="AC411" s="448"/>
+      <c r="AC411" s="445"/>
     </row>
     <row r="412" spans="12:29">
       <c r="L412" s="54"/>
       <c r="M412" s="249"/>
       <c r="P412" s="54"/>
-      <c r="U412" s="448"/>
+      <c r="U412" s="445"/>
       <c r="X412" s="54"/>
-      <c r="AC412" s="448"/>
+      <c r="AC412" s="445"/>
     </row>
     <row r="413" spans="12:29">
       <c r="L413" s="54"/>
       <c r="M413" s="249"/>
       <c r="P413" s="54"/>
-      <c r="U413" s="448"/>
+      <c r="U413" s="445"/>
       <c r="X413" s="54"/>
-      <c r="AC413" s="448"/>
+      <c r="AC413" s="445"/>
     </row>
     <row r="414" spans="12:29">
       <c r="L414" s="54"/>
       <c r="M414" s="249"/>
       <c r="P414" s="54"/>
-      <c r="U414" s="448"/>
+      <c r="U414" s="445"/>
       <c r="X414" s="54"/>
-      <c r="AC414" s="448"/>
+      <c r="AC414" s="445"/>
     </row>
     <row r="415" spans="12:29">
       <c r="L415" s="54"/>
       <c r="M415" s="249"/>
       <c r="P415" s="54"/>
-      <c r="U415" s="448"/>
+      <c r="U415" s="445"/>
       <c r="X415" s="54"/>
-      <c r="AC415" s="448"/>
+      <c r="AC415" s="445"/>
     </row>
     <row r="416" spans="12:29">
       <c r="L416" s="54"/>
       <c r="M416" s="249"/>
       <c r="P416" s="54"/>
-      <c r="U416" s="448"/>
+      <c r="U416" s="445"/>
       <c r="X416" s="54"/>
-      <c r="AC416" s="448"/>
+      <c r="AC416" s="445"/>
     </row>
     <row r="417" spans="12:29">
       <c r="L417" s="54"/>
       <c r="M417" s="249"/>
       <c r="P417" s="54"/>
-      <c r="U417" s="448"/>
+      <c r="U417" s="445"/>
       <c r="X417" s="54"/>
-      <c r="AC417" s="448"/>
+      <c r="AC417" s="445"/>
     </row>
     <row r="418" spans="12:29">
       <c r="L418" s="54"/>
       <c r="M418" s="249"/>
       <c r="P418" s="54"/>
-      <c r="U418" s="448"/>
+      <c r="U418" s="445"/>
       <c r="X418" s="54"/>
-      <c r="AC418" s="448"/>
+      <c r="AC418" s="445"/>
     </row>
     <row r="419" spans="12:29">
       <c r="L419" s="54"/>
       <c r="M419" s="249"/>
       <c r="P419" s="54"/>
-      <c r="U419" s="448"/>
+      <c r="U419" s="445"/>
       <c r="X419" s="54"/>
-      <c r="AC419" s="448"/>
+      <c r="AC419" s="445"/>
     </row>
     <row r="420" spans="12:29">
       <c r="L420" s="54"/>
       <c r="M420" s="249"/>
       <c r="P420" s="54"/>
-      <c r="U420" s="448"/>
+      <c r="U420" s="445"/>
       <c r="X420" s="54"/>
-      <c r="AC420" s="448"/>
+      <c r="AC420" s="445"/>
     </row>
     <row r="421" spans="12:29">
       <c r="L421" s="54"/>
       <c r="M421" s="249"/>
       <c r="P421" s="54"/>
-      <c r="U421" s="448"/>
+      <c r="U421" s="445"/>
       <c r="X421" s="54"/>
-      <c r="AC421" s="448"/>
+      <c r="AC421" s="445"/>
     </row>
     <row r="422" spans="12:29">
       <c r="L422" s="54"/>
       <c r="M422" s="249"/>
       <c r="P422" s="54"/>
-      <c r="U422" s="448"/>
+      <c r="U422" s="445"/>
       <c r="X422" s="54"/>
-      <c r="AC422" s="448"/>
+      <c r="AC422" s="445"/>
     </row>
     <row r="423" spans="12:29">
       <c r="L423" s="54"/>
       <c r="M423" s="249"/>
       <c r="P423" s="54"/>
-      <c r="U423" s="448"/>
+      <c r="U423" s="445"/>
       <c r="X423" s="54"/>
-      <c r="AC423" s="448"/>
+      <c r="AC423" s="445"/>
     </row>
     <row r="424" spans="12:29">
       <c r="L424" s="54"/>
       <c r="M424" s="249"/>
       <c r="P424" s="54"/>
-      <c r="U424" s="448"/>
+      <c r="U424" s="445"/>
       <c r="X424" s="54"/>
-      <c r="AC424" s="448"/>
+      <c r="AC424" s="445"/>
     </row>
     <row r="425" spans="12:29">
       <c r="L425" s="54"/>
       <c r="M425" s="249"/>
       <c r="P425" s="54"/>
-      <c r="U425" s="448"/>
+      <c r="U425" s="445"/>
       <c r="X425" s="54"/>
-      <c r="AC425" s="448"/>
+      <c r="AC425" s="445"/>
     </row>
     <row r="426" spans="12:29">
       <c r="L426" s="54"/>
       <c r="M426" s="249"/>
       <c r="P426" s="54"/>
-      <c r="U426" s="448"/>
+      <c r="U426" s="445"/>
       <c r="X426" s="54"/>
-      <c r="AC426" s="448"/>
+      <c r="AC426" s="445"/>
     </row>
     <row r="427" spans="12:29">
       <c r="L427" s="54"/>
       <c r="M427" s="249"/>
       <c r="P427" s="54"/>
-      <c r="U427" s="448"/>
+      <c r="U427" s="445"/>
       <c r="X427" s="54"/>
-      <c r="AC427" s="448"/>
+      <c r="AC427" s="445"/>
     </row>
     <row r="428" spans="12:29">
       <c r="L428" s="54"/>
       <c r="M428" s="249"/>
       <c r="P428" s="54"/>
-      <c r="U428" s="448"/>
+      <c r="U428" s="445"/>
       <c r="X428" s="54"/>
-      <c r="AC428" s="448"/>
+      <c r="AC428" s="445"/>
     </row>
     <row r="429" spans="12:29">
       <c r="L429" s="54"/>
       <c r="M429" s="249"/>
       <c r="P429" s="54"/>
-      <c r="U429" s="448"/>
+      <c r="U429" s="445"/>
       <c r="X429" s="54"/>
-      <c r="AC429" s="448"/>
+      <c r="AC429" s="445"/>
     </row>
     <row r="430" spans="12:29">
       <c r="L430" s="54"/>
       <c r="M430" s="249"/>
       <c r="P430" s="54"/>
-      <c r="U430" s="448"/>
+      <c r="U430" s="445"/>
       <c r="X430" s="54"/>
-      <c r="AC430" s="448"/>
+      <c r="AC430" s="445"/>
     </row>
     <row r="431" spans="12:29">
       <c r="L431" s="54"/>
       <c r="M431" s="249"/>
       <c r="P431" s="54"/>
-      <c r="U431" s="448"/>
+      <c r="U431" s="445"/>
       <c r="X431" s="54"/>
-      <c r="AC431" s="448"/>
+      <c r="AC431" s="445"/>
     </row>
     <row r="432" spans="12:29">
       <c r="L432" s="54"/>
       <c r="M432" s="249"/>
       <c r="P432" s="54"/>
-      <c r="U432" s="448"/>
+      <c r="U432" s="445"/>
       <c r="X432" s="54"/>
-      <c r="AC432" s="448"/>
+      <c r="AC432" s="445"/>
     </row>
     <row r="433" spans="12:29">
       <c r="L433" s="54"/>
       <c r="M433" s="249"/>
       <c r="P433" s="54"/>
-      <c r="U433" s="448"/>
+      <c r="U433" s="445"/>
       <c r="X433" s="54"/>
-      <c r="AC433" s="448"/>
+      <c r="AC433" s="445"/>
     </row>
     <row r="434" spans="12:29">
       <c r="L434" s="54"/>
       <c r="M434" s="249"/>
       <c r="P434" s="54"/>
-      <c r="U434" s="448"/>
+      <c r="U434" s="445"/>
       <c r="X434" s="54"/>
-      <c r="AC434" s="448"/>
+      <c r="AC434" s="445"/>
     </row>
     <row r="435" spans="12:29">
       <c r="L435" s="54"/>
       <c r="M435" s="249"/>
       <c r="P435" s="54"/>
-      <c r="U435" s="448"/>
+      <c r="U435" s="445"/>
       <c r="X435" s="54"/>
-      <c r="AC435" s="448"/>
+      <c r="AC435" s="445"/>
     </row>
     <row r="436" spans="12:29">
       <c r="L436" s="54"/>
       <c r="M436" s="249"/>
       <c r="P436" s="54"/>
-      <c r="U436" s="448"/>
+      <c r="U436" s="445"/>
       <c r="X436" s="54"/>
-      <c r="AC436" s="448"/>
+      <c r="AC436" s="445"/>
     </row>
     <row r="437" spans="12:29">
       <c r="L437" s="54"/>
       <c r="M437" s="249"/>
       <c r="P437" s="54"/>
-      <c r="U437" s="448"/>
+      <c r="U437" s="445"/>
       <c r="X437" s="54"/>
-      <c r="AC437" s="448"/>
+      <c r="AC437" s="445"/>
     </row>
     <row r="438" spans="12:29">
       <c r="L438" s="54"/>
       <c r="M438" s="249"/>
       <c r="P438" s="54"/>
-      <c r="U438" s="448"/>
+      <c r="U438" s="445"/>
       <c r="X438" s="54"/>
-      <c r="AC438" s="448"/>
+      <c r="AC438" s="445"/>
     </row>
     <row r="439" spans="12:29">
       <c r="L439" s="54"/>
       <c r="M439" s="249"/>
       <c r="P439" s="54"/>
-      <c r="U439" s="448"/>
+      <c r="U439" s="445"/>
       <c r="X439" s="54"/>
-      <c r="AC439" s="448"/>
+      <c r="AC439" s="445"/>
     </row>
     <row r="440" spans="12:29">
       <c r="L440" s="54"/>
       <c r="M440" s="249"/>
       <c r="P440" s="54"/>
-      <c r="U440" s="448"/>
+      <c r="U440" s="445"/>
       <c r="X440" s="54"/>
-      <c r="AC440" s="448"/>
+      <c r="AC440" s="445"/>
     </row>
     <row r="441" spans="12:29">
       <c r="L441" s="54"/>
       <c r="M441" s="249"/>
       <c r="P441" s="54"/>
-      <c r="U441" s="448"/>
+      <c r="U441" s="445"/>
       <c r="X441" s="54"/>
-      <c r="AC441" s="448"/>
+      <c r="AC441" s="445"/>
     </row>
     <row r="442" spans="12:29">
       <c r="L442" s="54"/>
       <c r="M442" s="249"/>
       <c r="P442" s="54"/>
-      <c r="U442" s="448"/>
+      <c r="U442" s="445"/>
       <c r="X442" s="54"/>
-      <c r="AC442" s="448"/>
+      <c r="AC442" s="445"/>
     </row>
     <row r="443" spans="12:29">
       <c r="L443" s="54"/>
       <c r="M443" s="249"/>
       <c r="P443" s="54"/>
-      <c r="U443" s="448"/>
+      <c r="U443" s="445"/>
       <c r="X443" s="54"/>
-      <c r="AC443" s="448"/>
+      <c r="AC443" s="445"/>
     </row>
     <row r="444" spans="12:29">
       <c r="L444" s="54"/>
       <c r="M444" s="249"/>
       <c r="P444" s="54"/>
-      <c r="U444" s="448"/>
+      <c r="U444" s="445"/>
       <c r="X444" s="54"/>
-      <c r="AC444" s="448"/>
+      <c r="AC444" s="445"/>
     </row>
     <row r="445" spans="12:29">
       <c r="L445" s="54"/>
       <c r="M445" s="249"/>
       <c r="P445" s="54"/>
-      <c r="U445" s="448"/>
+      <c r="U445" s="445"/>
       <c r="X445" s="54"/>
-      <c r="AC445" s="448"/>
+      <c r="AC445" s="445"/>
     </row>
     <row r="446" spans="12:29">
       <c r="L446" s="54"/>
       <c r="M446" s="249"/>
       <c r="P446" s="54"/>
-      <c r="U446" s="448"/>
+      <c r="U446" s="445"/>
       <c r="X446" s="54"/>
-      <c r="AC446" s="448"/>
+      <c r="AC446" s="445"/>
     </row>
     <row r="447" spans="12:29">
       <c r="L447" s="54"/>
       <c r="M447" s="249"/>
       <c r="P447" s="54"/>
-      <c r="U447" s="448"/>
+      <c r="U447" s="445"/>
       <c r="X447" s="54"/>
-      <c r="AC447" s="448"/>
+      <c r="AC447" s="445"/>
     </row>
     <row r="448" spans="12:29">
       <c r="L448" s="54"/>
       <c r="M448" s="249"/>
       <c r="P448" s="54"/>
-      <c r="U448" s="448"/>
+      <c r="U448" s="445"/>
       <c r="X448" s="54"/>
-      <c r="AC448" s="448"/>
+      <c r="AC448" s="445"/>
     </row>
     <row r="449" spans="12:29">
       <c r="L449" s="54"/>
       <c r="M449" s="249"/>
       <c r="P449" s="54"/>
-      <c r="U449" s="448"/>
+      <c r="U449" s="445"/>
       <c r="X449" s="54"/>
-      <c r="AC449" s="448"/>
+      <c r="AC449" s="445"/>
     </row>
     <row r="450" spans="12:29">
       <c r="L450" s="54"/>
       <c r="M450" s="249"/>
       <c r="P450" s="54"/>
-      <c r="U450" s="448"/>
+      <c r="U450" s="445"/>
       <c r="X450" s="54"/>
-      <c r="AC450" s="448"/>
+      <c r="AC450" s="445"/>
     </row>
     <row r="451" spans="12:29">
       <c r="L451" s="54"/>
       <c r="M451" s="249"/>
       <c r="P451" s="54"/>
-      <c r="U451" s="448"/>
+      <c r="U451" s="445"/>
       <c r="X451" s="54"/>
-      <c r="AC451" s="448"/>
+      <c r="AC451" s="445"/>
     </row>
     <row r="452" spans="12:29">
       <c r="L452" s="54"/>
       <c r="M452" s="249"/>
       <c r="P452" s="54"/>
-      <c r="U452" s="448"/>
+      <c r="U452" s="445"/>
       <c r="X452" s="54"/>
-      <c r="AC452" s="448"/>
+      <c r="AC452" s="445"/>
     </row>
     <row r="453" spans="12:29">
       <c r="L453" s="54"/>
       <c r="M453" s="249"/>
       <c r="P453" s="54"/>
-      <c r="U453" s="448"/>
+      <c r="U453" s="445"/>
       <c r="X453" s="54"/>
-      <c r="AC453" s="448"/>
+      <c r="AC453" s="445"/>
     </row>
     <row r="454" spans="12:29">
       <c r="L454" s="54"/>
       <c r="M454" s="249"/>
       <c r="P454" s="54"/>
-      <c r="U454" s="448"/>
+      <c r="U454" s="445"/>
       <c r="X454" s="54"/>
-      <c r="AC454" s="448"/>
+      <c r="AC454" s="445"/>
     </row>
     <row r="455" spans="12:29">
       <c r="L455" s="54"/>
       <c r="M455" s="249"/>
       <c r="P455" s="54"/>
-      <c r="U455" s="448"/>
+      <c r="U455" s="445"/>
       <c r="X455" s="54"/>
-      <c r="AC455" s="448"/>
+      <c r="AC455" s="445"/>
     </row>
     <row r="456" spans="12:29">
       <c r="L456" s="54"/>
       <c r="M456" s="249"/>
       <c r="P456" s="54"/>
-      <c r="U456" s="448"/>
+      <c r="U456" s="445"/>
       <c r="X456" s="54"/>
-      <c r="AC456" s="448"/>
+      <c r="AC456" s="445"/>
     </row>
     <row r="457" spans="12:29">
       <c r="L457" s="54"/>
       <c r="M457" s="249"/>
       <c r="P457" s="54"/>
-      <c r="U457" s="448"/>
+      <c r="U457" s="445"/>
       <c r="X457" s="54"/>
-      <c r="AC457" s="448"/>
+      <c r="AC457" s="445"/>
     </row>
     <row r="458" spans="12:29">
       <c r="L458" s="54"/>
       <c r="M458" s="249"/>
       <c r="P458" s="54"/>
-      <c r="U458" s="448"/>
+      <c r="U458" s="445"/>
       <c r="X458" s="54"/>
-      <c r="AC458" s="448"/>
+      <c r="AC458" s="445"/>
     </row>
     <row r="459" spans="12:29">
       <c r="L459" s="54"/>
       <c r="M459" s="249"/>
       <c r="P459" s="54"/>
-      <c r="U459" s="448"/>
+      <c r="U459" s="445"/>
       <c r="X459" s="54"/>
-      <c r="AC459" s="448"/>
+      <c r="AC459" s="445"/>
     </row>
     <row r="460" spans="12:29">
       <c r="L460" s="54"/>
       <c r="M460" s="249"/>
       <c r="P460" s="54"/>
-      <c r="U460" s="448"/>
+      <c r="U460" s="445"/>
       <c r="X460" s="54"/>
-      <c r="AC460" s="448"/>
+      <c r="AC460" s="445"/>
     </row>
     <row r="461" spans="12:29">
       <c r="L461" s="54"/>
       <c r="M461" s="249"/>
       <c r="P461" s="54"/>
-      <c r="U461" s="448"/>
+      <c r="U461" s="445"/>
       <c r="X461" s="54"/>
-      <c r="AC461" s="448"/>
+      <c r="AC461" s="445"/>
     </row>
     <row r="462" spans="12:29">
       <c r="L462" s="54"/>
       <c r="M462" s="249"/>
       <c r="P462" s="54"/>
-      <c r="U462" s="448"/>
+      <c r="U462" s="445"/>
       <c r="X462" s="54"/>
-      <c r="AC462" s="448"/>
+      <c r="AC462" s="445"/>
     </row>
     <row r="463" spans="12:29">
       <c r="L463" s="54"/>
       <c r="M463" s="249"/>
       <c r="P463" s="54"/>
-      <c r="U463" s="448"/>
+      <c r="U463" s="445"/>
       <c r="X463" s="54"/>
-      <c r="AC463" s="448"/>
+      <c r="AC463" s="445"/>
     </row>
     <row r="464" spans="12:29">
       <c r="L464" s="54"/>
       <c r="M464" s="249"/>
       <c r="P464" s="54"/>
-      <c r="U464" s="448"/>
+      <c r="U464" s="445"/>
       <c r="X464" s="54"/>
-      <c r="AC464" s="448"/>
+      <c r="AC464" s="445"/>
     </row>
     <row r="465" spans="12:29">
       <c r="L465" s="54"/>
       <c r="M465" s="249"/>
       <c r="P465" s="54"/>
-      <c r="U465" s="448"/>
+      <c r="U465" s="445"/>
       <c r="X465" s="54"/>
-      <c r="AC465" s="448"/>
+      <c r="AC465" s="445"/>
     </row>
     <row r="466" spans="12:29">
       <c r="L466" s="54"/>
       <c r="M466" s="249"/>
       <c r="P466" s="54"/>
-      <c r="U466" s="448"/>
+      <c r="U466" s="445"/>
       <c r="X466" s="54"/>
-      <c r="AC466" s="448"/>
+      <c r="AC466" s="445"/>
     </row>
     <row r="467" spans="12:29">
       <c r="L467" s="54"/>
       <c r="M467" s="249"/>
       <c r="P467" s="54"/>
-      <c r="U467" s="448"/>
+      <c r="U467" s="445"/>
       <c r="X467" s="54"/>
-      <c r="AC467" s="448"/>
+      <c r="AC467" s="445"/>
     </row>
     <row r="468" spans="12:29">
       <c r="L468" s="54"/>
       <c r="M468" s="249"/>
       <c r="P468" s="54"/>
-      <c r="U468" s="448"/>
+      <c r="U468" s="445"/>
       <c r="X468" s="54"/>
-      <c r="AC468" s="448"/>
+      <c r="AC468" s="445"/>
     </row>
     <row r="469" spans="12:29">
       <c r="L469" s="54"/>
       <c r="M469" s="249"/>
       <c r="P469" s="54"/>
-      <c r="U469" s="448"/>
+      <c r="U469" s="445"/>
       <c r="X469" s="54"/>
-      <c r="AC469" s="448"/>
+      <c r="AC469" s="445"/>
     </row>
     <row r="470" spans="12:29">
       <c r="L470" s="54"/>
       <c r="M470" s="249"/>
       <c r="P470" s="54"/>
-      <c r="U470" s="448"/>
+      <c r="U470" s="445"/>
       <c r="X470" s="54"/>
-      <c r="AC470" s="448"/>
+      <c r="AC470" s="445"/>
     </row>
     <row r="471" spans="12:29">
       <c r="L471" s="54"/>
       <c r="M471" s="249"/>
       <c r="P471" s="54"/>
-      <c r="U471" s="448"/>
+      <c r="U471" s="445"/>
       <c r="X471" s="54"/>
-      <c r="AC471" s="448"/>
+      <c r="AC471" s="445"/>
     </row>
     <row r="472" spans="12:29">
       <c r="L472" s="54"/>
       <c r="M472" s="249"/>
       <c r="P472" s="54"/>
-      <c r="U472" s="448"/>
+      <c r="U472" s="445"/>
       <c r="X472" s="54"/>
-      <c r="AC472" s="448"/>
+      <c r="AC472" s="445"/>
     </row>
     <row r="473" spans="12:29">
       <c r="L473" s="54"/>
       <c r="M473" s="249"/>
       <c r="P473" s="54"/>
-      <c r="U473" s="448"/>
+      <c r="U473" s="445"/>
       <c r="X473" s="54"/>
-      <c r="AC473" s="448"/>
+      <c r="AC473" s="445"/>
     </row>
     <row r="474" spans="12:29">
       <c r="L474" s="54"/>
       <c r="M474" s="249"/>
       <c r="P474" s="54"/>
-      <c r="U474" s="448"/>
+      <c r="U474" s="445"/>
       <c r="X474" s="54"/>
-      <c r="AC474" s="448"/>
+      <c r="AC474" s="445"/>
     </row>
     <row r="475" spans="12:29">
       <c r="L475" s="54"/>
       <c r="M475" s="249"/>
       <c r="P475" s="54"/>
-      <c r="U475" s="448"/>
+      <c r="U475" s="445"/>
       <c r="X475" s="54"/>
-      <c r="AC475" s="448"/>
+      <c r="AC475" s="445"/>
     </row>
     <row r="476" spans="12:29">
       <c r="L476" s="54"/>
       <c r="M476" s="249"/>
       <c r="P476" s="54"/>
-      <c r="U476" s="448"/>
+      <c r="U476" s="445"/>
       <c r="X476" s="54"/>
-      <c r="AC476" s="448"/>
+      <c r="AC476" s="445"/>
     </row>
     <row r="477" spans="12:29">
       <c r="L477" s="54"/>
       <c r="M477" s="249"/>
       <c r="P477" s="54"/>
-      <c r="U477" s="448"/>
+      <c r="U477" s="445"/>
       <c r="X477" s="54"/>
-      <c r="AC477" s="448"/>
+      <c r="AC477" s="445"/>
     </row>
     <row r="478" spans="12:29">
       <c r="L478" s="54"/>
       <c r="M478" s="249"/>
       <c r="P478" s="54"/>
-      <c r="U478" s="448"/>
+      <c r="U478" s="445"/>
       <c r="X478" s="54"/>
-      <c r="AC478" s="448"/>
+      <c r="AC478" s="445"/>
     </row>
     <row r="479" spans="12:29">
       <c r="L479" s="54"/>
       <c r="M479" s="249"/>
       <c r="P479" s="54"/>
-      <c r="U479" s="448"/>
+      <c r="U479" s="445"/>
       <c r="X479" s="54"/>
-      <c r="AC479" s="448"/>
+      <c r="AC479" s="445"/>
     </row>
     <row r="480" spans="12:29">
       <c r="L480" s="54"/>
       <c r="M480" s="249"/>
       <c r="P480" s="54"/>
-      <c r="U480" s="448"/>
+      <c r="U480" s="445"/>
       <c r="X480" s="54"/>
-      <c r="AC480" s="448"/>
+      <c r="AC480" s="445"/>
     </row>
     <row r="481" spans="12:29">
       <c r="L481" s="54"/>
       <c r="M481" s="249"/>
       <c r="P481" s="54"/>
-      <c r="U481" s="448"/>
+      <c r="U481" s="445"/>
       <c r="X481" s="54"/>
-      <c r="AC481" s="448"/>
+      <c r="AC481" s="445"/>
     </row>
     <row r="482" spans="12:29">
       <c r="L482" s="54"/>
       <c r="M482" s="249"/>
       <c r="P482" s="54"/>
-      <c r="U482" s="448"/>
+      <c r="U482" s="445"/>
       <c r="X482" s="54"/>
-      <c r="AC482" s="448"/>
+      <c r="AC482" s="445"/>
     </row>
     <row r="483" spans="12:29">
       <c r="L483" s="54"/>
       <c r="M483" s="249"/>
       <c r="P483" s="54"/>
-      <c r="U483" s="448"/>
+      <c r="U483" s="445"/>
       <c r="X483" s="54"/>
-      <c r="AC483" s="448"/>
+      <c r="AC483" s="445"/>
     </row>
     <row r="484" spans="12:29">
       <c r="L484" s="54"/>
       <c r="M484" s="249"/>
       <c r="P484" s="54"/>
-      <c r="U484" s="448"/>
+      <c r="U484" s="445"/>
       <c r="X484" s="54"/>
-      <c r="AC484" s="448"/>
+      <c r="AC484" s="445"/>
     </row>
     <row r="485" spans="12:29">
       <c r="L485" s="54"/>
       <c r="M485" s="249"/>
       <c r="P485" s="54"/>
-      <c r="U485" s="448"/>
+      <c r="U485" s="445"/>
       <c r="X485" s="54"/>
-      <c r="AC485" s="448"/>
+      <c r="AC485" s="445"/>
     </row>
     <row r="486" spans="12:29">
       <c r="L486" s="54"/>
       <c r="M486" s="249"/>
       <c r="P486" s="54"/>
-      <c r="U486" s="448"/>
+      <c r="U486" s="445"/>
       <c r="X486" s="54"/>
-      <c r="AC486" s="448"/>
+      <c r="AC486" s="445"/>
     </row>
     <row r="487" spans="12:29">
       <c r="L487" s="54"/>
       <c r="M487" s="249"/>
       <c r="P487" s="54"/>
-      <c r="U487" s="448"/>
+      <c r="U487" s="445"/>
       <c r="X487" s="54"/>
-      <c r="AC487" s="448"/>
+      <c r="AC487" s="445"/>
     </row>
     <row r="488" spans="12:29">
       <c r="L488" s="54"/>
       <c r="M488" s="249"/>
       <c r="P488" s="54"/>
-      <c r="U488" s="448"/>
+      <c r="U488" s="445"/>
       <c r="X488" s="54"/>
-      <c r="AC488" s="448"/>
+      <c r="AC488" s="445"/>
     </row>
     <row r="489" spans="12:29">
       <c r="L489" s="54"/>
       <c r="M489" s="249"/>
       <c r="P489" s="54"/>
-      <c r="U489" s="448"/>
+      <c r="U489" s="445"/>
       <c r="X489" s="54"/>
-      <c r="AC489" s="448"/>
+      <c r="AC489" s="445"/>
     </row>
     <row r="490" spans="12:29">
       <c r="L490" s="54"/>
       <c r="M490" s="249"/>
       <c r="P490" s="54"/>
-      <c r="U490" s="448"/>
+      <c r="U490" s="445"/>
       <c r="X490" s="54"/>
-      <c r="AC490" s="448"/>
+      <c r="AC490" s="445"/>
     </row>
     <row r="491" spans="12:29">
       <c r="L491" s="54"/>
       <c r="M491" s="249"/>
       <c r="P491" s="54"/>
-      <c r="U491" s="448"/>
+      <c r="U491" s="445"/>
       <c r="X491" s="54"/>
-      <c r="AC491" s="448"/>
+      <c r="AC491" s="445"/>
     </row>
     <row r="492" spans="12:29">
       <c r="L492" s="54"/>
       <c r="M492" s="249"/>
       <c r="P492" s="54"/>
-      <c r="U492" s="448"/>
+      <c r="U492" s="445"/>
       <c r="X492" s="54"/>
-      <c r="AC492" s="448"/>
+      <c r="AC492" s="445"/>
     </row>
     <row r="493" spans="12:29">
       <c r="L493" s="54"/>
       <c r="M493" s="249"/>
       <c r="P493" s="54"/>
-      <c r="U493" s="448"/>
+      <c r="U493" s="445"/>
       <c r="X493" s="54"/>
-      <c r="AC493" s="448"/>
+      <c r="AC493" s="445"/>
     </row>
     <row r="494" spans="12:29">
       <c r="L494" s="54"/>
       <c r="M494" s="249"/>
       <c r="P494" s="54"/>
-      <c r="U494" s="448"/>
+      <c r="U494" s="445"/>
       <c r="X494" s="54"/>
-      <c r="AC494" s="448"/>
+      <c r="AC494" s="445"/>
     </row>
     <row r="495" spans="12:29">
       <c r="L495" s="54"/>
       <c r="M495" s="249"/>
       <c r="P495" s="54"/>
-      <c r="U495" s="448"/>
+      <c r="U495" s="445"/>
       <c r="X495" s="54"/>
-      <c r="AC495" s="448"/>
+      <c r="AC495" s="445"/>
     </row>
     <row r="496" spans="12:29">
       <c r="L496" s="54"/>
       <c r="M496" s="249"/>
       <c r="P496" s="54"/>
-      <c r="U496" s="448"/>
+      <c r="U496" s="445"/>
       <c r="X496" s="54"/>
-      <c r="AC496" s="448"/>
+      <c r="AC496" s="445"/>
     </row>
     <row r="497" spans="12:29">
       <c r="L497" s="54"/>
       <c r="M497" s="249"/>
       <c r="P497" s="54"/>
-      <c r="U497" s="448"/>
+      <c r="U497" s="445"/>
       <c r="X497" s="54"/>
-      <c r="AC497" s="448"/>
+      <c r="AC497" s="445"/>
     </row>
     <row r="498" spans="12:29">
       <c r="L498" s="54"/>
       <c r="M498" s="249"/>
       <c r="P498" s="54"/>
-      <c r="U498" s="448"/>
+      <c r="U498" s="445"/>
       <c r="X498" s="54"/>
-      <c r="AC498" s="448"/>
+      <c r="AC498" s="445"/>
     </row>
     <row r="499" spans="12:29">
       <c r="L499" s="54"/>
       <c r="M499" s="249"/>
       <c r="P499" s="54"/>
-      <c r="U499" s="448"/>
+      <c r="U499" s="445"/>
       <c r="X499" s="54"/>
-      <c r="AC499" s="448"/>
+      <c r="AC499" s="445"/>
     </row>
     <row r="500" spans="12:29">
       <c r="L500" s="54"/>
       <c r="M500" s="249"/>
       <c r="P500" s="54"/>
-      <c r="U500" s="448"/>
+      <c r="U500" s="445"/>
       <c r="X500" s="54"/>
-      <c r="AC500" s="448"/>
+      <c r="AC500" s="445"/>
     </row>
     <row r="501" spans="12:29">
       <c r="L501" s="54"/>
       <c r="M501" s="249"/>
       <c r="P501" s="54"/>
-      <c r="U501" s="448"/>
+      <c r="U501" s="445"/>
       <c r="X501" s="54"/>
-      <c r="AC501" s="448"/>
+      <c r="AC501" s="445"/>
     </row>
     <row r="502" spans="12:29">
       <c r="L502" s="54"/>
       <c r="M502" s="249"/>
       <c r="P502" s="54"/>
-      <c r="U502" s="448"/>
+      <c r="U502" s="445"/>
       <c r="X502" s="54"/>
-      <c r="AC502" s="448"/>
+      <c r="AC502" s="445"/>
     </row>
     <row r="503" spans="12:29">
       <c r="L503" s="54"/>
       <c r="M503" s="249"/>
       <c r="P503" s="54"/>
-      <c r="U503" s="448"/>
+      <c r="U503" s="445"/>
       <c r="X503" s="54"/>
-      <c r="AC503" s="448"/>
+      <c r="AC503" s="445"/>
     </row>
     <row r="504" spans="12:29">
       <c r="L504" s="54"/>
       <c r="M504" s="249"/>
       <c r="P504" s="54"/>
-      <c r="U504" s="448"/>
+      <c r="U504" s="445"/>
       <c r="X504" s="54"/>
-      <c r="AC504" s="448"/>
+      <c r="AC504" s="445"/>
     </row>
     <row r="505" spans="12:29">
       <c r="L505" s="54"/>
       <c r="M505" s="249"/>
       <c r="P505" s="54"/>
-      <c r="U505" s="448"/>
+      <c r="U505" s="445"/>
       <c r="X505" s="54"/>
-      <c r="AC505" s="448"/>
+      <c r="AC505" s="445"/>
     </row>
     <row r="506" spans="12:29">
       <c r="L506" s="54"/>
       <c r="M506" s="249"/>
       <c r="P506" s="54"/>
-      <c r="U506" s="448"/>
+      <c r="U506" s="445"/>
       <c r="X506" s="54"/>
-      <c r="AC506" s="448"/>
+      <c r="AC506" s="445"/>
     </row>
     <row r="507" spans="12:29">
       <c r="L507" s="54"/>
       <c r="M507" s="249"/>
       <c r="P507" s="54"/>
-      <c r="U507" s="448"/>
+      <c r="U507" s="445"/>
       <c r="X507" s="54"/>
-      <c r="AC507" s="448"/>
+      <c r="AC507" s="445"/>
     </row>
     <row r="508" spans="12:29">
       <c r="L508" s="54"/>
       <c r="M508" s="249"/>
       <c r="P508" s="54"/>
-      <c r="U508" s="448"/>
+      <c r="U508" s="445"/>
       <c r="X508" s="54"/>
-      <c r="AC508" s="448"/>
+      <c r="AC508" s="445"/>
     </row>
     <row r="509" spans="12:29">
       <c r="L509" s="54"/>
       <c r="M509" s="249"/>
       <c r="P509" s="54"/>
-      <c r="U509" s="448"/>
+      <c r="U509" s="445"/>
       <c r="X509" s="54"/>
-      <c r="AC509" s="448"/>
+      <c r="AC509" s="445"/>
     </row>
     <row r="510" spans="12:29">
       <c r="L510" s="54"/>
       <c r="M510" s="249"/>
       <c r="P510" s="54"/>
-      <c r="U510" s="448"/>
+      <c r="U510" s="445"/>
       <c r="X510" s="54"/>
-      <c r="AC510" s="448"/>
+      <c r="AC510" s="445"/>
     </row>
     <row r="511" spans="12:29">
       <c r="L511" s="54"/>
       <c r="M511" s="249"/>
       <c r="P511" s="54"/>
-      <c r="U511" s="448"/>
+      <c r="U511" s="445"/>
       <c r="X511" s="54"/>
-      <c r="AC511" s="448"/>
+      <c r="AC511" s="445"/>
     </row>
     <row r="512" spans="12:29">
       <c r="L512" s="54"/>
       <c r="M512" s="249"/>
       <c r="P512" s="54"/>
-      <c r="U512" s="448"/>
+      <c r="U512" s="445"/>
       <c r="X512" s="54"/>
-      <c r="AC512" s="448"/>
+      <c r="AC512" s="445"/>
     </row>
     <row r="513" spans="12:29">
       <c r="L513" s="54"/>
       <c r="M513" s="249"/>
       <c r="P513" s="54"/>
-      <c r="U513" s="448"/>
+      <c r="U513" s="445"/>
       <c r="X513" s="54"/>
-      <c r="AC513" s="448"/>
+      <c r="AC513" s="445"/>
     </row>
     <row r="514" spans="12:29">
       <c r="L514" s="54"/>
       <c r="M514" s="249"/>
       <c r="P514" s="54"/>
-      <c r="U514" s="448"/>
+      <c r="U514" s="445"/>
       <c r="X514" s="54"/>
-      <c r="AC514" s="448"/>
+      <c r="AC514" s="445"/>
     </row>
     <row r="515" spans="12:29">
       <c r="L515" s="54"/>
       <c r="M515" s="249"/>
       <c r="P515" s="54"/>
-      <c r="U515" s="448"/>
+      <c r="U515" s="445"/>
       <c r="X515" s="54"/>
-      <c r="AC515" s="448"/>
+      <c r="AC515" s="445"/>
     </row>
     <row r="516" spans="12:29">
       <c r="L516" s="54"/>
       <c r="M516" s="249"/>
       <c r="P516" s="54"/>
-      <c r="U516" s="448"/>
+      <c r="U516" s="445"/>
       <c r="X516" s="54"/>
-      <c r="AC516" s="448"/>
+      <c r="AC516" s="445"/>
     </row>
     <row r="517" spans="12:29">
       <c r="L517" s="54"/>
       <c r="M517" s="249"/>
       <c r="P517" s="54"/>
-      <c r="U517" s="448"/>
+      <c r="U517" s="445"/>
       <c r="X517" s="54"/>
-      <c r="AC517" s="448"/>
+      <c r="AC517" s="445"/>
     </row>
     <row r="518" spans="12:29">
       <c r="L518" s="54"/>
       <c r="M518" s="249"/>
       <c r="P518" s="54"/>
-      <c r="U518" s="448"/>
+      <c r="U518" s="445"/>
       <c r="X518" s="54"/>
-      <c r="AC518" s="448"/>
+      <c r="AC518" s="445"/>
     </row>
     <row r="519" spans="12:29">
       <c r="L519" s="54"/>
       <c r="M519" s="249"/>
       <c r="P519" s="54"/>
-      <c r="U519" s="448"/>
+      <c r="U519" s="445"/>
       <c r="X519" s="54"/>
-      <c r="AC519" s="448"/>
+      <c r="AC519" s="445"/>
     </row>
     <row r="520" spans="12:29">
       <c r="L520" s="54"/>
       <c r="M520" s="249"/>
       <c r="P520" s="54"/>
-      <c r="U520" s="448"/>
+      <c r="U520" s="445"/>
       <c r="X520" s="54"/>
-      <c r="AC520" s="448"/>
+      <c r="AC520" s="445"/>
     </row>
     <row r="521" spans="12:29">
       <c r="L521" s="54"/>
       <c r="M521" s="249"/>
       <c r="P521" s="54"/>
-      <c r="U521" s="448"/>
+      <c r="U521" s="445"/>
       <c r="X521" s="54"/>
-      <c r="AC521" s="448"/>
+      <c r="AC521" s="445"/>
     </row>
     <row r="522" spans="12:29">
       <c r="L522" s="54"/>
       <c r="M522" s="249"/>
       <c r="P522" s="54"/>
-      <c r="U522" s="448"/>
+      <c r="U522" s="445"/>
       <c r="X522" s="54"/>
-      <c r="AC522" s="448"/>
+      <c r="AC522" s="445"/>
     </row>
     <row r="523" spans="12:29">
       <c r="L523" s="54"/>
       <c r="M523" s="249"/>
       <c r="P523" s="54"/>
-      <c r="U523" s="448"/>
+      <c r="U523" s="445"/>
       <c r="X523" s="54"/>
-      <c r="AC523" s="448"/>
+      <c r="AC523" s="445"/>
     </row>
     <row r="524" spans="12:29">
       <c r="L524" s="54"/>
       <c r="M524" s="249"/>
       <c r="P524" s="54"/>
-      <c r="U524" s="448"/>
+      <c r="U524" s="445"/>
       <c r="X524" s="54"/>
-      <c r="AC524" s="448"/>
+      <c r="AC524" s="445"/>
     </row>
     <row r="525" spans="12:29">
       <c r="L525" s="54"/>
       <c r="M525" s="249"/>
       <c r="P525" s="54"/>
-      <c r="U525" s="448"/>
+      <c r="U525" s="445"/>
       <c r="X525" s="54"/>
-      <c r="AC525" s="448"/>
+      <c r="AC525" s="445"/>
     </row>
     <row r="526" spans="12:29">
       <c r="L526" s="54"/>
       <c r="M526" s="249"/>
       <c r="P526" s="54"/>
-      <c r="U526" s="448"/>
+      <c r="U526" s="445"/>
       <c r="X526" s="54"/>
-      <c r="AC526" s="448"/>
+      <c r="AC526" s="445"/>
     </row>
     <row r="527" spans="12:29">
       <c r="L527" s="54"/>
       <c r="M527" s="249"/>
       <c r="P527" s="54"/>
-      <c r="U527" s="448"/>
+      <c r="U527" s="445"/>
       <c r="X527" s="54"/>
-      <c r="AC527" s="448"/>
+      <c r="AC527" s="445"/>
     </row>
     <row r="528" spans="12:29">
       <c r="L528" s="54"/>
       <c r="M528" s="249"/>
       <c r="P528" s="54"/>
-      <c r="U528" s="448"/>
+      <c r="U528" s="445"/>
       <c r="X528" s="54"/>
-      <c r="AC528" s="448"/>
+      <c r="AC528" s="445"/>
     </row>
     <row r="529" spans="12:29">
       <c r="L529" s="54"/>
       <c r="M529" s="249"/>
       <c r="P529" s="54"/>
-      <c r="U529" s="448"/>
+      <c r="U529" s="445"/>
       <c r="X529" s="54"/>
-      <c r="AC529" s="448"/>
+      <c r="AC529" s="445"/>
     </row>
     <row r="530" spans="12:29">
       <c r="L530" s="54"/>
       <c r="M530" s="249"/>
       <c r="P530" s="54"/>
-      <c r="U530" s="448"/>
+      <c r="U530" s="445"/>
       <c r="X530" s="54"/>
-      <c r="AC530" s="448"/>
+      <c r="AC530" s="445"/>
     </row>
     <row r="531" spans="12:29">
       <c r="L531" s="54"/>
       <c r="M531" s="249"/>
       <c r="P531" s="54"/>
-      <c r="U531" s="448"/>
+      <c r="U531" s="445"/>
       <c r="X531" s="54"/>
-      <c r="AC531" s="448"/>
+      <c r="AC531" s="445"/>
     </row>
     <row r="532" spans="12:29">
       <c r="L532" s="54"/>
       <c r="M532" s="249"/>
       <c r="P532" s="54"/>
-      <c r="U532" s="448"/>
+      <c r="U532" s="445"/>
       <c r="X532" s="54"/>
-      <c r="AC532" s="448"/>
+      <c r="AC532" s="445"/>
     </row>
     <row r="533" spans="12:29">
       <c r="L533" s="54"/>
       <c r="M533" s="249"/>
       <c r="P533" s="54"/>
-      <c r="U533" s="448"/>
+      <c r="U533" s="445"/>
       <c r="X533" s="54"/>
-      <c r="AC533" s="448"/>
+      <c r="AC533" s="445"/>
     </row>
     <row r="534" spans="12:29">
       <c r="L534" s="54"/>
       <c r="M534" s="249"/>
       <c r="P534" s="54"/>
-      <c r="U534" s="448"/>
+      <c r="U534" s="445"/>
       <c r="X534" s="54"/>
-      <c r="AC534" s="448"/>
+      <c r="AC534" s="445"/>
     </row>
     <row r="535" spans="12:29">
       <c r="L535" s="54"/>
       <c r="M535" s="249"/>
       <c r="P535" s="54"/>
-      <c r="U535" s="448"/>
+      <c r="U535" s="445"/>
       <c r="X535" s="54"/>
-      <c r="AC535" s="448"/>
+      <c r="AC535" s="445"/>
     </row>
     <row r="536" spans="12:29">
       <c r="L536" s="54"/>
       <c r="M536" s="249"/>
       <c r="P536" s="54"/>
-      <c r="U536" s="448"/>
+      <c r="U536" s="445"/>
       <c r="X536" s="54"/>
-      <c r="AC536" s="448"/>
+      <c r="AC536" s="445"/>
     </row>
     <row r="537" spans="12:29">
       <c r="L537" s="54"/>
       <c r="M537" s="249"/>
       <c r="P537" s="54"/>
-      <c r="U537" s="448"/>
+      <c r="U537" s="445"/>
       <c r="X537" s="54"/>
-      <c r="AC537" s="448"/>
+      <c r="AC537" s="445"/>
     </row>
     <row r="538" spans="12:29">
       <c r="L538" s="54"/>
       <c r="M538" s="249"/>
       <c r="P538" s="54"/>
-      <c r="U538" s="448"/>
+      <c r="U538" s="445"/>
       <c r="X538" s="54"/>
-      <c r="AC538" s="448"/>
+      <c r="AC538" s="445"/>
     </row>
     <row r="539" spans="12:29">
       <c r="L539" s="54"/>
       <c r="M539" s="249"/>
       <c r="P539" s="54"/>
-      <c r="U539" s="448"/>
+      <c r="U539" s="445"/>
       <c r="X539" s="54"/>
-      <c r="AC539" s="448"/>
+      <c r="AC539" s="445"/>
     </row>
     <row r="540" spans="12:29">
       <c r="L540" s="54"/>
       <c r="M540" s="249"/>
       <c r="P540" s="54"/>
-      <c r="U540" s="448"/>
+      <c r="U540" s="445"/>
       <c r="X540" s="54"/>
-      <c r="AC540" s="448"/>
+      <c r="AC540" s="445"/>
     </row>
     <row r="541" spans="12:29">
       <c r="L541" s="54"/>
       <c r="M541" s="249"/>
       <c r="P541" s="54"/>
-      <c r="U541" s="448"/>
+      <c r="U541" s="445"/>
       <c r="X541" s="54"/>
-      <c r="AC541" s="448"/>
+      <c r="AC541" s="445"/>
     </row>
     <row r="542" spans="12:29">
       <c r="L542" s="54"/>
       <c r="M542" s="249"/>
       <c r="P542" s="54"/>
-      <c r="U542" s="448"/>
+      <c r="U542" s="445"/>
       <c r="X542" s="54"/>
-      <c r="AC542" s="448"/>
+      <c r="AC542" s="445"/>
     </row>
     <row r="543" spans="12:29">
       <c r="L543" s="54"/>
       <c r="M543" s="249"/>
       <c r="P543" s="54"/>
-      <c r="U543" s="448"/>
+      <c r="U543" s="445"/>
       <c r="X543" s="54"/>
-      <c r="AC543" s="448"/>
+      <c r="AC543" s="445"/>
     </row>
     <row r="544" spans="12:29">
       <c r="L544" s="54"/>
       <c r="M544" s="249"/>
       <c r="P544" s="54"/>
-      <c r="U544" s="448"/>
+      <c r="U544" s="445"/>
       <c r="X544" s="54"/>
-      <c r="AC544" s="448"/>
+      <c r="AC544" s="445"/>
     </row>
     <row r="545" spans="12:29">
       <c r="L545" s="54"/>
       <c r="M545" s="249"/>
       <c r="P545" s="54"/>
-      <c r="U545" s="448"/>
+      <c r="U545" s="445"/>
       <c r="X545" s="54"/>
-      <c r="AC545" s="448"/>
+      <c r="AC545" s="445"/>
     </row>
     <row r="546" spans="12:29">
       <c r="L546" s="54"/>
       <c r="M546" s="249"/>
       <c r="P546" s="54"/>
-      <c r="U546" s="448"/>
+      <c r="U546" s="445"/>
       <c r="X546" s="54"/>
-      <c r="AC546" s="448"/>
+      <c r="AC546" s="445"/>
     </row>
     <row r="547" spans="12:29">
       <c r="L547" s="54"/>
       <c r="M547" s="249"/>
       <c r="P547" s="54"/>
-      <c r="U547" s="448"/>
+      <c r="U547" s="445"/>
       <c r="X547" s="54"/>
-      <c r="AC547" s="448"/>
+      <c r="AC547" s="445"/>
     </row>
     <row r="548" spans="12:29">
       <c r="L548" s="54"/>
       <c r="M548" s="249"/>
       <c r="P548" s="54"/>
-      <c r="U548" s="448"/>
+      <c r="U548" s="445"/>
       <c r="X548" s="54"/>
-      <c r="AC548" s="448"/>
+      <c r="AC548" s="445"/>
     </row>
     <row r="549" spans="12:29">
       <c r="L549" s="54"/>
       <c r="M549" s="249"/>
       <c r="P549" s="54"/>
-      <c r="U549" s="448"/>
+      <c r="U549" s="445"/>
       <c r="X549" s="54"/>
-      <c r="AC549" s="448"/>
+      <c r="AC549" s="445"/>
     </row>
     <row r="550" spans="12:29">
       <c r="L550" s="54"/>
       <c r="M550" s="249"/>
       <c r="P550" s="54"/>
-      <c r="U550" s="448"/>
+      <c r="U550" s="445"/>
       <c r="X550" s="54"/>
-      <c r="AC550" s="448"/>
+      <c r="AC550" s="445"/>
     </row>
     <row r="551" spans="12:29">
       <c r="L551" s="54"/>
       <c r="M551" s="249"/>
       <c r="P551" s="54"/>
-      <c r="U551" s="448"/>
+      <c r="U551" s="445"/>
       <c r="X551" s="54"/>
-      <c r="AC551" s="448"/>
+      <c r="AC551" s="445"/>
     </row>
     <row r="552" spans="12:29">
       <c r="L552" s="54"/>
       <c r="M552" s="249"/>
       <c r="P552" s="54"/>
-      <c r="U552" s="448"/>
+      <c r="U552" s="445"/>
       <c r="X552" s="54"/>
-      <c r="AC552" s="448"/>
+      <c r="AC552" s="445"/>
     </row>
     <row r="553" spans="12:29">
       <c r="L553" s="54"/>
       <c r="M553" s="249"/>
       <c r="P553" s="54"/>
-      <c r="U553" s="448"/>
+      <c r="U553" s="445"/>
       <c r="X553" s="54"/>
-      <c r="AC553" s="448"/>
+      <c r="AC553" s="445"/>
     </row>
     <row r="554" spans="12:29">
       <c r="L554" s="54"/>
       <c r="M554" s="249"/>
       <c r="P554" s="54"/>
-      <c r="U554" s="448"/>
+      <c r="U554" s="445"/>
       <c r="X554" s="54"/>
-      <c r="AC554" s="448"/>
+      <c r="AC554" s="445"/>
     </row>
     <row r="555" spans="12:29">
       <c r="L555" s="54"/>
       <c r="M555" s="249"/>
       <c r="P555" s="54"/>
-      <c r="U555" s="448"/>
+      <c r="U555" s="445"/>
       <c r="X555" s="54"/>
-      <c r="AC555" s="448"/>
+      <c r="AC555" s="445"/>
     </row>
     <row r="556" spans="12:29">
       <c r="L556" s="54"/>
       <c r="M556" s="249"/>
       <c r="P556" s="54"/>
-      <c r="U556" s="448"/>
+      <c r="U556" s="445"/>
       <c r="X556" s="54"/>
-      <c r="AC556" s="448"/>
+      <c r="AC556" s="445"/>
     </row>
     <row r="557" spans="12:29">
       <c r="L557" s="54"/>
       <c r="M557" s="249"/>
       <c r="P557" s="54"/>
-      <c r="U557" s="448"/>
+      <c r="U557" s="445"/>
       <c r="X557" s="54"/>
-      <c r="AC557" s="448"/>
+      <c r="AC557" s="445"/>
     </row>
     <row r="558" spans="12:29">
       <c r="L558" s="54"/>
       <c r="M558" s="249"/>
       <c r="P558" s="54"/>
-      <c r="U558" s="448"/>
+      <c r="U558" s="445"/>
       <c r="X558" s="54"/>
-      <c r="AC558" s="448"/>
+      <c r="AC558" s="445"/>
     </row>
     <row r="559" spans="12:29">
       <c r="L559" s="54"/>
       <c r="M559" s="249"/>
       <c r="P559" s="54"/>
-      <c r="U559" s="448"/>
+      <c r="U559" s="445"/>
       <c r="X559" s="54"/>
-      <c r="AC559" s="448"/>
+      <c r="AC559" s="445"/>
     </row>
     <row r="560" spans="12:29">
       <c r="L560" s="54"/>
       <c r="M560" s="249"/>
       <c r="P560" s="54"/>
-      <c r="U560" s="448"/>
+      <c r="U560" s="445"/>
       <c r="X560" s="54"/>
-      <c r="AC560" s="448"/>
+      <c r="AC560" s="445"/>
     </row>
     <row r="561" spans="12:29">
       <c r="L561" s="54"/>
       <c r="M561" s="249"/>
       <c r="P561" s="54"/>
-      <c r="U561" s="448"/>
+      <c r="U561" s="445"/>
       <c r="X561" s="54"/>
-      <c r="AC561" s="448"/>
+      <c r="AC561" s="445"/>
     </row>
     <row r="562" spans="12:29">
       <c r="L562" s="54"/>
       <c r="M562" s="249"/>
       <c r="P562" s="54"/>
-      <c r="U562" s="448"/>
+      <c r="U562" s="445"/>
       <c r="X562" s="54"/>
-      <c r="AC562" s="448"/>
+      <c r="AC562" s="445"/>
     </row>
     <row r="563" spans="12:29">
       <c r="L563" s="54"/>
       <c r="M563" s="249"/>
       <c r="P563" s="54"/>
-      <c r="U563" s="448"/>
+      <c r="U563" s="445"/>
       <c r="X563" s="54"/>
-      <c r="AC563" s="448"/>
+      <c r="AC563" s="445"/>
     </row>
     <row r="564" spans="12:29">
       <c r="L564" s="54"/>
       <c r="M564" s="249"/>
       <c r="P564" s="54"/>
-      <c r="U564" s="448"/>
+      <c r="U564" s="445"/>
       <c r="X564" s="54"/>
-      <c r="AC564" s="448"/>
+      <c r="AC564" s="445"/>
     </row>
     <row r="565" spans="12:29">
       <c r="L565" s="54"/>
       <c r="M565" s="249"/>
       <c r="P565" s="54"/>
-      <c r="U565" s="448"/>
+      <c r="U565" s="445"/>
       <c r="X565" s="54"/>
-      <c r="AC565" s="448"/>
+      <c r="AC565" s="445"/>
     </row>
     <row r="566" spans="12:29">
       <c r="L566" s="54"/>
       <c r="M566" s="249"/>
       <c r="P566" s="54"/>
-      <c r="U566" s="448"/>
+      <c r="U566" s="445"/>
       <c r="X566" s="54"/>
-      <c r="AC566" s="448"/>
+      <c r="AC566" s="445"/>
     </row>
     <row r="567" spans="12:29">
       <c r="L567" s="54"/>
       <c r="M567" s="249"/>
       <c r="P567" s="54"/>
-      <c r="U567" s="448"/>
+      <c r="U567" s="445"/>
       <c r="X567" s="54"/>
-      <c r="AC567" s="448"/>
+      <c r="AC567" s="445"/>
     </row>
     <row r="568" spans="12:29">
       <c r="L568" s="54"/>
       <c r="M568" s="249"/>
       <c r="P568" s="54"/>
-      <c r="U568" s="448"/>
+      <c r="U568" s="445"/>
       <c r="X568" s="54"/>
-      <c r="AC568" s="448"/>
+      <c r="AC568" s="445"/>
     </row>
     <row r="569" spans="12:29">
       <c r="L569" s="54"/>
       <c r="M569" s="249"/>
       <c r="P569" s="54"/>
-      <c r="U569" s="448"/>
+      <c r="U569" s="445"/>
       <c r="X569" s="54"/>
-      <c r="AC569" s="448"/>
+      <c r="AC569" s="445"/>
     </row>
     <row r="570" spans="12:29">
       <c r="L570" s="54"/>
       <c r="M570" s="249"/>
       <c r="P570" s="54"/>
-      <c r="U570" s="448"/>
+      <c r="U570" s="445"/>
       <c r="X570" s="54"/>
-      <c r="AC570" s="448"/>
+      <c r="AC570" s="445"/>
     </row>
     <row r="571" spans="12:29">
       <c r="L571" s="54"/>
       <c r="M571" s="249"/>
       <c r="P571" s="54"/>
-      <c r="U571" s="448"/>
+      <c r="U571" s="445"/>
       <c r="X571" s="54"/>
-      <c r="AC571" s="448"/>
+      <c r="AC571" s="445"/>
     </row>
     <row r="572" spans="12:29">
       <c r="L572" s="54"/>
       <c r="M572" s="249"/>
       <c r="P572" s="54"/>
-      <c r="U572" s="448"/>
+      <c r="U572" s="445"/>
       <c r="X572" s="54"/>
-      <c r="AC572" s="448"/>
+      <c r="AC572" s="445"/>
     </row>
     <row r="573" spans="12:29">
       <c r="L573" s="54"/>
       <c r="M573" s="249"/>
       <c r="P573" s="54"/>
-      <c r="U573" s="448"/>
+      <c r="U573" s="445"/>
       <c r="X573" s="54"/>
-      <c r="AC573" s="448"/>
+      <c r="AC573" s="445"/>
     </row>
     <row r="574" spans="12:29">
       <c r="L574" s="54"/>
       <c r="M574" s="249"/>
       <c r="P574" s="54"/>
-      <c r="U574" s="448"/>
+      <c r="U574" s="445"/>
       <c r="X574" s="54"/>
-      <c r="AC574" s="448"/>
+      <c r="AC574" s="445"/>
     </row>
     <row r="575" spans="12:29">
       <c r="L575" s="54"/>
       <c r="M575" s="249"/>
       <c r="P575" s="54"/>
-      <c r="U575" s="448"/>
+      <c r="U575" s="445"/>
       <c r="X575" s="54"/>
-      <c r="AC575" s="448"/>
+      <c r="AC575" s="445"/>
     </row>
     <row r="576" spans="12:29">
       <c r="L576" s="54"/>
       <c r="M576" s="249"/>
       <c r="P576" s="54"/>
-      <c r="U576" s="448"/>
+      <c r="U576" s="445"/>
       <c r="X576" s="54"/>
-      <c r="AC576" s="448"/>
+      <c r="AC576" s="445"/>
     </row>
     <row r="577" spans="12:29">
       <c r="L577" s="54"/>
       <c r="M577" s="249"/>
       <c r="P577" s="54"/>
-      <c r="U577" s="448"/>
+      <c r="U577" s="445"/>
       <c r="X577" s="54"/>
-      <c r="AC577" s="448"/>
+      <c r="AC577" s="445"/>
     </row>
     <row r="578" spans="12:29">
       <c r="L578" s="54"/>
       <c r="M578" s="249"/>
       <c r="P578" s="54"/>
-      <c r="U578" s="448"/>
+      <c r="U578" s="445"/>
       <c r="X578" s="54"/>
-      <c r="AC578" s="448"/>
+      <c r="AC578" s="445"/>
     </row>
     <row r="579" spans="12:29">
       <c r="L579" s="54"/>
       <c r="M579" s="249"/>
       <c r="P579" s="54"/>
-      <c r="U579" s="448"/>
+      <c r="U579" s="445"/>
       <c r="X579" s="54"/>
-      <c r="AC579" s="448"/>
+      <c r="AC579" s="445"/>
     </row>
     <row r="580" spans="12:29">
       <c r="L580" s="54"/>
       <c r="M580" s="249"/>
       <c r="P580" s="54"/>
-      <c r="U580" s="448"/>
+      <c r="U580" s="445"/>
       <c r="X580" s="54"/>
-      <c r="AC580" s="448"/>
+      <c r="AC580" s="445"/>
     </row>
     <row r="581" spans="12:29">
       <c r="L581" s="54"/>
       <c r="M581" s="249"/>
       <c r="P581" s="54"/>
-      <c r="U581" s="448"/>
+      <c r="U581" s="445"/>
       <c r="X581" s="54"/>
-      <c r="AC581" s="448"/>
+      <c r="AC581" s="445"/>
     </row>
     <row r="582" spans="12:29">
       <c r="L582" s="54"/>
       <c r="M582" s="249"/>
       <c r="P582" s="54"/>
-      <c r="U582" s="448"/>
+      <c r="U582" s="445"/>
       <c r="X582" s="54"/>
-      <c r="AC582" s="448"/>
+      <c r="AC582" s="445"/>
     </row>
     <row r="583" spans="12:29">
       <c r="L583" s="54"/>
       <c r="M583" s="249"/>
       <c r="P583" s="54"/>
-      <c r="U583" s="448"/>
+      <c r="U583" s="445"/>
       <c r="X583" s="54"/>
-      <c r="AC583" s="448"/>
+      <c r="AC583" s="445"/>
     </row>
     <row r="584" spans="12:29">
       <c r="L584" s="54"/>
       <c r="M584" s="249"/>
       <c r="P584" s="54"/>
-      <c r="U584" s="448"/>
+      <c r="U584" s="445"/>
       <c r="X584" s="54"/>
-      <c r="AC584" s="448"/>
+      <c r="AC584" s="445"/>
     </row>
     <row r="585" spans="12:29">
       <c r="L585" s="54"/>
       <c r="M585" s="249"/>
       <c r="P585" s="54"/>
-      <c r="U585" s="448"/>
+      <c r="U585" s="445"/>
       <c r="X585" s="54"/>
-      <c r="AC585" s="448"/>
+      <c r="AC585" s="445"/>
     </row>
     <row r="586" spans="12:29">
       <c r="L586" s="54"/>
       <c r="M586" s="249"/>
       <c r="P586" s="54"/>
-      <c r="U586" s="448"/>
+      <c r="U586" s="445"/>
       <c r="X586" s="54"/>
-      <c r="AC586" s="448"/>
+      <c r="AC586" s="445"/>
     </row>
     <row r="587" spans="12:29">
       <c r="L587" s="54"/>
       <c r="M587" s="249"/>
       <c r="P587" s="54"/>
-      <c r="U587" s="448"/>
+      <c r="U587" s="445"/>
       <c r="X587" s="54"/>
-      <c r="AC587" s="448"/>
+      <c r="AC587" s="445"/>
     </row>
     <row r="588" spans="12:29">
       <c r="L588" s="54"/>
       <c r="M588" s="249"/>
       <c r="P588" s="54"/>
-      <c r="U588" s="448"/>
+      <c r="U588" s="445"/>
       <c r="X588" s="54"/>
-      <c r="AC588" s="448"/>
+      <c r="AC588" s="445"/>
     </row>
     <row r="589" spans="12:29">
       <c r="L589" s="54"/>
       <c r="M589" s="249"/>
       <c r="P589" s="54"/>
-      <c r="U589" s="448"/>
+      <c r="U589" s="445"/>
       <c r="X589" s="54"/>
-      <c r="AC589" s="448"/>
+      <c r="AC589" s="445"/>
     </row>
     <row r="590" spans="12:29">
       <c r="L590" s="54"/>
       <c r="M590" s="249"/>
       <c r="P590" s="54"/>
-      <c r="U590" s="448"/>
+      <c r="U590" s="445"/>
       <c r="X590" s="54"/>
-      <c r="AC590" s="448"/>
+      <c r="AC590" s="445"/>
     </row>
     <row r="591" spans="12:29">
       <c r="L591" s="54"/>
       <c r="M591" s="249"/>
       <c r="P591" s="54"/>
-      <c r="U591" s="448"/>
+      <c r="U591" s="445"/>
       <c r="X591" s="54"/>
-      <c r="AC591" s="448"/>
+      <c r="AC591" s="445"/>
     </row>
     <row r="592" spans="12:29">
       <c r="L592" s="54"/>
       <c r="M592" s="249"/>
       <c r="P592" s="54"/>
-      <c r="U592" s="448"/>
+      <c r="U592" s="445"/>
       <c r="X592" s="54"/>
-      <c r="AC592" s="448"/>
+      <c r="AC592" s="445"/>
     </row>
     <row r="593" spans="12:29">
       <c r="L593" s="54"/>
       <c r="M593" s="249"/>
       <c r="P593" s="54"/>
-      <c r="U593" s="448"/>
+      <c r="U593" s="445"/>
       <c r="X593" s="54"/>
-      <c r="AC593" s="448"/>
+      <c r="AC593" s="445"/>
     </row>
     <row r="594" spans="12:29">
       <c r="L594" s="54"/>
       <c r="M594" s="249"/>
       <c r="P594" s="54"/>
-      <c r="U594" s="448"/>
+      <c r="U594" s="445"/>
       <c r="X594" s="54"/>
-      <c r="AC594" s="448"/>
+      <c r="AC594" s="445"/>
     </row>
     <row r="595" spans="12:29">
       <c r="L595" s="54"/>
       <c r="M595" s="249"/>
       <c r="P595" s="54"/>
-      <c r="U595" s="448"/>
+      <c r="U595" s="445"/>
       <c r="X595" s="54"/>
-      <c r="AC595" s="448"/>
+      <c r="AC595" s="445"/>
     </row>
     <row r="596" spans="12:29">
       <c r="L596" s="54"/>
       <c r="M596" s="249"/>
       <c r="P596" s="54"/>
-      <c r="U596" s="448"/>
+      <c r="U596" s="445"/>
       <c r="X596" s="54"/>
-      <c r="AC596" s="448"/>
+      <c r="AC596" s="445"/>
     </row>
     <row r="597" spans="12:29">
       <c r="L597" s="54"/>
       <c r="M597" s="249"/>
       <c r="P597" s="54"/>
-      <c r="U597" s="448"/>
+      <c r="U597" s="445"/>
       <c r="X597" s="54"/>
-      <c r="AC597" s="448"/>
+      <c r="AC597" s="445"/>
     </row>
     <row r="598" spans="12:29">
       <c r="L598" s="54"/>
       <c r="M598" s="249"/>
       <c r="P598" s="54"/>
-      <c r="U598" s="448"/>
+      <c r="U598" s="445"/>
       <c r="X598" s="54"/>
-      <c r="AC598" s="448"/>
+      <c r="AC598" s="445"/>
     </row>
     <row r="599" spans="12:29">
       <c r="L599" s="54"/>
       <c r="M599" s="249"/>
       <c r="P599" s="54"/>
-      <c r="U599" s="448"/>
+      <c r="U599" s="445"/>
       <c r="X599" s="54"/>
-      <c r="AC599" s="448"/>
+      <c r="AC599" s="445"/>
     </row>
     <row r="600" spans="12:29">
       <c r="L600" s="54"/>
       <c r="M600" s="249"/>
       <c r="P600" s="54"/>
-      <c r="U600" s="448"/>
+      <c r="U600" s="445"/>
       <c r="X600" s="54"/>
-      <c r="AC600" s="448"/>
+      <c r="AC600" s="445"/>
     </row>
     <row r="601" spans="12:29">
       <c r="L601" s="54"/>
       <c r="M601" s="249"/>
       <c r="P601" s="54"/>
-      <c r="U601" s="448"/>
+      <c r="U601" s="445"/>
       <c r="X601" s="54"/>
-      <c r="AC601" s="448"/>
+      <c r="AC601" s="445"/>
     </row>
     <row r="602" spans="12:29">
       <c r="L602" s="54"/>
       <c r="M602" s="249"/>
       <c r="P602" s="54"/>
-      <c r="U602" s="448"/>
+      <c r="U602" s="445"/>
       <c r="X602" s="54"/>
-      <c r="AC602" s="448"/>
+      <c r="AC602" s="445"/>
     </row>
     <row r="603" spans="12:29">
       <c r="L603" s="54"/>
       <c r="M603" s="249"/>
       <c r="P603" s="54"/>
-      <c r="U603" s="448"/>
+      <c r="U603" s="445"/>
       <c r="X603" s="54"/>
-      <c r="AC603" s="448"/>
+      <c r="AC603" s="445"/>
     </row>
     <row r="604" spans="12:29">
       <c r="L604" s="54"/>
       <c r="M604" s="249"/>
       <c r="P604" s="54"/>
-      <c r="U604" s="448"/>
+      <c r="U604" s="445"/>
       <c r="X604" s="54"/>
-      <c r="AC604" s="448"/>
+      <c r="AC604" s="445"/>
     </row>
     <row r="605" spans="12:29">
       <c r="L605" s="54"/>
       <c r="M605" s="249"/>
       <c r="P605" s="54"/>
-      <c r="U605" s="448"/>
+      <c r="U605" s="445"/>
       <c r="X605" s="54"/>
-      <c r="AC605" s="448"/>
+      <c r="AC605" s="445"/>
     </row>
     <row r="606" spans="12:29">
       <c r="L606" s="54"/>
       <c r="M606" s="249"/>
       <c r="P606" s="54"/>
-      <c r="U606" s="448"/>
+      <c r="U606" s="445"/>
       <c r="X606" s="54"/>
-      <c r="AC606" s="448"/>
+      <c r="AC606" s="445"/>
     </row>
     <row r="607" spans="12:29">
       <c r="L607" s="54"/>
       <c r="M607" s="249"/>
       <c r="P607" s="54"/>
-      <c r="U607" s="448"/>
+      <c r="U607" s="445"/>
       <c r="X607" s="54"/>
-      <c r="AC607" s="448"/>
+      <c r="AC607" s="445"/>
     </row>
     <row r="608" spans="12:29">
       <c r="L608" s="54"/>
       <c r="M608" s="249"/>
       <c r="P608" s="54"/>
-      <c r="U608" s="448"/>
+      <c r="U608" s="445"/>
       <c r="X608" s="54"/>
-      <c r="AC608" s="448"/>
+      <c r="AC608" s="445"/>
     </row>
     <row r="609" spans="12:29">
       <c r="L609" s="54"/>
       <c r="M609" s="249"/>
       <c r="P609" s="54"/>
-      <c r="U609" s="448"/>
+      <c r="U609" s="445"/>
       <c r="X609" s="54"/>
-      <c r="AC609" s="448"/>
+      <c r="AC609" s="445"/>
     </row>
     <row r="610" spans="12:29">
       <c r="L610" s="54"/>
       <c r="M610" s="249"/>
       <c r="P610" s="54"/>
-      <c r="U610" s="448"/>
+      <c r="U610" s="445"/>
       <c r="X610" s="54"/>
-      <c r="AC610" s="448"/>
+      <c r="AC610" s="445"/>
     </row>
     <row r="611" spans="12:29">
       <c r="L611" s="54"/>
       <c r="M611" s="249"/>
       <c r="P611" s="54"/>
-      <c r="U611" s="448"/>
+      <c r="U611" s="445"/>
       <c r="X611" s="54"/>
-      <c r="AC611" s="448"/>
+      <c r="AC611" s="445"/>
     </row>
     <row r="612" spans="12:29">
       <c r="L612" s="54"/>
       <c r="M612" s="249"/>
       <c r="P612" s="54"/>
-      <c r="U612" s="448"/>
+      <c r="U612" s="445"/>
       <c r="X612" s="54"/>
-      <c r="AC612" s="448"/>
+      <c r="AC612" s="445"/>
     </row>
     <row r="613" spans="12:29">
       <c r="L613" s="54"/>
       <c r="M613" s="249"/>
       <c r="P613" s="54"/>
-      <c r="U613" s="448"/>
+      <c r="U613" s="445"/>
       <c r="X613" s="54"/>
-      <c r="AC613" s="448"/>
+      <c r="AC613" s="445"/>
     </row>
     <row r="614" spans="12:29">
       <c r="L614" s="54"/>
       <c r="M614" s="249"/>
       <c r="P614" s="54"/>
-      <c r="U614" s="448"/>
+      <c r="U614" s="445"/>
       <c r="X614" s="54"/>
-      <c r="AC614" s="448"/>
+      <c r="AC614" s="445"/>
     </row>
     <row r="615" spans="12:29">
       <c r="L615" s="54"/>
       <c r="M615" s="249"/>
       <c r="P615" s="54"/>
-      <c r="U615" s="448"/>
+      <c r="U615" s="445"/>
       <c r="X615" s="54"/>
-      <c r="AC615" s="448"/>
+      <c r="AC615" s="445"/>
     </row>
     <row r="616" spans="12:29">
       <c r="L616" s="54"/>
       <c r="M616" s="249"/>
       <c r="P616" s="54"/>
-      <c r="U616" s="448"/>
+      <c r="U616" s="445"/>
       <c r="X616" s="54"/>
-      <c r="AC616" s="448"/>
+      <c r="AC616" s="445"/>
     </row>
     <row r="617" spans="12:29">
       <c r="L617" s="54"/>
       <c r="M617" s="249"/>
       <c r="P617" s="54"/>
-      <c r="U617" s="448"/>
+      <c r="U617" s="445"/>
       <c r="X617" s="54"/>
-      <c r="AC617" s="448"/>
+      <c r="AC617" s="445"/>
     </row>
     <row r="618" spans="12:29">
       <c r="L618" s="54"/>
       <c r="M618" s="249"/>
       <c r="P618" s="54"/>
-      <c r="U618" s="448"/>
+      <c r="U618" s="445"/>
       <c r="X618" s="54"/>
-      <c r="AC618" s="448"/>
+      <c r="AC618" s="445"/>
     </row>
     <row r="619" spans="12:29">
       <c r="L619" s="54"/>
       <c r="M619" s="249"/>
       <c r="P619" s="54"/>
-      <c r="U619" s="448"/>
+      <c r="U619" s="445"/>
       <c r="X619" s="54"/>
-      <c r="AC619" s="448"/>
+      <c r="AC619" s="445"/>
     </row>
     <row r="620" spans="12:29">
       <c r="L620" s="54"/>
       <c r="M620" s="249"/>
       <c r="P620" s="54"/>
-      <c r="U620" s="448"/>
+      <c r="U620" s="445"/>
       <c r="X620" s="54"/>
-      <c r="AC620" s="448"/>
+      <c r="AC620" s="445"/>
     </row>
     <row r="621" spans="12:29">
       <c r="L621" s="54"/>
       <c r="M621" s="249"/>
       <c r="P621" s="54"/>
-      <c r="U621" s="448"/>
+      <c r="U621" s="445"/>
       <c r="X621" s="54"/>
-      <c r="AC621" s="448"/>
+      <c r="AC621" s="445"/>
     </row>
     <row r="622" spans="12:29">
       <c r="L622" s="54"/>
       <c r="M622" s="249"/>
       <c r="P622" s="54"/>
-      <c r="U622" s="448"/>
+      <c r="U622" s="445"/>
       <c r="X622" s="54"/>
-      <c r="AC622" s="448"/>
+      <c r="AC622" s="445"/>
     </row>
     <row r="623" spans="12:29">
       <c r="L623" s="54"/>
       <c r="M623" s="249"/>
       <c r="P623" s="54"/>
-      <c r="U623" s="448"/>
+      <c r="U623" s="445"/>
       <c r="X623" s="54"/>
-      <c r="AC623" s="448"/>
+      <c r="AC623" s="445"/>
     </row>
     <row r="624" spans="12:29">
       <c r="L624" s="54"/>
       <c r="M624" s="249"/>
       <c r="P624" s="54"/>
-      <c r="U624" s="448"/>
+      <c r="U624" s="445"/>
       <c r="X624" s="54"/>
-      <c r="AC624" s="448"/>
+      <c r="AC624" s="445"/>
     </row>
     <row r="625" spans="12:29">
       <c r="L625" s="54"/>
       <c r="M625" s="249"/>
       <c r="P625" s="54"/>
-      <c r="U625" s="448"/>
+      <c r="U625" s="445"/>
       <c r="X625" s="54"/>
-      <c r="AC625" s="448"/>
+      <c r="AC625" s="445"/>
     </row>
     <row r="626" spans="12:29">
       <c r="L626" s="54"/>
       <c r="M626" s="249"/>
       <c r="P626" s="54"/>
-      <c r="U626" s="448"/>
+      <c r="U626" s="445"/>
       <c r="X626" s="54"/>
-      <c r="AC626" s="448"/>
+      <c r="AC626" s="445"/>
     </row>
     <row r="627" spans="12:29">
       <c r="L627" s="54"/>
       <c r="M627" s="249"/>
       <c r="P627" s="54"/>
-      <c r="U627" s="448"/>
+      <c r="U627" s="445"/>
       <c r="X627" s="54"/>
-      <c r="AC627" s="448"/>
+      <c r="AC627" s="445"/>
     </row>
     <row r="628" spans="12:29">
       <c r="L628" s="54"/>
       <c r="M628" s="249"/>
       <c r="P628" s="54"/>
-      <c r="U628" s="448"/>
+      <c r="U628" s="445"/>
       <c r="X628" s="54"/>
-      <c r="AC628" s="448"/>
+      <c r="AC628" s="445"/>
     </row>
     <row r="629" spans="12:29">
       <c r="L629" s="54"/>
       <c r="M629" s="249"/>
       <c r="P629" s="54"/>
-      <c r="U629" s="448"/>
+      <c r="U629" s="445"/>
       <c r="X629" s="54"/>
-      <c r="AC629" s="448"/>
+      <c r="AC629" s="445"/>
     </row>
     <row r="630" spans="12:29">
       <c r="L630" s="54"/>
       <c r="M630" s="249"/>
       <c r="P630" s="54"/>
-      <c r="U630" s="448"/>
+      <c r="U630" s="445"/>
       <c r="X630" s="54"/>
-      <c r="AC630" s="448"/>
+      <c r="AC630" s="445"/>
     </row>
     <row r="631" spans="12:29">
       <c r="L631" s="54"/>
       <c r="M631" s="249"/>
       <c r="P631" s="54"/>
-      <c r="U631" s="448"/>
+      <c r="U631" s="445"/>
       <c r="X631" s="54"/>
-      <c r="AC631" s="448"/>
+      <c r="AC631" s="445"/>
     </row>
     <row r="632" spans="12:29">
       <c r="L632" s="54"/>
       <c r="M632" s="249"/>
       <c r="P632" s="54"/>
-      <c r="U632" s="448"/>
+      <c r="U632" s="445"/>
       <c r="X632" s="54"/>
-      <c r="AC632" s="448"/>
+      <c r="AC632" s="445"/>
     </row>
     <row r="633" spans="12:29">
       <c r="L633" s="54"/>
       <c r="M633" s="249"/>
       <c r="P633" s="54"/>
-      <c r="U633" s="448"/>
+      <c r="U633" s="445"/>
       <c r="X633" s="54"/>
-      <c r="AC633" s="448"/>
+      <c r="AC633" s="445"/>
     </row>
     <row r="634" spans="12:29">
       <c r="L634" s="54"/>
       <c r="M634" s="249"/>
       <c r="P634" s="54"/>
-      <c r="U634" s="448"/>
+      <c r="U634" s="445"/>
       <c r="X634" s="54"/>
-      <c r="AC634" s="448"/>
+      <c r="AC634" s="445"/>
     </row>
     <row r="635" spans="12:29">
       <c r="L635" s="54"/>
       <c r="M635" s="249"/>
       <c r="P635" s="54"/>
-      <c r="U635" s="448"/>
+      <c r="U635" s="445"/>
       <c r="X635" s="54"/>
-      <c r="AC635" s="448"/>
+      <c r="AC635" s="445"/>
     </row>
     <row r="636" spans="12:29">
       <c r="L636" s="54"/>
       <c r="M636" s="249"/>
       <c r="P636" s="54"/>
-      <c r="U636" s="448"/>
+      <c r="U636" s="445"/>
       <c r="X636" s="54"/>
-      <c r="AC636" s="448"/>
+      <c r="AC636" s="445"/>
     </row>
     <row r="637" spans="12:29">
       <c r="L637" s="54"/>
       <c r="M637" s="249"/>
       <c r="P637" s="54"/>
-      <c r="U637" s="448"/>
+      <c r="U637" s="445"/>
       <c r="X637" s="54"/>
-      <c r="AC637" s="448"/>
+      <c r="AC637" s="445"/>
     </row>
     <row r="638" spans="12:29">
       <c r="L638" s="54"/>
       <c r="M638" s="249"/>
       <c r="P638" s="54"/>
-      <c r="U638" s="448"/>
+      <c r="U638" s="445"/>
       <c r="X638" s="54"/>
-      <c r="AC638" s="448"/>
+      <c r="AC638" s="445"/>
     </row>
     <row r="639" spans="12:29">
       <c r="L639" s="54"/>
       <c r="M639" s="249"/>
       <c r="P639" s="54"/>
-      <c r="U639" s="448"/>
+      <c r="U639" s="445"/>
       <c r="X639" s="54"/>
-      <c r="AC639" s="448"/>
+      <c r="AC639" s="445"/>
     </row>
     <row r="640" spans="12:29">
       <c r="L640" s="54"/>
       <c r="M640" s="249"/>
       <c r="P640" s="54"/>
-      <c r="U640" s="448"/>
+      <c r="U640" s="445"/>
       <c r="X640" s="54"/>
-      <c r="AC640" s="448"/>
+      <c r="AC640" s="445"/>
     </row>
     <row r="641" spans="12:29">
       <c r="L641" s="54"/>
       <c r="M641" s="249"/>
       <c r="P641" s="54"/>
-      <c r="U641" s="448"/>
+      <c r="U641" s="445"/>
       <c r="X641" s="54"/>
-      <c r="AC641" s="448"/>
+      <c r="AC641" s="445"/>
     </row>
     <row r="642" spans="12:29">
       <c r="L642" s="54"/>
       <c r="M642" s="249"/>
       <c r="P642" s="54"/>
-      <c r="U642" s="448"/>
+      <c r="U642" s="445"/>
       <c r="X642" s="54"/>
-      <c r="AC642" s="448"/>
+      <c r="AC642" s="445"/>
     </row>
     <row r="643" spans="12:29">
       <c r="L643" s="54"/>
       <c r="M643" s="249"/>
       <c r="P643" s="54"/>
-      <c r="U643" s="448"/>
+      <c r="U643" s="445"/>
       <c r="X643" s="54"/>
-      <c r="AC643" s="448"/>
+      <c r="AC643" s="445"/>
     </row>
     <row r="644" spans="12:29">
       <c r="L644" s="54"/>
       <c r="M644" s="249"/>
       <c r="P644" s="54"/>
-      <c r="U644" s="448"/>
+      <c r="U644" s="445"/>
       <c r="X644" s="54"/>
-      <c r="AC644" s="448"/>
+      <c r="AC644" s="445"/>
     </row>
     <row r="645" spans="12:29">
       <c r="L645" s="54"/>
       <c r="M645" s="249"/>
       <c r="P645" s="54"/>
-      <c r="U645" s="448"/>
+      <c r="U645" s="445"/>
       <c r="X645" s="54"/>
-      <c r="AC645" s="448"/>
+      <c r="AC645" s="445"/>
     </row>
     <row r="646" spans="12:29">
       <c r="L646" s="54"/>
       <c r="M646" s="249"/>
       <c r="P646" s="54"/>
-      <c r="U646" s="448"/>
+      <c r="U646" s="445"/>
       <c r="X646" s="54"/>
-      <c r="AC646" s="448"/>
+      <c r="AC646" s="445"/>
     </row>
     <row r="647" spans="12:29">
       <c r="L647" s="54"/>
       <c r="M647" s="249"/>
       <c r="P647" s="54"/>
-      <c r="U647" s="448"/>
+      <c r="U647" s="445"/>
       <c r="X647" s="54"/>
-      <c r="AC647" s="448"/>
+      <c r="AC647" s="445"/>
     </row>
     <row r="648" spans="12:29">
       <c r="L648" s="54"/>
       <c r="M648" s="249"/>
       <c r="P648" s="54"/>
-      <c r="U648" s="448"/>
+      <c r="U648" s="445"/>
       <c r="X648" s="54"/>
-      <c r="AC648" s="448"/>
+      <c r="AC648" s="445"/>
     </row>
     <row r="649" spans="12:29">
       <c r="L649" s="54"/>
       <c r="M649" s="249"/>
       <c r="P649" s="54"/>
-      <c r="U649" s="448"/>
+      <c r="U649" s="445"/>
       <c r="X649" s="54"/>
-      <c r="AC649" s="448"/>
+      <c r="AC649" s="445"/>
     </row>
     <row r="650" spans="12:29">
       <c r="L650" s="54"/>
       <c r="M650" s="249"/>
       <c r="P650" s="54"/>
-      <c r="U650" s="448"/>
+      <c r="U650" s="445"/>
       <c r="X650" s="54"/>
-      <c r="AC650" s="448"/>
+      <c r="AC650" s="445"/>
     </row>
     <row r="651" spans="12:29">
       <c r="L651" s="54"/>
       <c r="M651" s="249"/>
       <c r="P651" s="54"/>
-      <c r="U651" s="448"/>
+      <c r="U651" s="445"/>
       <c r="X651" s="54"/>
-      <c r="AC651" s="448"/>
+      <c r="AC651" s="445"/>
     </row>
     <row r="652" spans="12:29">
       <c r="L652" s="54"/>
       <c r="M652" s="249"/>
       <c r="P652" s="54"/>
-      <c r="U652" s="448"/>
+      <c r="U652" s="445"/>
       <c r="X652" s="54"/>
-      <c r="AC652" s="448"/>
+      <c r="AC652" s="445"/>
     </row>
     <row r="653" spans="12:29">
       <c r="L653" s="54"/>
       <c r="M653" s="249"/>
       <c r="P653" s="54"/>
-      <c r="U653" s="448"/>
+      <c r="U653" s="445"/>
       <c r="X653" s="54"/>
-      <c r="AC653" s="448"/>
+      <c r="AC653" s="445"/>
     </row>
     <row r="654" spans="12:29">
       <c r="L654" s="54"/>
       <c r="M654" s="249"/>
       <c r="P654" s="54"/>
-      <c r="U654" s="448"/>
+      <c r="U654" s="445"/>
       <c r="X654" s="54"/>
-      <c r="AC654" s="448"/>
+      <c r="AC654" s="445"/>
     </row>
     <row r="655" spans="12:29">
       <c r="L655" s="54"/>
       <c r="M655" s="249"/>
       <c r="P655" s="54"/>
-      <c r="U655" s="448"/>
+      <c r="U655" s="445"/>
       <c r="X655" s="54"/>
-      <c r="AC655" s="448"/>
+      <c r="AC655" s="445"/>
     </row>
     <row r="656" spans="12:29">
       <c r="L656" s="54"/>
       <c r="M656" s="249"/>
       <c r="P656" s="54"/>
-      <c r="U656" s="448"/>
+      <c r="U656" s="445"/>
       <c r="X656" s="54"/>
-      <c r="AC656" s="448"/>
+      <c r="AC656" s="445"/>
     </row>
     <row r="657" spans="12:29">
       <c r="L657" s="54"/>
       <c r="M657" s="249"/>
       <c r="P657" s="54"/>
-      <c r="U657" s="448"/>
+      <c r="U657" s="445"/>
       <c r="X657" s="54"/>
-      <c r="AC657" s="448"/>
+      <c r="AC657" s="445"/>
     </row>
     <row r="658" spans="12:29">
       <c r="L658" s="54"/>
       <c r="M658" s="249"/>
       <c r="P658" s="54"/>
-      <c r="U658" s="448"/>
+      <c r="U658" s="445"/>
       <c r="X658" s="54"/>
-      <c r="AC658" s="448"/>
+      <c r="AC658" s="445"/>
     </row>
     <row r="659" spans="12:29">
       <c r="L659" s="54"/>
       <c r="M659" s="249"/>
       <c r="P659" s="54"/>
-      <c r="U659" s="448"/>
+      <c r="U659" s="445"/>
       <c r="X659" s="54"/>
-      <c r="AC659" s="448"/>
+      <c r="AC659" s="445"/>
     </row>
     <row r="660" spans="12:29">
       <c r="L660" s="54"/>
       <c r="M660" s="249"/>
       <c r="P660" s="54"/>
-      <c r="U660" s="448"/>
+      <c r="U660" s="445"/>
       <c r="X660" s="54"/>
-      <c r="AC660" s="448"/>
+      <c r="AC660" s="445"/>
     </row>
     <row r="661" spans="12:29">
       <c r="L661" s="54"/>
       <c r="M661" s="249"/>
       <c r="P661" s="54"/>
-      <c r="U661" s="448"/>
+      <c r="U661" s="445"/>
       <c r="X661" s="54"/>
-      <c r="AC661" s="448"/>
+      <c r="AC661" s="445"/>
     </row>
     <row r="662" spans="12:29">
       <c r="L662" s="54"/>
       <c r="M662" s="249"/>
       <c r="P662" s="54"/>
-      <c r="U662" s="448"/>
+      <c r="U662" s="445"/>
       <c r="X662" s="54"/>
-      <c r="AC662" s="448"/>
+      <c r="AC662" s="445"/>
     </row>
     <row r="663" spans="12:29">
       <c r="L663" s="54"/>
       <c r="M663" s="249"/>
       <c r="P663" s="54"/>
-      <c r="U663" s="448"/>
+      <c r="U663" s="445"/>
       <c r="X663" s="54"/>
-      <c r="AC663" s="448"/>
+      <c r="AC663" s="445"/>
     </row>
     <row r="664" spans="12:29">
       <c r="L664" s="54"/>
       <c r="M664" s="249"/>
       <c r="P664" s="54"/>
-      <c r="U664" s="448"/>
+      <c r="U664" s="445"/>
       <c r="X664" s="54"/>
-      <c r="AC664" s="448"/>
+      <c r="AC664" s="445"/>
     </row>
     <row r="665" spans="12:29">
       <c r="L665" s="54"/>
       <c r="M665" s="249"/>
       <c r="P665" s="54"/>
-      <c r="U665" s="448"/>
+      <c r="U665" s="445"/>
       <c r="X665" s="54"/>
-      <c r="AC665" s="448"/>
+      <c r="AC665" s="445"/>
     </row>
     <row r="666" spans="12:29">
       <c r="L666" s="54"/>
       <c r="M666" s="249"/>
       <c r="P666" s="54"/>
-      <c r="U666" s="448"/>
+      <c r="U666" s="445"/>
       <c r="X666" s="54"/>
-      <c r="AC666" s="448"/>
+      <c r="AC666" s="445"/>
     </row>
     <row r="667" spans="12:29">
       <c r="L667" s="54"/>
       <c r="M667" s="249"/>
       <c r="P667" s="54"/>
-      <c r="U667" s="448"/>
+      <c r="U667" s="445"/>
       <c r="X667" s="54"/>
-      <c r="AC667" s="448"/>
+      <c r="AC667" s="445"/>
     </row>
     <row r="668" spans="12:29">
       <c r="L668" s="54"/>
       <c r="M668" s="249"/>
       <c r="P668" s="54"/>
-      <c r="U668" s="448"/>
+      <c r="U668" s="445"/>
       <c r="X668" s="54"/>
-      <c r="AC668" s="448"/>
+      <c r="AC668" s="445"/>
     </row>
     <row r="669" spans="12:29">
       <c r="L669" s="54"/>
       <c r="M669" s="249"/>
       <c r="P669" s="54"/>
-      <c r="U669" s="448"/>
+      <c r="U669" s="445"/>
       <c r="X669" s="54"/>
-      <c r="AC669" s="448"/>
+      <c r="AC669" s="445"/>
     </row>
     <row r="670" spans="12:29">
       <c r="L670" s="54"/>
       <c r="M670" s="249"/>
       <c r="P670" s="54"/>
-      <c r="U670" s="448"/>
+      <c r="U670" s="445"/>
       <c r="X670" s="54"/>
-      <c r="AC670" s="448"/>
+      <c r="AC670" s="445"/>
     </row>
     <row r="671" spans="12:29">
       <c r="L671" s="54"/>
       <c r="M671" s="249"/>
       <c r="P671" s="54"/>
-      <c r="U671" s="448"/>
+      <c r="U671" s="445"/>
       <c r="X671" s="54"/>
-      <c r="AC671" s="448"/>
+      <c r="AC671" s="445"/>
     </row>
     <row r="672" spans="12:29">
       <c r="L672" s="54"/>
       <c r="M672" s="249"/>
       <c r="P672" s="54"/>
-      <c r="U672" s="448"/>
+      <c r="U672" s="445"/>
       <c r="X672" s="54"/>
-      <c r="AC672" s="448"/>
+      <c r="AC672" s="445"/>
     </row>
     <row r="673" spans="12:29">
       <c r="L673" s="54"/>
       <c r="M673" s="249"/>
       <c r="P673" s="54"/>
-      <c r="U673" s="448"/>
+      <c r="U673" s="445"/>
       <c r="X673" s="54"/>
-      <c r="AC673" s="448"/>
+      <c r="AC673" s="445"/>
     </row>
     <row r="674" spans="12:29">
       <c r="L674" s="54"/>
       <c r="M674" s="249"/>
       <c r="P674" s="54"/>
-      <c r="U674" s="448"/>
+      <c r="U674" s="445"/>
       <c r="X674" s="54"/>
-      <c r="AC674" s="448"/>
+      <c r="AC674" s="445"/>
     </row>
     <row r="675" spans="12:29">
       <c r="L675" s="54"/>
       <c r="M675" s="249"/>
       <c r="P675" s="54"/>
-      <c r="U675" s="448"/>
+      <c r="U675" s="445"/>
       <c r="X675" s="54"/>
-      <c r="AC675" s="448"/>
+      <c r="AC675" s="445"/>
     </row>
     <row r="676" spans="12:29">
       <c r="L676" s="54"/>
       <c r="M676" s="249"/>
       <c r="P676" s="54"/>
-      <c r="U676" s="448"/>
+      <c r="U676" s="445"/>
       <c r="X676" s="54"/>
-      <c r="AC676" s="448"/>
+      <c r="AC676" s="445"/>
     </row>
     <row r="677" spans="12:29">
       <c r="L677" s="54"/>
       <c r="M677" s="249"/>
       <c r="P677" s="54"/>
-      <c r="U677" s="448"/>
+      <c r="U677" s="445"/>
       <c r="X677" s="54"/>
-      <c r="AC677" s="448"/>
+      <c r="AC677" s="445"/>
     </row>
     <row r="678" spans="12:29">
       <c r="L678" s="54"/>
       <c r="M678" s="249"/>
       <c r="P678" s="54"/>
-      <c r="U678" s="448"/>
+      <c r="U678" s="445"/>
       <c r="X678" s="54"/>
-      <c r="AC678" s="448"/>
+      <c r="AC678" s="445"/>
     </row>
     <row r="679" spans="12:29">
       <c r="L679" s="54"/>
       <c r="M679" s="249"/>
       <c r="P679" s="54"/>
-      <c r="U679" s="448"/>
+      <c r="U679" s="445"/>
       <c r="X679" s="54"/>
-      <c r="AC679" s="448"/>
+      <c r="AC679" s="445"/>
     </row>
     <row r="680" spans="12:29">
       <c r="L680" s="54"/>
       <c r="M680" s="249"/>
       <c r="P680" s="54"/>
-      <c r="U680" s="448"/>
+      <c r="U680" s="445"/>
       <c r="X680" s="54"/>
-      <c r="AC680" s="448"/>
+      <c r="AC680" s="445"/>
     </row>
     <row r="681" spans="12:29">
       <c r="L681" s="54"/>
       <c r="M681" s="249"/>
       <c r="P681" s="54"/>
-      <c r="U681" s="448"/>
+      <c r="U681" s="445"/>
       <c r="X681" s="54"/>
-      <c r="AC681" s="448"/>
+      <c r="AC681" s="445"/>
     </row>
     <row r="682" spans="12:29">
       <c r="L682" s="54"/>
       <c r="M682" s="249"/>
       <c r="P682" s="54"/>
-      <c r="U682" s="448"/>
+      <c r="U682" s="445"/>
       <c r="X682" s="54"/>
-      <c r="AC682" s="448"/>
+      <c r="AC682" s="445"/>
     </row>
     <row r="683" spans="12:29">
       <c r="L683" s="54"/>
       <c r="M683" s="249"/>
       <c r="P683" s="54"/>
-      <c r="U683" s="448"/>
+      <c r="U683" s="445"/>
       <c r="X683" s="54"/>
-      <c r="AC683" s="448"/>
+      <c r="AC683" s="445"/>
     </row>
     <row r="684" spans="12:29">
       <c r="L684" s="54"/>
       <c r="M684" s="249"/>
       <c r="P684" s="54"/>
-      <c r="U684" s="448"/>
+      <c r="U684" s="445"/>
       <c r="X684" s="54"/>
-      <c r="AC684" s="448"/>
+      <c r="AC684" s="445"/>
     </row>
     <row r="685" spans="12:29">
       <c r="L685" s="54"/>
       <c r="M685" s="249"/>
       <c r="P685" s="54"/>
-      <c r="U685" s="448"/>
+      <c r="U685" s="445"/>
       <c r="X685" s="54"/>
-      <c r="AC685" s="448"/>
+      <c r="AC685" s="445"/>
     </row>
     <row r="686" spans="12:29">
       <c r="L686" s="54"/>
       <c r="M686" s="249"/>
       <c r="P686" s="54"/>
-      <c r="U686" s="448"/>
+      <c r="U686" s="445"/>
       <c r="X686" s="54"/>
-      <c r="AC686" s="448"/>
+      <c r="AC686" s="445"/>
     </row>
     <row r="687" spans="12:29">
       <c r="L687" s="54"/>
       <c r="M687" s="249"/>
       <c r="P687" s="54"/>
-      <c r="U687" s="448"/>
+      <c r="U687" s="445"/>
       <c r="X687" s="54"/>
-      <c r="AC687" s="448"/>
+      <c r="AC687" s="445"/>
     </row>
     <row r="688" spans="12:29">
       <c r="L688" s="54"/>
       <c r="M688" s="249"/>
       <c r="P688" s="54"/>
-      <c r="U688" s="448"/>
+      <c r="U688" s="445"/>
       <c r="X688" s="54"/>
-      <c r="AC688" s="448"/>
+      <c r="AC688" s="445"/>
     </row>
     <row r="689" spans="12:29">
       <c r="L689" s="54"/>
       <c r="M689" s="249"/>
       <c r="P689" s="54"/>
-      <c r="U689" s="448"/>
+      <c r="U689" s="445"/>
       <c r="X689" s="54"/>
-      <c r="AC689" s="448"/>
+      <c r="AC689" s="445"/>
     </row>
     <row r="690" spans="12:29">
       <c r="L690" s="54"/>
       <c r="M690" s="249"/>
       <c r="P690" s="54"/>
-      <c r="U690" s="448"/>
+      <c r="U690" s="445"/>
       <c r="X690" s="54"/>
-      <c r="AC690" s="448"/>
+      <c r="AC690" s="445"/>
     </row>
     <row r="691" spans="12:29">
       <c r="L691" s="54"/>
       <c r="M691" s="249"/>
       <c r="P691" s="54"/>
-      <c r="U691" s="448"/>
+      <c r="U691" s="445"/>
       <c r="X691" s="54"/>
-      <c r="AC691" s="448"/>
+      <c r="AC691" s="445"/>
     </row>
     <row r="692" spans="12:29">
       <c r="L692" s="54"/>
       <c r="M692" s="249"/>
       <c r="P692" s="54"/>
-      <c r="U692" s="448"/>
+      <c r="U692" s="445"/>
       <c r="X692" s="54"/>
-      <c r="AC692" s="448"/>
+      <c r="AC692" s="445"/>
     </row>
     <row r="693" spans="12:29">
       <c r="L693" s="54"/>
       <c r="M693" s="249"/>
       <c r="P693" s="54"/>
-      <c r="U693" s="448"/>
+      <c r="U693" s="445"/>
       <c r="X693" s="54"/>
-      <c r="AC693" s="448"/>
+      <c r="AC693" s="445"/>
     </row>
     <row r="694" spans="12:29">
       <c r="L694" s="54"/>
       <c r="M694" s="249"/>
       <c r="P694" s="54"/>
-      <c r="U694" s="448"/>
+      <c r="U694" s="445"/>
       <c r="X694" s="54"/>
-      <c r="AC694" s="448"/>
+      <c r="AC694" s="445"/>
     </row>
     <row r="695" spans="12:29">
       <c r="L695" s="54"/>
       <c r="M695" s="249"/>
       <c r="P695" s="54"/>
-      <c r="U695" s="448"/>
+      <c r="U695" s="445"/>
       <c r="X695" s="54"/>
-      <c r="AC695" s="448"/>
+      <c r="AC695" s="445"/>
     </row>
     <row r="696" spans="12:29">
       <c r="L696" s="54"/>
       <c r="M696" s="249"/>
       <c r="P696" s="54"/>
-      <c r="U696" s="448"/>
+      <c r="U696" s="445"/>
       <c r="X696" s="54"/>
-      <c r="AC696" s="448"/>
+      <c r="AC696" s="445"/>
     </row>
     <row r="697" spans="12:29">
       <c r="L697" s="54"/>
       <c r="M697" s="249"/>
       <c r="P697" s="54"/>
-      <c r="U697" s="448"/>
+      <c r="U697" s="445"/>
       <c r="X697" s="54"/>
-      <c r="AC697" s="448"/>
+      <c r="AC697" s="445"/>
     </row>
     <row r="698" spans="12:29">
       <c r="L698" s="54"/>
       <c r="M698" s="249"/>
       <c r="P698" s="54"/>
-      <c r="U698" s="448"/>
+      <c r="U698" s="445"/>
       <c r="X698" s="54"/>
-      <c r="AC698" s="448"/>
+      <c r="AC698" s="445"/>
     </row>
     <row r="699" spans="12:29">
       <c r="L699" s="54"/>
       <c r="M699" s="249"/>
       <c r="P699" s="54"/>
-      <c r="U699" s="448"/>
+      <c r="U699" s="445"/>
       <c r="X699" s="54"/>
-      <c r="AC699" s="448"/>
+      <c r="AC699" s="445"/>
     </row>
     <row r="700" spans="12:29">
       <c r="L700" s="54"/>
       <c r="M700" s="249"/>
       <c r="P700" s="54"/>
-      <c r="U700" s="448"/>
+      <c r="U700" s="445"/>
       <c r="X700" s="54"/>
-      <c r="AC700" s="448"/>
+      <c r="AC700" s="445"/>
     </row>
     <row r="701" spans="12:29">
       <c r="L701" s="54"/>
       <c r="M701" s="249"/>
       <c r="P701" s="54"/>
-      <c r="U701" s="448"/>
+      <c r="U701" s="445"/>
       <c r="X701" s="54"/>
-      <c r="AC701" s="448"/>
+      <c r="AC701" s="445"/>
     </row>
     <row r="702" spans="12:29">
       <c r="L702" s="54"/>
       <c r="M702" s="249"/>
       <c r="P702" s="54"/>
-      <c r="U702" s="448"/>
+      <c r="U702" s="445"/>
       <c r="X702" s="54"/>
-      <c r="AC702" s="448"/>
+      <c r="AC702" s="445"/>
     </row>
     <row r="703" spans="12:29">
       <c r="L703" s="54"/>
       <c r="M703" s="249"/>
       <c r="P703" s="54"/>
-      <c r="U703" s="448"/>
+      <c r="U703" s="445"/>
       <c r="X703" s="54"/>
-      <c r="AC703" s="448"/>
+      <c r="AC703" s="445"/>
     </row>
     <row r="704" spans="12:29">
       <c r="L704" s="54"/>
       <c r="M704" s="249"/>
       <c r="P704" s="54"/>
-      <c r="U704" s="448"/>
+      <c r="U704" s="445"/>
       <c r="X704" s="54"/>
-      <c r="AC704" s="448"/>
+      <c r="AC704" s="445"/>
     </row>
     <row r="705" spans="12:29">
       <c r="L705" s="54"/>
       <c r="M705" s="249"/>
       <c r="P705" s="54"/>
-      <c r="U705" s="448"/>
+      <c r="U705" s="445"/>
       <c r="X705" s="54"/>
-      <c r="AC705" s="448"/>
+      <c r="AC705" s="445"/>
     </row>
     <row r="706" spans="12:29">
       <c r="L706" s="54"/>
       <c r="M706" s="249"/>
       <c r="P706" s="54"/>
-      <c r="U706" s="448"/>
+      <c r="U706" s="445"/>
       <c r="X706" s="54"/>
-      <c r="AC706" s="448"/>
+      <c r="AC706" s="445"/>
     </row>
     <row r="707" spans="12:29">
       <c r="L707" s="54"/>
       <c r="M707" s="249"/>
       <c r="P707" s="54"/>
-      <c r="U707" s="448"/>
+      <c r="U707" s="445"/>
       <c r="X707" s="54"/>
-      <c r="AC707" s="448"/>
+      <c r="AC707" s="445"/>
     </row>
     <row r="708" spans="12:29">
       <c r="L708" s="54"/>
       <c r="M708" s="249"/>
       <c r="P708" s="54"/>
-      <c r="U708" s="448"/>
+      <c r="U708" s="445"/>
       <c r="X708" s="54"/>
-      <c r="AC708" s="448"/>
+      <c r="AC708" s="445"/>
     </row>
     <row r="709" spans="12:29">
       <c r="L709" s="54"/>
       <c r="M709" s="249"/>
       <c r="P709" s="54"/>
-      <c r="U709" s="448"/>
+      <c r="U709" s="445"/>
       <c r="X709" s="54"/>
-      <c r="AC709" s="448"/>
+      <c r="AC709" s="445"/>
     </row>
     <row r="710" spans="12:29">
       <c r="L710" s="54"/>
       <c r="M710" s="249"/>
       <c r="P710" s="54"/>
-      <c r="U710" s="448"/>
+      <c r="U710" s="445"/>
       <c r="X710" s="54"/>
-      <c r="AC710" s="448"/>
+      <c r="AC710" s="445"/>
     </row>
     <row r="711" spans="12:29">
       <c r="L711" s="54"/>
       <c r="M711" s="249"/>
       <c r="P711" s="54"/>
-      <c r="U711" s="448"/>
+      <c r="U711" s="445"/>
       <c r="X711" s="54"/>
-      <c r="AC711" s="448"/>
+      <c r="AC711" s="445"/>
     </row>
     <row r="712" spans="12:29">
       <c r="L712" s="54"/>
       <c r="M712" s="249"/>
       <c r="P712" s="54"/>
-      <c r="U712" s="448"/>
+      <c r="U712" s="445"/>
       <c r="X712" s="54"/>
-      <c r="AC712" s="448"/>
+      <c r="AC712" s="445"/>
     </row>
     <row r="713" spans="12:29">
       <c r="L713" s="54"/>
       <c r="M713" s="249"/>
       <c r="P713" s="54"/>
-      <c r="U713" s="448"/>
+      <c r="U713" s="445"/>
       <c r="X713" s="54"/>
-      <c r="AC713" s="448"/>
+      <c r="AC713" s="445"/>
     </row>
     <row r="714" spans="12:29">
       <c r="L714" s="54"/>
       <c r="M714" s="249"/>
       <c r="P714" s="54"/>
-      <c r="U714" s="448"/>
+      <c r="U714" s="445"/>
       <c r="X714" s="54"/>
-      <c r="AC714" s="448"/>
+      <c r="AC714" s="445"/>
     </row>
     <row r="715" spans="12:29">
       <c r="L715" s="54"/>
       <c r="M715" s="249"/>
       <c r="P715" s="54"/>
-      <c r="U715" s="448"/>
+      <c r="U715" s="445"/>
       <c r="X715" s="54"/>
-      <c r="AC715" s="448"/>
+      <c r="AC715" s="445"/>
     </row>
     <row r="716" spans="12:29">
       <c r="L716" s="54"/>
       <c r="M716" s="249"/>
       <c r="P716" s="54"/>
-      <c r="U716" s="448"/>
+      <c r="U716" s="445"/>
       <c r="X716" s="54"/>
-      <c r="AC716" s="448"/>
+      <c r="AC716" s="445"/>
     </row>
     <row r="717" spans="12:29">
       <c r="L717" s="54"/>
       <c r="M717" s="249"/>
       <c r="P717" s="54"/>
-      <c r="U717" s="448"/>
+      <c r="U717" s="445"/>
       <c r="X717" s="54"/>
-      <c r="AC717" s="448"/>
+      <c r="AC717" s="445"/>
     </row>
     <row r="718" spans="12:29">
       <c r="L718" s="54"/>
       <c r="M718" s="249"/>
       <c r="P718" s="54"/>
-      <c r="U718" s="448"/>
+      <c r="U718" s="445"/>
       <c r="X718" s="54"/>
-      <c r="AC718" s="448"/>
+      <c r="AC718" s="445"/>
     </row>
     <row r="719" spans="12:29">
       <c r="L719" s="54"/>
       <c r="M719" s="249"/>
       <c r="P719" s="54"/>
-      <c r="U719" s="448"/>
+      <c r="U719" s="445"/>
       <c r="X719" s="54"/>
-      <c r="AC719" s="448"/>
+      <c r="AC719" s="445"/>
     </row>
     <row r="720" spans="12:29">
       <c r="L720" s="54"/>
       <c r="M720" s="249"/>
       <c r="P720" s="54"/>
-      <c r="U720" s="448"/>
+      <c r="U720" s="445"/>
       <c r="X720" s="54"/>
-      <c r="AC720" s="448"/>
+      <c r="AC720" s="445"/>
     </row>
     <row r="721" spans="12:29">
       <c r="L721" s="54"/>
       <c r="M721" s="249"/>
       <c r="P721" s="54"/>
-      <c r="U721" s="448"/>
+      <c r="U721" s="445"/>
       <c r="X721" s="54"/>
-      <c r="AC721" s="448"/>
+      <c r="AC721" s="445"/>
     </row>
     <row r="722" spans="12:29">
       <c r="L722" s="54"/>
       <c r="M722" s="249"/>
       <c r="P722" s="54"/>
-      <c r="U722" s="448"/>
+      <c r="U722" s="445"/>
       <c r="X722" s="54"/>
-      <c r="AC722" s="448"/>
+      <c r="AC722" s="445"/>
     </row>
     <row r="723" spans="12:29">
       <c r="L723" s="54"/>
       <c r="M723" s="249"/>
       <c r="P723" s="54"/>
-      <c r="U723" s="448"/>
+      <c r="U723" s="445"/>
       <c r="X723" s="54"/>
-      <c r="AC723" s="448"/>
+      <c r="AC723" s="445"/>
     </row>
     <row r="724" spans="12:29">
       <c r="L724" s="54"/>
       <c r="M724" s="249"/>
       <c r="P724" s="54"/>
-      <c r="U724" s="448"/>
+      <c r="U724" s="445"/>
       <c r="X724" s="54"/>
-      <c r="AC724" s="448"/>
+      <c r="AC724" s="445"/>
     </row>
     <row r="725" spans="12:29">
       <c r="L725" s="54"/>
       <c r="M725" s="249"/>
       <c r="P725" s="54"/>
-      <c r="U725" s="448"/>
+      <c r="U725" s="445"/>
       <c r="X725" s="54"/>
-      <c r="AC725" s="448"/>
+      <c r="AC725" s="445"/>
     </row>
     <row r="726" spans="12:29">
       <c r="L726" s="54"/>
       <c r="M726" s="249"/>
       <c r="P726" s="54"/>
-      <c r="U726" s="448"/>
+      <c r="U726" s="445"/>
       <c r="X726" s="54"/>
-      <c r="AC726" s="448"/>
+      <c r="AC726" s="445"/>
     </row>
     <row r="727" spans="12:29">
       <c r="L727" s="54"/>
       <c r="M727" s="249"/>
       <c r="P727" s="54"/>
-      <c r="U727" s="448"/>
+      <c r="U727" s="445"/>
       <c r="X727" s="54"/>
-      <c r="AC727" s="448"/>
+      <c r="AC727" s="445"/>
     </row>
     <row r="728" spans="12:29">
       <c r="L728" s="54"/>
       <c r="M728" s="249"/>
       <c r="P728" s="54"/>
-      <c r="U728" s="448"/>
+      <c r="U728" s="445"/>
       <c r="X728" s="54"/>
-      <c r="AC728" s="448"/>
+      <c r="AC728" s="445"/>
     </row>
     <row r="729" spans="12:29">
       <c r="L729" s="54"/>
       <c r="M729" s="249"/>
       <c r="P729" s="54"/>
-      <c r="U729" s="448"/>
+      <c r="U729" s="445"/>
       <c r="X729" s="54"/>
-      <c r="AC729" s="448"/>
+      <c r="AC729" s="445"/>
     </row>
     <row r="730" spans="12:29">
       <c r="L730" s="54"/>
       <c r="M730" s="249"/>
       <c r="P730" s="54"/>
-      <c r="U730" s="448"/>
+      <c r="U730" s="445"/>
       <c r="X730" s="54"/>
-      <c r="AC730" s="448"/>
+      <c r="AC730" s="445"/>
     </row>
     <row r="731" spans="12:29">
       <c r="L731" s="54"/>
       <c r="M731" s="249"/>
       <c r="P731" s="54"/>
-      <c r="U731" s="448"/>
+      <c r="U731" s="445"/>
       <c r="X731" s="54"/>
-      <c r="AC731" s="448"/>
+      <c r="AC731" s="445"/>
     </row>
     <row r="732" spans="12:29">
       <c r="L732" s="54"/>
       <c r="M732" s="249"/>
       <c r="P732" s="54"/>
-      <c r="U732" s="448"/>
+      <c r="U732" s="445"/>
       <c r="X732" s="54"/>
-      <c r="AC732" s="448"/>
+      <c r="AC732" s="445"/>
     </row>
     <row r="733" spans="12:29">
       <c r="L733" s="54"/>
       <c r="M733" s="249"/>
       <c r="P733" s="54"/>
-      <c r="U733" s="448"/>
+      <c r="U733" s="445"/>
       <c r="X733" s="54"/>
-      <c r="AC733" s="448"/>
+      <c r="AC733" s="445"/>
     </row>
     <row r="734" spans="12:29">
       <c r="L734" s="54"/>
       <c r="M734" s="249"/>
       <c r="P734" s="54"/>
-      <c r="U734" s="448"/>
+      <c r="U734" s="445"/>
       <c r="X734" s="54"/>
-      <c r="AC734" s="448"/>
+      <c r="AC734" s="445"/>
     </row>
     <row r="735" spans="12:29">
       <c r="L735" s="54"/>
       <c r="M735" s="249"/>
       <c r="P735" s="54"/>
-      <c r="U735" s="448"/>
+      <c r="U735" s="445"/>
       <c r="X735" s="54"/>
-      <c r="AC735" s="448"/>
+      <c r="AC735" s="445"/>
     </row>
     <row r="736" spans="12:29">
       <c r="L736" s="54"/>
       <c r="M736" s="249"/>
       <c r="P736" s="54"/>
-      <c r="U736" s="448"/>
+      <c r="U736" s="445"/>
       <c r="X736" s="54"/>
-      <c r="AC736" s="448"/>
+      <c r="AC736" s="445"/>
     </row>
     <row r="737" spans="12:29">
       <c r="L737" s="54"/>
       <c r="M737" s="249"/>
       <c r="P737" s="54"/>
-      <c r="U737" s="448"/>
+      <c r="U737" s="445"/>
       <c r="X737" s="54"/>
-      <c r="AC737" s="448"/>
+      <c r="AC737" s="445"/>
     </row>
     <row r="738" spans="12:29">
       <c r="L738" s="54"/>
       <c r="M738" s="249"/>
       <c r="P738" s="54"/>
-      <c r="U738" s="448"/>
+      <c r="U738" s="445"/>
       <c r="X738" s="54"/>
-      <c r="AC738" s="448"/>
+      <c r="AC738" s="445"/>
     </row>
     <row r="739" spans="12:29">
       <c r="L739" s="54"/>
       <c r="M739" s="249"/>
       <c r="P739" s="54"/>
-      <c r="U739" s="448"/>
+      <c r="U739" s="445"/>
       <c r="X739" s="54"/>
-      <c r="AC739" s="448"/>
+      <c r="AC739" s="445"/>
     </row>
     <row r="740" spans="12:29">
       <c r="L740" s="54"/>
       <c r="M740" s="249"/>
       <c r="P740" s="54"/>
-      <c r="U740" s="448"/>
+      <c r="U740" s="445"/>
       <c r="X740" s="54"/>
-      <c r="AC740" s="448"/>
+      <c r="AC740" s="445"/>
     </row>
     <row r="741" spans="12:29">
       <c r="L741" s="54"/>
       <c r="M741" s="249"/>
       <c r="P741" s="54"/>
-      <c r="U741" s="448"/>
+      <c r="U741" s="445"/>
       <c r="X741" s="54"/>
-      <c r="AC741" s="448"/>
+      <c r="AC741" s="445"/>
     </row>
     <row r="742" spans="12:29">
       <c r="L742" s="54"/>
       <c r="M742" s="249"/>
       <c r="P742" s="54"/>
-      <c r="U742" s="448"/>
+      <c r="U742" s="445"/>
       <c r="X742" s="54"/>
-      <c r="AC742" s="448"/>
+      <c r="AC742" s="445"/>
     </row>
     <row r="743" spans="12:29">
       <c r="L743" s="54"/>
       <c r="M743" s="249"/>
       <c r="P743" s="54"/>
-      <c r="U743" s="448"/>
+      <c r="U743" s="445"/>
       <c r="X743" s="54"/>
-      <c r="AC743" s="448"/>
+      <c r="AC743" s="445"/>
     </row>
     <row r="744" spans="12:29">
       <c r="L744" s="54"/>
       <c r="M744" s="249"/>
       <c r="P744" s="54"/>
-      <c r="U744" s="448"/>
+      <c r="U744" s="445"/>
       <c r="X744" s="54"/>
-      <c r="AC744" s="448"/>
+      <c r="AC744" s="445"/>
     </row>
     <row r="745" spans="12:29">
       <c r="L745" s="54"/>
       <c r="M745" s="249"/>
       <c r="P745" s="54"/>
-      <c r="U745" s="448"/>
+      <c r="U745" s="445"/>
       <c r="X745" s="54"/>
-      <c r="AC745" s="448"/>
+      <c r="AC745" s="445"/>
     </row>
     <row r="746" spans="12:29">
       <c r="L746" s="54"/>
       <c r="M746" s="249"/>
       <c r="P746" s="54"/>
-      <c r="U746" s="448"/>
+      <c r="U746" s="445"/>
       <c r="X746" s="54"/>
-      <c r="AC746" s="448"/>
+      <c r="AC746" s="445"/>
     </row>
     <row r="747" spans="12:29">
       <c r="L747" s="54"/>
       <c r="M747" s="249"/>
       <c r="P747" s="54"/>
-      <c r="U747" s="448"/>
+      <c r="U747" s="445"/>
       <c r="X747" s="54"/>
-      <c r="AC747" s="448"/>
+      <c r="AC747" s="445"/>
     </row>
     <row r="748" spans="12:29">
       <c r="L748" s="54"/>
       <c r="M748" s="249"/>
       <c r="P748" s="54"/>
-      <c r="U748" s="448"/>
+      <c r="U748" s="445"/>
       <c r="X748" s="54"/>
-      <c r="AC748" s="448"/>
+      <c r="AC748" s="445"/>
     </row>
     <row r="749" spans="12:29">
       <c r="L749" s="54"/>
       <c r="M749" s="249"/>
       <c r="P749" s="54"/>
-      <c r="U749" s="448"/>
+      <c r="U749" s="445"/>
       <c r="X749" s="54"/>
-      <c r="AC749" s="448"/>
+      <c r="AC749" s="445"/>
     </row>
     <row r="750" spans="12:29">
       <c r="L750" s="54"/>
       <c r="M750" s="249"/>
       <c r="P750" s="54"/>
-      <c r="U750" s="448"/>
+      <c r="U750" s="445"/>
       <c r="X750" s="54"/>
-      <c r="AC750" s="448"/>
+      <c r="AC750" s="445"/>
     </row>
     <row r="751" spans="12:29">
       <c r="L751" s="54"/>
       <c r="M751" s="249"/>
       <c r="P751" s="54"/>
-      <c r="U751" s="448"/>
+      <c r="U751" s="445"/>
       <c r="X751" s="54"/>
-      <c r="AC751" s="448"/>
+      <c r="AC751" s="445"/>
     </row>
     <row r="752" spans="12:29">
       <c r="L752" s="54"/>
       <c r="M752" s="249"/>
       <c r="P752" s="54"/>
-      <c r="U752" s="448"/>
+      <c r="U752" s="445"/>
       <c r="X752" s="54"/>
-      <c r="AC752" s="448"/>
+      <c r="AC752" s="445"/>
     </row>
     <row r="753" spans="12:29">
       <c r="L753" s="54"/>
       <c r="M753" s="249"/>
       <c r="P753" s="54"/>
-      <c r="U753" s="448"/>
+      <c r="U753" s="445"/>
       <c r="X753" s="54"/>
-      <c r="AC753" s="448"/>
+      <c r="AC753" s="445"/>
     </row>
     <row r="754" spans="12:29">
       <c r="L754" s="54"/>
       <c r="M754" s="249"/>
       <c r="P754" s="54"/>
-      <c r="U754" s="448"/>
+      <c r="U754" s="445"/>
       <c r="X754" s="54"/>
-      <c r="AC754" s="448"/>
+      <c r="AC754" s="445"/>
     </row>
     <row r="755" spans="12:29">
       <c r="L755" s="54"/>
       <c r="M755" s="249"/>
       <c r="P755" s="54"/>
-      <c r="U755" s="448"/>
+      <c r="U755" s="445"/>
       <c r="X755" s="54"/>
-      <c r="AC755" s="448"/>
+      <c r="AC755" s="445"/>
     </row>
     <row r="756" spans="12:29">
       <c r="L756" s="54"/>
       <c r="M756" s="249"/>
       <c r="P756" s="54"/>
-      <c r="U756" s="448"/>
+      <c r="U756" s="445"/>
       <c r="X756" s="54"/>
-      <c r="AC756" s="448"/>
+      <c r="AC756" s="445"/>
     </row>
     <row r="757" spans="12:29">
       <c r="L757" s="54"/>
       <c r="M757" s="249"/>
       <c r="P757" s="54"/>
-      <c r="U757" s="448"/>
+      <c r="U757" s="445"/>
       <c r="X757" s="54"/>
-      <c r="AC757" s="448"/>
+      <c r="AC757" s="445"/>
     </row>
     <row r="758" spans="12:29">
       <c r="L758" s="54"/>
       <c r="M758" s="249"/>
       <c r="P758" s="54"/>
-      <c r="U758" s="448"/>
+      <c r="U758" s="445"/>
       <c r="X758" s="54"/>
-      <c r="AC758" s="448"/>
+      <c r="AC758" s="445"/>
     </row>
     <row r="759" spans="12:29">
       <c r="L759" s="54"/>
       <c r="M759" s="249"/>
       <c r="P759" s="54"/>
-      <c r="U759" s="448"/>
+      <c r="U759" s="445"/>
       <c r="X759" s="54"/>
-      <c r="AC759" s="448"/>
+      <c r="AC759" s="445"/>
     </row>
     <row r="760" spans="12:29">
       <c r="L760" s="54"/>
       <c r="M760" s="249"/>
       <c r="P760" s="54"/>
-      <c r="U760" s="448"/>
+      <c r="U760" s="445"/>
       <c r="X760" s="54"/>
-      <c r="AC760" s="448"/>
+      <c r="AC760" s="445"/>
     </row>
     <row r="761" spans="12:29">
       <c r="L761" s="54"/>
       <c r="M761" s="249"/>
       <c r="P761" s="54"/>
-      <c r="U761" s="448"/>
+      <c r="U761" s="445"/>
       <c r="X761" s="54"/>
-      <c r="AC761" s="448"/>
+      <c r="AC761" s="445"/>
     </row>
     <row r="762" spans="12:29">
       <c r="L762" s="54"/>
       <c r="M762" s="249"/>
       <c r="P762" s="54"/>
-      <c r="U762" s="448"/>
+      <c r="U762" s="445"/>
       <c r="X762" s="54"/>
-      <c r="AC762" s="448"/>
+      <c r="AC762" s="445"/>
     </row>
     <row r="763" spans="12:29">
       <c r="L763" s="54"/>
       <c r="M763" s="249"/>
       <c r="P763" s="54"/>
-      <c r="U763" s="448"/>
+      <c r="U763" s="445"/>
       <c r="X763" s="54"/>
-      <c r="AC763" s="448"/>
+      <c r="AC763" s="445"/>
     </row>
     <row r="764" spans="12:29">
       <c r="L764" s="54"/>
       <c r="M764" s="249"/>
       <c r="P764" s="54"/>
-      <c r="U764" s="448"/>
+      <c r="U764" s="445"/>
       <c r="X764" s="54"/>
-      <c r="AC764" s="448"/>
+      <c r="AC764" s="445"/>
     </row>
     <row r="765" spans="12:29">
       <c r="L765" s="54"/>
       <c r="M765" s="249"/>
       <c r="P765" s="54"/>
-      <c r="U765" s="448"/>
+      <c r="U765" s="445"/>
       <c r="X765" s="54"/>
-      <c r="AC765" s="448"/>
+      <c r="AC765" s="445"/>
     </row>
     <row r="766" spans="12:29">
       <c r="L766" s="54"/>
       <c r="M766" s="249"/>
       <c r="P766" s="54"/>
-      <c r="U766" s="448"/>
+      <c r="U766" s="445"/>
       <c r="X766" s="54"/>
-      <c r="AC766" s="448"/>
+      <c r="AC766" s="445"/>
     </row>
     <row r="767" spans="12:29">
       <c r="L767" s="54"/>
       <c r="M767" s="249"/>
       <c r="P767" s="54"/>
-      <c r="U767" s="448"/>
+      <c r="U767" s="445"/>
       <c r="X767" s="54"/>
-      <c r="AC767" s="448"/>
+      <c r="AC767" s="445"/>
     </row>
     <row r="768" spans="12:29">
       <c r="L768" s="54"/>
       <c r="M768" s="249"/>
       <c r="P768" s="54"/>
-      <c r="U768" s="448"/>
+      <c r="U768" s="445"/>
       <c r="X768" s="54"/>
-      <c r="AC768" s="448"/>
+      <c r="AC768" s="445"/>
     </row>
     <row r="769" spans="12:29">
       <c r="L769" s="54"/>
       <c r="M769" s="249"/>
       <c r="P769" s="54"/>
-      <c r="U769" s="448"/>
+      <c r="U769" s="445"/>
       <c r="X769" s="54"/>
-      <c r="AC769" s="448"/>
+      <c r="AC769" s="445"/>
     </row>
     <row r="770" spans="12:29">
       <c r="L770" s="54"/>
       <c r="M770" s="249"/>
       <c r="P770" s="54"/>
-      <c r="U770" s="448"/>
+      <c r="U770" s="445"/>
       <c r="X770" s="54"/>
-      <c r="AC770" s="448"/>
+      <c r="AC770" s="445"/>
     </row>
     <row r="771" spans="12:29">
       <c r="L771" s="54"/>
       <c r="M771" s="249"/>
       <c r="P771" s="54"/>
-      <c r="U771" s="448"/>
+      <c r="U771" s="445"/>
       <c r="X771" s="54"/>
-      <c r="AC771" s="448"/>
+      <c r="AC771" s="445"/>
     </row>
     <row r="772" spans="12:29">
       <c r="L772" s="54"/>
       <c r="M772" s="249"/>
       <c r="P772" s="54"/>
-      <c r="U772" s="448"/>
+      <c r="U772" s="445"/>
       <c r="X772" s="54"/>
-      <c r="AC772" s="448"/>
+      <c r="AC772" s="445"/>
     </row>
     <row r="773" spans="12:29">
       <c r="L773" s="54"/>
       <c r="M773" s="249"/>
       <c r="P773" s="54"/>
-      <c r="U773" s="448"/>
+      <c r="U773" s="445"/>
       <c r="X773" s="54"/>
-      <c r="AC773" s="448"/>
+      <c r="AC773" s="445"/>
     </row>
     <row r="774" spans="12:29">
       <c r="L774" s="54"/>
       <c r="M774" s="249"/>
       <c r="P774" s="54"/>
-      <c r="U774" s="448"/>
+      <c r="U774" s="445"/>
       <c r="X774" s="54"/>
-      <c r="AC774" s="448"/>
+      <c r="AC774" s="445"/>
     </row>
     <row r="775" spans="12:29">
       <c r="L775" s="54"/>
       <c r="M775" s="249"/>
       <c r="P775" s="54"/>
-      <c r="U775" s="448"/>
+      <c r="U775" s="445"/>
       <c r="X775" s="54"/>
-      <c r="AC775" s="448"/>
+      <c r="AC775" s="445"/>
     </row>
     <row r="776" spans="12:29">
       <c r="L776" s="54"/>
       <c r="M776" s="249"/>
       <c r="P776" s="54"/>
-      <c r="U776" s="448"/>
+      <c r="U776" s="445"/>
       <c r="X776" s="54"/>
-      <c r="AC776" s="448"/>
+      <c r="AC776" s="445"/>
     </row>
     <row r="777" spans="12:29">
       <c r="L777" s="54"/>
       <c r="M777" s="249"/>
       <c r="P777" s="54"/>
-      <c r="U777" s="448"/>
+      <c r="U777" s="445"/>
       <c r="X777" s="54"/>
-      <c r="AC777" s="448"/>
+      <c r="AC777" s="445"/>
     </row>
     <row r="778" spans="12:29">
       <c r="L778" s="54"/>
       <c r="M778" s="249"/>
       <c r="P778" s="54"/>
-      <c r="U778" s="448"/>
+      <c r="U778" s="445"/>
       <c r="X778" s="54"/>
-      <c r="AC778" s="448"/>
+      <c r="AC778" s="445"/>
     </row>
     <row r="779" spans="12:29">
       <c r="L779" s="54"/>
       <c r="M779" s="249"/>
       <c r="P779" s="54"/>
-      <c r="U779" s="448"/>
+      <c r="U779" s="445"/>
       <c r="X779" s="54"/>
-      <c r="AC779" s="448"/>
+      <c r="AC779" s="445"/>
     </row>
     <row r="780" spans="12:29">
       <c r="L780" s="54"/>
       <c r="M780" s="249"/>
       <c r="P780" s="54"/>
-      <c r="U780" s="448"/>
+      <c r="U780" s="445"/>
       <c r="X780" s="54"/>
-      <c r="AC780" s="448"/>
+      <c r="AC780" s="445"/>
     </row>
     <row r="781" spans="12:29">
       <c r="L781" s="54"/>
       <c r="M781" s="249"/>
       <c r="P781" s="54"/>
-      <c r="U781" s="448"/>
+      <c r="U781" s="445"/>
       <c r="X781" s="54"/>
-      <c r="AC781" s="448"/>
+      <c r="AC781" s="445"/>
     </row>
     <row r="782" spans="12:29">
       <c r="L782" s="54"/>
       <c r="M782" s="249"/>
       <c r="P782" s="54"/>
-      <c r="U782" s="448"/>
+      <c r="U782" s="445"/>
       <c r="X782" s="54"/>
-      <c r="AC782" s="448"/>
+      <c r="AC782" s="445"/>
     </row>
     <row r="783" spans="12:29">
       <c r="L783" s="54"/>
       <c r="M783" s="249"/>
       <c r="P783" s="54"/>
-      <c r="U783" s="448"/>
+      <c r="U783" s="445"/>
       <c r="X783" s="54"/>
-      <c r="AC783" s="448"/>
+      <c r="AC783" s="445"/>
     </row>
     <row r="784" spans="12:29">
       <c r="L784" s="54"/>
       <c r="M784" s="249"/>
       <c r="P784" s="54"/>
-      <c r="U784" s="448"/>
+      <c r="U784" s="445"/>
       <c r="X784" s="54"/>
-      <c r="AC784" s="448"/>
+      <c r="AC784" s="445"/>
     </row>
     <row r="785" spans="12:29">
       <c r="L785" s="54"/>
       <c r="M785" s="249"/>
       <c r="P785" s="54"/>
-      <c r="U785" s="448"/>
+      <c r="U785" s="445"/>
       <c r="X785" s="54"/>
-      <c r="AC785" s="448"/>
+      <c r="AC785" s="445"/>
     </row>
     <row r="786" spans="12:29">
       <c r="L786" s="54"/>
       <c r="M786" s="249"/>
       <c r="P786" s="54"/>
-      <c r="U786" s="448"/>
+      <c r="U786" s="445"/>
       <c r="X786" s="54"/>
-      <c r="AC786" s="448"/>
+      <c r="AC786" s="445"/>
     </row>
     <row r="787" spans="12:29">
       <c r="L787" s="54"/>
       <c r="M787" s="249"/>
       <c r="P787" s="54"/>
-      <c r="U787" s="448"/>
+      <c r="U787" s="445"/>
       <c r="X787" s="54"/>
-      <c r="AC787" s="448"/>
+      <c r="AC787" s="445"/>
     </row>
     <row r="788" spans="12:29">
       <c r="L788" s="54"/>
       <c r="M788" s="249"/>
       <c r="P788" s="54"/>
-      <c r="U788" s="448"/>
+      <c r="U788" s="445"/>
       <c r="X788" s="54"/>
-      <c r="AC788" s="448"/>
+      <c r="AC788" s="445"/>
     </row>
     <row r="789" spans="12:29">
       <c r="L789" s="54"/>
       <c r="M789" s="249"/>
       <c r="P789" s="54"/>
-      <c r="U789" s="448"/>
+      <c r="U789" s="445"/>
       <c r="X789" s="54"/>
-      <c r="AC789" s="448"/>
+      <c r="AC789" s="445"/>
     </row>
     <row r="790" spans="12:29">
       <c r="L790" s="54"/>
       <c r="M790" s="249"/>
       <c r="P790" s="54"/>
-      <c r="U790" s="448"/>
+      <c r="U790" s="445"/>
       <c r="X790" s="54"/>
-      <c r="AC790" s="448"/>
+      <c r="AC790" s="445"/>
     </row>
     <row r="791" spans="12:29">
       <c r="L791" s="54"/>
       <c r="M791" s="249"/>
       <c r="P791" s="54"/>
-      <c r="U791" s="448"/>
+      <c r="U791" s="445"/>
       <c r="X791" s="54"/>
-      <c r="AC791" s="448"/>
+      <c r="AC791" s="445"/>
     </row>
     <row r="792" spans="12:29">
       <c r="L792" s="54"/>
       <c r="M792" s="249"/>
       <c r="P792" s="54"/>
-      <c r="U792" s="448"/>
+      <c r="U792" s="445"/>
       <c r="X792" s="54"/>
-      <c r="AC792" s="448"/>
+      <c r="AC792" s="445"/>
     </row>
     <row r="793" spans="12:29">
       <c r="L793" s="54"/>
       <c r="M793" s="249"/>
       <c r="P793" s="54"/>
-      <c r="U793" s="448"/>
+      <c r="U793" s="445"/>
       <c r="X793" s="54"/>
-      <c r="AC793" s="448"/>
+      <c r="AC793" s="445"/>
     </row>
     <row r="794" spans="12:29">
       <c r="L794" s="54"/>
       <c r="M794" s="249"/>
       <c r="P794" s="54"/>
-      <c r="U794" s="448"/>
+      <c r="U794" s="445"/>
       <c r="X794" s="54"/>
-      <c r="AC794" s="448"/>
+      <c r="AC794" s="445"/>
     </row>
     <row r="795" spans="12:29">
       <c r="L795" s="54"/>
       <c r="M795" s="249"/>
       <c r="P795" s="54"/>
-      <c r="U795" s="448"/>
+      <c r="U795" s="445"/>
       <c r="X795" s="54"/>
-      <c r="AC795" s="448"/>
+      <c r="AC795" s="445"/>
     </row>
     <row r="796" spans="12:29">
       <c r="L796" s="54"/>
       <c r="M796" s="249"/>
       <c r="P796" s="54"/>
-      <c r="U796" s="448"/>
+      <c r="U796" s="445"/>
       <c r="X796" s="54"/>
-      <c r="AC796" s="448"/>
+      <c r="AC796" s="445"/>
     </row>
     <row r="797" spans="12:29">
       <c r="L797" s="54"/>
       <c r="M797" s="249"/>
       <c r="P797" s="54"/>
-      <c r="U797" s="448"/>
+      <c r="U797" s="445"/>
       <c r="X797" s="54"/>
-      <c r="AC797" s="448"/>
+      <c r="AC797" s="445"/>
     </row>
     <row r="798" spans="12:29">
       <c r="L798" s="54"/>
       <c r="M798" s="249"/>
       <c r="P798" s="54"/>
-      <c r="U798" s="448"/>
+      <c r="U798" s="445"/>
       <c r="X798" s="54"/>
-      <c r="AC798" s="448"/>
+      <c r="AC798" s="445"/>
     </row>
     <row r="799" spans="12:29">
       <c r="L799" s="54"/>
       <c r="M799" s="249"/>
       <c r="P799" s="54"/>
-      <c r="U799" s="448"/>
+      <c r="U799" s="445"/>
       <c r="X799" s="54"/>
-      <c r="AC799" s="448"/>
+      <c r="AC799" s="445"/>
     </row>
     <row r="800" spans="12:29">
       <c r="L800" s="54"/>
       <c r="M800" s="249"/>
       <c r="P800" s="54"/>
-      <c r="U800" s="448"/>
+      <c r="U800" s="445"/>
       <c r="X800" s="54"/>
-      <c r="AC800" s="448"/>
+      <c r="AC800" s="445"/>
     </row>
     <row r="801" spans="12:29">
       <c r="L801" s="54"/>
       <c r="M801" s="249"/>
       <c r="P801" s="54"/>
-      <c r="U801" s="448"/>
+      <c r="U801" s="445"/>
       <c r="X801" s="54"/>
-      <c r="AC801" s="448"/>
+      <c r="AC801" s="445"/>
     </row>
     <row r="802" spans="12:29">
       <c r="L802" s="54"/>
       <c r="M802" s="249"/>
       <c r="P802" s="54"/>
-      <c r="U802" s="448"/>
+      <c r="U802" s="445"/>
       <c r="X802" s="54"/>
-      <c r="AC802" s="448"/>
+      <c r="AC802" s="445"/>
     </row>
     <row r="803" spans="12:29">
       <c r="L803" s="54"/>
       <c r="M803" s="249"/>
       <c r="P803" s="54"/>
-      <c r="U803" s="448"/>
+      <c r="U803" s="445"/>
       <c r="X803" s="54"/>
-      <c r="AC803" s="448"/>
+      <c r="AC803" s="445"/>
     </row>
     <row r="804" spans="12:29">
       <c r="L804" s="54"/>
       <c r="M804" s="249"/>
       <c r="P804" s="54"/>
-      <c r="U804" s="448"/>
+      <c r="U804" s="445"/>
       <c r="X804" s="54"/>
-      <c r="AC804" s="448"/>
+      <c r="AC804" s="445"/>
     </row>
     <row r="805" spans="12:29">
       <c r="L805" s="54"/>
       <c r="M805" s="249"/>
       <c r="P805" s="54"/>
-      <c r="U805" s="448"/>
+      <c r="U805" s="445"/>
       <c r="X805" s="54"/>
-      <c r="AC805" s="448"/>
+      <c r="AC805" s="445"/>
     </row>
     <row r="806" spans="12:29">
       <c r="L806" s="54"/>
       <c r="M806" s="249"/>
       <c r="P806" s="54"/>
-      <c r="U806" s="448"/>
+      <c r="U806" s="445"/>
       <c r="X806" s="54"/>
-      <c r="AC806" s="448"/>
+      <c r="AC806" s="445"/>
     </row>
     <row r="807" spans="12:29">
       <c r="L807" s="54"/>
       <c r="M807" s="249"/>
       <c r="P807" s="54"/>
-      <c r="U807" s="448"/>
+      <c r="U807" s="445"/>
       <c r="X807" s="54"/>
-      <c r="AC807" s="448"/>
+      <c r="AC807" s="445"/>
     </row>
     <row r="808" spans="12:29">
       <c r="L808" s="54"/>
       <c r="M808" s="249"/>
       <c r="P808" s="54"/>
-      <c r="U808" s="448"/>
+      <c r="U808" s="445"/>
       <c r="X808" s="54"/>
-      <c r="AC808" s="448"/>
+      <c r="AC808" s="445"/>
     </row>
     <row r="809" spans="12:29">
       <c r="L809" s="54"/>
       <c r="M809" s="249"/>
       <c r="P809" s="54"/>
-      <c r="U809" s="448"/>
+      <c r="U809" s="445"/>
       <c r="X809" s="54"/>
-      <c r="AC809" s="448"/>
+      <c r="AC809" s="445"/>
     </row>
     <row r="810" spans="12:29">
       <c r="L810" s="54"/>
       <c r="M810" s="249"/>
       <c r="P810" s="54"/>
-      <c r="U810" s="448"/>
+      <c r="U810" s="445"/>
       <c r="X810" s="54"/>
-      <c r="AC810" s="448"/>
+      <c r="AC810" s="445"/>
     </row>
     <row r="811" spans="12:29">
       <c r="L811" s="54"/>
       <c r="M811" s="249"/>
       <c r="P811" s="54"/>
-      <c r="U811" s="448"/>
+      <c r="U811" s="445"/>
       <c r="X811" s="54"/>
-      <c r="AC811" s="448"/>
+      <c r="AC811" s="445"/>
     </row>
     <row r="812" spans="12:29">
       <c r="L812" s="54"/>
       <c r="M812" s="249"/>
       <c r="P812" s="54"/>
-      <c r="U812" s="448"/>
+      <c r="U812" s="445"/>
       <c r="X812" s="54"/>
-      <c r="AC812" s="448"/>
+      <c r="AC812" s="445"/>
     </row>
     <row r="813" spans="12:29">
       <c r="L813" s="54"/>
       <c r="M813" s="249"/>
       <c r="P813" s="54"/>
-      <c r="U813" s="448"/>
+      <c r="U813" s="445"/>
       <c r="X813" s="54"/>
-      <c r="AC813" s="448"/>
+      <c r="AC813" s="445"/>
     </row>
     <row r="814" spans="12:29">
       <c r="L814" s="54"/>
       <c r="M814" s="249"/>
       <c r="P814" s="54"/>
-      <c r="U814" s="448"/>
+      <c r="U814" s="445"/>
       <c r="X814" s="54"/>
-      <c r="AC814" s="448"/>
+      <c r="AC814" s="445"/>
     </row>
     <row r="815" spans="12:29">
       <c r="L815" s="54"/>
       <c r="M815" s="249"/>
       <c r="P815" s="54"/>
-      <c r="U815" s="448"/>
+      <c r="U815" s="445"/>
       <c r="X815" s="54"/>
-      <c r="AC815" s="448"/>
+      <c r="AC815" s="445"/>
     </row>
     <row r="816" spans="12:29">
       <c r="L816" s="54"/>
       <c r="M816" s="249"/>
       <c r="P816" s="54"/>
-      <c r="U816" s="448"/>
+      <c r="U816" s="445"/>
       <c r="X816" s="54"/>
-      <c r="AC816" s="448"/>
+      <c r="AC816" s="445"/>
     </row>
     <row r="817" spans="12:29">
       <c r="L817" s="54"/>
       <c r="M817" s="249"/>
       <c r="P817" s="54"/>
-      <c r="U817" s="448"/>
+      <c r="U817" s="445"/>
       <c r="X817" s="54"/>
-      <c r="AC817" s="448"/>
+      <c r="AC817" s="445"/>
     </row>
     <row r="818" spans="12:29">
       <c r="L818" s="54"/>
       <c r="M818" s="249"/>
       <c r="P818" s="54"/>
-      <c r="U818" s="448"/>
+      <c r="U818" s="445"/>
       <c r="X818" s="54"/>
-      <c r="AC818" s="448"/>
+      <c r="AC818" s="445"/>
     </row>
     <row r="819" spans="12:29">
       <c r="L819" s="54"/>
       <c r="M819" s="249"/>
       <c r="P819" s="54"/>
-      <c r="U819" s="448"/>
+      <c r="U819" s="445"/>
       <c r="X819" s="54"/>
-      <c r="AC819" s="448"/>
+      <c r="AC819" s="445"/>
     </row>
     <row r="820" spans="12:29">
       <c r="L820" s="54"/>
       <c r="M820" s="249"/>
       <c r="P820" s="54"/>
-      <c r="U820" s="448"/>
+      <c r="U820" s="445"/>
       <c r="X820" s="54"/>
-      <c r="AC820" s="448"/>
+      <c r="AC820" s="445"/>
     </row>
     <row r="821" spans="12:29">
       <c r="L821" s="54"/>
       <c r="M821" s="249"/>
       <c r="P821" s="54"/>
-      <c r="U821" s="448"/>
+      <c r="U821" s="445"/>
       <c r="X821" s="54"/>
-      <c r="AC821" s="448"/>
+      <c r="AC821" s="445"/>
     </row>
     <row r="822" spans="12:29">
       <c r="L822" s="54"/>
       <c r="M822" s="249"/>
       <c r="P822" s="54"/>
-      <c r="U822" s="448"/>
+      <c r="U822" s="445"/>
       <c r="X822" s="54"/>
-      <c r="AC822" s="448"/>
+      <c r="AC822" s="445"/>
     </row>
     <row r="823" spans="12:29">
       <c r="L823" s="54"/>
       <c r="M823" s="249"/>
       <c r="P823" s="54"/>
-      <c r="U823" s="448"/>
+      <c r="U823" s="445"/>
       <c r="X823" s="54"/>
-      <c r="AC823" s="448"/>
+      <c r="AC823" s="445"/>
     </row>
     <row r="824" spans="12:29">
       <c r="L824" s="54"/>
       <c r="M824" s="249"/>
       <c r="P824" s="54"/>
-      <c r="U824" s="448"/>
+      <c r="U824" s="445"/>
       <c r="X824" s="54"/>
-      <c r="AC824" s="448"/>
+      <c r="AC824" s="445"/>
     </row>
     <row r="825" spans="12:29">
       <c r="L825" s="54"/>
       <c r="M825" s="249"/>
       <c r="P825" s="54"/>
-      <c r="U825" s="448"/>
+      <c r="U825" s="445"/>
       <c r="X825" s="54"/>
-      <c r="AC825" s="448"/>
+      <c r="AC825" s="445"/>
     </row>
     <row r="826" spans="12:29">
       <c r="L826" s="54"/>
       <c r="M826" s="249"/>
       <c r="P826" s="54"/>
-      <c r="U826" s="448"/>
+      <c r="U826" s="445"/>
       <c r="X826" s="54"/>
-      <c r="AC826" s="448"/>
+      <c r="AC826" s="445"/>
     </row>
     <row r="827" spans="12:29">
       <c r="L827" s="54"/>
       <c r="M827" s="249"/>
       <c r="P827" s="54"/>
-      <c r="U827" s="448"/>
+      <c r="U827" s="445"/>
       <c r="X827" s="54"/>
-      <c r="AC827" s="448"/>
+      <c r="AC827" s="445"/>
     </row>
     <row r="828" spans="12:29">
       <c r="L828" s="54"/>
       <c r="M828" s="249"/>
       <c r="P828" s="54"/>
-      <c r="U828" s="448"/>
+      <c r="U828" s="445"/>
       <c r="X828" s="54"/>
-      <c r="AC828" s="448"/>
+      <c r="AC828" s="445"/>
     </row>
     <row r="829" spans="12:29">
       <c r="L829" s="54"/>
       <c r="M829" s="249"/>
       <c r="P829" s="54"/>
-      <c r="U829" s="448"/>
+      <c r="U829" s="445"/>
       <c r="X829" s="54"/>
-      <c r="AC829" s="448"/>
+      <c r="AC829" s="445"/>
     </row>
     <row r="830" spans="12:29">
       <c r="L830" s="54"/>
       <c r="M830" s="249"/>
       <c r="P830" s="54"/>
-      <c r="U830" s="448"/>
+      <c r="U830" s="445"/>
       <c r="X830" s="54"/>
-      <c r="AC830" s="448"/>
+      <c r="AC830" s="445"/>
     </row>
     <row r="831" spans="12:29">
       <c r="L831" s="54"/>
       <c r="M831" s="249"/>
       <c r="P831" s="54"/>
-      <c r="U831" s="448"/>
+      <c r="U831" s="445"/>
       <c r="X831" s="54"/>
-      <c r="AC831" s="448"/>
+      <c r="AC831" s="445"/>
     </row>
     <row r="832" spans="12:29">
       <c r="L832" s="54"/>
       <c r="M832" s="249"/>
       <c r="P832" s="54"/>
-      <c r="U832" s="448"/>
+      <c r="U832" s="445"/>
       <c r="X832" s="54"/>
-      <c r="AC832" s="448"/>
+      <c r="AC832" s="445"/>
     </row>
     <row r="833" spans="12:29">
       <c r="L833" s="54"/>
       <c r="M833" s="249"/>
       <c r="P833" s="54"/>
-      <c r="U833" s="448"/>
+      <c r="U833" s="445"/>
       <c r="X833" s="54"/>
-      <c r="AC833" s="448"/>
+      <c r="AC833" s="445"/>
     </row>
     <row r="834" spans="12:29">
       <c r="L834" s="54"/>
       <c r="M834" s="249"/>
       <c r="P834" s="54"/>
-      <c r="U834" s="448"/>
+      <c r="U834" s="445"/>
       <c r="X834" s="54"/>
-      <c r="AC834" s="448"/>
+      <c r="AC834" s="445"/>
     </row>
     <row r="835" spans="12:29">
       <c r="L835" s="54"/>
       <c r="M835" s="249"/>
       <c r="P835" s="54"/>
-      <c r="U835" s="448"/>
+      <c r="U835" s="445"/>
       <c r="X835" s="54"/>
-      <c r="AC835" s="448"/>
+      <c r="AC835" s="445"/>
     </row>
     <row r="836" spans="12:29">
       <c r="L836" s="54"/>
       <c r="M836" s="249"/>
       <c r="P836" s="54"/>
-      <c r="U836" s="448"/>
+      <c r="U836" s="445"/>
       <c r="X836" s="54"/>
-      <c r="AC836" s="448"/>
+      <c r="AC836" s="445"/>
     </row>
     <row r="837" spans="12:29">
       <c r="L837" s="54"/>
       <c r="M837" s="249"/>
       <c r="P837" s="54"/>
-      <c r="U837" s="448"/>
+      <c r="U837" s="445"/>
       <c r="X837" s="54"/>
-      <c r="AC837" s="448"/>
+      <c r="AC837" s="445"/>
     </row>
     <row r="838" spans="12:29">
       <c r="L838" s="54"/>
       <c r="M838" s="249"/>
       <c r="P838" s="54"/>
-      <c r="U838" s="448"/>
+      <c r="U838" s="445"/>
       <c r="X838" s="54"/>
-      <c r="AC838" s="448"/>
+      <c r="AC838" s="445"/>
     </row>
     <row r="839" spans="12:29">
       <c r="L839" s="54"/>
       <c r="M839" s="249"/>
       <c r="P839" s="54"/>
-      <c r="U839" s="448"/>
+      <c r="U839" s="445"/>
       <c r="X839" s="54"/>
-      <c r="AC839" s="448"/>
+      <c r="AC839" s="445"/>
     </row>
     <row r="840" spans="12:29">
       <c r="L840" s="54"/>
       <c r="M840" s="249"/>
       <c r="P840" s="54"/>
-      <c r="U840" s="448"/>
+      <c r="U840" s="445"/>
       <c r="X840" s="54"/>
-      <c r="AC840" s="448"/>
+      <c r="AC840" s="445"/>
     </row>
     <row r="841" spans="12:29">
       <c r="L841" s="54"/>
       <c r="M841" s="249"/>
       <c r="P841" s="54"/>
-      <c r="U841" s="448"/>
+      <c r="U841" s="445"/>
       <c r="X841" s="54"/>
-      <c r="AC841" s="448"/>
+      <c r="AC841" s="445"/>
     </row>
     <row r="842" spans="12:29">
       <c r="L842" s="54"/>
       <c r="M842" s="249"/>
       <c r="P842" s="54"/>
-      <c r="U842" s="448"/>
+      <c r="U842" s="445"/>
       <c r="X842" s="54"/>
-      <c r="AC842" s="448"/>
+      <c r="AC842" s="445"/>
     </row>
     <row r="843" spans="12:29">
       <c r="L843" s="54"/>
       <c r="M843" s="249"/>
       <c r="P843" s="54"/>
-      <c r="U843" s="448"/>
+      <c r="U843" s="445"/>
       <c r="X843" s="54"/>
-      <c r="AC843" s="448"/>
+      <c r="AC843" s="445"/>
     </row>
     <row r="844" spans="12:29">
       <c r="L844" s="54"/>
       <c r="M844" s="249"/>
       <c r="P844" s="54"/>
-      <c r="U844" s="448"/>
+      <c r="U844" s="445"/>
       <c r="X844" s="54"/>
-      <c r="AC844" s="448"/>
+      <c r="AC844" s="445"/>
     </row>
     <row r="845" spans="12:29">
       <c r="L845" s="54"/>
       <c r="M845" s="249"/>
       <c r="P845" s="54"/>
-      <c r="U845" s="448"/>
+      <c r="U845" s="445"/>
       <c r="X845" s="54"/>
-      <c r="AC845" s="448"/>
+      <c r="AC845" s="445"/>
     </row>
     <row r="846" spans="12:29">
       <c r="L846" s="54"/>
       <c r="M846" s="249"/>
       <c r="P846" s="54"/>
-      <c r="U846" s="448"/>
+      <c r="U846" s="445"/>
       <c r="X846" s="54"/>
-      <c r="AC846" s="448"/>
+      <c r="AC846" s="445"/>
     </row>
     <row r="847" spans="12:29">
       <c r="L847" s="54"/>
       <c r="M847" s="249"/>
       <c r="P847" s="54"/>
-      <c r="U847" s="448"/>
+      <c r="U847" s="445"/>
       <c r="X847" s="54"/>
-      <c r="AC847" s="448"/>
+      <c r="AC847" s="445"/>
     </row>
     <row r="848" spans="12:29">
       <c r="L848" s="54"/>
       <c r="M848" s="249"/>
       <c r="P848" s="54"/>
-      <c r="U848" s="448"/>
+      <c r="U848" s="445"/>
       <c r="X848" s="54"/>
-      <c r="AC848" s="448"/>
+      <c r="AC848" s="445"/>
     </row>
     <row r="849" spans="12:29">
       <c r="L849" s="54"/>
       <c r="M849" s="249"/>
       <c r="P849" s="54"/>
-      <c r="U849" s="448"/>
+      <c r="U849" s="445"/>
       <c r="X849" s="54"/>
-      <c r="AC849" s="448"/>
+      <c r="AC849" s="445"/>
     </row>
     <row r="850" spans="12:29">
       <c r="L850" s="54"/>
       <c r="M850" s="249"/>
       <c r="P850" s="54"/>
-      <c r="U850" s="448"/>
+      <c r="U850" s="445"/>
       <c r="X850" s="54"/>
-      <c r="AC850" s="448"/>
+      <c r="AC850" s="445"/>
     </row>
     <row r="851" spans="12:29">
       <c r="L851" s="54"/>
       <c r="M851" s="249"/>
       <c r="P851" s="54"/>
-      <c r="U851" s="448"/>
+      <c r="U851" s="445"/>
       <c r="X851" s="54"/>
-      <c r="AC851" s="448"/>
+      <c r="AC851" s="445"/>
     </row>
     <row r="852" spans="12:29">
       <c r="L852" s="54"/>
       <c r="M852" s="249"/>
       <c r="P852" s="54"/>
-      <c r="U852" s="448"/>
+      <c r="U852" s="445"/>
       <c r="X852" s="54"/>
-      <c r="AC852" s="448"/>
+      <c r="AC852" s="445"/>
     </row>
     <row r="853" spans="12:29">
       <c r="L853" s="54"/>
       <c r="M853" s="249"/>
       <c r="P853" s="54"/>
-      <c r="U853" s="448"/>
+      <c r="U853" s="445"/>
       <c r="X853" s="54"/>
-      <c r="AC853" s="448"/>
+      <c r="AC853" s="445"/>
     </row>
     <row r="854" spans="12:29">
       <c r="L854" s="54"/>
       <c r="M854" s="249"/>
       <c r="P854" s="54"/>
-      <c r="U854" s="448"/>
+      <c r="U854" s="445"/>
       <c r="X854" s="54"/>
-      <c r="AC854" s="448"/>
+      <c r="AC854" s="445"/>
     </row>
     <row r="855" spans="12:29">
       <c r="L855" s="54"/>
       <c r="M855" s="249"/>
       <c r="P855" s="54"/>
-      <c r="U855" s="448"/>
+      <c r="U855" s="445"/>
       <c r="X855" s="54"/>
-      <c r="AC855" s="448"/>
+      <c r="AC855" s="445"/>
     </row>
     <row r="856" spans="12:29">
       <c r="L856" s="54"/>
       <c r="M856" s="249"/>
       <c r="P856" s="54"/>
-      <c r="U856" s="448"/>
+      <c r="U856" s="445"/>
       <c r="X856" s="54"/>
-      <c r="AC856" s="448"/>
+      <c r="AC856" s="445"/>
     </row>
     <row r="857" spans="12:29">
       <c r="L857" s="54"/>
       <c r="M857" s="249"/>
       <c r="P857" s="54"/>
-      <c r="U857" s="448"/>
+      <c r="U857" s="445"/>
       <c r="X857" s="54"/>
-      <c r="AC857" s="448"/>
+      <c r="AC857" s="445"/>
     </row>
     <row r="858" spans="12:29">
       <c r="L858" s="54"/>
       <c r="M858" s="249"/>
       <c r="P858" s="54"/>
-      <c r="U858" s="448"/>
+      <c r="U858" s="445"/>
       <c r="X858" s="54"/>
-      <c r="AC858" s="448"/>
+      <c r="AC858" s="445"/>
     </row>
     <row r="859" spans="12:29">
       <c r="L859" s="54"/>
       <c r="M859" s="249"/>
       <c r="P859" s="54"/>
-      <c r="U859" s="448"/>
+      <c r="U859" s="445"/>
       <c r="X859" s="54"/>
-      <c r="AC859" s="448"/>
+      <c r="AC859" s="445"/>
     </row>
     <row r="860" spans="12:29">
       <c r="L860" s="54"/>
       <c r="M860" s="249"/>
       <c r="P860" s="54"/>
-      <c r="U860" s="448"/>
+      <c r="U860" s="445"/>
       <c r="X860" s="54"/>
-      <c r="AC860" s="448"/>
+      <c r="AC860" s="445"/>
     </row>
     <row r="861" spans="12:29">
       <c r="L861" s="54"/>
       <c r="M861" s="249"/>
       <c r="P861" s="54"/>
-      <c r="U861" s="448"/>
+      <c r="U861" s="445"/>
       <c r="X861" s="54"/>
-      <c r="AC861" s="448"/>
+      <c r="AC861" s="445"/>
     </row>
     <row r="862" spans="12:29">
       <c r="L862" s="54"/>
       <c r="M862" s="249"/>
       <c r="P862" s="54"/>
-      <c r="U862" s="448"/>
+      <c r="U862" s="445"/>
       <c r="X862" s="54"/>
-      <c r="AC862" s="448"/>
+      <c r="AC862" s="445"/>
     </row>
     <row r="863" spans="12:29">
       <c r="L863" s="54"/>
       <c r="M863" s="249"/>
       <c r="P863" s="54"/>
-      <c r="U863" s="448"/>
+      <c r="U863" s="445"/>
       <c r="X863" s="54"/>
-      <c r="AC863" s="448"/>
+      <c r="AC863" s="445"/>
     </row>
     <row r="864" spans="12:29">
       <c r="L864" s="54"/>
       <c r="M864" s="249"/>
       <c r="P864" s="54"/>
-      <c r="U864" s="448"/>
+      <c r="U864" s="445"/>
       <c r="X864" s="54"/>
-      <c r="AC864" s="448"/>
+      <c r="AC864" s="445"/>
     </row>
     <row r="865" spans="12:29">
       <c r="L865" s="54"/>
       <c r="M865" s="249"/>
       <c r="P865" s="54"/>
-      <c r="U865" s="448"/>
+      <c r="U865" s="445"/>
       <c r="X865" s="54"/>
-      <c r="AC865" s="448"/>
+      <c r="AC865" s="445"/>
     </row>
     <row r="866" spans="12:29">
       <c r="L866" s="54"/>
       <c r="M866" s="249"/>
       <c r="P866" s="54"/>
-      <c r="U866" s="448"/>
+      <c r="U866" s="445"/>
       <c r="X866" s="54"/>
-      <c r="AC866" s="448"/>
+      <c r="AC866" s="445"/>
     </row>
     <row r="867" spans="12:29">
       <c r="L867" s="54"/>
       <c r="M867" s="249"/>
       <c r="P867" s="54"/>
-      <c r="U867" s="448"/>
+      <c r="U867" s="445"/>
       <c r="X867" s="54"/>
-      <c r="AC867" s="448"/>
+      <c r="AC867" s="445"/>
     </row>
     <row r="868" spans="12:29">
       <c r="L868" s="54"/>
       <c r="M868" s="249"/>
       <c r="P868" s="54"/>
-      <c r="U868" s="448"/>
+      <c r="U868" s="445"/>
       <c r="X868" s="54"/>
-      <c r="AC868" s="448"/>
+      <c r="AC868" s="445"/>
     </row>
     <row r="869" spans="12:29">
       <c r="L869" s="54"/>
       <c r="M869" s="249"/>
       <c r="P869" s="54"/>
-      <c r="U869" s="448"/>
+      <c r="U869" s="445"/>
       <c r="X869" s="54"/>
-      <c r="AC869" s="448"/>
+      <c r="AC869" s="445"/>
     </row>
     <row r="870" spans="12:29">
       <c r="L870" s="54"/>
       <c r="M870" s="249"/>
       <c r="P870" s="54"/>
-      <c r="U870" s="448"/>
+      <c r="U870" s="445"/>
       <c r="X870" s="54"/>
-      <c r="AC870" s="448"/>
+      <c r="AC870" s="445"/>
     </row>
     <row r="871" spans="12:29">
       <c r="L871" s="54"/>
       <c r="M871" s="249"/>
       <c r="P871" s="54"/>
-      <c r="U871" s="448"/>
+      <c r="U871" s="445"/>
       <c r="X871" s="54"/>
-      <c r="AC871" s="448"/>
+      <c r="AC871" s="445"/>
     </row>
     <row r="872" spans="12:29">
       <c r="L872" s="54"/>
       <c r="M872" s="249"/>
       <c r="P872" s="54"/>
-      <c r="U872" s="448"/>
+      <c r="U872" s="445"/>
       <c r="X872" s="54"/>
-      <c r="AC872" s="448"/>
+      <c r="AC872" s="445"/>
     </row>
     <row r="873" spans="12:29">
       <c r="L873" s="54"/>
       <c r="M873" s="249"/>
       <c r="P873" s="54"/>
-      <c r="U873" s="448"/>
+      <c r="U873" s="445"/>
       <c r="X873" s="54"/>
-      <c r="AC873" s="448"/>
+      <c r="AC873" s="445"/>
     </row>
     <row r="874" spans="12:29">
       <c r="L874" s="54"/>
       <c r="M874" s="249"/>
       <c r="P874" s="54"/>
-      <c r="U874" s="448"/>
+      <c r="U874" s="445"/>
       <c r="X874" s="54"/>
-      <c r="AC874" s="448"/>
+      <c r="AC874" s="445"/>
     </row>
     <row r="875" spans="12:29">
       <c r="L875" s="54"/>
       <c r="M875" s="249"/>
       <c r="P875" s="54"/>
-      <c r="U875" s="448"/>
+      <c r="U875" s="445"/>
       <c r="X875" s="54"/>
-      <c r="AC875" s="448"/>
+      <c r="AC875" s="445"/>
     </row>
     <row r="876" spans="12:29">
       <c r="L876" s="54"/>
       <c r="M876" s="249"/>
       <c r="P876" s="54"/>
-      <c r="U876" s="448"/>
+      <c r="U876" s="445"/>
       <c r="X876" s="54"/>
-      <c r="AC876" s="448"/>
+      <c r="AC876" s="445"/>
     </row>
     <row r="877" spans="12:29">
       <c r="L877" s="54"/>
       <c r="M877" s="249"/>
       <c r="P877" s="54"/>
-      <c r="U877" s="448"/>
+      <c r="U877" s="445"/>
       <c r="X877" s="54"/>
-      <c r="AC877" s="448"/>
+      <c r="AC877" s="445"/>
     </row>
     <row r="878" spans="12:29">
       <c r="L878" s="54"/>
       <c r="M878" s="249"/>
       <c r="P878" s="54"/>
-      <c r="U878" s="448"/>
+      <c r="U878" s="445"/>
       <c r="X878" s="54"/>
-      <c r="AC878" s="448"/>
+      <c r="AC878" s="445"/>
     </row>
     <row r="879" spans="12:29">
       <c r="L879" s="54"/>
       <c r="M879" s="249"/>
       <c r="P879" s="54"/>
-      <c r="U879" s="448"/>
+      <c r="U879" s="445"/>
       <c r="X879" s="54"/>
-      <c r="AC879" s="448"/>
+      <c r="AC879" s="445"/>
     </row>
     <row r="880" spans="12:29">
       <c r="L880" s="54"/>
       <c r="M880" s="249"/>
       <c r="P880" s="54"/>
-      <c r="U880" s="448"/>
+      <c r="U880" s="445"/>
       <c r="X880" s="54"/>
-      <c r="AC880" s="448"/>
+      <c r="AC880" s="445"/>
     </row>
     <row r="881" spans="12:29">
       <c r="L881" s="54"/>
       <c r="M881" s="249"/>
       <c r="P881" s="54"/>
-      <c r="U881" s="448"/>
+      <c r="U881" s="445"/>
       <c r="X881" s="54"/>
-      <c r="AC881" s="448"/>
+      <c r="AC881" s="445"/>
     </row>
     <row r="882" spans="12:29">
       <c r="L882" s="54"/>
       <c r="M882" s="249"/>
       <c r="P882" s="54"/>
-      <c r="U882" s="448"/>
+      <c r="U882" s="445"/>
       <c r="X882" s="54"/>
-      <c r="AC882" s="448"/>
+      <c r="AC882" s="445"/>
     </row>
     <row r="883" spans="12:29">
       <c r="L883" s="54"/>
       <c r="M883" s="249"/>
       <c r="P883" s="54"/>
-      <c r="U883" s="448"/>
+      <c r="U883" s="445"/>
       <c r="X883" s="54"/>
-      <c r="AC883" s="448"/>
+      <c r="AC883" s="445"/>
     </row>
     <row r="884" spans="12:29">
       <c r="L884" s="54"/>
       <c r="M884" s="249"/>
       <c r="P884" s="54"/>
-      <c r="U884" s="448"/>
+      <c r="U884" s="445"/>
       <c r="X884" s="54"/>
-      <c r="AC884" s="448"/>
+      <c r="AC884" s="445"/>
     </row>
     <row r="885" spans="12:29">
       <c r="L885" s="54"/>
       <c r="M885" s="249"/>
       <c r="P885" s="54"/>
-      <c r="U885" s="448"/>
+      <c r="U885" s="445"/>
       <c r="X885" s="54"/>
-      <c r="AC885" s="448"/>
+      <c r="AC885" s="445"/>
     </row>
     <row r="886" spans="12:29">
       <c r="L886" s="54"/>
       <c r="M886" s="249"/>
       <c r="P886" s="54"/>
-      <c r="U886" s="448"/>
+      <c r="U886" s="445"/>
       <c r="X886" s="54"/>
-      <c r="AC886" s="448"/>
+      <c r="AC886" s="445"/>
     </row>
     <row r="887" spans="12:29">
       <c r="L887" s="54"/>
       <c r="M887" s="249"/>
       <c r="P887" s="54"/>
-      <c r="U887" s="448"/>
+      <c r="U887" s="445"/>
       <c r="X887" s="54"/>
-      <c r="AC887" s="448"/>
+      <c r="AC887" s="445"/>
     </row>
     <row r="888" spans="12:29">
       <c r="L888" s="54"/>
       <c r="M888" s="249"/>
       <c r="P888" s="54"/>
-      <c r="U888" s="448"/>
+      <c r="U888" s="445"/>
       <c r="X888" s="54"/>
-      <c r="AC888" s="448"/>
+      <c r="AC888" s="445"/>
     </row>
     <row r="889" spans="12:29">
       <c r="L889" s="54"/>
       <c r="M889" s="249"/>
       <c r="P889" s="54"/>
-      <c r="U889" s="448"/>
+      <c r="U889" s="445"/>
       <c r="X889" s="54"/>
-      <c r="AC889" s="448"/>
+      <c r="AC889" s="445"/>
     </row>
     <row r="890" spans="12:29">
       <c r="L890" s="54"/>
       <c r="M890" s="249"/>
       <c r="P890" s="54"/>
-      <c r="U890" s="448"/>
+      <c r="U890" s="445"/>
       <c r="X890" s="54"/>
-      <c r="AC890" s="448"/>
+      <c r="AC890" s="445"/>
     </row>
     <row r="891" spans="12:29">
       <c r="L891" s="54"/>
       <c r="M891" s="249"/>
       <c r="P891" s="54"/>
-      <c r="U891" s="448"/>
+      <c r="U891" s="445"/>
       <c r="X891" s="54"/>
-      <c r="AC891" s="448"/>
+      <c r="AC891" s="445"/>
     </row>
     <row r="892" spans="12:29">
       <c r="L892" s="54"/>
       <c r="M892" s="249"/>
       <c r="P892" s="54"/>
-      <c r="U892" s="448"/>
+      <c r="U892" s="445"/>
       <c r="X892" s="54"/>
-      <c r="AC892" s="448"/>
+      <c r="AC892" s="445"/>
     </row>
     <row r="893" spans="12:29">
       <c r="L893" s="54"/>
       <c r="M893" s="249"/>
       <c r="P893" s="54"/>
-      <c r="U893" s="448"/>
+      <c r="U893" s="445"/>
       <c r="X893" s="54"/>
-      <c r="AC893" s="448"/>
+      <c r="AC893" s="445"/>
     </row>
     <row r="894" spans="12:29">
       <c r="L894" s="54"/>
       <c r="M894" s="249"/>
       <c r="P894" s="54"/>
-      <c r="U894" s="448"/>
+      <c r="U894" s="445"/>
       <c r="X894" s="54"/>
-      <c r="AC894" s="448"/>
+      <c r="AC894" s="445"/>
     </row>
     <row r="895" spans="12:29">
       <c r="L895" s="54"/>
       <c r="M895" s="249"/>
       <c r="P895" s="54"/>
-      <c r="U895" s="448"/>
+      <c r="U895" s="445"/>
       <c r="X895" s="54"/>
-      <c r="AC895" s="448"/>
+      <c r="AC895" s="445"/>
     </row>
     <row r="896" spans="12:29">
       <c r="L896" s="54"/>
       <c r="M896" s="249"/>
       <c r="P896" s="54"/>
-      <c r="U896" s="448"/>
+      <c r="U896" s="445"/>
       <c r="X896" s="54"/>
-      <c r="AC896" s="448"/>
+      <c r="AC896" s="445"/>
     </row>
     <row r="897" spans="12:29">
       <c r="L897" s="54"/>
       <c r="M897" s="249"/>
       <c r="P897" s="54"/>
-      <c r="U897" s="448"/>
+      <c r="U897" s="445"/>
       <c r="X897" s="54"/>
-      <c r="AC897" s="448"/>
+      <c r="AC897" s="445"/>
     </row>
     <row r="898" spans="12:29">
       <c r="L898" s="54"/>
       <c r="M898" s="249"/>
       <c r="P898" s="54"/>
-      <c r="U898" s="448"/>
+      <c r="U898" s="445"/>
       <c r="X898" s="54"/>
-      <c r="AC898" s="448"/>
+      <c r="AC898" s="445"/>
     </row>
     <row r="899" spans="12:29">
       <c r="L899" s="54"/>
       <c r="M899" s="249"/>
       <c r="P899" s="54"/>
-      <c r="U899" s="448"/>
+      <c r="U899" s="445"/>
       <c r="X899" s="54"/>
-      <c r="AC899" s="448"/>
+      <c r="AC899" s="445"/>
     </row>
     <row r="900" spans="12:29">
       <c r="L900" s="54"/>
       <c r="M900" s="249"/>
       <c r="P900" s="54"/>
-      <c r="U900" s="448"/>
+      <c r="U900" s="445"/>
       <c r="X900" s="54"/>
-      <c r="AC900" s="448"/>
+      <c r="AC900" s="445"/>
     </row>
     <row r="901" spans="12:29">
       <c r="L901" s="54"/>
       <c r="M901" s="249"/>
       <c r="P901" s="54"/>
-      <c r="U901" s="448"/>
+      <c r="U901" s="445"/>
       <c r="X901" s="54"/>
-      <c r="AC901" s="448"/>
+      <c r="AC901" s="445"/>
     </row>
     <row r="902" spans="12:29">
       <c r="L902" s="54"/>
       <c r="M902" s="249"/>
       <c r="P902" s="54"/>
-      <c r="U902" s="448"/>
+      <c r="U902" s="445"/>
       <c r="X902" s="54"/>
-      <c r="AC902" s="448"/>
+      <c r="AC902" s="445"/>
     </row>
     <row r="903" spans="12:29">
       <c r="L903" s="54"/>
       <c r="M903" s="249"/>
       <c r="P903" s="54"/>
-      <c r="U903" s="448"/>
+      <c r="U903" s="445"/>
       <c r="X903" s="54"/>
-      <c r="AC903" s="448"/>
+      <c r="AC903" s="445"/>
     </row>
     <row r="904" spans="12:29">
       <c r="L904" s="54"/>
       <c r="M904" s="249"/>
       <c r="P904" s="54"/>
-      <c r="U904" s="448"/>
+      <c r="U904" s="445"/>
       <c r="X904" s="54"/>
-      <c r="AC904" s="448"/>
+      <c r="AC904" s="445"/>
     </row>
     <row r="905" spans="12:29">
       <c r="L905" s="54"/>
       <c r="M905" s="249"/>
       <c r="P905" s="54"/>
-      <c r="U905" s="448"/>
+      <c r="U905" s="445"/>
       <c r="X905" s="54"/>
-      <c r="AC905" s="448"/>
+      <c r="AC905" s="445"/>
     </row>
     <row r="906" spans="12:29">
       <c r="L906" s="54"/>
       <c r="M906" s="249"/>
       <c r="P906" s="54"/>
-      <c r="U906" s="448"/>
+      <c r="U906" s="445"/>
       <c r="X906" s="54"/>
-      <c r="AC906" s="448"/>
+      <c r="AC906" s="445"/>
     </row>
     <row r="907" spans="12:29">
       <c r="L907" s="54"/>
       <c r="M907" s="249"/>
       <c r="P907" s="54"/>
-      <c r="U907" s="448"/>
+      <c r="U907" s="445"/>
       <c r="X907" s="54"/>
-      <c r="AC907" s="448"/>
+      <c r="AC907" s="445"/>
     </row>
     <row r="908" spans="12:29">
       <c r="L908" s="54"/>
       <c r="M908" s="249"/>
       <c r="P908" s="54"/>
-      <c r="U908" s="448"/>
+      <c r="U908" s="445"/>
       <c r="X908" s="54"/>
-      <c r="AC908" s="448"/>
+      <c r="AC908" s="445"/>
     </row>
     <row r="909" spans="12:29">
       <c r="L909" s="54"/>
       <c r="M909" s="249"/>
       <c r="P909" s="54"/>
-      <c r="U909" s="448"/>
+      <c r="U909" s="445"/>
       <c r="X909" s="54"/>
-      <c r="AC909" s="448"/>
+      <c r="AC909" s="445"/>
     </row>
     <row r="910" spans="12:29">
       <c r="L910" s="54"/>
       <c r="M910" s="249"/>
       <c r="P910" s="54"/>
-      <c r="U910" s="448"/>
+      <c r="U910" s="445"/>
       <c r="X910" s="54"/>
-      <c r="AC910" s="448"/>
+      <c r="AC910" s="445"/>
     </row>
     <row r="911" spans="12:29">
       <c r="L911" s="54"/>
       <c r="M911" s="249"/>
       <c r="P911" s="54"/>
-      <c r="U911" s="448"/>
+      <c r="U911" s="445"/>
       <c r="X911" s="54"/>
-      <c r="AC911" s="448"/>
+      <c r="AC911" s="445"/>
     </row>
     <row r="912" spans="12:29">
       <c r="L912" s="54"/>
       <c r="M912" s="249"/>
       <c r="P912" s="54"/>
-      <c r="U912" s="448"/>
+      <c r="U912" s="445"/>
       <c r="X912" s="54"/>
-      <c r="AC912" s="448"/>
+      <c r="AC912" s="445"/>
     </row>
     <row r="913" spans="12:29">
       <c r="L913" s="54"/>
       <c r="M913" s="249"/>
       <c r="P913" s="54"/>
-      <c r="U913" s="448"/>
+      <c r="U913" s="445"/>
       <c r="X913" s="54"/>
-      <c r="AC913" s="448"/>
+      <c r="AC913" s="445"/>
     </row>
     <row r="914" spans="12:29">
       <c r="L914" s="54"/>
       <c r="M914" s="249"/>
       <c r="P914" s="54"/>
-      <c r="U914" s="448"/>
+      <c r="U914" s="445"/>
       <c r="X914" s="54"/>
-      <c r="AC914" s="448"/>
+      <c r="AC914" s="445"/>
     </row>
     <row r="915" spans="12:29">
       <c r="L915" s="54"/>
       <c r="M915" s="249"/>
       <c r="P915" s="54"/>
-      <c r="U915" s="448"/>
+      <c r="U915" s="445"/>
       <c r="X915" s="54"/>
-      <c r="AC915" s="448"/>
+      <c r="AC915" s="445"/>
     </row>
     <row r="916" spans="12:29">
       <c r="L916" s="54"/>
       <c r="M916" s="249"/>
       <c r="P916" s="54"/>
-      <c r="U916" s="448"/>
+      <c r="U916" s="445"/>
       <c r="X916" s="54"/>
-      <c r="AC916" s="448"/>
+      <c r="AC916" s="445"/>
     </row>
     <row r="917" spans="12:29">
       <c r="L917" s="54"/>
       <c r="M917" s="249"/>
       <c r="P917" s="54"/>
-      <c r="U917" s="448"/>
+      <c r="U917" s="445"/>
       <c r="X917" s="54"/>
-      <c r="AC917" s="448"/>
+      <c r="AC917" s="445"/>
     </row>
     <row r="918" spans="12:29">
       <c r="L918" s="54"/>
       <c r="M918" s="249"/>
       <c r="P918" s="54"/>
-      <c r="U918" s="448"/>
+      <c r="U918" s="445"/>
       <c r="X918" s="54"/>
-      <c r="AC918" s="448"/>
+      <c r="AC918" s="445"/>
     </row>
     <row r="919" spans="12:29">
       <c r="L919" s="54"/>
       <c r="M919" s="249"/>
       <c r="P919" s="54"/>
-      <c r="U919" s="448"/>
+      <c r="U919" s="445"/>
       <c r="X919" s="54"/>
-      <c r="AC919" s="448"/>
+      <c r="AC919" s="445"/>
     </row>
     <row r="920" spans="12:29">
       <c r="L920" s="54"/>
       <c r="M920" s="249"/>
       <c r="P920" s="54"/>
-      <c r="U920" s="448"/>
+      <c r="U920" s="445"/>
       <c r="X920" s="54"/>
-      <c r="AC920" s="448"/>
+      <c r="AC920" s="445"/>
     </row>
     <row r="921" spans="12:29">
       <c r="L921" s="54"/>
       <c r="M921" s="249"/>
       <c r="P921" s="54"/>
-      <c r="U921" s="448"/>
+      <c r="U921" s="445"/>
       <c r="X921" s="54"/>
-      <c r="AC921" s="448"/>
+      <c r="AC921" s="445"/>
     </row>
     <row r="922" spans="12:29">
       <c r="L922" s="54"/>
       <c r="M922" s="249"/>
       <c r="P922" s="54"/>
-      <c r="U922" s="448"/>
+      <c r="U922" s="445"/>
       <c r="X922" s="54"/>
-      <c r="AC922" s="448"/>
+      <c r="AC922" s="445"/>
     </row>
     <row r="923" spans="12:29">
       <c r="L923" s="54"/>
       <c r="M923" s="249"/>
       <c r="P923" s="54"/>
-      <c r="U923" s="448"/>
+      <c r="U923" s="445"/>
       <c r="X923" s="54"/>
-      <c r="AC923" s="448"/>
+      <c r="AC923" s="445"/>
     </row>
     <row r="924" spans="12:29">
       <c r="L924" s="54"/>
       <c r="M924" s="249"/>
       <c r="P924" s="54"/>
-      <c r="U924" s="448"/>
+      <c r="U924" s="445"/>
       <c r="X924" s="54"/>
-      <c r="AC924" s="448"/>
+      <c r="AC924" s="445"/>
     </row>
     <row r="925" spans="12:29">
       <c r="L925" s="54"/>
       <c r="M925" s="249"/>
       <c r="P925" s="54"/>
-      <c r="U925" s="448"/>
+      <c r="U925" s="445"/>
       <c r="X925" s="54"/>
-      <c r="AC925" s="448"/>
+      <c r="AC925" s="445"/>
     </row>
     <row r="926" spans="12:29">
       <c r="L926" s="54"/>
       <c r="M926" s="249"/>
       <c r="P926" s="54"/>
-      <c r="U926" s="448"/>
+      <c r="U926" s="445"/>
       <c r="X926" s="54"/>
-      <c r="AC926" s="448"/>
+      <c r="AC926" s="445"/>
     </row>
     <row r="927" spans="12:29">
       <c r="L927" s="54"/>
       <c r="M927" s="249"/>
       <c r="P927" s="54"/>
-      <c r="U927" s="448"/>
+      <c r="U927" s="445"/>
       <c r="X927" s="54"/>
-      <c r="AC927" s="448"/>
+      <c r="AC927" s="445"/>
     </row>
     <row r="928" spans="12:29">
       <c r="L928" s="54"/>
       <c r="M928" s="249"/>
       <c r="P928" s="54"/>
-      <c r="U928" s="448"/>
+      <c r="U928" s="445"/>
       <c r="X928" s="54"/>
-      <c r="AC928" s="448"/>
+      <c r="AC928" s="445"/>
     </row>
     <row r="929" spans="12:29">
       <c r="L929" s="54"/>
       <c r="M929" s="249"/>
       <c r="P929" s="54"/>
-      <c r="U929" s="448"/>
+      <c r="U929" s="445"/>
       <c r="X929" s="54"/>
-      <c r="AC929" s="448"/>
+      <c r="AC929" s="445"/>
     </row>
     <row r="930" spans="12:29">
       <c r="L930" s="54"/>
       <c r="M930" s="249"/>
       <c r="P930" s="54"/>
-      <c r="U930" s="448"/>
+      <c r="U930" s="445"/>
       <c r="X930" s="54"/>
-      <c r="AC930" s="448"/>
+      <c r="AC930" s="445"/>
     </row>
     <row r="931" spans="12:29">
       <c r="L931" s="54"/>
       <c r="M931" s="249"/>
       <c r="P931" s="54"/>
-      <c r="U931" s="448"/>
+      <c r="U931" s="445"/>
       <c r="X931" s="54"/>
-      <c r="AC931" s="448"/>
+      <c r="AC931" s="445"/>
     </row>
     <row r="932" spans="12:29">
       <c r="L932" s="54"/>
       <c r="M932" s="249"/>
       <c r="P932" s="54"/>
-      <c r="U932" s="448"/>
+      <c r="U932" s="445"/>
       <c r="X932" s="54"/>
-      <c r="AC932" s="448"/>
+      <c r="AC932" s="445"/>
     </row>
     <row r="933" spans="12:29">
       <c r="L933" s="54"/>
       <c r="M933" s="249"/>
       <c r="P933" s="54"/>
-      <c r="U933" s="448"/>
+      <c r="U933" s="445"/>
       <c r="X933" s="54"/>
-      <c r="AC933" s="448"/>
+      <c r="AC933" s="445"/>
     </row>
     <row r="934" spans="12:29">
       <c r="L934" s="54"/>
       <c r="M934" s="249"/>
       <c r="P934" s="54"/>
-      <c r="U934" s="448"/>
+      <c r="U934" s="445"/>
       <c r="X934" s="54"/>
-      <c r="AC934" s="448"/>
+      <c r="AC934" s="445"/>
     </row>
     <row r="935" spans="12:29">
       <c r="L935" s="54"/>
       <c r="M935" s="249"/>
       <c r="P935" s="54"/>
-      <c r="U935" s="448"/>
+      <c r="U935" s="445"/>
       <c r="X935" s="54"/>
-      <c r="AC935" s="448"/>
+      <c r="AC935" s="445"/>
     </row>
     <row r="936" spans="12:29">
       <c r="L936" s="54"/>
       <c r="M936" s="249"/>
       <c r="P936" s="54"/>
-      <c r="U936" s="448"/>
+      <c r="U936" s="445"/>
       <c r="X936" s="54"/>
-      <c r="AC936" s="448"/>
+      <c r="AC936" s="445"/>
     </row>
     <row r="937" spans="12:29">
       <c r="L937" s="54"/>
       <c r="M937" s="249"/>
       <c r="P937" s="54"/>
-      <c r="U937" s="448"/>
+      <c r="U937" s="445"/>
       <c r="X937" s="54"/>
-      <c r="AC937" s="448"/>
+      <c r="AC937" s="445"/>
     </row>
     <row r="938" spans="12:29">
       <c r="L938" s="54"/>
       <c r="M938" s="249"/>
       <c r="P938" s="54"/>
-      <c r="U938" s="448"/>
+      <c r="U938" s="445"/>
       <c r="X938" s="54"/>
-      <c r="AC938" s="448"/>
+      <c r="AC938" s="445"/>
     </row>
     <row r="939" spans="12:29">
       <c r="L939" s="54"/>
       <c r="M939" s="249"/>
       <c r="P939" s="54"/>
-      <c r="U939" s="448"/>
+      <c r="U939" s="445"/>
       <c r="X939" s="54"/>
-      <c r="AC939" s="448"/>
+      <c r="AC939" s="445"/>
     </row>
     <row r="940" spans="12:29">
       <c r="L940" s="54"/>
       <c r="M940" s="249"/>
       <c r="P940" s="54"/>
-      <c r="U940" s="448"/>
+      <c r="U940" s="445"/>
       <c r="X940" s="54"/>
-      <c r="AC940" s="448"/>
+      <c r="AC940" s="445"/>
     </row>
     <row r="941" spans="12:29">
       <c r="L941" s="54"/>
       <c r="M941" s="249"/>
       <c r="P941" s="54"/>
-      <c r="U941" s="448"/>
+      <c r="U941" s="445"/>
       <c r="X941" s="54"/>
-      <c r="AC941" s="448"/>
+      <c r="AC941" s="445"/>
     </row>
     <row r="942" spans="12:29">
       <c r="L942" s="54"/>
       <c r="M942" s="249"/>
       <c r="P942" s="54"/>
-      <c r="U942" s="448"/>
+      <c r="U942" s="445"/>
       <c r="X942" s="54"/>
-      <c r="AC942" s="448"/>
+      <c r="AC942" s="445"/>
     </row>
     <row r="943" spans="12:29">
       <c r="L943" s="54"/>
       <c r="M943" s="249"/>
       <c r="P943" s="54"/>
-      <c r="U943" s="448"/>
+      <c r="U943" s="445"/>
       <c r="X943" s="54"/>
-      <c r="AC943" s="448"/>
+      <c r="AC943" s="445"/>
     </row>
     <row r="944" spans="12:29">
       <c r="L944" s="54"/>
       <c r="M944" s="249"/>
       <c r="P944" s="54"/>
-      <c r="U944" s="448"/>
+      <c r="U944" s="445"/>
       <c r="X944" s="54"/>
-      <c r="AC944" s="448"/>
+      <c r="AC944" s="445"/>
     </row>
     <row r="945" spans="12:29">
       <c r="L945" s="54"/>
       <c r="M945" s="249"/>
       <c r="P945" s="54"/>
-      <c r="U945" s="448"/>
+      <c r="U945" s="445"/>
       <c r="X945" s="54"/>
-      <c r="AC945" s="448"/>
+      <c r="AC945" s="445"/>
     </row>
     <row r="946" spans="12:29">
       <c r="L946" s="54"/>
       <c r="M946" s="249"/>
       <c r="P946" s="54"/>
-      <c r="U946" s="448"/>
+      <c r="U946" s="445"/>
       <c r="X946" s="54"/>
-      <c r="AC946" s="448"/>
+      <c r="AC946" s="445"/>
     </row>
     <row r="947" spans="12:29">
       <c r="L947" s="54"/>
       <c r="M947" s="249"/>
       <c r="P947" s="54"/>
-      <c r="U947" s="448"/>
+      <c r="U947" s="445"/>
       <c r="X947" s="54"/>
-      <c r="AC947" s="448"/>
+      <c r="AC947" s="445"/>
     </row>
     <row r="948" spans="12:29">
       <c r="L948" s="54"/>
       <c r="M948" s="249"/>
       <c r="P948" s="54"/>
-      <c r="U948" s="448"/>
+      <c r="U948" s="445"/>
       <c r="X948" s="54"/>
-      <c r="AC948" s="448"/>
+      <c r="AC948" s="445"/>
     </row>
     <row r="949" spans="12:29">
       <c r="L949" s="54"/>
       <c r="M949" s="249"/>
       <c r="P949" s="54"/>
-      <c r="U949" s="448"/>
+      <c r="U949" s="445"/>
       <c r="X949" s="54"/>
-      <c r="AC949" s="448"/>
+      <c r="AC949" s="445"/>
     </row>
     <row r="950" spans="12:29">
       <c r="L950" s="54"/>
       <c r="M950" s="249"/>
       <c r="P950" s="54"/>
-      <c r="U950" s="448"/>
+      <c r="U950" s="445"/>
       <c r="X950" s="54"/>
-      <c r="AC950" s="448"/>
+      <c r="AC950" s="445"/>
     </row>
     <row r="951" spans="12:29">
       <c r="L951" s="54"/>
       <c r="M951" s="249"/>
       <c r="P951" s="54"/>
-      <c r="U951" s="448"/>
+      <c r="U951" s="445"/>
       <c r="X951" s="54"/>
-      <c r="AC951" s="448"/>
+      <c r="AC951" s="445"/>
     </row>
     <row r="952" spans="12:29">
       <c r="L952" s="54"/>
       <c r="M952" s="249"/>
       <c r="P952" s="54"/>
-      <c r="U952" s="448"/>
+      <c r="U952" s="445"/>
       <c r="X952" s="54"/>
-      <c r="AC952" s="448"/>
+      <c r="AC952" s="445"/>
     </row>
     <row r="953" spans="12:29">
       <c r="L953" s="54"/>
       <c r="M953" s="249"/>
       <c r="P953" s="54"/>
-      <c r="U953" s="448"/>
+      <c r="U953" s="445"/>
       <c r="X953" s="54"/>
-      <c r="AC953" s="448"/>
+      <c r="AC953" s="445"/>
     </row>
     <row r="954" spans="12:29">
       <c r="L954" s="54"/>
       <c r="M954" s="249"/>
       <c r="P954" s="54"/>
-      <c r="U954" s="448"/>
+      <c r="U954" s="445"/>
       <c r="X954" s="54"/>
-      <c r="AC954" s="448"/>
+      <c r="AC954" s="445"/>
     </row>
     <row r="955" spans="12:29">
       <c r="L955" s="54"/>
       <c r="M955" s="249"/>
       <c r="P955" s="54"/>
-      <c r="U955" s="448"/>
+      <c r="U955" s="445"/>
       <c r="X955" s="54"/>
-      <c r="AC955" s="448"/>
+      <c r="AC955" s="445"/>
     </row>
     <row r="956" spans="12:29">
       <c r="L956" s="54"/>
       <c r="M956" s="249"/>
       <c r="P956" s="54"/>
-      <c r="U956" s="448"/>
+      <c r="U956" s="445"/>
       <c r="X956" s="54"/>
-      <c r="AC956" s="448"/>
+      <c r="AC956" s="445"/>
     </row>
     <row r="957" spans="12:29">
       <c r="L957" s="54"/>
       <c r="M957" s="249"/>
       <c r="P957" s="54"/>
-      <c r="U957" s="448"/>
+      <c r="U957" s="445"/>
       <c r="X957" s="54"/>
-      <c r="AC957" s="448"/>
+      <c r="AC957" s="445"/>
     </row>
     <row r="958" spans="12:29">
       <c r="L958" s="54"/>
       <c r="M958" s="249"/>
       <c r="P958" s="54"/>
-      <c r="U958" s="448"/>
+      <c r="U958" s="445"/>
       <c r="X958" s="54"/>
-      <c r="AC958" s="448"/>
+      <c r="AC958" s="445"/>
     </row>
     <row r="959" spans="12:29">
       <c r="L959" s="54"/>
       <c r="M959" s="249"/>
       <c r="P959" s="54"/>
-      <c r="U959" s="448"/>
+      <c r="U959" s="445"/>
       <c r="X959" s="54"/>
-      <c r="AC959" s="448"/>
+      <c r="AC959" s="445"/>
     </row>
     <row r="960" spans="12:29">
       <c r="L960" s="54"/>
       <c r="M960" s="249"/>
       <c r="P960" s="54"/>
-      <c r="U960" s="448"/>
+      <c r="U960" s="445"/>
       <c r="X960" s="54"/>
-      <c r="AC960" s="448"/>
+      <c r="AC960" s="445"/>
     </row>
     <row r="961" spans="12:29">
       <c r="L961" s="54"/>
       <c r="M961" s="249"/>
       <c r="P961" s="54"/>
-      <c r="U961" s="448"/>
+      <c r="U961" s="445"/>
       <c r="X961" s="54"/>
-      <c r="AC961" s="448"/>
+      <c r="AC961" s="445"/>
     </row>
     <row r="962" spans="12:29">
       <c r="L962" s="54"/>
       <c r="M962" s="249"/>
       <c r="P962" s="54"/>
-      <c r="U962" s="448"/>
+      <c r="U962" s="445"/>
       <c r="X962" s="54"/>
-      <c r="AC962" s="448"/>
+      <c r="AC962" s="445"/>
     </row>
     <row r="963" spans="12:29">
       <c r="L963" s="54"/>
       <c r="M963" s="249"/>
       <c r="P963" s="54"/>
-      <c r="U963" s="448"/>
+      <c r="U963" s="445"/>
       <c r="X963" s="54"/>
-      <c r="AC963" s="448"/>
+      <c r="AC963" s="445"/>
     </row>
     <row r="964" spans="12:29">
       <c r="L964" s="54"/>
       <c r="M964" s="249"/>
       <c r="P964" s="54"/>
-      <c r="U964" s="448"/>
+      <c r="U964" s="445"/>
       <c r="X964" s="54"/>
-      <c r="AC964" s="448"/>
+      <c r="AC964" s="445"/>
     </row>
     <row r="965" spans="12:29">
       <c r="L965" s="54"/>
       <c r="M965" s="249"/>
       <c r="P965" s="54"/>
-      <c r="U965" s="448"/>
+      <c r="U965" s="445"/>
       <c r="X965" s="54"/>
-      <c r="AC965" s="448"/>
+      <c r="AC965" s="445"/>
     </row>
     <row r="966" spans="12:29">
       <c r="L966" s="54"/>
       <c r="M966" s="249"/>
       <c r="P966" s="54"/>
-      <c r="U966" s="448"/>
+      <c r="U966" s="445"/>
       <c r="X966" s="54"/>
-      <c r="AC966" s="448"/>
+      <c r="AC966" s="445"/>
     </row>
     <row r="967" spans="12:29">
       <c r="L967" s="54"/>
       <c r="M967" s="249"/>
       <c r="P967" s="54"/>
-      <c r="U967" s="448"/>
+      <c r="U967" s="445"/>
       <c r="X967" s="54"/>
-      <c r="AC967" s="448"/>
+      <c r="AC967" s="445"/>
     </row>
     <row r="968" spans="12:29">
       <c r="L968" s="54"/>
       <c r="M968" s="249"/>
       <c r="P968" s="54"/>
-      <c r="U968" s="448"/>
+      <c r="U968" s="445"/>
       <c r="X968" s="54"/>
-      <c r="AC968" s="448"/>
+      <c r="AC968" s="445"/>
     </row>
     <row r="969" spans="12:29">
       <c r="L969" s="54"/>
       <c r="M969" s="249"/>
       <c r="P969" s="54"/>
-      <c r="U969" s="448"/>
+      <c r="U969" s="445"/>
       <c r="X969" s="54"/>
-      <c r="AC969" s="448"/>
+      <c r="AC969" s="445"/>
     </row>
     <row r="970" spans="12:29">
       <c r="L970" s="54"/>
       <c r="M970" s="249"/>
       <c r="P970" s="54"/>
-      <c r="U970" s="448"/>
+      <c r="U970" s="445"/>
       <c r="X970" s="54"/>
-      <c r="AC970" s="448"/>
+      <c r="AC970" s="445"/>
     </row>
     <row r="971" spans="12:29">
       <c r="L971" s="54"/>
       <c r="M971" s="249"/>
       <c r="P971" s="54"/>
-      <c r="U971" s="448"/>
+      <c r="U971" s="445"/>
       <c r="X971" s="54"/>
-      <c r="AC971" s="448"/>
+      <c r="AC971" s="445"/>
     </row>
     <row r="972" spans="12:29">
       <c r="L972" s="54"/>
       <c r="M972" s="249"/>
       <c r="P972" s="54"/>
-      <c r="U972" s="448"/>
+      <c r="U972" s="445"/>
       <c r="X972" s="54"/>
-      <c r="AC972" s="448"/>
+      <c r="AC972" s="445"/>
     </row>
     <row r="973" spans="12:29">
       <c r="L973" s="54"/>
       <c r="M973" s="249"/>
       <c r="P973" s="54"/>
-      <c r="U973" s="448"/>
+      <c r="U973" s="445"/>
       <c r="X973" s="54"/>
-      <c r="AC973" s="448"/>
+      <c r="AC973" s="445"/>
     </row>
     <row r="974" spans="12:29">
       <c r="L974" s="54"/>
       <c r="M974" s="249"/>
       <c r="P974" s="54"/>
-      <c r="U974" s="448"/>
+      <c r="U974" s="445"/>
       <c r="X974" s="54"/>
-      <c r="AC974" s="448"/>
+      <c r="AC974" s="445"/>
     </row>
     <row r="975" spans="12:29">
       <c r="L975" s="54"/>
       <c r="M975" s="249"/>
       <c r="P975" s="54"/>
-      <c r="U975" s="448"/>
+      <c r="U975" s="445"/>
       <c r="X975" s="54"/>
-      <c r="AC975" s="448"/>
+      <c r="AC975" s="445"/>
     </row>
     <row r="976" spans="12:29">
       <c r="L976" s="54"/>
       <c r="M976" s="249"/>
       <c r="P976" s="54"/>
-      <c r="U976" s="448"/>
+      <c r="U976" s="445"/>
       <c r="X976" s="54"/>
-      <c r="AC976" s="448"/>
+      <c r="AC976" s="445"/>
     </row>
     <row r="977" spans="12:29">
       <c r="L977" s="54"/>
       <c r="M977" s="249"/>
       <c r="P977" s="54"/>
-      <c r="U977" s="448"/>
+      <c r="U977" s="445"/>
       <c r="X977" s="54"/>
-      <c r="AC977" s="448"/>
+      <c r="AC977" s="445"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AF977" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="N292:T292"/>
     <mergeCell ref="N282:T283"/>
     <mergeCell ref="Y2:AB2"/>
@@ -38753,6 +38759,8 @@
     <mergeCell ref="N286:T286"/>
     <mergeCell ref="N287:T287"/>
     <mergeCell ref="N288:T291"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="X28:X29 X75:X76 X78:X79 X81 X83:X88 X90:X94 X141:X146 X148:X150 X179:X188 X194 X259:X269 X272 X276 X249:X250 X191:X192 X292:X977 X152:X170 L238:L257 X62 P62 X96:X123 P96:P123 X198:X207 P198:P207 X66:X67 P66 P69:P73 X69:X73 X55:X60 X137:X139 X125:X135 P137:P139 P135 X2:X25 X40:X53 P25 P41 X213:X222 X224:X227 U281 AC281 U282:V286 X31:X33 X35:X36 L2:L222 L224:L235 X229:X235 X253:X255 P253:P255 M281:S281 M282:M291 X282:X287 L259:L977">

--- a/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E04867C-CC57-4649-B094-F7D43E8193DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F13B0E-40A9-F54E-9F46-DF2E19263CC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2502,7 +2502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="2088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="2090">
   <si>
     <t>ID</t>
   </si>
@@ -10074,6 +10074,14 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>注文を受ける企業を表す国際企業コード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>注文を行う企業を表す国際企業コード</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -12393,6 +12401,135 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -12410,135 +12547,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14664,8 +14672,8 @@
   <dimension ref="A1:AM977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C274" sqref="C274"/>
+      <pane ySplit="2" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
@@ -14693,50 +14701,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="534" t="s">
+      <c r="A1" s="491" t="s">
         <v>2087</v>
       </c>
-      <c r="B1" s="495" t="s">
+      <c r="B1" s="496" t="s">
         <v>1890</v>
       </c>
-      <c r="C1" s="496"/>
-      <c r="D1" s="496"/>
-      <c r="E1" s="496"/>
-      <c r="F1" s="496"/>
-      <c r="G1" s="496"/>
-      <c r="H1" s="496"/>
-      <c r="I1" s="496"/>
-      <c r="J1" s="496"/>
-      <c r="K1" s="496"/>
-      <c r="L1" s="496"/>
-      <c r="M1" s="496"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="497"/>
+      <c r="E1" s="497"/>
+      <c r="F1" s="497"/>
+      <c r="G1" s="497"/>
+      <c r="H1" s="497"/>
+      <c r="I1" s="497"/>
+      <c r="J1" s="497"/>
+      <c r="K1" s="497"/>
+      <c r="L1" s="497"/>
+      <c r="M1" s="497"/>
       <c r="N1" s="417"/>
-      <c r="O1" s="523" t="s">
+      <c r="O1" s="498" t="s">
         <v>1891</v>
       </c>
-      <c r="P1" s="524"/>
-      <c r="Q1" s="524"/>
-      <c r="R1" s="524"/>
-      <c r="S1" s="524"/>
-      <c r="T1" s="524"/>
-      <c r="U1" s="524"/>
-      <c r="V1" s="524"/>
-      <c r="W1" s="525"/>
-      <c r="X1" s="526" t="s">
+      <c r="P1" s="499"/>
+      <c r="Q1" s="499"/>
+      <c r="R1" s="499"/>
+      <c r="S1" s="499"/>
+      <c r="T1" s="499"/>
+      <c r="U1" s="499"/>
+      <c r="V1" s="499"/>
+      <c r="W1" s="500"/>
+      <c r="X1" s="501" t="s">
         <v>1938</v>
       </c>
-      <c r="Y1" s="527"/>
-      <c r="Z1" s="527"/>
-      <c r="AA1" s="527"/>
-      <c r="AB1" s="527"/>
-      <c r="AC1" s="527"/>
-      <c r="AD1" s="527"/>
-      <c r="AE1" s="527"/>
-      <c r="AF1" s="527"/>
-      <c r="AG1" s="528"/>
+      <c r="Y1" s="502"/>
+      <c r="Z1" s="502"/>
+      <c r="AA1" s="502"/>
+      <c r="AB1" s="502"/>
+      <c r="AC1" s="502"/>
+      <c r="AD1" s="502"/>
+      <c r="AE1" s="502"/>
+      <c r="AF1" s="502"/>
+      <c r="AG1" s="503"/>
     </row>
     <row r="2" spans="1:34" ht="93">
-      <c r="A2" s="508"/>
+      <c r="A2" s="492"/>
       <c r="B2" s="174" t="s">
         <v>0</v>
       </c>
@@ -14779,12 +14787,12 @@
       <c r="Q2" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="520" t="s">
+      <c r="R2" s="493" t="s">
         <v>1903</v>
       </c>
-      <c r="S2" s="521"/>
-      <c r="T2" s="521"/>
-      <c r="U2" s="522"/>
+      <c r="S2" s="494"/>
+      <c r="T2" s="494"/>
+      <c r="U2" s="495"/>
       <c r="V2" s="221" t="s">
         <v>6</v>
       </c>
@@ -14797,12 +14805,12 @@
       <c r="Y2" s="176" t="s">
         <v>1970</v>
       </c>
-      <c r="Z2" s="520" t="s">
+      <c r="Z2" s="493" t="s">
         <v>1971</v>
       </c>
-      <c r="AA2" s="521"/>
-      <c r="AB2" s="521"/>
-      <c r="AC2" s="522"/>
+      <c r="AA2" s="494"/>
+      <c r="AB2" s="494"/>
+      <c r="AC2" s="495"/>
       <c r="AD2" s="221" t="s">
         <v>1982</v>
       </c>
@@ -15724,7 +15732,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="529"/>
+      <c r="B18" s="486"/>
       <c r="C18" s="485"/>
       <c r="D18" s="484"/>
       <c r="E18" s="484"/>
@@ -15789,7 +15797,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="529"/>
+      <c r="B19" s="486"/>
       <c r="C19" s="485"/>
       <c r="D19" s="484"/>
       <c r="E19" s="484"/>
@@ -16077,16 +16085,16 @@
       <c r="O23" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="P23" s="486" t="s">
+      <c r="P23" s="529" t="s">
         <v>2054</v>
       </c>
-      <c r="Q23" s="487"/>
-      <c r="R23" s="487"/>
-      <c r="S23" s="487"/>
-      <c r="T23" s="487"/>
-      <c r="U23" s="487"/>
-      <c r="V23" s="487"/>
-      <c r="W23" s="488"/>
+      <c r="Q23" s="530"/>
+      <c r="R23" s="530"/>
+      <c r="S23" s="530"/>
+      <c r="T23" s="530"/>
+      <c r="U23" s="530"/>
+      <c r="V23" s="530"/>
+      <c r="W23" s="531"/>
       <c r="X23" s="249" t="s">
         <v>1946</v>
       </c>
@@ -16133,14 +16141,14 @@
       <c r="O24" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="P24" s="489"/>
-      <c r="Q24" s="490"/>
-      <c r="R24" s="490"/>
-      <c r="S24" s="490"/>
-      <c r="T24" s="490"/>
-      <c r="U24" s="490"/>
-      <c r="V24" s="490"/>
-      <c r="W24" s="491"/>
+      <c r="P24" s="532"/>
+      <c r="Q24" s="533"/>
+      <c r="R24" s="533"/>
+      <c r="S24" s="533"/>
+      <c r="T24" s="533"/>
+      <c r="U24" s="533"/>
+      <c r="V24" s="533"/>
+      <c r="W24" s="534"/>
       <c r="X24" s="249" t="s">
         <v>1946</v>
       </c>
@@ -16245,7 +16253,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="530" t="s">
+      <c r="B26" s="487" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="452" t="s">
@@ -16329,7 +16337,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="531"/>
+      <c r="B27" s="488"/>
       <c r="C27" s="453"/>
       <c r="D27" s="86"/>
       <c r="E27" s="86"/>
@@ -16775,7 +16783,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="530" t="s">
+      <c r="B34" s="487" t="s">
         <v>172</v>
       </c>
       <c r="C34" s="452" t="s">
@@ -16919,7 +16927,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="530" t="s">
+      <c r="B36" s="487" t="s">
         <v>186</v>
       </c>
       <c r="C36" s="452" t="s">
@@ -16987,7 +16995,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="530" t="s">
+      <c r="B37" s="487" t="s">
         <v>196</v>
       </c>
       <c r="C37" s="452" t="s">
@@ -17057,7 +17065,7 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="530" t="s">
+      <c r="B38" s="487" t="s">
         <v>204</v>
       </c>
       <c r="C38" s="452" t="s">
@@ -17123,7 +17131,7 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="531"/>
+      <c r="B39" s="488"/>
       <c r="C39" s="453"/>
       <c r="D39" s="86"/>
       <c r="E39" s="86"/>
@@ -17169,7 +17177,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="530" t="s">
+      <c r="B40" s="487" t="s">
         <v>211</v>
       </c>
       <c r="C40" s="452" t="s">
@@ -17303,7 +17311,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="530" t="s">
+      <c r="B42" s="487" t="s">
         <v>219</v>
       </c>
       <c r="C42" s="454" t="s">
@@ -17377,7 +17385,7 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="530" t="s">
+      <c r="B43" s="487" t="s">
         <v>229</v>
       </c>
       <c r="C43" s="455" t="s">
@@ -17459,7 +17467,7 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="530" t="s">
+      <c r="B44" s="487" t="s">
         <v>240</v>
       </c>
       <c r="C44" s="455" t="s">
@@ -18382,7 +18390,7 @@
       <c r="T56" s="4"/>
       <c r="U56" s="5"/>
       <c r="V56" s="235" t="s">
-        <v>349</v>
+        <v>2088</v>
       </c>
       <c r="W56" s="314"/>
       <c r="X56" s="250" t="s">
@@ -20098,7 +20106,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="5"/>
       <c r="V79" s="235" t="s">
-        <v>530</v>
+        <v>2089</v>
       </c>
       <c r="W79" s="314"/>
       <c r="X79" s="250" t="s">
@@ -25979,7 +25987,7 @@
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B160" s="530" t="s">
+      <c r="B160" s="487" t="s">
         <v>979</v>
       </c>
       <c r="C160" s="456" t="s">
@@ -26055,7 +26063,7 @@
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B161" s="530" t="s">
+      <c r="B161" s="487" t="s">
         <v>986</v>
       </c>
       <c r="C161" s="455" t="s">
@@ -26135,7 +26143,7 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B162" s="530" t="s">
+      <c r="B162" s="487" t="s">
         <v>994</v>
       </c>
       <c r="C162" s="455" t="s">
@@ -26211,7 +26219,7 @@
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B163" s="530" t="s">
+      <c r="B163" s="487" t="s">
         <v>1001</v>
       </c>
       <c r="C163" s="455" t="s">
@@ -26291,7 +26299,7 @@
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B164" s="530" t="s">
+      <c r="B164" s="487" t="s">
         <v>1009</v>
       </c>
       <c r="C164" s="456" t="s">
@@ -26371,7 +26379,7 @@
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B165" s="530" t="s">
+      <c r="B165" s="487" t="s">
         <v>1017</v>
       </c>
       <c r="C165" s="455" t="s">
@@ -26451,7 +26459,7 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B166" s="530" t="s">
+      <c r="B166" s="487" t="s">
         <v>1025</v>
       </c>
       <c r="C166" s="455" t="s">
@@ -26527,7 +26535,7 @@
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B167" s="530" t="s">
+      <c r="B167" s="487" t="s">
         <v>1031</v>
       </c>
       <c r="C167" s="456" t="s">
@@ -26607,7 +26615,7 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B168" s="530" t="s">
+      <c r="B168" s="487" t="s">
         <v>1040</v>
       </c>
       <c r="C168" s="455" t="s">
@@ -26687,7 +26695,7 @@
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B169" s="530" t="s">
+      <c r="B169" s="487" t="s">
         <v>1048</v>
       </c>
       <c r="C169" s="455" t="s">
@@ -26767,7 +26775,7 @@
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="B170" s="530" t="s">
+      <c r="B170" s="487" t="s">
         <v>1055</v>
       </c>
       <c r="C170" s="455" t="s">
@@ -26843,7 +26851,7 @@
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="B171" s="530" t="s">
+      <c r="B171" s="487" t="s">
         <v>1061</v>
       </c>
       <c r="C171" s="454" t="s">
@@ -27367,7 +27375,7 @@
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="B179" s="530" t="s">
+      <c r="B179" s="487" t="s">
         <v>1132</v>
       </c>
       <c r="C179" s="454" t="s">
@@ -30267,7 +30275,7 @@
         <f t="shared" si="3"/>
         <v>218</v>
       </c>
-      <c r="B220" s="530" t="s">
+      <c r="B220" s="487" t="s">
         <v>1443</v>
       </c>
       <c r="C220" s="455" t="s">
@@ -30345,7 +30353,7 @@
         <f t="shared" si="3"/>
         <v>219</v>
       </c>
-      <c r="B221" s="530" t="s">
+      <c r="B221" s="487" t="s">
         <v>2048</v>
       </c>
       <c r="C221" s="455" t="s">
@@ -30420,7 +30428,7 @@
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="B222" s="530" t="s">
+      <c r="B222" s="487" t="s">
         <v>1455</v>
       </c>
       <c r="C222" s="455" t="s">
@@ -30736,16 +30744,16 @@
       <c r="O226" s="91" t="s">
         <v>1481</v>
       </c>
-      <c r="P226" s="492" t="s">
+      <c r="P226" s="504" t="s">
         <v>1901</v>
       </c>
-      <c r="Q226" s="493"/>
-      <c r="R226" s="493"/>
-      <c r="S226" s="493"/>
-      <c r="T226" s="493"/>
-      <c r="U226" s="493"/>
-      <c r="V226" s="493"/>
-      <c r="W226" s="494"/>
+      <c r="Q226" s="505"/>
+      <c r="R226" s="505"/>
+      <c r="S226" s="505"/>
+      <c r="T226" s="505"/>
+      <c r="U226" s="505"/>
+      <c r="V226" s="505"/>
+      <c r="W226" s="506"/>
       <c r="X226" s="249" t="s">
         <v>233</v>
       </c>
@@ -30792,16 +30800,16 @@
       <c r="O227" s="91" t="s">
         <v>1482</v>
       </c>
-      <c r="P227" s="492" t="s">
+      <c r="P227" s="504" t="s">
         <v>1483</v>
       </c>
-      <c r="Q227" s="493"/>
-      <c r="R227" s="493"/>
-      <c r="S227" s="493"/>
-      <c r="T227" s="493"/>
-      <c r="U227" s="493"/>
-      <c r="V227" s="493"/>
-      <c r="W227" s="494"/>
+      <c r="Q227" s="505"/>
+      <c r="R227" s="505"/>
+      <c r="S227" s="505"/>
+      <c r="T227" s="505"/>
+      <c r="U227" s="505"/>
+      <c r="V227" s="505"/>
+      <c r="W227" s="506"/>
       <c r="X227" s="258" t="s">
         <v>233</v>
       </c>
@@ -30846,16 +30854,16 @@
       <c r="O228" s="91" t="s">
         <v>1484</v>
       </c>
-      <c r="P228" s="492" t="s">
+      <c r="P228" s="504" t="s">
         <v>1902</v>
       </c>
-      <c r="Q228" s="493"/>
-      <c r="R228" s="493"/>
-      <c r="S228" s="493"/>
-      <c r="T228" s="493"/>
-      <c r="U228" s="493"/>
-      <c r="V228" s="493"/>
-      <c r="W228" s="494"/>
+      <c r="Q228" s="505"/>
+      <c r="R228" s="505"/>
+      <c r="S228" s="505"/>
+      <c r="T228" s="505"/>
+      <c r="U228" s="505"/>
+      <c r="V228" s="505"/>
+      <c r="W228" s="506"/>
       <c r="X228" s="259" t="s">
         <v>233</v>
       </c>
@@ -31108,16 +31116,16 @@
       <c r="O232" s="126" t="s">
         <v>1498</v>
       </c>
-      <c r="P232" s="492" t="s">
+      <c r="P232" s="504" t="s">
         <v>2047</v>
       </c>
-      <c r="Q232" s="493"/>
-      <c r="R232" s="493"/>
-      <c r="S232" s="493"/>
-      <c r="T232" s="493"/>
-      <c r="U232" s="493"/>
-      <c r="V232" s="493"/>
-      <c r="W232" s="494"/>
+      <c r="Q232" s="505"/>
+      <c r="R232" s="505"/>
+      <c r="S232" s="505"/>
+      <c r="T232" s="505"/>
+      <c r="U232" s="505"/>
+      <c r="V232" s="505"/>
+      <c r="W232" s="506"/>
       <c r="X232" s="250" t="s">
         <v>295</v>
       </c>
@@ -31148,7 +31156,7 @@
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="B233" s="532" t="s">
+      <c r="B233" s="489" t="s">
         <v>1501</v>
       </c>
       <c r="C233" s="459" t="s">
@@ -31184,16 +31192,16 @@
       <c r="O233" s="126" t="s">
         <v>1507</v>
       </c>
-      <c r="P233" s="492" t="s">
+      <c r="P233" s="504" t="s">
         <v>2036</v>
       </c>
-      <c r="Q233" s="493"/>
-      <c r="R233" s="493"/>
-      <c r="S233" s="493"/>
-      <c r="T233" s="493"/>
-      <c r="U233" s="493"/>
-      <c r="V233" s="493"/>
-      <c r="W233" s="494"/>
+      <c r="Q233" s="505"/>
+      <c r="R233" s="505"/>
+      <c r="S233" s="505"/>
+      <c r="T233" s="505"/>
+      <c r="U233" s="505"/>
+      <c r="V233" s="505"/>
+      <c r="W233" s="506"/>
       <c r="X233" s="250" t="s">
         <v>295</v>
       </c>
@@ -31246,16 +31254,16 @@
       <c r="O234" s="126" t="s">
         <v>1510</v>
       </c>
-      <c r="P234" s="492" t="s">
+      <c r="P234" s="504" t="s">
         <v>2041</v>
       </c>
-      <c r="Q234" s="493"/>
-      <c r="R234" s="493"/>
-      <c r="S234" s="493"/>
-      <c r="T234" s="493"/>
-      <c r="U234" s="493"/>
-      <c r="V234" s="493"/>
-      <c r="W234" s="494"/>
+      <c r="Q234" s="505"/>
+      <c r="R234" s="505"/>
+      <c r="S234" s="505"/>
+      <c r="T234" s="505"/>
+      <c r="U234" s="505"/>
+      <c r="V234" s="505"/>
+      <c r="W234" s="506"/>
       <c r="X234" s="250" t="s">
         <v>295</v>
       </c>
@@ -31334,7 +31342,7 @@
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="B236" s="532" t="s">
+      <c r="B236" s="489" t="s">
         <v>1501</v>
       </c>
       <c r="C236" s="459" t="s">
@@ -31414,7 +31422,7 @@
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="B237" s="531"/>
+      <c r="B237" s="488"/>
       <c r="C237" s="457"/>
       <c r="D237" s="86"/>
       <c r="E237" s="86"/>
@@ -31524,7 +31532,7 @@
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="B239" s="530" t="s">
+      <c r="B239" s="487" t="s">
         <v>1518</v>
       </c>
       <c r="C239" s="455" t="s">
@@ -31594,7 +31602,7 @@
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
-      <c r="B240" s="530" t="s">
+      <c r="B240" s="487" t="s">
         <v>1525</v>
       </c>
       <c r="C240" s="456" t="s">
@@ -31674,7 +31682,7 @@
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
-      <c r="B241" s="530" t="s">
+      <c r="B241" s="487" t="s">
         <v>1535</v>
       </c>
       <c r="C241" s="455" t="s">
@@ -31756,7 +31764,7 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="B242" s="530" t="s">
+      <c r="B242" s="487" t="s">
         <v>1545</v>
       </c>
       <c r="C242" s="455" t="s">
@@ -31836,7 +31844,7 @@
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
-      <c r="B243" s="530" t="s">
+      <c r="B243" s="487" t="s">
         <v>1554</v>
       </c>
       <c r="C243" s="456" t="s">
@@ -32278,7 +32286,7 @@
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="B249" s="530" t="s">
+      <c r="B249" s="487" t="s">
         <v>1598</v>
       </c>
       <c r="C249" s="456" t="s">
@@ -32358,7 +32366,7 @@
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
-      <c r="B250" s="530" t="s">
+      <c r="B250" s="487" t="s">
         <v>1607</v>
       </c>
       <c r="C250" s="455" t="s">
@@ -32436,7 +32444,7 @@
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
-      <c r="B251" s="530" t="s">
+      <c r="B251" s="487" t="s">
         <v>1613</v>
       </c>
       <c r="C251" s="455" t="s">
@@ -32500,7 +32508,7 @@
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="B252" s="530" t="s">
+      <c r="B252" s="487" t="s">
         <v>1619</v>
       </c>
       <c r="C252" s="455" t="s">
@@ -32564,7 +32572,7 @@
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="B253" s="530" t="s">
+      <c r="B253" s="487" t="s">
         <v>1625</v>
       </c>
       <c r="C253" s="455" t="s">
@@ -32642,7 +32650,7 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="B254" s="530" t="s">
+      <c r="B254" s="487" t="s">
         <v>1632</v>
       </c>
       <c r="C254" s="455" t="s">
@@ -32724,7 +32732,7 @@
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
-      <c r="B255" s="530" t="s">
+      <c r="B255" s="487" t="s">
         <v>1641</v>
       </c>
       <c r="C255" s="456" t="s">
@@ -32800,7 +32808,7 @@
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="B256" s="530" t="s">
+      <c r="B256" s="487" t="s">
         <v>1649</v>
       </c>
       <c r="C256" s="455" t="s">
@@ -32922,7 +32930,7 @@
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="B258" s="533"/>
+      <c r="B258" s="490"/>
       <c r="C258" s="471"/>
       <c r="D258" s="470"/>
       <c r="E258" s="470"/>
@@ -34601,14 +34609,14 @@
     </row>
     <row r="282" spans="1:39">
       <c r="M282" s="51"/>
-      <c r="O282" s="498" t="s">
+      <c r="O282" s="508" t="s">
         <v>1995</v>
       </c>
-      <c r="P282" s="499"/>
-      <c r="Q282" s="499"/>
-      <c r="R282" s="499"/>
-      <c r="S282" s="499"/>
-      <c r="T282" s="500"/>
+      <c r="P282" s="509"/>
+      <c r="Q282" s="509"/>
+      <c r="R282" s="509"/>
+      <c r="S282" s="509"/>
+      <c r="T282" s="510"/>
       <c r="U282" s="232" t="s">
         <v>61</v>
       </c>
@@ -34625,12 +34633,12 @@
     </row>
     <row r="283" spans="1:39" ht="15">
       <c r="M283" s="51"/>
-      <c r="O283" s="501"/>
-      <c r="P283" s="502"/>
-      <c r="Q283" s="502"/>
-      <c r="R283" s="502"/>
-      <c r="S283" s="502"/>
-      <c r="T283" s="503"/>
+      <c r="O283" s="511"/>
+      <c r="P283" s="512"/>
+      <c r="Q283" s="512"/>
+      <c r="R283" s="512"/>
+      <c r="S283" s="512"/>
+      <c r="T283" s="513"/>
       <c r="U283" s="420" t="s">
         <v>21</v>
       </c>
@@ -34647,14 +34655,14 @@
     </row>
     <row r="284" spans="1:39">
       <c r="M284" s="51"/>
-      <c r="O284" s="504" t="s">
+      <c r="O284" s="514" t="s">
         <v>1996</v>
       </c>
-      <c r="P284" s="505"/>
-      <c r="Q284" s="505"/>
-      <c r="R284" s="505"/>
-      <c r="S284" s="505"/>
-      <c r="T284" s="506"/>
+      <c r="P284" s="515"/>
+      <c r="Q284" s="515"/>
+      <c r="R284" s="515"/>
+      <c r="S284" s="515"/>
+      <c r="T284" s="516"/>
       <c r="U284" s="232" t="s">
         <v>89</v>
       </c>
@@ -34671,12 +34679,12 @@
     </row>
     <row r="285" spans="1:39">
       <c r="M285" s="51"/>
-      <c r="O285" s="507"/>
-      <c r="P285" s="508"/>
-      <c r="Q285" s="508"/>
-      <c r="R285" s="508"/>
-      <c r="S285" s="508"/>
-      <c r="T285" s="509"/>
+      <c r="O285" s="517"/>
+      <c r="P285" s="492"/>
+      <c r="Q285" s="492"/>
+      <c r="R285" s="492"/>
+      <c r="S285" s="492"/>
+      <c r="T285" s="518"/>
       <c r="U285" s="232" t="s">
         <v>164</v>
       </c>
@@ -34693,14 +34701,14 @@
     </row>
     <row r="286" spans="1:39" ht="15">
       <c r="M286" s="51"/>
-      <c r="O286" s="495" t="s">
+      <c r="O286" s="496" t="s">
         <v>2001</v>
       </c>
-      <c r="P286" s="496"/>
-      <c r="Q286" s="496"/>
-      <c r="R286" s="496"/>
-      <c r="S286" s="496"/>
-      <c r="T286" s="519"/>
+      <c r="P286" s="497"/>
+      <c r="Q286" s="497"/>
+      <c r="R286" s="497"/>
+      <c r="S286" s="497"/>
+      <c r="T286" s="528"/>
       <c r="U286" s="420" t="s">
         <v>61</v>
       </c>
@@ -34717,14 +34725,14 @@
     </row>
     <row r="287" spans="1:39">
       <c r="M287" s="51"/>
-      <c r="O287" s="495" t="s">
+      <c r="O287" s="496" t="s">
         <v>1997</v>
       </c>
-      <c r="P287" s="496"/>
-      <c r="Q287" s="496"/>
-      <c r="R287" s="496"/>
-      <c r="S287" s="496"/>
-      <c r="T287" s="519"/>
+      <c r="P287" s="497"/>
+      <c r="Q287" s="497"/>
+      <c r="R287" s="497"/>
+      <c r="S287" s="497"/>
+      <c r="T287" s="528"/>
       <c r="U287" s="64" t="s">
         <v>136</v>
       </c>
@@ -34741,14 +34749,14 @@
     </row>
     <row r="288" spans="1:39" ht="15">
       <c r="M288" s="51"/>
-      <c r="O288" s="510" t="s">
+      <c r="O288" s="519" t="s">
         <v>1843</v>
       </c>
-      <c r="P288" s="511"/>
-      <c r="Q288" s="511"/>
-      <c r="R288" s="511"/>
-      <c r="S288" s="511"/>
-      <c r="T288" s="512"/>
+      <c r="P288" s="520"/>
+      <c r="Q288" s="520"/>
+      <c r="R288" s="520"/>
+      <c r="S288" s="520"/>
+      <c r="T288" s="521"/>
       <c r="U288" s="57" t="s">
         <v>1839</v>
       </c>
@@ -34768,12 +34776,12 @@
     </row>
     <row r="289" spans="13:33" ht="15">
       <c r="M289" s="51"/>
-      <c r="O289" s="513"/>
-      <c r="P289" s="514"/>
-      <c r="Q289" s="514"/>
-      <c r="R289" s="514"/>
-      <c r="S289" s="514"/>
-      <c r="T289" s="515"/>
+      <c r="O289" s="522"/>
+      <c r="P289" s="523"/>
+      <c r="Q289" s="523"/>
+      <c r="R289" s="523"/>
+      <c r="S289" s="523"/>
+      <c r="T289" s="524"/>
       <c r="U289" s="1" t="s">
         <v>1840</v>
       </c>
@@ -34793,12 +34801,12 @@
     </row>
     <row r="290" spans="13:33" ht="15">
       <c r="M290" s="51"/>
-      <c r="O290" s="513"/>
-      <c r="P290" s="514"/>
-      <c r="Q290" s="514"/>
-      <c r="R290" s="514"/>
-      <c r="S290" s="514"/>
-      <c r="T290" s="515"/>
+      <c r="O290" s="522"/>
+      <c r="P290" s="523"/>
+      <c r="Q290" s="523"/>
+      <c r="R290" s="523"/>
+      <c r="S290" s="523"/>
+      <c r="T290" s="524"/>
       <c r="U290" s="58" t="s">
         <v>1841</v>
       </c>
@@ -34818,12 +34826,12 @@
     </row>
     <row r="291" spans="13:33" ht="15">
       <c r="M291" s="51"/>
-      <c r="O291" s="516"/>
-      <c r="P291" s="517"/>
-      <c r="Q291" s="517"/>
-      <c r="R291" s="517"/>
-      <c r="S291" s="517"/>
-      <c r="T291" s="518"/>
+      <c r="O291" s="525"/>
+      <c r="P291" s="526"/>
+      <c r="Q291" s="526"/>
+      <c r="R291" s="526"/>
+      <c r="S291" s="526"/>
+      <c r="T291" s="527"/>
       <c r="U291" s="378" t="s">
         <v>1842</v>
       </c>
@@ -34843,14 +34851,14 @@
     </row>
     <row r="292" spans="13:33" ht="15">
       <c r="M292" s="51"/>
-      <c r="O292" s="495" t="s">
+      <c r="O292" s="496" t="s">
         <v>2000</v>
       </c>
-      <c r="P292" s="496"/>
-      <c r="Q292" s="496"/>
-      <c r="R292" s="496"/>
-      <c r="S292" s="496"/>
-      <c r="T292" s="497"/>
+      <c r="P292" s="497"/>
+      <c r="Q292" s="497"/>
+      <c r="R292" s="497"/>
+      <c r="S292" s="497"/>
+      <c r="T292" s="507"/>
       <c r="U292" s="286" t="s">
         <v>1998</v>
       </c>
@@ -40354,12 +40362,11 @@
   </sheetData>
   <autoFilter ref="B2:AG977" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="P23:W24"/>
+    <mergeCell ref="P226:W226"/>
+    <mergeCell ref="P228:W228"/>
+    <mergeCell ref="P227:W227"/>
+    <mergeCell ref="P232:W232"/>
     <mergeCell ref="P233:W233"/>
     <mergeCell ref="P234:W234"/>
     <mergeCell ref="O292:T292"/>
@@ -40368,11 +40375,12 @@
     <mergeCell ref="O288:T291"/>
     <mergeCell ref="O286:T286"/>
     <mergeCell ref="O287:T287"/>
-    <mergeCell ref="P23:W24"/>
-    <mergeCell ref="P226:W226"/>
-    <mergeCell ref="P228:W228"/>
-    <mergeCell ref="P227:W227"/>
-    <mergeCell ref="P232:W232"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="Y28:Y29 Y75:Y76 Y78:Y79 Y81 Y83:Y88 Y90:Y94 Y141:Y146 Y148:Y150 Y179:Y188 Y194 Y259:Y269 Y272 Y276 Y249:Y250 Y191:Y192 Y292:Y977 Y152:Y170 M238:M257 Y62 Q62 Y96:Y123 Q96:Q123 Y198:Y207 Q198:Q207 Y66:Y67 Q66 Q69:Q73 Y69:Y73 Y55:Y60 Y137:Y139 Y125:Y135 Q137:Q139 Q135 Y2:Y25 Y40:Y53 Q25 Q41 Y213:Y222 Y224:Y227 V281 AD281 V282:W286 Y31:Y33 Y35:Y36 M2:M222 M224:M235 Y229:Y235 Y253:Y255 Q253:Q255 N281:T281 U282:U291 Y282:Y287 M259:M977">

--- a/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F13B0E-40A9-F54E-9F46-DF2E19263CC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C97AAB-21B2-48DB-9519-7884987439BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20085" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コアインボイス" sheetId="1" r:id="rId1"/>
@@ -12416,12 +12416,111 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12431,12 +12530,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12454,99 +12547,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14672,79 +14672,79 @@
   <dimension ref="A1:AM977"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="52" customWidth="1"/>
     <col min="4" max="5" width="1" style="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="7" customWidth="1"/>
-    <col min="7" max="12" width="1.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" style="229" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="409" customWidth="1"/>
-    <col min="16" max="17" width="5.33203125" style="7" customWidth="1"/>
-    <col min="18" max="20" width="1.83203125" style="7" customWidth="1"/>
-    <col min="21" max="21" width="30.83203125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="50.83203125" style="229" customWidth="1"/>
-    <col min="23" max="23" width="3.33203125" style="412" customWidth="1"/>
-    <col min="24" max="25" width="5.33203125" style="7" customWidth="1"/>
-    <col min="26" max="28" width="1.83203125" style="7" customWidth="1"/>
-    <col min="29" max="29" width="30.83203125" style="7" customWidth="1"/>
-    <col min="30" max="30" width="50.83203125" style="229" customWidth="1"/>
-    <col min="31" max="33" width="3.33203125" style="412" customWidth="1"/>
-    <col min="34" max="16384" width="12.6640625" style="7"/>
+    <col min="7" max="12" width="1.125" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="229" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="409" customWidth="1"/>
+    <col min="16" max="17" width="5.375" style="7" customWidth="1"/>
+    <col min="18" max="20" width="1.875" style="7" customWidth="1"/>
+    <col min="21" max="21" width="30.875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="50.875" style="229" customWidth="1"/>
+    <col min="23" max="23" width="3.375" style="412" customWidth="1"/>
+    <col min="24" max="25" width="5.375" style="7" customWidth="1"/>
+    <col min="26" max="28" width="1.875" style="7" customWidth="1"/>
+    <col min="29" max="29" width="30.875" style="7" customWidth="1"/>
+    <col min="30" max="30" width="50.875" style="229" customWidth="1"/>
+    <col min="31" max="33" width="3.375" style="412" customWidth="1"/>
+    <col min="34" max="16384" width="12.625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="525" t="s">
         <v>2087</v>
       </c>
-      <c r="B1" s="496" t="s">
+      <c r="B1" s="500" t="s">
         <v>1890</v>
       </c>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="497"/>
-      <c r="G1" s="497"/>
-      <c r="H1" s="497"/>
-      <c r="I1" s="497"/>
-      <c r="J1" s="497"/>
-      <c r="K1" s="497"/>
-      <c r="L1" s="497"/>
-      <c r="M1" s="497"/>
+      <c r="C1" s="501"/>
+      <c r="D1" s="501"/>
+      <c r="E1" s="501"/>
+      <c r="F1" s="501"/>
+      <c r="G1" s="501"/>
+      <c r="H1" s="501"/>
+      <c r="I1" s="501"/>
+      <c r="J1" s="501"/>
+      <c r="K1" s="501"/>
+      <c r="L1" s="501"/>
+      <c r="M1" s="501"/>
       <c r="N1" s="417"/>
-      <c r="O1" s="498" t="s">
+      <c r="O1" s="529" t="s">
         <v>1891</v>
       </c>
-      <c r="P1" s="499"/>
-      <c r="Q1" s="499"/>
-      <c r="R1" s="499"/>
-      <c r="S1" s="499"/>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="500"/>
-      <c r="X1" s="501" t="s">
+      <c r="P1" s="530"/>
+      <c r="Q1" s="530"/>
+      <c r="R1" s="530"/>
+      <c r="S1" s="530"/>
+      <c r="T1" s="530"/>
+      <c r="U1" s="530"/>
+      <c r="V1" s="530"/>
+      <c r="W1" s="531"/>
+      <c r="X1" s="532" t="s">
         <v>1938</v>
       </c>
-      <c r="Y1" s="502"/>
-      <c r="Z1" s="502"/>
-      <c r="AA1" s="502"/>
-      <c r="AB1" s="502"/>
-      <c r="AC1" s="502"/>
-      <c r="AD1" s="502"/>
-      <c r="AE1" s="502"/>
-      <c r="AF1" s="502"/>
-      <c r="AG1" s="503"/>
-    </row>
-    <row r="2" spans="1:34" ht="93">
-      <c r="A2" s="492"/>
+      <c r="Y1" s="533"/>
+      <c r="Z1" s="533"/>
+      <c r="AA1" s="533"/>
+      <c r="AB1" s="533"/>
+      <c r="AC1" s="533"/>
+      <c r="AD1" s="533"/>
+      <c r="AE1" s="533"/>
+      <c r="AF1" s="533"/>
+      <c r="AG1" s="534"/>
+    </row>
+    <row r="2" spans="1:34" ht="80.25">
+      <c r="A2" s="513"/>
       <c r="B2" s="174" t="s">
         <v>0</v>
       </c>
@@ -14787,12 +14787,12 @@
       <c r="Q2" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="493" t="s">
+      <c r="R2" s="526" t="s">
         <v>1903</v>
       </c>
-      <c r="S2" s="494"/>
-      <c r="T2" s="494"/>
-      <c r="U2" s="495"/>
+      <c r="S2" s="527"/>
+      <c r="T2" s="527"/>
+      <c r="U2" s="528"/>
       <c r="V2" s="221" t="s">
         <v>6</v>
       </c>
@@ -14805,12 +14805,12 @@
       <c r="Y2" s="176" t="s">
         <v>1970</v>
       </c>
-      <c r="Z2" s="493" t="s">
+      <c r="Z2" s="526" t="s">
         <v>1971</v>
       </c>
-      <c r="AA2" s="494"/>
-      <c r="AB2" s="494"/>
-      <c r="AC2" s="495"/>
+      <c r="AA2" s="527"/>
+      <c r="AB2" s="527"/>
+      <c r="AC2" s="528"/>
       <c r="AD2" s="221" t="s">
         <v>1982</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="45">
+    <row r="3" spans="1:34" ht="40.5">
       <c r="A3" s="50">
         <f>ROW()-2</f>
         <v>1</v>
@@ -14880,7 +14880,7 @@
       <c r="AF3" s="306"/>
       <c r="AG3" s="306"/>
     </row>
-    <row r="4" spans="1:34" ht="16">
+    <row r="4" spans="1:34" ht="15">
       <c r="A4" s="50">
         <f t="shared" ref="A4:A67" si="0">ROW()-2</f>
         <v>2</v>
@@ -14936,7 +14936,7 @@
       <c r="AF4" s="307"/>
       <c r="AG4" s="307"/>
     </row>
-    <row r="5" spans="1:34" ht="16">
+    <row r="5" spans="1:34" ht="15">
       <c r="A5" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -14992,7 +14992,7 @@
       <c r="AF5" s="307"/>
       <c r="AG5" s="307"/>
     </row>
-    <row r="6" spans="1:34" ht="16">
+    <row r="6" spans="1:34" ht="15">
       <c r="A6" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -15048,7 +15048,7 @@
       <c r="AF6" s="307"/>
       <c r="AG6" s="307"/>
     </row>
-    <row r="7" spans="1:34" ht="16">
+    <row r="7" spans="1:34" ht="15">
       <c r="A7" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -15105,7 +15105,7 @@
       <c r="AG7" s="307"/>
       <c r="AH7" s="275"/>
     </row>
-    <row r="8" spans="1:34" ht="16">
+    <row r="8" spans="1:34" ht="15">
       <c r="A8" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -15162,7 +15162,7 @@
       <c r="AG8" s="307"/>
       <c r="AH8" s="275"/>
     </row>
-    <row r="9" spans="1:34" ht="16">
+    <row r="9" spans="1:34" ht="15">
       <c r="A9" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -15219,7 +15219,7 @@
       <c r="AG9" s="307"/>
       <c r="AH9" s="275"/>
     </row>
-    <row r="10" spans="1:34" ht="16">
+    <row r="10" spans="1:34" ht="15">
       <c r="A10" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -15276,7 +15276,7 @@
       <c r="AG10" s="307"/>
       <c r="AH10" s="275"/>
     </row>
-    <row r="11" spans="1:34" ht="16">
+    <row r="11" spans="1:34" ht="15">
       <c r="A11" s="50">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -15333,7 +15333,7 @@
       <c r="AG11" s="307"/>
       <c r="AH11" s="275"/>
     </row>
-    <row r="12" spans="1:34" ht="16">
+    <row r="12" spans="1:34" ht="15">
       <c r="A12" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -15390,7 +15390,7 @@
       <c r="AG12" s="307"/>
       <c r="AH12" s="275"/>
     </row>
-    <row r="13" spans="1:34" ht="15">
+    <row r="13" spans="1:34">
       <c r="A13" s="50">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -15437,7 +15437,7 @@
       <c r="AG13" s="308"/>
       <c r="AH13" s="275"/>
     </row>
-    <row r="14" spans="1:34" ht="16">
+    <row r="14" spans="1:34" ht="15">
       <c r="A14" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -15516,7 +15516,7 @@
       <c r="AG14" s="309"/>
       <c r="AH14" s="275"/>
     </row>
-    <row r="15" spans="1:34" ht="16">
+    <row r="15" spans="1:34" ht="15">
       <c r="A15" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15573,7 +15573,7 @@
       <c r="AG15" s="309"/>
       <c r="AH15" s="275"/>
     </row>
-    <row r="16" spans="1:34" ht="16">
+    <row r="16" spans="1:34" ht="15">
       <c r="A16" s="50">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -15648,7 +15648,7 @@
       <c r="AG16" s="309"/>
       <c r="AH16" s="275"/>
     </row>
-    <row r="17" spans="1:34" ht="400" customHeight="1">
+    <row r="17" spans="1:34" ht="409.5" customHeight="1">
       <c r="A17" s="50">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -15727,7 +15727,7 @@
       <c r="AG17" s="309"/>
       <c r="AH17" s="275"/>
     </row>
-    <row r="18" spans="1:34" ht="30">
+    <row r="18" spans="1:34" ht="27">
       <c r="A18" s="50">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15792,7 +15792,7 @@
       <c r="AG18" s="309"/>
       <c r="AH18" s="275"/>
     </row>
-    <row r="19" spans="1:34" ht="75">
+    <row r="19" spans="1:34" ht="67.5">
       <c r="A19" s="50">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15858,7 +15858,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15">
+    <row r="20" spans="1:34">
       <c r="A20" s="50">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -15904,7 +15904,7 @@
       <c r="AF20" s="310"/>
       <c r="AG20" s="310"/>
     </row>
-    <row r="21" spans="1:34" ht="16">
+    <row r="21" spans="1:34" ht="15">
       <c r="A21" s="50">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15982,7 +15982,7 @@
       <c r="AF21" s="309"/>
       <c r="AG21" s="309"/>
     </row>
-    <row r="22" spans="1:34" ht="16">
+    <row r="22" spans="1:34" ht="15">
       <c r="A22" s="50">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -16060,7 +16060,7 @@
       <c r="AF22" s="309"/>
       <c r="AG22" s="309"/>
     </row>
-    <row r="23" spans="1:34" ht="41" customHeight="1">
+    <row r="23" spans="1:34" ht="41.1" customHeight="1">
       <c r="A23" s="50">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -16085,16 +16085,16 @@
       <c r="O23" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="P23" s="529" t="s">
+      <c r="P23" s="491" t="s">
         <v>2054</v>
       </c>
-      <c r="Q23" s="530"/>
-      <c r="R23" s="530"/>
-      <c r="S23" s="530"/>
-      <c r="T23" s="530"/>
-      <c r="U23" s="530"/>
-      <c r="V23" s="530"/>
-      <c r="W23" s="531"/>
+      <c r="Q23" s="492"/>
+      <c r="R23" s="492"/>
+      <c r="S23" s="492"/>
+      <c r="T23" s="492"/>
+      <c r="U23" s="492"/>
+      <c r="V23" s="492"/>
+      <c r="W23" s="493"/>
       <c r="X23" s="249" t="s">
         <v>1946</v>
       </c>
@@ -16116,7 +16116,7 @@
       <c r="AF23" s="311"/>
       <c r="AG23" s="311"/>
     </row>
-    <row r="24" spans="1:34" ht="41" customHeight="1">
+    <row r="24" spans="1:34" ht="41.1" customHeight="1">
       <c r="A24" s="50">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -16141,14 +16141,14 @@
       <c r="O24" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="P24" s="532"/>
-      <c r="Q24" s="533"/>
-      <c r="R24" s="533"/>
-      <c r="S24" s="533"/>
-      <c r="T24" s="533"/>
-      <c r="U24" s="533"/>
-      <c r="V24" s="533"/>
-      <c r="W24" s="534"/>
+      <c r="P24" s="494"/>
+      <c r="Q24" s="495"/>
+      <c r="R24" s="495"/>
+      <c r="S24" s="495"/>
+      <c r="T24" s="495"/>
+      <c r="U24" s="495"/>
+      <c r="V24" s="495"/>
+      <c r="W24" s="496"/>
       <c r="X24" s="249" t="s">
         <v>1946</v>
       </c>
@@ -16170,7 +16170,7 @@
       <c r="AF24" s="311"/>
       <c r="AG24" s="311"/>
     </row>
-    <row r="25" spans="1:34" ht="16">
+    <row r="25" spans="1:34" ht="15">
       <c r="A25" s="50">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -16248,7 +16248,7 @@
       <c r="AF25" s="309"/>
       <c r="AG25" s="309"/>
     </row>
-    <row r="26" spans="1:34" ht="30">
+    <row r="26" spans="1:34" ht="27">
       <c r="A26" s="50">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -16332,7 +16332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15">
+    <row r="27" spans="1:34">
       <c r="A27" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -16378,7 +16378,7 @@
       <c r="AF27" s="310"/>
       <c r="AG27" s="310"/>
     </row>
-    <row r="28" spans="1:34" ht="30">
+    <row r="28" spans="1:34" ht="27">
       <c r="A28" s="50">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -16450,7 +16450,7 @@
       <c r="AF28" s="309"/>
       <c r="AG28" s="309"/>
     </row>
-    <row r="29" spans="1:34" ht="16">
+    <row r="29" spans="1:34" ht="15">
       <c r="A29" s="50">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -16504,7 +16504,7 @@
       <c r="AF29" s="309"/>
       <c r="AG29" s="309"/>
     </row>
-    <row r="30" spans="1:34" ht="15">
+    <row r="30" spans="1:34">
       <c r="A30" s="50">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -16550,7 +16550,7 @@
       <c r="AF30" s="310"/>
       <c r="AG30" s="310"/>
     </row>
-    <row r="31" spans="1:34" ht="60">
+    <row r="31" spans="1:34" ht="54">
       <c r="A31" s="50">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -16628,7 +16628,7 @@
       <c r="AF31" s="309"/>
       <c r="AG31" s="309"/>
     </row>
-    <row r="32" spans="1:34" ht="60">
+    <row r="32" spans="1:34" ht="54">
       <c r="A32" s="50">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -16704,7 +16704,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="60">
+    <row r="33" spans="1:33" ht="54">
       <c r="A33" s="50">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -16778,7 +16778,7 @@
       <c r="AF33" s="309"/>
       <c r="AG33" s="309"/>
     </row>
-    <row r="34" spans="1:33" ht="45">
+    <row r="34" spans="1:33" ht="40.5">
       <c r="A34" s="50">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -16844,7 +16844,7 @@
       <c r="AF34" s="301"/>
       <c r="AG34" s="98"/>
     </row>
-    <row r="35" spans="1:33" ht="60">
+    <row r="35" spans="1:33" ht="54">
       <c r="A35" s="50">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -16922,7 +16922,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15">
+    <row r="36" spans="1:33">
       <c r="A36" s="50">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -16990,7 +16990,7 @@
       <c r="AF36" s="301"/>
       <c r="AG36" s="98"/>
     </row>
-    <row r="37" spans="1:33" ht="90">
+    <row r="37" spans="1:33" ht="81">
       <c r="A37" s="50">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -17060,7 +17060,7 @@
       <c r="AF37" s="301"/>
       <c r="AG37" s="98"/>
     </row>
-    <row r="38" spans="1:33" ht="30">
+    <row r="38" spans="1:33" ht="27">
       <c r="A38" s="50">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -17126,7 +17126,7 @@
       <c r="AF38" s="301"/>
       <c r="AG38" s="98"/>
     </row>
-    <row r="39" spans="1:33" ht="15">
+    <row r="39" spans="1:33">
       <c r="A39" s="50">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -17172,7 +17172,7 @@
       <c r="AF39" s="312"/>
       <c r="AG39" s="312"/>
     </row>
-    <row r="40" spans="1:33" ht="210">
+    <row r="40" spans="1:33" ht="189">
       <c r="A40" s="50">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -17250,7 +17250,7 @@
       <c r="AF40" s="309"/>
       <c r="AG40" s="309"/>
     </row>
-    <row r="41" spans="1:33" ht="16">
+    <row r="41" spans="1:33" ht="15">
       <c r="A41" s="50">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -17306,7 +17306,7 @@
       <c r="AF41" s="309"/>
       <c r="AG41" s="309"/>
     </row>
-    <row r="42" spans="1:33" ht="16">
+    <row r="42" spans="1:33" ht="15">
       <c r="A42" s="50">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -17380,7 +17380,7 @@
       <c r="AF42" s="309"/>
       <c r="AG42" s="309"/>
     </row>
-    <row r="43" spans="1:33" ht="16">
+    <row r="43" spans="1:33" ht="15">
       <c r="A43" s="50">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -17462,7 +17462,7 @@
       <c r="AF43" s="309"/>
       <c r="AG43" s="309"/>
     </row>
-    <row r="44" spans="1:33" ht="16">
+    <row r="44" spans="1:33" ht="15">
       <c r="A44" s="50">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -17544,7 +17544,7 @@
       <c r="AF44" s="309"/>
       <c r="AG44" s="309"/>
     </row>
-    <row r="45" spans="1:33" ht="16">
+    <row r="45" spans="1:33" ht="15">
       <c r="A45" s="50">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -17600,7 +17600,7 @@
       <c r="AF45" s="309"/>
       <c r="AG45" s="309"/>
     </row>
-    <row r="46" spans="1:33" ht="16">
+    <row r="46" spans="1:33" ht="15">
       <c r="A46" s="50">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -17674,7 +17674,7 @@
       <c r="AF46" s="309"/>
       <c r="AG46" s="309"/>
     </row>
-    <row r="47" spans="1:33" ht="16">
+    <row r="47" spans="1:33" ht="15">
       <c r="A47" s="50">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -17752,7 +17752,7 @@
       <c r="AF47" s="309"/>
       <c r="AG47" s="309"/>
     </row>
-    <row r="48" spans="1:33" ht="16">
+    <row r="48" spans="1:33" ht="15">
       <c r="A48" s="50">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -17830,7 +17830,7 @@
       <c r="AF48" s="309"/>
       <c r="AG48" s="309"/>
     </row>
-    <row r="49" spans="1:33" ht="15">
+    <row r="49" spans="1:33" ht="27">
       <c r="A49" s="50">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -17898,7 +17898,7 @@
       <c r="AF49" s="313"/>
       <c r="AG49" s="313"/>
     </row>
-    <row r="50" spans="1:33" ht="30">
+    <row r="50" spans="1:33" ht="27">
       <c r="A50" s="50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -17962,7 +17962,7 @@
       <c r="AF50" s="313"/>
       <c r="AG50" s="313"/>
     </row>
-    <row r="51" spans="1:33" ht="15">
+    <row r="51" spans="1:33">
       <c r="A51" s="50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -18030,7 +18030,7 @@
       <c r="AF51" s="313"/>
       <c r="AG51" s="313"/>
     </row>
-    <row r="52" spans="1:33" ht="15">
+    <row r="52" spans="1:33">
       <c r="A52" s="50">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -18102,7 +18102,7 @@
       <c r="AF52" s="309"/>
       <c r="AG52" s="309"/>
     </row>
-    <row r="53" spans="1:33" ht="16">
+    <row r="53" spans="1:33" ht="15">
       <c r="A53" s="50">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -18182,7 +18182,7 @@
       </c>
       <c r="AG53" s="309"/>
     </row>
-    <row r="54" spans="1:33" ht="15">
+    <row r="54" spans="1:33">
       <c r="A54" s="50">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -18252,7 +18252,7 @@
       <c r="AF54" s="302"/>
       <c r="AG54" s="265"/>
     </row>
-    <row r="55" spans="1:33" ht="16">
+    <row r="55" spans="1:33" ht="15">
       <c r="A55" s="50">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -18334,7 +18334,7 @@
       <c r="AF55" s="309"/>
       <c r="AG55" s="309"/>
     </row>
-    <row r="56" spans="1:33" ht="30">
+    <row r="56" spans="1:33" ht="27">
       <c r="A56" s="50">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -18416,7 +18416,7 @@
       <c r="AF56" s="309"/>
       <c r="AG56" s="309"/>
     </row>
-    <row r="57" spans="1:33" ht="15">
+    <row r="57" spans="1:33">
       <c r="A57" s="50">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -18486,7 +18486,7 @@
       <c r="AF57" s="302"/>
       <c r="AG57" s="265"/>
     </row>
-    <row r="58" spans="1:33" ht="16">
+    <row r="58" spans="1:33" ht="15">
       <c r="A58" s="50">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -18570,7 +18570,7 @@
       </c>
       <c r="AG58" s="309"/>
     </row>
-    <row r="59" spans="1:33" ht="15">
+    <row r="59" spans="1:33">
       <c r="A59" s="50">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -18638,7 +18638,7 @@
       <c r="AF59" s="302"/>
       <c r="AG59" s="265"/>
     </row>
-    <row r="60" spans="1:33" ht="30">
+    <row r="60" spans="1:33" ht="27">
       <c r="A60" s="50">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -18708,7 +18708,7 @@
       <c r="AF60" s="302"/>
       <c r="AG60" s="265"/>
     </row>
-    <row r="61" spans="1:33" ht="15">
+    <row r="61" spans="1:33">
       <c r="A61" s="50">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -18788,7 +18788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="16">
+    <row r="62" spans="1:33" ht="15">
       <c r="A62" s="50">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -18870,7 +18870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="15">
+    <row r="63" spans="1:33">
       <c r="A63" s="50">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -18934,7 +18934,7 @@
       <c r="AF63" s="302"/>
       <c r="AG63" s="265"/>
     </row>
-    <row r="64" spans="1:33" ht="15">
+    <row r="64" spans="1:33">
       <c r="A64" s="50">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -18998,7 +18998,7 @@
       <c r="AF64" s="302"/>
       <c r="AG64" s="265"/>
     </row>
-    <row r="65" spans="1:33" ht="15">
+    <row r="65" spans="1:33">
       <c r="A65" s="50">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -19062,7 +19062,7 @@
       <c r="AF65" s="302"/>
       <c r="AG65" s="265"/>
     </row>
-    <row r="66" spans="1:33" ht="16">
+    <row r="66" spans="1:33" ht="15">
       <c r="A66" s="50">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -19144,7 +19144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:33" ht="15">
+    <row r="67" spans="1:33">
       <c r="A67" s="50">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -19212,7 +19212,7 @@
       <c r="AF67" s="302"/>
       <c r="AG67" s="265"/>
     </row>
-    <row r="68" spans="1:33" ht="15">
+    <row r="68" spans="1:33">
       <c r="A68" s="50">
         <f t="shared" ref="A68:A131" si="1">ROW()-2</f>
         <v>66</v>
@@ -19280,7 +19280,7 @@
       <c r="AF68" s="302"/>
       <c r="AG68" s="265"/>
     </row>
-    <row r="69" spans="1:33" ht="15">
+    <row r="69" spans="1:33">
       <c r="A69" s="50">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19356,7 +19356,7 @@
       <c r="AF69" s="309"/>
       <c r="AG69" s="309"/>
     </row>
-    <row r="70" spans="1:33" ht="16">
+    <row r="70" spans="1:33" ht="15">
       <c r="A70" s="50">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19428,7 +19428,7 @@
       <c r="AF70" s="309"/>
       <c r="AG70" s="309"/>
     </row>
-    <row r="71" spans="1:33" ht="16">
+    <row r="71" spans="1:33" ht="15">
       <c r="A71" s="50">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19500,7 +19500,7 @@
       <c r="AF71" s="309"/>
       <c r="AG71" s="309"/>
     </row>
-    <row r="72" spans="1:33" ht="16">
+    <row r="72" spans="1:33" ht="15">
       <c r="A72" s="50">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19586,7 +19586,7 @@
       <c r="AF72" s="309"/>
       <c r="AG72" s="309"/>
     </row>
-    <row r="73" spans="1:33" ht="16">
+    <row r="73" spans="1:33" ht="15">
       <c r="A73" s="50">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19664,7 +19664,7 @@
       <c r="AF73" s="309"/>
       <c r="AG73" s="309"/>
     </row>
-    <row r="74" spans="1:33" ht="16">
+    <row r="74" spans="1:33" ht="15">
       <c r="A74" s="50">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19744,7 +19744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="16">
+    <row r="75" spans="1:33" ht="15">
       <c r="A75" s="50">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19818,7 +19818,7 @@
       <c r="AF75" s="309"/>
       <c r="AG75" s="309"/>
     </row>
-    <row r="76" spans="1:33" ht="16">
+    <row r="76" spans="1:33" ht="15">
       <c r="A76" s="50">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19898,7 +19898,7 @@
       </c>
       <c r="AG76" s="309"/>
     </row>
-    <row r="77" spans="1:33" ht="15">
+    <row r="77" spans="1:33">
       <c r="A77" s="50">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19968,7 +19968,7 @@
       <c r="AF77" s="302"/>
       <c r="AG77" s="265"/>
     </row>
-    <row r="78" spans="1:33" ht="16">
+    <row r="78" spans="1:33" ht="15">
       <c r="A78" s="50">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20050,7 +20050,7 @@
       <c r="AF78" s="309"/>
       <c r="AG78" s="309"/>
     </row>
-    <row r="79" spans="1:33" ht="30">
+    <row r="79" spans="1:33" ht="27">
       <c r="A79" s="50">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20132,7 +20132,7 @@
       <c r="AF79" s="309"/>
       <c r="AG79" s="309"/>
     </row>
-    <row r="80" spans="1:33" ht="30">
+    <row r="80" spans="1:33" ht="27">
       <c r="A80" s="50">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20202,7 +20202,7 @@
       <c r="AF80" s="302"/>
       <c r="AG80" s="265"/>
     </row>
-    <row r="81" spans="1:33" ht="16">
+    <row r="81" spans="1:33" ht="15">
       <c r="A81" s="50">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20286,7 +20286,7 @@
       </c>
       <c r="AG81" s="309"/>
     </row>
-    <row r="82" spans="1:33" ht="16">
+    <row r="82" spans="1:33" ht="15">
       <c r="A82" s="50">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20368,7 +20368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="16">
+    <row r="83" spans="1:33" ht="15">
       <c r="A83" s="50">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20450,7 +20450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="15">
+    <row r="84" spans="1:33">
       <c r="A84" s="50">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20514,7 +20514,7 @@
       <c r="AF84" s="302"/>
       <c r="AG84" s="265"/>
     </row>
-    <row r="85" spans="1:33" ht="15">
+    <row r="85" spans="1:33">
       <c r="A85" s="50">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20578,7 +20578,7 @@
       <c r="AF85" s="302"/>
       <c r="AG85" s="265"/>
     </row>
-    <row r="86" spans="1:33" ht="15">
+    <row r="86" spans="1:33">
       <c r="A86" s="50">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20642,7 +20642,7 @@
       <c r="AF86" s="302"/>
       <c r="AG86" s="265"/>
     </row>
-    <row r="87" spans="1:33" ht="16">
+    <row r="87" spans="1:33" ht="15">
       <c r="A87" s="50">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20724,7 +20724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="15">
+    <row r="88" spans="1:33">
       <c r="A88" s="50">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20792,7 +20792,7 @@
       <c r="AF88" s="302"/>
       <c r="AG88" s="265"/>
     </row>
-    <row r="89" spans="1:33" ht="15">
+    <row r="89" spans="1:33">
       <c r="A89" s="50">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20860,7 +20860,7 @@
       <c r="AF89" s="302"/>
       <c r="AG89" s="265"/>
     </row>
-    <row r="90" spans="1:33" ht="15">
+    <row r="90" spans="1:33">
       <c r="A90" s="50">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20940,7 +20940,7 @@
       <c r="AF90" s="309"/>
       <c r="AG90" s="309"/>
     </row>
-    <row r="91" spans="1:33" ht="16">
+    <row r="91" spans="1:33" ht="15">
       <c r="A91" s="50">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -21012,7 +21012,7 @@
       <c r="AF91" s="309"/>
       <c r="AG91" s="309"/>
     </row>
-    <row r="92" spans="1:33" ht="16">
+    <row r="92" spans="1:33" ht="15">
       <c r="A92" s="50">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -21084,7 +21084,7 @@
       <c r="AF92" s="309"/>
       <c r="AG92" s="309"/>
     </row>
-    <row r="93" spans="1:33" ht="16">
+    <row r="93" spans="1:33" ht="15">
       <c r="A93" s="50">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -21168,7 +21168,7 @@
       <c r="AF93" s="309"/>
       <c r="AG93" s="309"/>
     </row>
-    <row r="94" spans="1:33" ht="16">
+    <row r="94" spans="1:33" ht="15">
       <c r="A94" s="50">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -21250,7 +21250,7 @@
       <c r="AF94" s="309"/>
       <c r="AG94" s="309"/>
     </row>
-    <row r="95" spans="1:33" ht="16">
+    <row r="95" spans="1:33" ht="15">
       <c r="A95" s="50">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -21330,7 +21330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="30">
+    <row r="96" spans="1:33" ht="27">
       <c r="A96" s="50">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -21408,7 +21408,7 @@
       <c r="AF96" s="309"/>
       <c r="AG96" s="309"/>
     </row>
-    <row r="97" spans="1:33" ht="16">
+    <row r="97" spans="1:33" ht="15">
       <c r="A97" s="50">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -21490,7 +21490,7 @@
       <c r="AF97" s="309"/>
       <c r="AG97" s="309"/>
     </row>
-    <row r="98" spans="1:33" ht="16">
+    <row r="98" spans="1:33" ht="15">
       <c r="A98" s="50">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -21572,7 +21572,7 @@
       <c r="AF98" s="309"/>
       <c r="AG98" s="309"/>
     </row>
-    <row r="99" spans="1:33" ht="30">
+    <row r="99" spans="1:33" ht="27">
       <c r="A99" s="50">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -21654,7 +21654,7 @@
       <c r="AF99" s="309"/>
       <c r="AG99" s="309"/>
     </row>
-    <row r="100" spans="1:33" ht="16">
+    <row r="100" spans="1:33" ht="15">
       <c r="A100" s="50">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -21718,7 +21718,7 @@
       <c r="AF100" s="309"/>
       <c r="AG100" s="309"/>
     </row>
-    <row r="101" spans="1:33" ht="16">
+    <row r="101" spans="1:33" ht="15">
       <c r="A101" s="50">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -21790,7 +21790,7 @@
       <c r="AF101" s="309"/>
       <c r="AG101" s="309"/>
     </row>
-    <row r="102" spans="1:33" ht="16">
+    <row r="102" spans="1:33" ht="15">
       <c r="A102" s="50">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -21862,7 +21862,7 @@
       <c r="AF102" s="309"/>
       <c r="AG102" s="309"/>
     </row>
-    <row r="103" spans="1:33" ht="16">
+    <row r="103" spans="1:33" ht="15">
       <c r="A103" s="50">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -21934,7 +21934,7 @@
       <c r="AF103" s="309"/>
       <c r="AG103" s="309"/>
     </row>
-    <row r="104" spans="1:33" ht="16">
+    <row r="104" spans="1:33" ht="15">
       <c r="A104" s="50">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -22006,7 +22006,7 @@
       <c r="AF104" s="309"/>
       <c r="AG104" s="309"/>
     </row>
-    <row r="105" spans="1:33" ht="45">
+    <row r="105" spans="1:33" ht="40.5">
       <c r="A105" s="50">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -22068,7 +22068,7 @@
       <c r="AF105" s="309"/>
       <c r="AG105" s="309"/>
     </row>
-    <row r="106" spans="1:33" ht="16">
+    <row r="106" spans="1:33" ht="15">
       <c r="A106" s="50">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -22136,7 +22136,7 @@
       <c r="AF106" s="309"/>
       <c r="AG106" s="309"/>
     </row>
-    <row r="107" spans="1:33" ht="30">
+    <row r="107" spans="1:33" ht="27">
       <c r="A107" s="50">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -22204,7 +22204,7 @@
       <c r="AF107" s="309"/>
       <c r="AG107" s="309"/>
     </row>
-    <row r="108" spans="1:33" ht="16">
+    <row r="108" spans="1:33" ht="15">
       <c r="A108" s="50">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -22272,7 +22272,7 @@
       <c r="AF108" s="309"/>
       <c r="AG108" s="309"/>
     </row>
-    <row r="109" spans="1:33" ht="15">
+    <row r="109" spans="1:33">
       <c r="A109" s="50">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -22338,7 +22338,7 @@
       <c r="AF109" s="309"/>
       <c r="AG109" s="309"/>
     </row>
-    <row r="110" spans="1:33" ht="16">
+    <row r="110" spans="1:33" ht="15">
       <c r="A110" s="50">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -22410,7 +22410,7 @@
       <c r="AF110" s="309"/>
       <c r="AG110" s="309"/>
     </row>
-    <row r="111" spans="1:33" ht="16">
+    <row r="111" spans="1:33" ht="15">
       <c r="A111" s="50">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -22482,7 +22482,7 @@
       <c r="AF111" s="309"/>
       <c r="AG111" s="309"/>
     </row>
-    <row r="112" spans="1:33" ht="16">
+    <row r="112" spans="1:33" ht="15">
       <c r="A112" s="50">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -22554,7 +22554,7 @@
       <c r="AF112" s="309"/>
       <c r="AG112" s="309"/>
     </row>
-    <row r="113" spans="1:33" ht="16">
+    <row r="113" spans="1:33" ht="15">
       <c r="A113" s="50">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -22626,7 +22626,7 @@
       <c r="AF113" s="309"/>
       <c r="AG113" s="309"/>
     </row>
-    <row r="114" spans="1:33" ht="30">
+    <row r="114" spans="1:33" ht="27">
       <c r="A114" s="50">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -22698,7 +22698,7 @@
       <c r="AF114" s="309"/>
       <c r="AG114" s="309"/>
     </row>
-    <row r="115" spans="1:33" ht="16">
+    <row r="115" spans="1:33" ht="15">
       <c r="A115" s="50">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -22766,7 +22766,7 @@
       <c r="AF115" s="309"/>
       <c r="AG115" s="309"/>
     </row>
-    <row r="116" spans="1:33" ht="16">
+    <row r="116" spans="1:33" ht="15">
       <c r="A116" s="50">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -22834,7 +22834,7 @@
       <c r="AF116" s="309"/>
       <c r="AG116" s="309"/>
     </row>
-    <row r="117" spans="1:33" ht="16">
+    <row r="117" spans="1:33" ht="15">
       <c r="A117" s="50">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -22914,7 +22914,7 @@
       </c>
       <c r="AG117" s="309"/>
     </row>
-    <row r="118" spans="1:33" ht="30">
+    <row r="118" spans="1:33" ht="27">
       <c r="A118" s="50">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -22998,7 +22998,7 @@
       </c>
       <c r="AG118" s="309"/>
     </row>
-    <row r="119" spans="1:33" ht="15">
+    <row r="119" spans="1:33">
       <c r="A119" s="50">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -23064,7 +23064,7 @@
       <c r="AF119" s="309"/>
       <c r="AG119" s="309"/>
     </row>
-    <row r="120" spans="1:33" ht="16">
+    <row r="120" spans="1:33" ht="15">
       <c r="A120" s="50">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -23136,7 +23136,7 @@
       <c r="AF120" s="309"/>
       <c r="AG120" s="309"/>
     </row>
-    <row r="121" spans="1:33" ht="16">
+    <row r="121" spans="1:33" ht="15">
       <c r="A121" s="50">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -23208,7 +23208,7 @@
       <c r="AF121" s="309"/>
       <c r="AG121" s="309"/>
     </row>
-    <row r="122" spans="1:33" ht="16">
+    <row r="122" spans="1:33" ht="15">
       <c r="A122" s="50">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -23280,7 +23280,7 @@
       <c r="AF122" s="309"/>
       <c r="AG122" s="309"/>
     </row>
-    <row r="123" spans="1:33" ht="16">
+    <row r="123" spans="1:33" ht="15">
       <c r="A123" s="50">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -23352,7 +23352,7 @@
       <c r="AF123" s="309"/>
       <c r="AG123" s="309"/>
     </row>
-    <row r="124" spans="1:33" ht="30">
+    <row r="124" spans="1:33" ht="27">
       <c r="A124" s="50">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -23432,7 +23432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="16">
+    <row r="125" spans="1:33" ht="15">
       <c r="A125" s="50">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -23512,7 +23512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:33" ht="15">
+    <row r="126" spans="1:33">
       <c r="A126" s="50">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -23576,7 +23576,7 @@
       <c r="AF126" s="302"/>
       <c r="AG126" s="265"/>
     </row>
-    <row r="127" spans="1:33" ht="15">
+    <row r="127" spans="1:33">
       <c r="A127" s="50">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -23640,7 +23640,7 @@
       <c r="AF127" s="302"/>
       <c r="AG127" s="265"/>
     </row>
-    <row r="128" spans="1:33" ht="15">
+    <row r="128" spans="1:33">
       <c r="A128" s="50">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -23704,7 +23704,7 @@
       <c r="AF128" s="302"/>
       <c r="AG128" s="265"/>
     </row>
-    <row r="129" spans="1:33" ht="16">
+    <row r="129" spans="1:33" ht="15">
       <c r="A129" s="50">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -23786,7 +23786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="15">
+    <row r="130" spans="1:33" ht="27">
       <c r="A130" s="50">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -23854,7 +23854,7 @@
       <c r="AF130" s="302"/>
       <c r="AG130" s="265"/>
     </row>
-    <row r="131" spans="1:33" ht="15">
+    <row r="131" spans="1:33">
       <c r="A131" s="50">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -23922,7 +23922,7 @@
       <c r="AF131" s="302"/>
       <c r="AG131" s="265"/>
     </row>
-    <row r="132" spans="1:33" ht="15">
+    <row r="132" spans="1:33">
       <c r="A132" s="50">
         <f t="shared" ref="A132:A195" si="2">ROW()-2</f>
         <v>130</v>
@@ -23994,7 +23994,7 @@
       <c r="AF132" s="309"/>
       <c r="AG132" s="309"/>
     </row>
-    <row r="133" spans="1:33" ht="16">
+    <row r="133" spans="1:33" ht="15">
       <c r="A133" s="50">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -24076,7 +24076,7 @@
       <c r="AF133" s="309"/>
       <c r="AG133" s="309"/>
     </row>
-    <row r="134" spans="1:33" ht="30">
+    <row r="134" spans="1:33" ht="27">
       <c r="A134" s="50">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -24158,7 +24158,7 @@
       <c r="AF134" s="309"/>
       <c r="AG134" s="309"/>
     </row>
-    <row r="135" spans="1:33" ht="30">
+    <row r="135" spans="1:33" ht="27">
       <c r="A135" s="50">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -24226,7 +24226,7 @@
       <c r="AF135" s="319"/>
       <c r="AG135" s="319"/>
     </row>
-    <row r="136" spans="1:33" ht="16">
+    <row r="136" spans="1:33" ht="15">
       <c r="A136" s="50">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -24304,7 +24304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="15">
+    <row r="137" spans="1:33">
       <c r="A137" s="50">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -24384,7 +24384,7 @@
       <c r="AF137" s="309"/>
       <c r="AG137" s="309"/>
     </row>
-    <row r="138" spans="1:33" ht="16">
+    <row r="138" spans="1:33" ht="15">
       <c r="A138" s="50">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -24470,7 +24470,7 @@
       <c r="AF138" s="309"/>
       <c r="AG138" s="309"/>
     </row>
-    <row r="139" spans="1:33" ht="16">
+    <row r="139" spans="1:33" ht="15">
       <c r="A139" s="50">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -24556,7 +24556,7 @@
       <c r="AF139" s="309"/>
       <c r="AG139" s="309"/>
     </row>
-    <row r="140" spans="1:33" ht="15">
+    <row r="140" spans="1:33">
       <c r="A140" s="50">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -24636,7 +24636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="16">
+    <row r="141" spans="1:33" ht="15">
       <c r="A141" s="50">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -24716,7 +24716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="15">
+    <row r="142" spans="1:33">
       <c r="A142" s="50">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -24780,7 +24780,7 @@
       <c r="AF142" s="302"/>
       <c r="AG142" s="265"/>
     </row>
-    <row r="143" spans="1:33" ht="15">
+    <row r="143" spans="1:33">
       <c r="A143" s="50">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -24844,7 +24844,7 @@
       <c r="AF143" s="302"/>
       <c r="AG143" s="265"/>
     </row>
-    <row r="144" spans="1:33" ht="15">
+    <row r="144" spans="1:33">
       <c r="A144" s="50">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -24908,7 +24908,7 @@
       <c r="AF144" s="302"/>
       <c r="AG144" s="265"/>
     </row>
-    <row r="145" spans="1:33" ht="16">
+    <row r="145" spans="1:33" ht="15">
       <c r="A145" s="50">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -24990,7 +24990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:33" ht="15">
+    <row r="146" spans="1:33">
       <c r="A146" s="50">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -25058,7 +25058,7 @@
       <c r="AF146" s="302"/>
       <c r="AG146" s="265"/>
     </row>
-    <row r="147" spans="1:33" ht="15">
+    <row r="147" spans="1:33">
       <c r="A147" s="50">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -25126,7 +25126,7 @@
       <c r="AF147" s="302"/>
       <c r="AG147" s="265"/>
     </row>
-    <row r="148" spans="1:33" ht="15">
+    <row r="148" spans="1:33">
       <c r="A148" s="50">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -25198,7 +25198,7 @@
       <c r="AF148" s="309"/>
       <c r="AG148" s="309"/>
     </row>
-    <row r="149" spans="1:33" ht="16">
+    <row r="149" spans="1:33" ht="15">
       <c r="A149" s="50">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -25280,7 +25280,7 @@
       <c r="AF149" s="309"/>
       <c r="AG149" s="309"/>
     </row>
-    <row r="150" spans="1:33" ht="16">
+    <row r="150" spans="1:33" ht="15">
       <c r="A150" s="50">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -25362,7 +25362,7 @@
       <c r="AF150" s="309"/>
       <c r="AG150" s="309"/>
     </row>
-    <row r="151" spans="1:33" ht="30">
+    <row r="151" spans="1:33" ht="27">
       <c r="A151" s="50">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -25444,7 +25444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="15">
+    <row r="152" spans="1:33">
       <c r="A152" s="50">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -25506,7 +25506,7 @@
       <c r="AF152" s="309"/>
       <c r="AG152" s="309"/>
     </row>
-    <row r="153" spans="1:33" ht="16">
+    <row r="153" spans="1:33" ht="15">
       <c r="A153" s="50">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -25574,7 +25574,7 @@
       <c r="AF153" s="309"/>
       <c r="AG153" s="309"/>
     </row>
-    <row r="154" spans="1:33" ht="16">
+    <row r="154" spans="1:33" ht="15">
       <c r="A154" s="50">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -25642,7 +25642,7 @@
       <c r="AF154" s="309"/>
       <c r="AG154" s="309"/>
     </row>
-    <row r="155" spans="1:33" ht="16">
+    <row r="155" spans="1:33" ht="15">
       <c r="A155" s="50">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -25710,7 +25710,7 @@
       <c r="AF155" s="309"/>
       <c r="AG155" s="309"/>
     </row>
-    <row r="156" spans="1:33" ht="16">
+    <row r="156" spans="1:33" ht="15">
       <c r="A156" s="50">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -25778,7 +25778,7 @@
       <c r="AF156" s="309"/>
       <c r="AG156" s="309"/>
     </row>
-    <row r="157" spans="1:33" ht="16">
+    <row r="157" spans="1:33" ht="15">
       <c r="A157" s="50">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -25846,7 +25846,7 @@
       <c r="AF157" s="309"/>
       <c r="AG157" s="309"/>
     </row>
-    <row r="158" spans="1:33" ht="16">
+    <row r="158" spans="1:33" ht="15">
       <c r="A158" s="50">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -25914,7 +25914,7 @@
       <c r="AF158" s="309"/>
       <c r="AG158" s="309"/>
     </row>
-    <row r="159" spans="1:33" ht="16">
+    <row r="159" spans="1:33" ht="15">
       <c r="A159" s="50">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -25982,7 +25982,7 @@
       <c r="AF159" s="309"/>
       <c r="AG159" s="309"/>
     </row>
-    <row r="160" spans="1:33" ht="15">
+    <row r="160" spans="1:33">
       <c r="A160" s="50">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -26058,7 +26058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:33" ht="45">
+    <row r="161" spans="1:33" ht="40.5">
       <c r="A161" s="50">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -26138,7 +26138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:33" ht="15">
+    <row r="162" spans="1:33">
       <c r="A162" s="50">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -26214,7 +26214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:33" ht="30">
+    <row r="163" spans="1:33" ht="27">
       <c r="A163" s="50">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -26294,7 +26294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:33" ht="45">
+    <row r="164" spans="1:33" ht="40.5">
       <c r="A164" s="50">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -26374,7 +26374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:33" ht="75">
+    <row r="165" spans="1:33" ht="67.5">
       <c r="A165" s="50">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -26454,7 +26454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:33" ht="15">
+    <row r="166" spans="1:33">
       <c r="A166" s="50">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -26530,7 +26530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:33" ht="60">
+    <row r="167" spans="1:33" ht="54">
       <c r="A167" s="50">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -26610,7 +26610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:33" ht="45">
+    <row r="168" spans="1:33" ht="40.5">
       <c r="A168" s="50">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -26690,7 +26690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:33" ht="45">
+    <row r="169" spans="1:33" ht="40.5">
       <c r="A169" s="50">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -26770,7 +26770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:33" ht="15">
+    <row r="170" spans="1:33">
       <c r="A170" s="50">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -26846,7 +26846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:33" ht="30">
+    <row r="171" spans="1:33" ht="27">
       <c r="A171" s="50">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -26914,7 +26914,7 @@
       <c r="AF171" s="301"/>
       <c r="AG171" s="98"/>
     </row>
-    <row r="172" spans="1:33" ht="15">
+    <row r="172" spans="1:33">
       <c r="A172" s="50">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -26978,7 +26978,7 @@
       <c r="AF172" s="301"/>
       <c r="AG172" s="98"/>
     </row>
-    <row r="173" spans="1:33" ht="30">
+    <row r="173" spans="1:33" ht="27">
       <c r="A173" s="50">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -27042,7 +27042,7 @@
       <c r="AF173" s="301"/>
       <c r="AG173" s="98"/>
     </row>
-    <row r="174" spans="1:33" ht="30">
+    <row r="174" spans="1:33" ht="27">
       <c r="A174" s="50">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -27106,7 +27106,7 @@
       <c r="AF174" s="301"/>
       <c r="AG174" s="98"/>
     </row>
-    <row r="175" spans="1:33" ht="30">
+    <row r="175" spans="1:33" ht="27">
       <c r="A175" s="50">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -27174,7 +27174,7 @@
       <c r="AF175" s="301"/>
       <c r="AG175" s="98"/>
     </row>
-    <row r="176" spans="1:33" ht="30">
+    <row r="176" spans="1:33" ht="27">
       <c r="A176" s="50">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -27238,7 +27238,7 @@
       <c r="AF176" s="301"/>
       <c r="AG176" s="98"/>
     </row>
-    <row r="177" spans="1:33" ht="15">
+    <row r="177" spans="1:33">
       <c r="A177" s="50">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -27302,7 +27302,7 @@
       <c r="AF177" s="301"/>
       <c r="AG177" s="98"/>
     </row>
-    <row r="178" spans="1:33" ht="45">
+    <row r="178" spans="1:33" ht="40.5">
       <c r="A178" s="50">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -27370,7 +27370,7 @@
       <c r="AF178" s="301"/>
       <c r="AG178" s="98"/>
     </row>
-    <row r="179" spans="1:33" ht="30">
+    <row r="179" spans="1:33" ht="27">
       <c r="A179" s="50">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -27434,7 +27434,7 @@
       <c r="AF179" s="303"/>
       <c r="AG179" s="90"/>
     </row>
-    <row r="180" spans="1:33" ht="15">
+    <row r="180" spans="1:33">
       <c r="A180" s="50">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -27498,7 +27498,7 @@
       <c r="AF180" s="303"/>
       <c r="AG180" s="90"/>
     </row>
-    <row r="181" spans="1:33" ht="30">
+    <row r="181" spans="1:33" ht="27">
       <c r="A181" s="50">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -27562,7 +27562,7 @@
       <c r="AF181" s="303"/>
       <c r="AG181" s="90"/>
     </row>
-    <row r="182" spans="1:33" ht="30">
+    <row r="182" spans="1:33" ht="27">
       <c r="A182" s="50">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -27626,7 +27626,7 @@
       <c r="AF182" s="303"/>
       <c r="AG182" s="90"/>
     </row>
-    <row r="183" spans="1:33" ht="30">
+    <row r="183" spans="1:33" ht="27">
       <c r="A183" s="50">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -27692,7 +27692,7 @@
       <c r="AF183" s="303"/>
       <c r="AG183" s="90"/>
     </row>
-    <row r="184" spans="1:33" ht="15">
+    <row r="184" spans="1:33" ht="27">
       <c r="A184" s="50">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -27756,7 +27756,7 @@
       <c r="AF184" s="303"/>
       <c r="AG184" s="90"/>
     </row>
-    <row r="185" spans="1:33" ht="15">
+    <row r="185" spans="1:33">
       <c r="A185" s="50">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -27820,7 +27820,7 @@
       <c r="AF185" s="303"/>
       <c r="AG185" s="90"/>
     </row>
-    <row r="186" spans="1:33" ht="45">
+    <row r="186" spans="1:33" ht="40.5">
       <c r="A186" s="50">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -27888,7 +27888,7 @@
       <c r="AF186" s="303"/>
       <c r="AG186" s="90"/>
     </row>
-    <row r="187" spans="1:33" ht="15">
+    <row r="187" spans="1:33">
       <c r="A187" s="50">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -27960,7 +27960,7 @@
       <c r="AF187" s="309"/>
       <c r="AG187" s="309"/>
     </row>
-    <row r="188" spans="1:33" ht="60">
+    <row r="188" spans="1:33" ht="54">
       <c r="A188" s="50">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -28038,7 +28038,7 @@
       <c r="AF188" s="315"/>
       <c r="AG188" s="315"/>
     </row>
-    <row r="189" spans="1:33" ht="45">
+    <row r="189" spans="1:33" ht="40.5">
       <c r="A189" s="50">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -28120,7 +28120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:33" ht="45">
+    <row r="190" spans="1:33" ht="40.5">
       <c r="A190" s="50">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -28202,7 +28202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:33" ht="30">
+    <row r="191" spans="1:33" ht="27">
       <c r="A191" s="50">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -28284,7 +28284,7 @@
       <c r="AF191" s="309"/>
       <c r="AG191" s="309"/>
     </row>
-    <row r="192" spans="1:33" ht="30">
+    <row r="192" spans="1:33" ht="27">
       <c r="A192" s="50">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -28366,7 +28366,7 @@
       <c r="AF192" s="309"/>
       <c r="AG192" s="309"/>
     </row>
-    <row r="193" spans="1:33" ht="30">
+    <row r="193" spans="1:33" ht="27">
       <c r="A193" s="50">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -28434,7 +28434,7 @@
       <c r="AF193" s="301"/>
       <c r="AG193" s="98"/>
     </row>
-    <row r="194" spans="1:33" ht="30">
+    <row r="194" spans="1:33" ht="40.5">
       <c r="A194" s="50">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -28516,7 +28516,7 @@
       <c r="AF194" s="316"/>
       <c r="AG194" s="309"/>
     </row>
-    <row r="195" spans="1:33" ht="16">
+    <row r="195" spans="1:33" ht="15">
       <c r="A195" s="50">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -28586,7 +28586,7 @@
       <c r="AF195" s="303"/>
       <c r="AG195" s="90"/>
     </row>
-    <row r="196" spans="1:33" ht="30">
+    <row r="196" spans="1:33" ht="27">
       <c r="A196" s="50">
         <f t="shared" ref="A196:A259" si="3">ROW()-2</f>
         <v>194</v>
@@ -28650,7 +28650,7 @@
       <c r="AF196" s="303"/>
       <c r="AG196" s="90"/>
     </row>
-    <row r="197" spans="1:33" ht="16">
+    <row r="197" spans="1:33" ht="15">
       <c r="A197" s="50">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -28720,7 +28720,7 @@
       <c r="AF197" s="303"/>
       <c r="AG197" s="90"/>
     </row>
-    <row r="198" spans="1:33" ht="16">
+    <row r="198" spans="1:33" ht="15">
       <c r="A198" s="50">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -28794,7 +28794,7 @@
       <c r="AF198" s="309"/>
       <c r="AG198" s="309"/>
     </row>
-    <row r="199" spans="1:33" ht="16">
+    <row r="199" spans="1:33" ht="27">
       <c r="A199" s="50">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -28878,7 +28878,7 @@
       </c>
       <c r="AG199" s="309"/>
     </row>
-    <row r="200" spans="1:33" ht="16">
+    <row r="200" spans="1:33" ht="27">
       <c r="A200" s="50">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -28948,7 +28948,7 @@
       </c>
       <c r="AG200" s="309"/>
     </row>
-    <row r="201" spans="1:33" ht="30">
+    <row r="201" spans="1:33" ht="27">
       <c r="A201" s="50">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -29018,7 +29018,7 @@
       <c r="AF201" s="314"/>
       <c r="AG201" s="314"/>
     </row>
-    <row r="202" spans="1:33" ht="45">
+    <row r="202" spans="1:33" ht="40.5">
       <c r="A202" s="50">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -29102,7 +29102,7 @@
       </c>
       <c r="AG202" s="314"/>
     </row>
-    <row r="203" spans="1:33" ht="30">
+    <row r="203" spans="1:33" ht="27">
       <c r="A203" s="50">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -29184,7 +29184,7 @@
       <c r="AF203" s="314"/>
       <c r="AG203" s="314"/>
     </row>
-    <row r="204" spans="1:33" ht="16">
+    <row r="204" spans="1:33" ht="15">
       <c r="A204" s="50">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -29268,7 +29268,7 @@
       </c>
       <c r="AG204" s="309"/>
     </row>
-    <row r="205" spans="1:33" ht="45">
+    <row r="205" spans="1:33" ht="40.5">
       <c r="A205" s="50">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -29354,7 +29354,7 @@
       </c>
       <c r="AG205" s="309"/>
     </row>
-    <row r="206" spans="1:33" ht="30">
+    <row r="206" spans="1:33" ht="27">
       <c r="A206" s="50">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -29436,7 +29436,7 @@
       <c r="AF206" s="315"/>
       <c r="AG206" s="309"/>
     </row>
-    <row r="207" spans="1:33" ht="30">
+    <row r="207" spans="1:33" ht="27">
       <c r="A207" s="50">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -29486,7 +29486,7 @@
       <c r="AF207" s="320"/>
       <c r="AG207" s="414"/>
     </row>
-    <row r="208" spans="1:33" ht="90">
+    <row r="208" spans="1:33" ht="81">
       <c r="A208" s="50">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -29554,7 +29554,7 @@
       <c r="AF208" s="388"/>
       <c r="AG208" s="98"/>
     </row>
-    <row r="209" spans="1:33" ht="30">
+    <row r="209" spans="1:33" ht="27">
       <c r="A209" s="50">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -29618,7 +29618,7 @@
       <c r="AF209" s="301"/>
       <c r="AG209" s="98"/>
     </row>
-    <row r="210" spans="1:33" ht="15">
+    <row r="210" spans="1:33">
       <c r="A210" s="50">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -29686,7 +29686,7 @@
       <c r="AF210" s="301"/>
       <c r="AG210" s="98"/>
     </row>
-    <row r="211" spans="1:33" ht="105">
+    <row r="211" spans="1:33" ht="94.5">
       <c r="A211" s="50">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -29754,7 +29754,7 @@
       <c r="AF211" s="301"/>
       <c r="AG211" s="98"/>
     </row>
-    <row r="212" spans="1:33" ht="30">
+    <row r="212" spans="1:33" ht="27">
       <c r="A212" s="50">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -29822,7 +29822,7 @@
       <c r="AF212" s="301"/>
       <c r="AG212" s="98"/>
     </row>
-    <row r="213" spans="1:33" ht="60">
+    <row r="213" spans="1:33" ht="54">
       <c r="A213" s="50">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -29888,7 +29888,7 @@
       <c r="AF213" s="301"/>
       <c r="AG213" s="98"/>
     </row>
-    <row r="214" spans="1:33" ht="15">
+    <row r="214" spans="1:33">
       <c r="A214" s="50">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -29950,7 +29950,7 @@
       <c r="AF214" s="301"/>
       <c r="AG214" s="98"/>
     </row>
-    <row r="215" spans="1:33" ht="15">
+    <row r="215" spans="1:33">
       <c r="A215" s="50">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -30022,7 +30022,7 @@
       <c r="AF215" s="309"/>
       <c r="AG215" s="309"/>
     </row>
-    <row r="216" spans="1:33" ht="16">
+    <row r="216" spans="1:33" ht="15">
       <c r="A216" s="50">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -30102,7 +30102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="217" spans="1:33" ht="30">
+    <row r="217" spans="1:33" ht="27">
       <c r="A217" s="50">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -30154,7 +30154,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="218" spans="1:33" ht="16">
+    <row r="218" spans="1:33" ht="15">
       <c r="A218" s="50">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -30212,7 +30212,7 @@
       <c r="AF218" s="309"/>
       <c r="AG218" s="309"/>
     </row>
-    <row r="219" spans="1:33" ht="16">
+    <row r="219" spans="1:33" ht="15">
       <c r="A219" s="50">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -30270,7 +30270,7 @@
       <c r="AF219" s="309"/>
       <c r="AG219" s="309"/>
     </row>
-    <row r="220" spans="1:33" ht="16">
+    <row r="220" spans="1:33" ht="15">
       <c r="A220" s="50">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -30348,7 +30348,7 @@
       <c r="AF220" s="309"/>
       <c r="AG220" s="309"/>
     </row>
-    <row r="221" spans="1:33" ht="30">
+    <row r="221" spans="1:33" ht="27">
       <c r="A221" s="50">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -30423,7 +30423,7 @@
       <c r="AF221" s="301"/>
       <c r="AG221" s="98"/>
     </row>
-    <row r="222" spans="1:33" ht="45">
+    <row r="222" spans="1:33" ht="40.5">
       <c r="A222" s="50">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -30499,7 +30499,7 @@
       <c r="AF222" s="301"/>
       <c r="AG222" s="98"/>
     </row>
-    <row r="223" spans="1:33" ht="75">
+    <row r="223" spans="1:33" ht="67.5">
       <c r="A223" s="50">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -30567,7 +30567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:33" ht="45">
+    <row r="224" spans="1:33" ht="40.5">
       <c r="A224" s="50">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -30645,7 +30645,7 @@
       <c r="AF224" s="309"/>
       <c r="AG224" s="309"/>
     </row>
-    <row r="225" spans="1:33" ht="210">
+    <row r="225" spans="1:33" ht="202.5">
       <c r="A225" s="50">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -30744,16 +30744,16 @@
       <c r="O226" s="91" t="s">
         <v>1481</v>
       </c>
-      <c r="P226" s="504" t="s">
+      <c r="P226" s="497" t="s">
         <v>1901</v>
       </c>
-      <c r="Q226" s="505"/>
-      <c r="R226" s="505"/>
-      <c r="S226" s="505"/>
-      <c r="T226" s="505"/>
-      <c r="U226" s="505"/>
-      <c r="V226" s="505"/>
-      <c r="W226" s="506"/>
+      <c r="Q226" s="498"/>
+      <c r="R226" s="498"/>
+      <c r="S226" s="498"/>
+      <c r="T226" s="498"/>
+      <c r="U226" s="498"/>
+      <c r="V226" s="498"/>
+      <c r="W226" s="499"/>
       <c r="X226" s="249" t="s">
         <v>233</v>
       </c>
@@ -30800,16 +30800,16 @@
       <c r="O227" s="91" t="s">
         <v>1482</v>
       </c>
-      <c r="P227" s="504" t="s">
+      <c r="P227" s="497" t="s">
         <v>1483</v>
       </c>
-      <c r="Q227" s="505"/>
-      <c r="R227" s="505"/>
-      <c r="S227" s="505"/>
-      <c r="T227" s="505"/>
-      <c r="U227" s="505"/>
-      <c r="V227" s="505"/>
-      <c r="W227" s="506"/>
+      <c r="Q227" s="498"/>
+      <c r="R227" s="498"/>
+      <c r="S227" s="498"/>
+      <c r="T227" s="498"/>
+      <c r="U227" s="498"/>
+      <c r="V227" s="498"/>
+      <c r="W227" s="499"/>
       <c r="X227" s="258" t="s">
         <v>233</v>
       </c>
@@ -30831,7 +30831,7 @@
       <c r="AF227" s="309"/>
       <c r="AG227" s="309"/>
     </row>
-    <row r="228" spans="1:33" ht="30">
+    <row r="228" spans="1:33" ht="27">
       <c r="A228" s="50">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -30854,16 +30854,16 @@
       <c r="O228" s="91" t="s">
         <v>1484</v>
       </c>
-      <c r="P228" s="504" t="s">
+      <c r="P228" s="497" t="s">
         <v>1902</v>
       </c>
-      <c r="Q228" s="505"/>
-      <c r="R228" s="505"/>
-      <c r="S228" s="505"/>
-      <c r="T228" s="505"/>
-      <c r="U228" s="505"/>
-      <c r="V228" s="505"/>
-      <c r="W228" s="506"/>
+      <c r="Q228" s="498"/>
+      <c r="R228" s="498"/>
+      <c r="S228" s="498"/>
+      <c r="T228" s="498"/>
+      <c r="U228" s="498"/>
+      <c r="V228" s="498"/>
+      <c r="W228" s="499"/>
       <c r="X228" s="259" t="s">
         <v>233</v>
       </c>
@@ -30887,7 +30887,7 @@
       <c r="AF228" s="309"/>
       <c r="AG228" s="309"/>
     </row>
-    <row r="229" spans="1:33" ht="75">
+    <row r="229" spans="1:33" ht="67.5">
       <c r="A229" s="50">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -30969,7 +30969,7 @@
       <c r="AF229" s="358"/>
       <c r="AG229" s="357"/>
     </row>
-    <row r="230" spans="1:33" ht="75">
+    <row r="230" spans="1:33" ht="67.5">
       <c r="A230" s="50">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -31037,7 +31037,7 @@
       <c r="AF230" s="358"/>
       <c r="AG230" s="357"/>
     </row>
-    <row r="231" spans="1:33" ht="15">
+    <row r="231" spans="1:33">
       <c r="A231" s="50">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -31091,7 +31091,7 @@
       <c r="AF231" s="314"/>
       <c r="AG231" s="314"/>
     </row>
-    <row r="232" spans="1:33" ht="296" customHeight="1">
+    <row r="232" spans="1:33" ht="296.10000000000002" customHeight="1">
       <c r="A232" s="50">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -31116,16 +31116,16 @@
       <c r="O232" s="126" t="s">
         <v>1498</v>
       </c>
-      <c r="P232" s="504" t="s">
+      <c r="P232" s="497" t="s">
         <v>2047</v>
       </c>
-      <c r="Q232" s="505"/>
-      <c r="R232" s="505"/>
-      <c r="S232" s="505"/>
-      <c r="T232" s="505"/>
-      <c r="U232" s="505"/>
-      <c r="V232" s="505"/>
-      <c r="W232" s="506"/>
+      <c r="Q232" s="498"/>
+      <c r="R232" s="498"/>
+      <c r="S232" s="498"/>
+      <c r="T232" s="498"/>
+      <c r="U232" s="498"/>
+      <c r="V232" s="498"/>
+      <c r="W232" s="499"/>
       <c r="X232" s="250" t="s">
         <v>295</v>
       </c>
@@ -31151,7 +31151,7 @@
       <c r="AF232" s="314"/>
       <c r="AG232" s="314"/>
     </row>
-    <row r="233" spans="1:33" ht="30">
+    <row r="233" spans="1:33" ht="27">
       <c r="A233" s="50">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -31192,16 +31192,16 @@
       <c r="O233" s="126" t="s">
         <v>1507</v>
       </c>
-      <c r="P233" s="504" t="s">
+      <c r="P233" s="497" t="s">
         <v>2036</v>
       </c>
-      <c r="Q233" s="505"/>
-      <c r="R233" s="505"/>
-      <c r="S233" s="505"/>
-      <c r="T233" s="505"/>
-      <c r="U233" s="505"/>
-      <c r="V233" s="505"/>
-      <c r="W233" s="506"/>
+      <c r="Q233" s="498"/>
+      <c r="R233" s="498"/>
+      <c r="S233" s="498"/>
+      <c r="T233" s="498"/>
+      <c r="U233" s="498"/>
+      <c r="V233" s="498"/>
+      <c r="W233" s="499"/>
       <c r="X233" s="250" t="s">
         <v>295</v>
       </c>
@@ -31227,7 +31227,7 @@
       <c r="AF233" s="314"/>
       <c r="AG233" s="314"/>
     </row>
-    <row r="234" spans="1:33" ht="16">
+    <row r="234" spans="1:33" ht="15">
       <c r="A234" s="50">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -31254,16 +31254,16 @@
       <c r="O234" s="126" t="s">
         <v>1510</v>
       </c>
-      <c r="P234" s="504" t="s">
+      <c r="P234" s="497" t="s">
         <v>2041</v>
       </c>
-      <c r="Q234" s="505"/>
-      <c r="R234" s="505"/>
-      <c r="S234" s="505"/>
-      <c r="T234" s="505"/>
-      <c r="U234" s="505"/>
-      <c r="V234" s="505"/>
-      <c r="W234" s="506"/>
+      <c r="Q234" s="498"/>
+      <c r="R234" s="498"/>
+      <c r="S234" s="498"/>
+      <c r="T234" s="498"/>
+      <c r="U234" s="498"/>
+      <c r="V234" s="498"/>
+      <c r="W234" s="499"/>
       <c r="X234" s="250" t="s">
         <v>295</v>
       </c>
@@ -31289,7 +31289,7 @@
       <c r="AF234" s="314"/>
       <c r="AG234" s="314"/>
     </row>
-    <row r="235" spans="1:33" ht="45">
+    <row r="235" spans="1:33" ht="40.5">
       <c r="A235" s="50">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -31337,7 +31337,7 @@
       <c r="AF235" s="401"/>
       <c r="AG235" s="401"/>
     </row>
-    <row r="236" spans="1:33" ht="90">
+    <row r="236" spans="1:33" ht="81">
       <c r="A236" s="50">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -31417,7 +31417,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="237" spans="1:33" ht="30">
+    <row r="237" spans="1:33" ht="27">
       <c r="A237" s="50">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -31465,7 +31465,7 @@
       <c r="AF237" s="405"/>
       <c r="AG237" s="405"/>
     </row>
-    <row r="238" spans="1:33" ht="30">
+    <row r="238" spans="1:33" ht="27">
       <c r="A238" s="50">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -31527,7 +31527,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="239" spans="1:33" ht="45">
+    <row r="239" spans="1:33" ht="40.5">
       <c r="A239" s="50">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -31597,7 +31597,7 @@
       <c r="AF239" s="302"/>
       <c r="AG239" s="265"/>
     </row>
-    <row r="240" spans="1:33" ht="15">
+    <row r="240" spans="1:33">
       <c r="A240" s="50">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -31677,7 +31677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:33" ht="16">
+    <row r="241" spans="1:33" ht="15">
       <c r="A241" s="50">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -31759,7 +31759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:33" ht="16">
+    <row r="242" spans="1:33" ht="15">
       <c r="A242" s="50">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -31839,7 +31839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:33" ht="30">
+    <row r="243" spans="1:33" ht="27">
       <c r="A243" s="50">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -31915,7 +31915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:33" ht="60">
+    <row r="244" spans="1:33" ht="54">
       <c r="A244" s="50">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -31993,7 +31993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:33" ht="75">
+    <row r="245" spans="1:33" ht="67.5">
       <c r="A245" s="50">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -32057,7 +32057,7 @@
       <c r="AF245" s="301"/>
       <c r="AG245" s="98"/>
     </row>
-    <row r="246" spans="1:33" ht="30">
+    <row r="246" spans="1:33" ht="27">
       <c r="A246" s="50">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -32121,7 +32121,7 @@
       <c r="AF246" s="301"/>
       <c r="AG246" s="98"/>
     </row>
-    <row r="247" spans="1:33" ht="16">
+    <row r="247" spans="1:33" ht="15">
       <c r="A247" s="50">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -32199,7 +32199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:33" ht="16">
+    <row r="248" spans="1:33" ht="15">
       <c r="A248" s="50">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -32281,7 +32281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:33" ht="30">
+    <row r="249" spans="1:33" ht="27">
       <c r="A249" s="50">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -32361,7 +32361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:33" ht="60">
+    <row r="250" spans="1:33" ht="54">
       <c r="A250" s="50">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -32439,7 +32439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:33" ht="75">
+    <row r="251" spans="1:33" ht="67.5">
       <c r="A251" s="50">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -32503,7 +32503,7 @@
       <c r="AF251" s="303"/>
       <c r="AG251" s="90"/>
     </row>
-    <row r="252" spans="1:33" ht="30">
+    <row r="252" spans="1:33" ht="27">
       <c r="A252" s="50">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -32567,7 +32567,7 @@
       <c r="AF252" s="303"/>
       <c r="AG252" s="90"/>
     </row>
-    <row r="253" spans="1:33" ht="16">
+    <row r="253" spans="1:33" ht="15">
       <c r="A253" s="50">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -32645,7 +32645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:33" ht="16">
+    <row r="254" spans="1:33" ht="15">
       <c r="A254" s="50">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -32727,7 +32727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:33" ht="15">
+    <row r="255" spans="1:33">
       <c r="A255" s="50">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -32803,7 +32803,7 @@
       <c r="AF255" s="309"/>
       <c r="AG255" s="309"/>
     </row>
-    <row r="256" spans="1:33" ht="120">
+    <row r="256" spans="1:33" ht="108">
       <c r="A256" s="50">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -32875,7 +32875,7 @@
       <c r="AF256" s="302"/>
       <c r="AG256" s="362"/>
     </row>
-    <row r="257" spans="1:33" ht="60">
+    <row r="257" spans="1:33" ht="54">
       <c r="A257" s="50">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -32925,7 +32925,7 @@
       <c r="AF257" s="304"/>
       <c r="AG257" s="109"/>
     </row>
-    <row r="258" spans="1:33" ht="45">
+    <row r="258" spans="1:33" ht="40.5">
       <c r="A258" s="50">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -32975,7 +32975,7 @@
       <c r="AF258" s="416"/>
       <c r="AG258" s="305"/>
     </row>
-    <row r="259" spans="1:33" ht="90">
+    <row r="259" spans="1:33" ht="81">
       <c r="A259" s="50">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -33043,7 +33043,7 @@
       <c r="AF259" s="301"/>
       <c r="AG259" s="98"/>
     </row>
-    <row r="260" spans="1:33" ht="60">
+    <row r="260" spans="1:33" ht="54">
       <c r="A260" s="50">
         <f t="shared" ref="A260:A280" si="4">ROW()-2</f>
         <v>258</v>
@@ -33107,7 +33107,7 @@
       <c r="AF260" s="301"/>
       <c r="AG260" s="98"/>
     </row>
-    <row r="261" spans="1:33" ht="75">
+    <row r="261" spans="1:33" ht="67.5">
       <c r="A261" s="50">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -33171,7 +33171,7 @@
       <c r="AF261" s="372"/>
       <c r="AG261" s="415"/>
     </row>
-    <row r="262" spans="1:33" ht="60">
+    <row r="262" spans="1:33" ht="54">
       <c r="A262" s="50">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -33239,7 +33239,7 @@
       <c r="AF262" s="301"/>
       <c r="AG262" s="98"/>
     </row>
-    <row r="263" spans="1:33" ht="15">
+    <row r="263" spans="1:33">
       <c r="A263" s="50">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -33315,7 +33315,7 @@
       <c r="AF263" s="309"/>
       <c r="AG263" s="309"/>
     </row>
-    <row r="264" spans="1:33" ht="45">
+    <row r="264" spans="1:33" ht="40.5">
       <c r="A264" s="50">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -33405,7 +33405,7 @@
       </c>
       <c r="AG264" s="309"/>
     </row>
-    <row r="265" spans="1:33" ht="16">
+    <row r="265" spans="1:33" ht="15">
       <c r="A265" s="50">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -33487,7 +33487,7 @@
       <c r="AF265" s="309"/>
       <c r="AG265" s="309"/>
     </row>
-    <row r="266" spans="1:33" ht="30">
+    <row r="266" spans="1:33" ht="27">
       <c r="A266" s="50">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -33559,7 +33559,7 @@
       <c r="AF266" s="309"/>
       <c r="AG266" s="309"/>
     </row>
-    <row r="267" spans="1:33" ht="15">
+    <row r="267" spans="1:33">
       <c r="A267" s="50">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -33635,7 +33635,7 @@
       <c r="AF267" s="309"/>
       <c r="AG267" s="309"/>
     </row>
-    <row r="268" spans="1:33" ht="16">
+    <row r="268" spans="1:33" ht="15">
       <c r="A268" s="50">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -33717,7 +33717,7 @@
       <c r="AF268" s="309"/>
       <c r="AG268" s="309"/>
     </row>
-    <row r="269" spans="1:33" ht="16">
+    <row r="269" spans="1:33" ht="15">
       <c r="A269" s="50">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -33805,7 +33805,7 @@
       </c>
       <c r="AG269" s="309"/>
     </row>
-    <row r="270" spans="1:33" ht="16">
+    <row r="270" spans="1:33" ht="15">
       <c r="A270" s="50">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -33871,7 +33871,7 @@
       <c r="AF270" s="301"/>
       <c r="AG270" s="98"/>
     </row>
-    <row r="271" spans="1:33" ht="16">
+    <row r="271" spans="1:33" ht="15">
       <c r="A271" s="50">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -33937,7 +33937,7 @@
       <c r="AF271" s="301"/>
       <c r="AG271" s="98"/>
     </row>
-    <row r="272" spans="1:33" ht="16">
+    <row r="272" spans="1:33" ht="15">
       <c r="A272" s="50">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -34021,7 +34021,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="273" spans="1:39" ht="16">
+    <row r="273" spans="1:39" ht="15">
       <c r="A273" s="50">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -34097,7 +34097,7 @@
       <c r="AF273" s="301"/>
       <c r="AG273" s="98"/>
     </row>
-    <row r="274" spans="1:39" ht="45">
+    <row r="274" spans="1:39" ht="40.5">
       <c r="A274" s="50">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -34167,7 +34167,7 @@
       <c r="AF274" s="301"/>
       <c r="AG274" s="98"/>
     </row>
-    <row r="275" spans="1:39" ht="30">
+    <row r="275" spans="1:39" ht="27">
       <c r="A275" s="50">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -34239,7 +34239,7 @@
       <c r="AF275" s="301"/>
       <c r="AG275" s="98"/>
     </row>
-    <row r="276" spans="1:39" ht="15">
+    <row r="276" spans="1:39">
       <c r="A276" s="50">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -34311,7 +34311,7 @@
       <c r="AF276" s="301"/>
       <c r="AG276" s="98"/>
     </row>
-    <row r="277" spans="1:39" ht="15">
+    <row r="277" spans="1:39">
       <c r="A277" s="50">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -34379,7 +34379,7 @@
       <c r="AF277" s="301"/>
       <c r="AG277" s="98"/>
     </row>
-    <row r="278" spans="1:39" ht="15">
+    <row r="278" spans="1:39">
       <c r="A278" s="50">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -34443,7 +34443,7 @@
       <c r="AF278" s="301"/>
       <c r="AG278" s="98"/>
     </row>
-    <row r="279" spans="1:39" ht="15">
+    <row r="279" spans="1:39">
       <c r="A279" s="50">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -34511,7 +34511,7 @@
       <c r="AF279" s="301"/>
       <c r="AG279" s="98"/>
     </row>
-    <row r="280" spans="1:39" ht="15">
+    <row r="280" spans="1:39">
       <c r="A280" s="50">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -34609,14 +34609,14 @@
     </row>
     <row r="282" spans="1:39">
       <c r="M282" s="51"/>
-      <c r="O282" s="508" t="s">
+      <c r="O282" s="503" t="s">
         <v>1995</v>
       </c>
-      <c r="P282" s="509"/>
-      <c r="Q282" s="509"/>
-      <c r="R282" s="509"/>
-      <c r="S282" s="509"/>
-      <c r="T282" s="510"/>
+      <c r="P282" s="504"/>
+      <c r="Q282" s="504"/>
+      <c r="R282" s="504"/>
+      <c r="S282" s="504"/>
+      <c r="T282" s="505"/>
       <c r="U282" s="232" t="s">
         <v>61</v>
       </c>
@@ -34631,14 +34631,14 @@
       <c r="AB282" s="445"/>
       <c r="AC282" s="284"/>
     </row>
-    <row r="283" spans="1:39" ht="15">
+    <row r="283" spans="1:39">
       <c r="M283" s="51"/>
-      <c r="O283" s="511"/>
-      <c r="P283" s="512"/>
-      <c r="Q283" s="512"/>
-      <c r="R283" s="512"/>
-      <c r="S283" s="512"/>
-      <c r="T283" s="513"/>
+      <c r="O283" s="506"/>
+      <c r="P283" s="507"/>
+      <c r="Q283" s="507"/>
+      <c r="R283" s="507"/>
+      <c r="S283" s="507"/>
+      <c r="T283" s="508"/>
       <c r="U283" s="420" t="s">
         <v>21</v>
       </c>
@@ -34655,14 +34655,14 @@
     </row>
     <row r="284" spans="1:39">
       <c r="M284" s="51"/>
-      <c r="O284" s="514" t="s">
+      <c r="O284" s="509" t="s">
         <v>1996</v>
       </c>
-      <c r="P284" s="515"/>
-      <c r="Q284" s="515"/>
-      <c r="R284" s="515"/>
-      <c r="S284" s="515"/>
-      <c r="T284" s="516"/>
+      <c r="P284" s="510"/>
+      <c r="Q284" s="510"/>
+      <c r="R284" s="510"/>
+      <c r="S284" s="510"/>
+      <c r="T284" s="511"/>
       <c r="U284" s="232" t="s">
         <v>89</v>
       </c>
@@ -34679,12 +34679,12 @@
     </row>
     <row r="285" spans="1:39">
       <c r="M285" s="51"/>
-      <c r="O285" s="517"/>
-      <c r="P285" s="492"/>
-      <c r="Q285" s="492"/>
-      <c r="R285" s="492"/>
-      <c r="S285" s="492"/>
-      <c r="T285" s="518"/>
+      <c r="O285" s="512"/>
+      <c r="P285" s="513"/>
+      <c r="Q285" s="513"/>
+      <c r="R285" s="513"/>
+      <c r="S285" s="513"/>
+      <c r="T285" s="514"/>
       <c r="U285" s="232" t="s">
         <v>164</v>
       </c>
@@ -34699,16 +34699,16 @@
       <c r="AB285" s="445"/>
       <c r="AC285" s="284"/>
     </row>
-    <row r="286" spans="1:39" ht="15">
+    <row r="286" spans="1:39">
       <c r="M286" s="51"/>
-      <c r="O286" s="496" t="s">
+      <c r="O286" s="500" t="s">
         <v>2001</v>
       </c>
-      <c r="P286" s="497"/>
-      <c r="Q286" s="497"/>
-      <c r="R286" s="497"/>
-      <c r="S286" s="497"/>
-      <c r="T286" s="528"/>
+      <c r="P286" s="501"/>
+      <c r="Q286" s="501"/>
+      <c r="R286" s="501"/>
+      <c r="S286" s="501"/>
+      <c r="T286" s="524"/>
       <c r="U286" s="420" t="s">
         <v>61</v>
       </c>
@@ -34725,14 +34725,14 @@
     </row>
     <row r="287" spans="1:39">
       <c r="M287" s="51"/>
-      <c r="O287" s="496" t="s">
+      <c r="O287" s="500" t="s">
         <v>1997</v>
       </c>
-      <c r="P287" s="497"/>
-      <c r="Q287" s="497"/>
-      <c r="R287" s="497"/>
-      <c r="S287" s="497"/>
-      <c r="T287" s="528"/>
+      <c r="P287" s="501"/>
+      <c r="Q287" s="501"/>
+      <c r="R287" s="501"/>
+      <c r="S287" s="501"/>
+      <c r="T287" s="524"/>
       <c r="U287" s="64" t="s">
         <v>136</v>
       </c>
@@ -34747,16 +34747,16 @@
       <c r="AB287" s="445"/>
       <c r="AC287" s="284"/>
     </row>
-    <row r="288" spans="1:39" ht="15">
+    <row r="288" spans="1:39">
       <c r="M288" s="51"/>
-      <c r="O288" s="519" t="s">
+      <c r="O288" s="515" t="s">
         <v>1843</v>
       </c>
-      <c r="P288" s="520"/>
-      <c r="Q288" s="520"/>
-      <c r="R288" s="520"/>
-      <c r="S288" s="520"/>
-      <c r="T288" s="521"/>
+      <c r="P288" s="516"/>
+      <c r="Q288" s="516"/>
+      <c r="R288" s="516"/>
+      <c r="S288" s="516"/>
+      <c r="T288" s="517"/>
       <c r="U288" s="57" t="s">
         <v>1839</v>
       </c>
@@ -34774,14 +34774,14 @@
       <c r="AF288" s="229"/>
       <c r="AG288" s="229"/>
     </row>
-    <row r="289" spans="13:33" ht="15">
+    <row r="289" spans="13:33">
       <c r="M289" s="51"/>
-      <c r="O289" s="522"/>
-      <c r="P289" s="523"/>
-      <c r="Q289" s="523"/>
-      <c r="R289" s="523"/>
-      <c r="S289" s="523"/>
-      <c r="T289" s="524"/>
+      <c r="O289" s="518"/>
+      <c r="P289" s="519"/>
+      <c r="Q289" s="519"/>
+      <c r="R289" s="519"/>
+      <c r="S289" s="519"/>
+      <c r="T289" s="520"/>
       <c r="U289" s="1" t="s">
         <v>1840</v>
       </c>
@@ -34799,14 +34799,14 @@
       <c r="AF289" s="229"/>
       <c r="AG289" s="229"/>
     </row>
-    <row r="290" spans="13:33" ht="15">
+    <row r="290" spans="13:33">
       <c r="M290" s="51"/>
-      <c r="O290" s="522"/>
-      <c r="P290" s="523"/>
-      <c r="Q290" s="523"/>
-      <c r="R290" s="523"/>
-      <c r="S290" s="523"/>
-      <c r="T290" s="524"/>
+      <c r="O290" s="518"/>
+      <c r="P290" s="519"/>
+      <c r="Q290" s="519"/>
+      <c r="R290" s="519"/>
+      <c r="S290" s="519"/>
+      <c r="T290" s="520"/>
       <c r="U290" s="58" t="s">
         <v>1841</v>
       </c>
@@ -34824,14 +34824,14 @@
       <c r="AF290" s="229"/>
       <c r="AG290" s="229"/>
     </row>
-    <row r="291" spans="13:33" ht="15">
+    <row r="291" spans="13:33">
       <c r="M291" s="51"/>
-      <c r="O291" s="525"/>
-      <c r="P291" s="526"/>
-      <c r="Q291" s="526"/>
-      <c r="R291" s="526"/>
-      <c r="S291" s="526"/>
-      <c r="T291" s="527"/>
+      <c r="O291" s="521"/>
+      <c r="P291" s="522"/>
+      <c r="Q291" s="522"/>
+      <c r="R291" s="522"/>
+      <c r="S291" s="522"/>
+      <c r="T291" s="523"/>
       <c r="U291" s="378" t="s">
         <v>1842</v>
       </c>
@@ -34849,16 +34849,16 @@
       <c r="AF291" s="229"/>
       <c r="AG291" s="229"/>
     </row>
-    <row r="292" spans="13:33" ht="15">
+    <row r="292" spans="13:33">
       <c r="M292" s="51"/>
-      <c r="O292" s="496" t="s">
+      <c r="O292" s="500" t="s">
         <v>2000</v>
       </c>
-      <c r="P292" s="497"/>
-      <c r="Q292" s="497"/>
-      <c r="R292" s="497"/>
-      <c r="S292" s="497"/>
-      <c r="T292" s="507"/>
+      <c r="P292" s="501"/>
+      <c r="Q292" s="501"/>
+      <c r="R292" s="501"/>
+      <c r="S292" s="501"/>
+      <c r="T292" s="502"/>
       <c r="U292" s="286" t="s">
         <v>1998</v>
       </c>
@@ -40362,11 +40362,12 @@
   </sheetData>
   <autoFilter ref="B2:AG977" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="19">
-    <mergeCell ref="P23:W24"/>
-    <mergeCell ref="P226:W226"/>
-    <mergeCell ref="P228:W228"/>
-    <mergeCell ref="P227:W227"/>
-    <mergeCell ref="P232:W232"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:AG1"/>
     <mergeCell ref="P233:W233"/>
     <mergeCell ref="P234:W234"/>
     <mergeCell ref="O292:T292"/>
@@ -40375,12 +40376,11 @@
     <mergeCell ref="O288:T291"/>
     <mergeCell ref="O286:T286"/>
     <mergeCell ref="O287:T287"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="P23:W24"/>
+    <mergeCell ref="P226:W226"/>
+    <mergeCell ref="P228:W228"/>
+    <mergeCell ref="P227:W227"/>
+    <mergeCell ref="P232:W232"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="Y28:Y29 Y75:Y76 Y78:Y79 Y81 Y83:Y88 Y90:Y94 Y141:Y146 Y148:Y150 Y179:Y188 Y194 Y259:Y269 Y272 Y276 Y249:Y250 Y191:Y192 Y292:Y977 Y152:Y170 M238:M257 Y62 Q62 Y96:Y123 Q96:Q123 Y198:Y207 Q198:Q207 Y66:Y67 Q66 Q69:Q73 Y69:Y73 Y55:Y60 Y137:Y139 Y125:Y135 Q137:Q139 Q135 Y2:Y25 Y40:Y53 Q25 Q41 Y213:Y222 Y224:Y227 V281 AD281 V282:W286 Y31:Y33 Y35:Y36 M2:M222 M224:M235 Y229:Y235 Y253:Y255 Q253:Q255 N281:T281 U282:U291 Y282:Y287 M259:M977">

--- a/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pontsoleil\Documents\GitHub\EIPA\日本版コアインボイス\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C97AAB-21B2-48DB-9519-7884987439BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C2AD8-B740-E44F-B9BA-A69FC8617FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="20085" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="20080" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コアインボイス" sheetId="1" r:id="rId1"/>
@@ -9972,23 +9972,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>この文書のタイプを識別するコード 
-UNTDID 1001 ( http://www.unece.org/fileadmin/DAM/trade/untdid/d16b/tred/tredi2.htm )
-Peppol BIS Billing 3.0では、
-80　Debit note related to goods or services　− Debit information related to a transaction for goods or services to the relevant party.
-82　Metered services invoice　− Document/message claiming payment for the supply of metered services (e.g., gas, electricity, etc.) supplied to a fixed meter whose consumption is measured over a period of time.
-84　Debit note related to financial adjustments　− Document/message for providing debit information related to financial adjustments to the relevant party.
-380　Commercial invoice　− (1334) Document/message claiming payment for goods or services supplied under conditions agreed between seller and buyer.
-383　Debit note　− Document/message for providing debit information to the relevant party.
-386　Prepayment invoice　− An invoice to pay amounts for goods and services in advance; these amounts will be subtracted from the final invoice.
-393　Factored invoice　− Invoice assigned to a third party for collection.
-395　Consignment invoice　− Commercial invoice that covers a transaction other than one involving a sale.
-575　Insurer's invoice　− Document/message issued by an insurer specifying the cost of an insurance which has been effected and claiming payment therefore.
-623　Forwarder's invoice　− Invoice issued by a freight forwarder specifying services rendered and costs incurred and claiming payment therefore.
-780　Freight invoice　− Document/message issued by a transport operation specifying freight costs and charges incurred for a transport operation and stating conditions of payment.</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>税抜きの合計金額
 jBT-109 = ΣjBT-116課税対象の合計金額（税抜き）</t>
     <rPh sb="26" eb="28">
@@ -10082,6 +10065,30 @@
   </si>
   <si>
     <t>注文を行う企業を表す国際企業コード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>この文書のタイプを識別するコード 
+UNTDID 1001 ( http://www.unece.org/fileadmin/DAM/trade/untdid/d16b/tred/tredi2.htm )
+Peppol BIS Billing 3.0では、
+/ ubl:Invoice / cbc:InvoiceTypeCode
+80　Debit note related to goods or services　− Debit information related to a transaction for goods or services to the relevant party.
+82　Metered services invoice　− Document/message claiming payment for the supply of metered services (e.g., gas, electricity, etc.) supplied to a fixed meter whose consumption is measured over a period of time.
+84　Debit note related to financial adjustments　− Document/message for providing debit information related to financial adjustments to the relevant party.
+380　Commercial invoice　− (1334) Document/message claiming payment for goods or services supplied under conditions agreed between seller and buyer.
+383　Debit note　− Document/message for providing debit information to the relevant party.
+386　Prepayment invoice　− An invoice to pay amounts for goods and services in advance; these amounts will be subtracted from the final invoice.
+393　Factored invoice　− Invoice assigned to a third party for collection.
+395　Consignment invoice　− Commercial invoice that covers a transaction other than one involving a sale.
+575　Insurer's invoice　− Document/message issued by an insurer specifying the cost of an insurance which has been effected and claiming payment therefore.
+623　Forwarder's invoice　− Invoice issued by a freight forwarder specifying services rendered and costs incurred and claiming payment therefore.
+780　Freight invoice　− Document/message issued by a transport operation specifying freight costs and charges incurred for a transport operation and stating conditions of payment.
+/ ubl:CreditNote / cbc:CreditNoteTypeCode
+81　Credit note related to goods or services　− Document message used to provide credit information related to a transaction for goods or services to the relevant party.
+83　Credit note related to financial adjustments　− Document message for providing credit information related to financial adjustments to the relevant party, e.g., bonuses.
+381　Credit note　− (1113) Document/message for providing credit information to the relevant party.
+396　Factored credit note　− Credit note related to assigned invoice(s).
+532　Forwarder's credit note　− Document/message for providing credit information to the relevant party.</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -12416,6 +12423,120 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -12433,120 +12554,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14671,80 +14678,80 @@
   </sheetPr>
   <dimension ref="A1:AM977"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C291" sqref="C291"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="5" style="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.875" style="52" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="52" customWidth="1"/>
     <col min="4" max="5" width="1" style="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="7" customWidth="1"/>
-    <col min="7" max="12" width="1.125" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="11.125" style="229" customWidth="1"/>
-    <col min="15" max="15" width="9.875" style="409" customWidth="1"/>
-    <col min="16" max="17" width="5.375" style="7" customWidth="1"/>
-    <col min="18" max="20" width="1.875" style="7" customWidth="1"/>
-    <col min="21" max="21" width="30.875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="50.875" style="229" customWidth="1"/>
-    <col min="23" max="23" width="3.375" style="412" customWidth="1"/>
-    <col min="24" max="25" width="5.375" style="7" customWidth="1"/>
-    <col min="26" max="28" width="1.875" style="7" customWidth="1"/>
-    <col min="29" max="29" width="30.875" style="7" customWidth="1"/>
-    <col min="30" max="30" width="50.875" style="229" customWidth="1"/>
-    <col min="31" max="33" width="3.375" style="412" customWidth="1"/>
-    <col min="34" max="16384" width="12.625" style="7"/>
+    <col min="7" max="12" width="1.1640625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="229" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="409" customWidth="1"/>
+    <col min="16" max="17" width="5.33203125" style="7" customWidth="1"/>
+    <col min="18" max="20" width="1.83203125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="30.83203125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="50.83203125" style="229" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="412" customWidth="1"/>
+    <col min="24" max="25" width="5.33203125" style="7" customWidth="1"/>
+    <col min="26" max="28" width="1.83203125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="30.83203125" style="7" customWidth="1"/>
+    <col min="30" max="30" width="50.83203125" style="229" customWidth="1"/>
+    <col min="31" max="33" width="3.33203125" style="412" customWidth="1"/>
+    <col min="34" max="16384" width="12.6640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="525" t="s">
-        <v>2087</v>
-      </c>
-      <c r="B1" s="500" t="s">
+      <c r="A1" s="491" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B1" s="496" t="s">
         <v>1890</v>
       </c>
-      <c r="C1" s="501"/>
-      <c r="D1" s="501"/>
-      <c r="E1" s="501"/>
-      <c r="F1" s="501"/>
-      <c r="G1" s="501"/>
-      <c r="H1" s="501"/>
-      <c r="I1" s="501"/>
-      <c r="J1" s="501"/>
-      <c r="K1" s="501"/>
-      <c r="L1" s="501"/>
-      <c r="M1" s="501"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="497"/>
+      <c r="E1" s="497"/>
+      <c r="F1" s="497"/>
+      <c r="G1" s="497"/>
+      <c r="H1" s="497"/>
+      <c r="I1" s="497"/>
+      <c r="J1" s="497"/>
+      <c r="K1" s="497"/>
+      <c r="L1" s="497"/>
+      <c r="M1" s="497"/>
       <c r="N1" s="417"/>
-      <c r="O1" s="529" t="s">
+      <c r="O1" s="498" t="s">
         <v>1891</v>
       </c>
-      <c r="P1" s="530"/>
-      <c r="Q1" s="530"/>
-      <c r="R1" s="530"/>
-      <c r="S1" s="530"/>
-      <c r="T1" s="530"/>
-      <c r="U1" s="530"/>
-      <c r="V1" s="530"/>
-      <c r="W1" s="531"/>
-      <c r="X1" s="532" t="s">
+      <c r="P1" s="499"/>
+      <c r="Q1" s="499"/>
+      <c r="R1" s="499"/>
+      <c r="S1" s="499"/>
+      <c r="T1" s="499"/>
+      <c r="U1" s="499"/>
+      <c r="V1" s="499"/>
+      <c r="W1" s="500"/>
+      <c r="X1" s="501" t="s">
         <v>1938</v>
       </c>
-      <c r="Y1" s="533"/>
-      <c r="Z1" s="533"/>
-      <c r="AA1" s="533"/>
-      <c r="AB1" s="533"/>
-      <c r="AC1" s="533"/>
-      <c r="AD1" s="533"/>
-      <c r="AE1" s="533"/>
-      <c r="AF1" s="533"/>
-      <c r="AG1" s="534"/>
-    </row>
-    <row r="2" spans="1:34" ht="80.25">
-      <c r="A2" s="513"/>
+      <c r="Y1" s="502"/>
+      <c r="Z1" s="502"/>
+      <c r="AA1" s="502"/>
+      <c r="AB1" s="502"/>
+      <c r="AC1" s="502"/>
+      <c r="AD1" s="502"/>
+      <c r="AE1" s="502"/>
+      <c r="AF1" s="502"/>
+      <c r="AG1" s="503"/>
+    </row>
+    <row r="2" spans="1:34" ht="93">
+      <c r="A2" s="492"/>
       <c r="B2" s="174" t="s">
         <v>0</v>
       </c>
@@ -14787,12 +14794,12 @@
       <c r="Q2" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="526" t="s">
+      <c r="R2" s="493" t="s">
         <v>1903</v>
       </c>
-      <c r="S2" s="527"/>
-      <c r="T2" s="527"/>
-      <c r="U2" s="528"/>
+      <c r="S2" s="494"/>
+      <c r="T2" s="494"/>
+      <c r="U2" s="495"/>
       <c r="V2" s="221" t="s">
         <v>6</v>
       </c>
@@ -14805,12 +14812,12 @@
       <c r="Y2" s="176" t="s">
         <v>1970</v>
       </c>
-      <c r="Z2" s="526" t="s">
+      <c r="Z2" s="493" t="s">
         <v>1971</v>
       </c>
-      <c r="AA2" s="527"/>
-      <c r="AB2" s="527"/>
-      <c r="AC2" s="528"/>
+      <c r="AA2" s="494"/>
+      <c r="AB2" s="494"/>
+      <c r="AC2" s="495"/>
       <c r="AD2" s="221" t="s">
         <v>1982</v>
       </c>
@@ -14824,7 +14831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="40.5">
+    <row r="3" spans="1:34" ht="45">
       <c r="A3" s="50">
         <f>ROW()-2</f>
         <v>1</v>
@@ -14880,7 +14887,7 @@
       <c r="AF3" s="306"/>
       <c r="AG3" s="306"/>
     </row>
-    <row r="4" spans="1:34" ht="15">
+    <row r="4" spans="1:34" ht="16">
       <c r="A4" s="50">
         <f t="shared" ref="A4:A67" si="0">ROW()-2</f>
         <v>2</v>
@@ -14936,7 +14943,7 @@
       <c r="AF4" s="307"/>
       <c r="AG4" s="307"/>
     </row>
-    <row r="5" spans="1:34" ht="15">
+    <row r="5" spans="1:34" ht="16">
       <c r="A5" s="50">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -14992,7 +14999,7 @@
       <c r="AF5" s="307"/>
       <c r="AG5" s="307"/>
     </row>
-    <row r="6" spans="1:34" ht="15">
+    <row r="6" spans="1:34" ht="16">
       <c r="A6" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -15048,7 +15055,7 @@
       <c r="AF6" s="307"/>
       <c r="AG6" s="307"/>
     </row>
-    <row r="7" spans="1:34" ht="15">
+    <row r="7" spans="1:34" ht="16">
       <c r="A7" s="50">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -15105,7 +15112,7 @@
       <c r="AG7" s="307"/>
       <c r="AH7" s="275"/>
     </row>
-    <row r="8" spans="1:34" ht="15">
+    <row r="8" spans="1:34" ht="16">
       <c r="A8" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -15162,7 +15169,7 @@
       <c r="AG8" s="307"/>
       <c r="AH8" s="275"/>
     </row>
-    <row r="9" spans="1:34" ht="15">
+    <row r="9" spans="1:34" ht="16">
       <c r="A9" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -15219,7 +15226,7 @@
       <c r="AG9" s="307"/>
       <c r="AH9" s="275"/>
     </row>
-    <row r="10" spans="1:34" ht="15">
+    <row r="10" spans="1:34" ht="16">
       <c r="A10" s="50">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -15276,7 +15283,7 @@
       <c r="AG10" s="307"/>
       <c r="AH10" s="275"/>
     </row>
-    <row r="11" spans="1:34" ht="15">
+    <row r="11" spans="1:34" ht="16">
       <c r="A11" s="50">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -15333,7 +15340,7 @@
       <c r="AG11" s="307"/>
       <c r="AH11" s="275"/>
     </row>
-    <row r="12" spans="1:34" ht="15">
+    <row r="12" spans="1:34" ht="16">
       <c r="A12" s="50">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -15390,7 +15397,7 @@
       <c r="AG12" s="307"/>
       <c r="AH12" s="275"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" ht="15">
       <c r="A13" s="50">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -15437,7 +15444,7 @@
       <c r="AG13" s="308"/>
       <c r="AH13" s="275"/>
     </row>
-    <row r="14" spans="1:34" ht="15">
+    <row r="14" spans="1:34" ht="16">
       <c r="A14" s="50">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -15516,7 +15523,7 @@
       <c r="AG14" s="309"/>
       <c r="AH14" s="275"/>
     </row>
-    <row r="15" spans="1:34" ht="15">
+    <row r="15" spans="1:34" ht="16">
       <c r="A15" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -15573,7 +15580,7 @@
       <c r="AG15" s="309"/>
       <c r="AH15" s="275"/>
     </row>
-    <row r="16" spans="1:34" ht="15">
+    <row r="16" spans="1:34" ht="16">
       <c r="A16" s="50">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -15702,7 +15709,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="5"/>
       <c r="V17" s="235" t="s">
-        <v>2079</v>
+        <v>2089</v>
       </c>
       <c r="W17" s="314"/>
       <c r="X17" s="249" t="s">
@@ -15727,7 +15734,7 @@
       <c r="AG17" s="309"/>
       <c r="AH17" s="275"/>
     </row>
-    <row r="18" spans="1:34" ht="27">
+    <row r="18" spans="1:34" ht="30">
       <c r="A18" s="50">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -15792,7 +15799,7 @@
       <c r="AG18" s="309"/>
       <c r="AH18" s="275"/>
     </row>
-    <row r="19" spans="1:34" ht="67.5">
+    <row r="19" spans="1:34" ht="75">
       <c r="A19" s="50">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -15858,7 +15865,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:34" ht="15">
       <c r="A20" s="50">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -15904,7 +15911,7 @@
       <c r="AF20" s="310"/>
       <c r="AG20" s="310"/>
     </row>
-    <row r="21" spans="1:34" ht="15">
+    <row r="21" spans="1:34" ht="16">
       <c r="A21" s="50">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -15982,7 +15989,7 @@
       <c r="AF21" s="309"/>
       <c r="AG21" s="309"/>
     </row>
-    <row r="22" spans="1:34" ht="15">
+    <row r="22" spans="1:34" ht="16">
       <c r="A22" s="50">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -16060,7 +16067,7 @@
       <c r="AF22" s="309"/>
       <c r="AG22" s="309"/>
     </row>
-    <row r="23" spans="1:34" ht="41.1" customHeight="1">
+    <row r="23" spans="1:34" ht="41" customHeight="1">
       <c r="A23" s="50">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -16085,16 +16092,16 @@
       <c r="O23" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="P23" s="491" t="s">
+      <c r="P23" s="529" t="s">
         <v>2054</v>
       </c>
-      <c r="Q23" s="492"/>
-      <c r="R23" s="492"/>
-      <c r="S23" s="492"/>
-      <c r="T23" s="492"/>
-      <c r="U23" s="492"/>
-      <c r="V23" s="492"/>
-      <c r="W23" s="493"/>
+      <c r="Q23" s="530"/>
+      <c r="R23" s="530"/>
+      <c r="S23" s="530"/>
+      <c r="T23" s="530"/>
+      <c r="U23" s="530"/>
+      <c r="V23" s="530"/>
+      <c r="W23" s="531"/>
       <c r="X23" s="249" t="s">
         <v>1946</v>
       </c>
@@ -16116,7 +16123,7 @@
       <c r="AF23" s="311"/>
       <c r="AG23" s="311"/>
     </row>
-    <row r="24" spans="1:34" ht="41.1" customHeight="1">
+    <row r="24" spans="1:34" ht="41" customHeight="1">
       <c r="A24" s="50">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -16141,14 +16148,14 @@
       <c r="O24" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="P24" s="494"/>
-      <c r="Q24" s="495"/>
-      <c r="R24" s="495"/>
-      <c r="S24" s="495"/>
-      <c r="T24" s="495"/>
-      <c r="U24" s="495"/>
-      <c r="V24" s="495"/>
-      <c r="W24" s="496"/>
+      <c r="P24" s="532"/>
+      <c r="Q24" s="533"/>
+      <c r="R24" s="533"/>
+      <c r="S24" s="533"/>
+      <c r="T24" s="533"/>
+      <c r="U24" s="533"/>
+      <c r="V24" s="533"/>
+      <c r="W24" s="534"/>
       <c r="X24" s="249" t="s">
         <v>1946</v>
       </c>
@@ -16170,7 +16177,7 @@
       <c r="AF24" s="311"/>
       <c r="AG24" s="311"/>
     </row>
-    <row r="25" spans="1:34" ht="15">
+    <row r="25" spans="1:34" ht="16">
       <c r="A25" s="50">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -16248,7 +16255,7 @@
       <c r="AF25" s="309"/>
       <c r="AG25" s="309"/>
     </row>
-    <row r="26" spans="1:34" ht="27">
+    <row r="26" spans="1:34" ht="30">
       <c r="A26" s="50">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -16332,7 +16339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:34" ht="15">
       <c r="A27" s="50">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -16378,7 +16385,7 @@
       <c r="AF27" s="310"/>
       <c r="AG27" s="310"/>
     </row>
-    <row r="28" spans="1:34" ht="27">
+    <row r="28" spans="1:34" ht="30">
       <c r="A28" s="50">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -16450,7 +16457,7 @@
       <c r="AF28" s="309"/>
       <c r="AG28" s="309"/>
     </row>
-    <row r="29" spans="1:34" ht="15">
+    <row r="29" spans="1:34" ht="16">
       <c r="A29" s="50">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -16504,7 +16511,7 @@
       <c r="AF29" s="309"/>
       <c r="AG29" s="309"/>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:34" ht="15">
       <c r="A30" s="50">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -16550,7 +16557,7 @@
       <c r="AF30" s="310"/>
       <c r="AG30" s="310"/>
     </row>
-    <row r="31" spans="1:34" ht="54">
+    <row r="31" spans="1:34" ht="60">
       <c r="A31" s="50">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -16628,7 +16635,7 @@
       <c r="AF31" s="309"/>
       <c r="AG31" s="309"/>
     </row>
-    <row r="32" spans="1:34" ht="54">
+    <row r="32" spans="1:34" ht="60">
       <c r="A32" s="50">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -16704,7 +16711,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="54">
+    <row r="33" spans="1:33" ht="60">
       <c r="A33" s="50">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -16778,7 +16785,7 @@
       <c r="AF33" s="309"/>
       <c r="AG33" s="309"/>
     </row>
-    <row r="34" spans="1:33" ht="40.5">
+    <row r="34" spans="1:33" ht="45">
       <c r="A34" s="50">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -16844,7 +16851,7 @@
       <c r="AF34" s="301"/>
       <c r="AG34" s="98"/>
     </row>
-    <row r="35" spans="1:33" ht="54">
+    <row r="35" spans="1:33" ht="60">
       <c r="A35" s="50">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -16922,7 +16929,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" ht="15">
       <c r="A36" s="50">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -16990,7 +16997,7 @@
       <c r="AF36" s="301"/>
       <c r="AG36" s="98"/>
     </row>
-    <row r="37" spans="1:33" ht="81">
+    <row r="37" spans="1:33" ht="90">
       <c r="A37" s="50">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -17060,7 +17067,7 @@
       <c r="AF37" s="301"/>
       <c r="AG37" s="98"/>
     </row>
-    <row r="38" spans="1:33" ht="27">
+    <row r="38" spans="1:33" ht="30">
       <c r="A38" s="50">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -17126,7 +17133,7 @@
       <c r="AF38" s="301"/>
       <c r="AG38" s="98"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" ht="15">
       <c r="A39" s="50">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -17172,7 +17179,7 @@
       <c r="AF39" s="312"/>
       <c r="AG39" s="312"/>
     </row>
-    <row r="40" spans="1:33" ht="189">
+    <row r="40" spans="1:33" ht="210">
       <c r="A40" s="50">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -17250,7 +17257,7 @@
       <c r="AF40" s="309"/>
       <c r="AG40" s="309"/>
     </row>
-    <row r="41" spans="1:33" ht="15">
+    <row r="41" spans="1:33" ht="16">
       <c r="A41" s="50">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -17306,7 +17313,7 @@
       <c r="AF41" s="309"/>
       <c r="AG41" s="309"/>
     </row>
-    <row r="42" spans="1:33" ht="15">
+    <row r="42" spans="1:33" ht="16">
       <c r="A42" s="50">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -17380,7 +17387,7 @@
       <c r="AF42" s="309"/>
       <c r="AG42" s="309"/>
     </row>
-    <row r="43" spans="1:33" ht="15">
+    <row r="43" spans="1:33" ht="16">
       <c r="A43" s="50">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -17462,7 +17469,7 @@
       <c r="AF43" s="309"/>
       <c r="AG43" s="309"/>
     </row>
-    <row r="44" spans="1:33" ht="15">
+    <row r="44" spans="1:33" ht="16">
       <c r="A44" s="50">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -17544,7 +17551,7 @@
       <c r="AF44" s="309"/>
       <c r="AG44" s="309"/>
     </row>
-    <row r="45" spans="1:33" ht="15">
+    <row r="45" spans="1:33" ht="16">
       <c r="A45" s="50">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -17600,7 +17607,7 @@
       <c r="AF45" s="309"/>
       <c r="AG45" s="309"/>
     </row>
-    <row r="46" spans="1:33" ht="15">
+    <row r="46" spans="1:33" ht="16">
       <c r="A46" s="50">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -17674,7 +17681,7 @@
       <c r="AF46" s="309"/>
       <c r="AG46" s="309"/>
     </row>
-    <row r="47" spans="1:33" ht="15">
+    <row r="47" spans="1:33" ht="16">
       <c r="A47" s="50">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -17752,7 +17759,7 @@
       <c r="AF47" s="309"/>
       <c r="AG47" s="309"/>
     </row>
-    <row r="48" spans="1:33" ht="15">
+    <row r="48" spans="1:33" ht="16">
       <c r="A48" s="50">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -17830,7 +17837,7 @@
       <c r="AF48" s="309"/>
       <c r="AG48" s="309"/>
     </row>
-    <row r="49" spans="1:33" ht="27">
+    <row r="49" spans="1:33" ht="15">
       <c r="A49" s="50">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -17898,7 +17905,7 @@
       <c r="AF49" s="313"/>
       <c r="AG49" s="313"/>
     </row>
-    <row r="50" spans="1:33" ht="27">
+    <row r="50" spans="1:33" ht="30">
       <c r="A50" s="50">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -17962,7 +17969,7 @@
       <c r="AF50" s="313"/>
       <c r="AG50" s="313"/>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" ht="15">
       <c r="A51" s="50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -18030,7 +18037,7 @@
       <c r="AF51" s="313"/>
       <c r="AG51" s="313"/>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" ht="15">
       <c r="A52" s="50">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -18102,7 +18109,7 @@
       <c r="AF52" s="309"/>
       <c r="AG52" s="309"/>
     </row>
-    <row r="53" spans="1:33" ht="15">
+    <row r="53" spans="1:33" ht="16">
       <c r="A53" s="50">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -18182,7 +18189,7 @@
       </c>
       <c r="AG53" s="309"/>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" ht="15">
       <c r="A54" s="50">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -18252,7 +18259,7 @@
       <c r="AF54" s="302"/>
       <c r="AG54" s="265"/>
     </row>
-    <row r="55" spans="1:33" ht="15">
+    <row r="55" spans="1:33" ht="16">
       <c r="A55" s="50">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -18334,7 +18341,7 @@
       <c r="AF55" s="309"/>
       <c r="AG55" s="309"/>
     </row>
-    <row r="56" spans="1:33" ht="27">
+    <row r="56" spans="1:33" ht="30">
       <c r="A56" s="50">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -18390,7 +18397,7 @@
       <c r="T56" s="4"/>
       <c r="U56" s="5"/>
       <c r="V56" s="235" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="W56" s="314"/>
       <c r="X56" s="250" t="s">
@@ -18416,7 +18423,7 @@
       <c r="AF56" s="309"/>
       <c r="AG56" s="309"/>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" ht="15">
       <c r="A57" s="50">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -18486,7 +18493,7 @@
       <c r="AF57" s="302"/>
       <c r="AG57" s="265"/>
     </row>
-    <row r="58" spans="1:33" ht="15">
+    <row r="58" spans="1:33" ht="16">
       <c r="A58" s="50">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -18570,7 +18577,7 @@
       </c>
       <c r="AG58" s="309"/>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" ht="15">
       <c r="A59" s="50">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -18638,7 +18645,7 @@
       <c r="AF59" s="302"/>
       <c r="AG59" s="265"/>
     </row>
-    <row r="60" spans="1:33" ht="27">
+    <row r="60" spans="1:33" ht="30">
       <c r="A60" s="50">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -18708,7 +18715,7 @@
       <c r="AF60" s="302"/>
       <c r="AG60" s="265"/>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" ht="15">
       <c r="A61" s="50">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -18788,7 +18795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="15">
+    <row r="62" spans="1:33" ht="16">
       <c r="A62" s="50">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -18870,7 +18877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" ht="15">
       <c r="A63" s="50">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -18934,7 +18941,7 @@
       <c r="AF63" s="302"/>
       <c r="AG63" s="265"/>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" ht="15">
       <c r="A64" s="50">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -18998,7 +19005,7 @@
       <c r="AF64" s="302"/>
       <c r="AG64" s="265"/>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" ht="15">
       <c r="A65" s="50">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -19062,7 +19069,7 @@
       <c r="AF65" s="302"/>
       <c r="AG65" s="265"/>
     </row>
-    <row r="66" spans="1:33" ht="15">
+    <row r="66" spans="1:33" ht="16">
       <c r="A66" s="50">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -19144,7 +19151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" ht="15">
       <c r="A67" s="50">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -19212,7 +19219,7 @@
       <c r="AF67" s="302"/>
       <c r="AG67" s="265"/>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" ht="15">
       <c r="A68" s="50">
         <f t="shared" ref="A68:A131" si="1">ROW()-2</f>
         <v>66</v>
@@ -19280,7 +19287,7 @@
       <c r="AF68" s="302"/>
       <c r="AG68" s="265"/>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" ht="15">
       <c r="A69" s="50">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -19356,7 +19363,7 @@
       <c r="AF69" s="309"/>
       <c r="AG69" s="309"/>
     </row>
-    <row r="70" spans="1:33" ht="15">
+    <row r="70" spans="1:33" ht="16">
       <c r="A70" s="50">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -19428,7 +19435,7 @@
       <c r="AF70" s="309"/>
       <c r="AG70" s="309"/>
     </row>
-    <row r="71" spans="1:33" ht="15">
+    <row r="71" spans="1:33" ht="16">
       <c r="A71" s="50">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -19500,7 +19507,7 @@
       <c r="AF71" s="309"/>
       <c r="AG71" s="309"/>
     </row>
-    <row r="72" spans="1:33" ht="15">
+    <row r="72" spans="1:33" ht="16">
       <c r="A72" s="50">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -19586,7 +19593,7 @@
       <c r="AF72" s="309"/>
       <c r="AG72" s="309"/>
     </row>
-    <row r="73" spans="1:33" ht="15">
+    <row r="73" spans="1:33" ht="16">
       <c r="A73" s="50">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -19664,7 +19671,7 @@
       <c r="AF73" s="309"/>
       <c r="AG73" s="309"/>
     </row>
-    <row r="74" spans="1:33" ht="15">
+    <row r="74" spans="1:33" ht="16">
       <c r="A74" s="50">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -19744,7 +19751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:33" ht="15">
+    <row r="75" spans="1:33" ht="16">
       <c r="A75" s="50">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -19818,7 +19825,7 @@
       <c r="AF75" s="309"/>
       <c r="AG75" s="309"/>
     </row>
-    <row r="76" spans="1:33" ht="15">
+    <row r="76" spans="1:33" ht="16">
       <c r="A76" s="50">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -19898,7 +19905,7 @@
       </c>
       <c r="AG76" s="309"/>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" ht="15">
       <c r="A77" s="50">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -19968,7 +19975,7 @@
       <c r="AF77" s="302"/>
       <c r="AG77" s="265"/>
     </row>
-    <row r="78" spans="1:33" ht="15">
+    <row r="78" spans="1:33" ht="16">
       <c r="A78" s="50">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -20050,7 +20057,7 @@
       <c r="AF78" s="309"/>
       <c r="AG78" s="309"/>
     </row>
-    <row r="79" spans="1:33" ht="27">
+    <row r="79" spans="1:33" ht="30">
       <c r="A79" s="50">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -20106,7 +20113,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="5"/>
       <c r="V79" s="235" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="W79" s="314"/>
       <c r="X79" s="250" t="s">
@@ -20132,7 +20139,7 @@
       <c r="AF79" s="309"/>
       <c r="AG79" s="309"/>
     </row>
-    <row r="80" spans="1:33" ht="27">
+    <row r="80" spans="1:33" ht="30">
       <c r="A80" s="50">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -20202,7 +20209,7 @@
       <c r="AF80" s="302"/>
       <c r="AG80" s="265"/>
     </row>
-    <row r="81" spans="1:33" ht="15">
+    <row r="81" spans="1:33" ht="16">
       <c r="A81" s="50">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -20286,7 +20293,7 @@
       </c>
       <c r="AG81" s="309"/>
     </row>
-    <row r="82" spans="1:33" ht="15">
+    <row r="82" spans="1:33" ht="16">
       <c r="A82" s="50">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -20368,7 +20375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="15">
+    <row r="83" spans="1:33" ht="16">
       <c r="A83" s="50">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -20450,7 +20457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:33" ht="15">
       <c r="A84" s="50">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -20514,7 +20521,7 @@
       <c r="AF84" s="302"/>
       <c r="AG84" s="265"/>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" ht="15">
       <c r="A85" s="50">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -20578,7 +20585,7 @@
       <c r="AF85" s="302"/>
       <c r="AG85" s="265"/>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" ht="15">
       <c r="A86" s="50">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -20642,7 +20649,7 @@
       <c r="AF86" s="302"/>
       <c r="AG86" s="265"/>
     </row>
-    <row r="87" spans="1:33" ht="15">
+    <row r="87" spans="1:33" ht="16">
       <c r="A87" s="50">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -20724,7 +20731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:33">
+    <row r="88" spans="1:33" ht="15">
       <c r="A88" s="50">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -20792,7 +20799,7 @@
       <c r="AF88" s="302"/>
       <c r="AG88" s="265"/>
     </row>
-    <row r="89" spans="1:33">
+    <row r="89" spans="1:33" ht="15">
       <c r="A89" s="50">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -20860,7 +20867,7 @@
       <c r="AF89" s="302"/>
       <c r="AG89" s="265"/>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" ht="15">
       <c r="A90" s="50">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -20940,7 +20947,7 @@
       <c r="AF90" s="309"/>
       <c r="AG90" s="309"/>
     </row>
-    <row r="91" spans="1:33" ht="15">
+    <row r="91" spans="1:33" ht="16">
       <c r="A91" s="50">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -21012,7 +21019,7 @@
       <c r="AF91" s="309"/>
       <c r="AG91" s="309"/>
     </row>
-    <row r="92" spans="1:33" ht="15">
+    <row r="92" spans="1:33" ht="16">
       <c r="A92" s="50">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -21084,7 +21091,7 @@
       <c r="AF92" s="309"/>
       <c r="AG92" s="309"/>
     </row>
-    <row r="93" spans="1:33" ht="15">
+    <row r="93" spans="1:33" ht="16">
       <c r="A93" s="50">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -21168,7 +21175,7 @@
       <c r="AF93" s="309"/>
       <c r="AG93" s="309"/>
     </row>
-    <row r="94" spans="1:33" ht="15">
+    <row r="94" spans="1:33" ht="16">
       <c r="A94" s="50">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -21250,7 +21257,7 @@
       <c r="AF94" s="309"/>
       <c r="AG94" s="309"/>
     </row>
-    <row r="95" spans="1:33" ht="15">
+    <row r="95" spans="1:33" ht="16">
       <c r="A95" s="50">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -21330,7 +21337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="27">
+    <row r="96" spans="1:33" ht="30">
       <c r="A96" s="50">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -21408,7 +21415,7 @@
       <c r="AF96" s="309"/>
       <c r="AG96" s="309"/>
     </row>
-    <row r="97" spans="1:33" ht="15">
+    <row r="97" spans="1:33" ht="16">
       <c r="A97" s="50">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -21490,7 +21497,7 @@
       <c r="AF97" s="309"/>
       <c r="AG97" s="309"/>
     </row>
-    <row r="98" spans="1:33" ht="15">
+    <row r="98" spans="1:33" ht="16">
       <c r="A98" s="50">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -21572,7 +21579,7 @@
       <c r="AF98" s="309"/>
       <c r="AG98" s="309"/>
     </row>
-    <row r="99" spans="1:33" ht="27">
+    <row r="99" spans="1:33" ht="30">
       <c r="A99" s="50">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -21654,7 +21661,7 @@
       <c r="AF99" s="309"/>
       <c r="AG99" s="309"/>
     </row>
-    <row r="100" spans="1:33" ht="15">
+    <row r="100" spans="1:33" ht="16">
       <c r="A100" s="50">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -21718,7 +21725,7 @@
       <c r="AF100" s="309"/>
       <c r="AG100" s="309"/>
     </row>
-    <row r="101" spans="1:33" ht="15">
+    <row r="101" spans="1:33" ht="16">
       <c r="A101" s="50">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -21790,7 +21797,7 @@
       <c r="AF101" s="309"/>
       <c r="AG101" s="309"/>
     </row>
-    <row r="102" spans="1:33" ht="15">
+    <row r="102" spans="1:33" ht="16">
       <c r="A102" s="50">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -21862,7 +21869,7 @@
       <c r="AF102" s="309"/>
       <c r="AG102" s="309"/>
     </row>
-    <row r="103" spans="1:33" ht="15">
+    <row r="103" spans="1:33" ht="16">
       <c r="A103" s="50">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -21934,7 +21941,7 @@
       <c r="AF103" s="309"/>
       <c r="AG103" s="309"/>
     </row>
-    <row r="104" spans="1:33" ht="15">
+    <row r="104" spans="1:33" ht="16">
       <c r="A104" s="50">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -22006,7 +22013,7 @@
       <c r="AF104" s="309"/>
       <c r="AG104" s="309"/>
     </row>
-    <row r="105" spans="1:33" ht="40.5">
+    <row r="105" spans="1:33" ht="45">
       <c r="A105" s="50">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -22068,7 +22075,7 @@
       <c r="AF105" s="309"/>
       <c r="AG105" s="309"/>
     </row>
-    <row r="106" spans="1:33" ht="15">
+    <row r="106" spans="1:33" ht="16">
       <c r="A106" s="50">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -22136,7 +22143,7 @@
       <c r="AF106" s="309"/>
       <c r="AG106" s="309"/>
     </row>
-    <row r="107" spans="1:33" ht="27">
+    <row r="107" spans="1:33" ht="30">
       <c r="A107" s="50">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -22204,7 +22211,7 @@
       <c r="AF107" s="309"/>
       <c r="AG107" s="309"/>
     </row>
-    <row r="108" spans="1:33" ht="15">
+    <row r="108" spans="1:33" ht="16">
       <c r="A108" s="50">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -22272,7 +22279,7 @@
       <c r="AF108" s="309"/>
       <c r="AG108" s="309"/>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:33" ht="15">
       <c r="A109" s="50">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -22338,7 +22345,7 @@
       <c r="AF109" s="309"/>
       <c r="AG109" s="309"/>
     </row>
-    <row r="110" spans="1:33" ht="15">
+    <row r="110" spans="1:33" ht="16">
       <c r="A110" s="50">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -22410,7 +22417,7 @@
       <c r="AF110" s="309"/>
       <c r="AG110" s="309"/>
     </row>
-    <row r="111" spans="1:33" ht="15">
+    <row r="111" spans="1:33" ht="16">
       <c r="A111" s="50">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -22482,7 +22489,7 @@
       <c r="AF111" s="309"/>
       <c r="AG111" s="309"/>
     </row>
-    <row r="112" spans="1:33" ht="15">
+    <row r="112" spans="1:33" ht="16">
       <c r="A112" s="50">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -22554,7 +22561,7 @@
       <c r="AF112" s="309"/>
       <c r="AG112" s="309"/>
     </row>
-    <row r="113" spans="1:33" ht="15">
+    <row r="113" spans="1:33" ht="16">
       <c r="A113" s="50">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -22626,7 +22633,7 @@
       <c r="AF113" s="309"/>
       <c r="AG113" s="309"/>
     </row>
-    <row r="114" spans="1:33" ht="27">
+    <row r="114" spans="1:33" ht="30">
       <c r="A114" s="50">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -22698,7 +22705,7 @@
       <c r="AF114" s="309"/>
       <c r="AG114" s="309"/>
     </row>
-    <row r="115" spans="1:33" ht="15">
+    <row r="115" spans="1:33" ht="16">
       <c r="A115" s="50">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -22766,7 +22773,7 @@
       <c r="AF115" s="309"/>
       <c r="AG115" s="309"/>
     </row>
-    <row r="116" spans="1:33" ht="15">
+    <row r="116" spans="1:33" ht="16">
       <c r="A116" s="50">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -22834,7 +22841,7 @@
       <c r="AF116" s="309"/>
       <c r="AG116" s="309"/>
     </row>
-    <row r="117" spans="1:33" ht="15">
+    <row r="117" spans="1:33" ht="16">
       <c r="A117" s="50">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -22914,7 +22921,7 @@
       </c>
       <c r="AG117" s="309"/>
     </row>
-    <row r="118" spans="1:33" ht="27">
+    <row r="118" spans="1:33" ht="30">
       <c r="A118" s="50">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -22998,7 +23005,7 @@
       </c>
       <c r="AG118" s="309"/>
     </row>
-    <row r="119" spans="1:33">
+    <row r="119" spans="1:33" ht="15">
       <c r="A119" s="50">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -23064,7 +23071,7 @@
       <c r="AF119" s="309"/>
       <c r="AG119" s="309"/>
     </row>
-    <row r="120" spans="1:33" ht="15">
+    <row r="120" spans="1:33" ht="16">
       <c r="A120" s="50">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -23136,7 +23143,7 @@
       <c r="AF120" s="309"/>
       <c r="AG120" s="309"/>
     </row>
-    <row r="121" spans="1:33" ht="15">
+    <row r="121" spans="1:33" ht="16">
       <c r="A121" s="50">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -23208,7 +23215,7 @@
       <c r="AF121" s="309"/>
       <c r="AG121" s="309"/>
     </row>
-    <row r="122" spans="1:33" ht="15">
+    <row r="122" spans="1:33" ht="16">
       <c r="A122" s="50">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -23280,7 +23287,7 @@
       <c r="AF122" s="309"/>
       <c r="AG122" s="309"/>
     </row>
-    <row r="123" spans="1:33" ht="15">
+    <row r="123" spans="1:33" ht="16">
       <c r="A123" s="50">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -23352,7 +23359,7 @@
       <c r="AF123" s="309"/>
       <c r="AG123" s="309"/>
     </row>
-    <row r="124" spans="1:33" ht="27">
+    <row r="124" spans="1:33" ht="30">
       <c r="A124" s="50">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -23432,7 +23439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:33" ht="15">
+    <row r="125" spans="1:33" ht="16">
       <c r="A125" s="50">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -23512,7 +23519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" spans="1:33">
+    <row r="126" spans="1:33" ht="15">
       <c r="A126" s="50">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -23576,7 +23583,7 @@
       <c r="AF126" s="302"/>
       <c r="AG126" s="265"/>
     </row>
-    <row r="127" spans="1:33">
+    <row r="127" spans="1:33" ht="15">
       <c r="A127" s="50">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -23640,7 +23647,7 @@
       <c r="AF127" s="302"/>
       <c r="AG127" s="265"/>
     </row>
-    <row r="128" spans="1:33">
+    <row r="128" spans="1:33" ht="15">
       <c r="A128" s="50">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -23704,7 +23711,7 @@
       <c r="AF128" s="302"/>
       <c r="AG128" s="265"/>
     </row>
-    <row r="129" spans="1:33" ht="15">
+    <row r="129" spans="1:33" ht="16">
       <c r="A129" s="50">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -23786,7 +23793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="27">
+    <row r="130" spans="1:33" ht="15">
       <c r="A130" s="50">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -23854,7 +23861,7 @@
       <c r="AF130" s="302"/>
       <c r="AG130" s="265"/>
     </row>
-    <row r="131" spans="1:33">
+    <row r="131" spans="1:33" ht="15">
       <c r="A131" s="50">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -23922,7 +23929,7 @@
       <c r="AF131" s="302"/>
       <c r="AG131" s="265"/>
     </row>
-    <row r="132" spans="1:33">
+    <row r="132" spans="1:33" ht="15">
       <c r="A132" s="50">
         <f t="shared" ref="A132:A195" si="2">ROW()-2</f>
         <v>130</v>
@@ -23994,7 +24001,7 @@
       <c r="AF132" s="309"/>
       <c r="AG132" s="309"/>
     </row>
-    <row r="133" spans="1:33" ht="15">
+    <row r="133" spans="1:33" ht="16">
       <c r="A133" s="50">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -24076,7 +24083,7 @@
       <c r="AF133" s="309"/>
       <c r="AG133" s="309"/>
     </row>
-    <row r="134" spans="1:33" ht="27">
+    <row r="134" spans="1:33" ht="30">
       <c r="A134" s="50">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -24158,7 +24165,7 @@
       <c r="AF134" s="309"/>
       <c r="AG134" s="309"/>
     </row>
-    <row r="135" spans="1:33" ht="27">
+    <row r="135" spans="1:33" ht="30">
       <c r="A135" s="50">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -24226,7 +24233,7 @@
       <c r="AF135" s="319"/>
       <c r="AG135" s="319"/>
     </row>
-    <row r="136" spans="1:33" ht="15">
+    <row r="136" spans="1:33" ht="16">
       <c r="A136" s="50">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -24304,7 +24311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:33">
+    <row r="137" spans="1:33" ht="15">
       <c r="A137" s="50">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -24384,7 +24391,7 @@
       <c r="AF137" s="309"/>
       <c r="AG137" s="309"/>
     </row>
-    <row r="138" spans="1:33" ht="15">
+    <row r="138" spans="1:33" ht="16">
       <c r="A138" s="50">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -24470,7 +24477,7 @@
       <c r="AF138" s="309"/>
       <c r="AG138" s="309"/>
     </row>
-    <row r="139" spans="1:33" ht="15">
+    <row r="139" spans="1:33" ht="16">
       <c r="A139" s="50">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -24556,7 +24563,7 @@
       <c r="AF139" s="309"/>
       <c r="AG139" s="309"/>
     </row>
-    <row r="140" spans="1:33">
+    <row r="140" spans="1:33" ht="15">
       <c r="A140" s="50">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -24636,7 +24643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="15">
+    <row r="141" spans="1:33" ht="16">
       <c r="A141" s="50">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -24716,7 +24723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:33">
+    <row r="142" spans="1:33" ht="15">
       <c r="A142" s="50">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -24780,7 +24787,7 @@
       <c r="AF142" s="302"/>
       <c r="AG142" s="265"/>
     </row>
-    <row r="143" spans="1:33">
+    <row r="143" spans="1:33" ht="15">
       <c r="A143" s="50">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -24844,7 +24851,7 @@
       <c r="AF143" s="302"/>
       <c r="AG143" s="265"/>
     </row>
-    <row r="144" spans="1:33">
+    <row r="144" spans="1:33" ht="15">
       <c r="A144" s="50">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -24908,7 +24915,7 @@
       <c r="AF144" s="302"/>
       <c r="AG144" s="265"/>
     </row>
-    <row r="145" spans="1:33" ht="15">
+    <row r="145" spans="1:33" ht="16">
       <c r="A145" s="50">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -24990,7 +24997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:33">
+    <row r="146" spans="1:33" ht="15">
       <c r="A146" s="50">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -25058,7 +25065,7 @@
       <c r="AF146" s="302"/>
       <c r="AG146" s="265"/>
     </row>
-    <row r="147" spans="1:33">
+    <row r="147" spans="1:33" ht="15">
       <c r="A147" s="50">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -25126,7 +25133,7 @@
       <c r="AF147" s="302"/>
       <c r="AG147" s="265"/>
     </row>
-    <row r="148" spans="1:33">
+    <row r="148" spans="1:33" ht="15">
       <c r="A148" s="50">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -25198,7 +25205,7 @@
       <c r="AF148" s="309"/>
       <c r="AG148" s="309"/>
     </row>
-    <row r="149" spans="1:33" ht="15">
+    <row r="149" spans="1:33" ht="16">
       <c r="A149" s="50">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -25280,7 +25287,7 @@
       <c r="AF149" s="309"/>
       <c r="AG149" s="309"/>
     </row>
-    <row r="150" spans="1:33" ht="15">
+    <row r="150" spans="1:33" ht="16">
       <c r="A150" s="50">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -25362,7 +25369,7 @@
       <c r="AF150" s="309"/>
       <c r="AG150" s="309"/>
     </row>
-    <row r="151" spans="1:33" ht="27">
+    <row r="151" spans="1:33" ht="30">
       <c r="A151" s="50">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -25444,7 +25451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:33">
+    <row r="152" spans="1:33" ht="15">
       <c r="A152" s="50">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -25506,7 +25513,7 @@
       <c r="AF152" s="309"/>
       <c r="AG152" s="309"/>
     </row>
-    <row r="153" spans="1:33" ht="15">
+    <row r="153" spans="1:33" ht="16">
       <c r="A153" s="50">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -25574,7 +25581,7 @@
       <c r="AF153" s="309"/>
       <c r="AG153" s="309"/>
     </row>
-    <row r="154" spans="1:33" ht="15">
+    <row r="154" spans="1:33" ht="16">
       <c r="A154" s="50">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -25642,7 +25649,7 @@
       <c r="AF154" s="309"/>
       <c r="AG154" s="309"/>
     </row>
-    <row r="155" spans="1:33" ht="15">
+    <row r="155" spans="1:33" ht="16">
       <c r="A155" s="50">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -25710,7 +25717,7 @@
       <c r="AF155" s="309"/>
       <c r="AG155" s="309"/>
     </row>
-    <row r="156" spans="1:33" ht="15">
+    <row r="156" spans="1:33" ht="16">
       <c r="A156" s="50">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -25778,7 +25785,7 @@
       <c r="AF156" s="309"/>
       <c r="AG156" s="309"/>
     </row>
-    <row r="157" spans="1:33" ht="15">
+    <row r="157" spans="1:33" ht="16">
       <c r="A157" s="50">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -25846,7 +25853,7 @@
       <c r="AF157" s="309"/>
       <c r="AG157" s="309"/>
     </row>
-    <row r="158" spans="1:33" ht="15">
+    <row r="158" spans="1:33" ht="16">
       <c r="A158" s="50">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -25914,7 +25921,7 @@
       <c r="AF158" s="309"/>
       <c r="AG158" s="309"/>
     </row>
-    <row r="159" spans="1:33" ht="15">
+    <row r="159" spans="1:33" ht="16">
       <c r="A159" s="50">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -25982,7 +25989,7 @@
       <c r="AF159" s="309"/>
       <c r="AG159" s="309"/>
     </row>
-    <row r="160" spans="1:33">
+    <row r="160" spans="1:33" ht="15">
       <c r="A160" s="50">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -26058,7 +26065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:33" ht="40.5">
+    <row r="161" spans="1:33" ht="45">
       <c r="A161" s="50">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -26138,7 +26145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:33">
+    <row r="162" spans="1:33" ht="15">
       <c r="A162" s="50">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -26214,7 +26221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:33" ht="27">
+    <row r="163" spans="1:33" ht="30">
       <c r="A163" s="50">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -26294,7 +26301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:33" ht="40.5">
+    <row r="164" spans="1:33" ht="45">
       <c r="A164" s="50">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -26374,7 +26381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:33" ht="67.5">
+    <row r="165" spans="1:33" ht="75">
       <c r="A165" s="50">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -26454,7 +26461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:33">
+    <row r="166" spans="1:33" ht="15">
       <c r="A166" s="50">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -26530,7 +26537,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:33" ht="54">
+    <row r="167" spans="1:33" ht="60">
       <c r="A167" s="50">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -26610,7 +26617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:33" ht="40.5">
+    <row r="168" spans="1:33" ht="45">
       <c r="A168" s="50">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -26690,7 +26697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:33" ht="40.5">
+    <row r="169" spans="1:33" ht="45">
       <c r="A169" s="50">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -26770,7 +26777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:33">
+    <row r="170" spans="1:33" ht="15">
       <c r="A170" s="50">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -26846,7 +26853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:33" ht="27">
+    <row r="171" spans="1:33" ht="30">
       <c r="A171" s="50">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -26900,7 +26907,7 @@
       <c r="T171" s="120"/>
       <c r="U171" s="121"/>
       <c r="V171" s="115" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="W171" s="314"/>
       <c r="X171" s="98"/>
@@ -26914,7 +26921,7 @@
       <c r="AF171" s="301"/>
       <c r="AG171" s="98"/>
     </row>
-    <row r="172" spans="1:33">
+    <row r="172" spans="1:33" ht="15">
       <c r="A172" s="50">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -26978,7 +26985,7 @@
       <c r="AF172" s="301"/>
       <c r="AG172" s="98"/>
     </row>
-    <row r="173" spans="1:33" ht="27">
+    <row r="173" spans="1:33" ht="30">
       <c r="A173" s="50">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -27042,7 +27049,7 @@
       <c r="AF173" s="301"/>
       <c r="AG173" s="98"/>
     </row>
-    <row r="174" spans="1:33" ht="27">
+    <row r="174" spans="1:33" ht="30">
       <c r="A174" s="50">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -27106,7 +27113,7 @@
       <c r="AF174" s="301"/>
       <c r="AG174" s="98"/>
     </row>
-    <row r="175" spans="1:33" ht="27">
+    <row r="175" spans="1:33" ht="30">
       <c r="A175" s="50">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -27174,7 +27181,7 @@
       <c r="AF175" s="301"/>
       <c r="AG175" s="98"/>
     </row>
-    <row r="176" spans="1:33" ht="27">
+    <row r="176" spans="1:33" ht="30">
       <c r="A176" s="50">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -27238,7 +27245,7 @@
       <c r="AF176" s="301"/>
       <c r="AG176" s="98"/>
     </row>
-    <row r="177" spans="1:33">
+    <row r="177" spans="1:33" ht="15">
       <c r="A177" s="50">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -27302,7 +27309,7 @@
       <c r="AF177" s="301"/>
       <c r="AG177" s="98"/>
     </row>
-    <row r="178" spans="1:33" ht="40.5">
+    <row r="178" spans="1:33" ht="45">
       <c r="A178" s="50">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -27370,7 +27377,7 @@
       <c r="AF178" s="301"/>
       <c r="AG178" s="98"/>
     </row>
-    <row r="179" spans="1:33" ht="27">
+    <row r="179" spans="1:33" ht="30">
       <c r="A179" s="50">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -27420,7 +27427,7 @@
       <c r="T179" s="73"/>
       <c r="U179" s="74"/>
       <c r="V179" s="236" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="W179" s="314"/>
       <c r="X179" s="255"/>
@@ -27434,7 +27441,7 @@
       <c r="AF179" s="303"/>
       <c r="AG179" s="90"/>
     </row>
-    <row r="180" spans="1:33">
+    <row r="180" spans="1:33" ht="15">
       <c r="A180" s="50">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -27498,7 +27505,7 @@
       <c r="AF180" s="303"/>
       <c r="AG180" s="90"/>
     </row>
-    <row r="181" spans="1:33" ht="27">
+    <row r="181" spans="1:33" ht="30">
       <c r="A181" s="50">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -27562,7 +27569,7 @@
       <c r="AF181" s="303"/>
       <c r="AG181" s="90"/>
     </row>
-    <row r="182" spans="1:33" ht="27">
+    <row r="182" spans="1:33" ht="30">
       <c r="A182" s="50">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -27626,7 +27633,7 @@
       <c r="AF182" s="303"/>
       <c r="AG182" s="90"/>
     </row>
-    <row r="183" spans="1:33" ht="27">
+    <row r="183" spans="1:33" ht="30">
       <c r="A183" s="50">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -27692,7 +27699,7 @@
       <c r="AF183" s="303"/>
       <c r="AG183" s="90"/>
     </row>
-    <row r="184" spans="1:33" ht="27">
+    <row r="184" spans="1:33" ht="15">
       <c r="A184" s="50">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -27756,7 +27763,7 @@
       <c r="AF184" s="303"/>
       <c r="AG184" s="90"/>
     </row>
-    <row r="185" spans="1:33">
+    <row r="185" spans="1:33" ht="15">
       <c r="A185" s="50">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -27820,7 +27827,7 @@
       <c r="AF185" s="303"/>
       <c r="AG185" s="90"/>
     </row>
-    <row r="186" spans="1:33" ht="40.5">
+    <row r="186" spans="1:33" ht="45">
       <c r="A186" s="50">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -27888,7 +27895,7 @@
       <c r="AF186" s="303"/>
       <c r="AG186" s="90"/>
     </row>
-    <row r="187" spans="1:33">
+    <row r="187" spans="1:33" ht="15">
       <c r="A187" s="50">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -27960,7 +27967,7 @@
       <c r="AF187" s="309"/>
       <c r="AG187" s="309"/>
     </row>
-    <row r="188" spans="1:33" ht="54">
+    <row r="188" spans="1:33" ht="60">
       <c r="A188" s="50">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -28012,7 +28019,7 @@
       <c r="T188" s="151"/>
       <c r="U188" s="152"/>
       <c r="V188" s="240" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="W188" s="375"/>
       <c r="X188" s="257" t="s">
@@ -28038,7 +28045,7 @@
       <c r="AF188" s="315"/>
       <c r="AG188" s="315"/>
     </row>
-    <row r="189" spans="1:33" ht="40.5">
+    <row r="189" spans="1:33" ht="45">
       <c r="A189" s="50">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -28120,7 +28127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:33" ht="40.5">
+    <row r="190" spans="1:33" ht="45">
       <c r="A190" s="50">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -28202,7 +28209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:33" ht="27">
+    <row r="191" spans="1:33" ht="30">
       <c r="A191" s="50">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -28258,7 +28265,7 @@
       <c r="T191" s="4"/>
       <c r="U191" s="5"/>
       <c r="V191" s="235" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="W191" s="314"/>
       <c r="X191" s="249" t="s">
@@ -28284,7 +28291,7 @@
       <c r="AF191" s="309"/>
       <c r="AG191" s="309"/>
     </row>
-    <row r="192" spans="1:33" ht="27">
+    <row r="192" spans="1:33" ht="30">
       <c r="A192" s="50">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -28340,7 +28347,7 @@
       <c r="T192" s="4"/>
       <c r="U192" s="5"/>
       <c r="V192" s="235" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="W192" s="314"/>
       <c r="X192" s="249" t="s">
@@ -28366,7 +28373,7 @@
       <c r="AF192" s="309"/>
       <c r="AG192" s="309"/>
     </row>
-    <row r="193" spans="1:33" ht="27">
+    <row r="193" spans="1:33" ht="30">
       <c r="A193" s="50">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -28434,7 +28441,7 @@
       <c r="AF193" s="301"/>
       <c r="AG193" s="98"/>
     </row>
-    <row r="194" spans="1:33" ht="40.5">
+    <row r="194" spans="1:33" ht="30">
       <c r="A194" s="50">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -28490,7 +28497,7 @@
       <c r="T194" s="93"/>
       <c r="U194" s="94"/>
       <c r="V194" s="235" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="W194" s="314"/>
       <c r="X194" s="249" t="s">
@@ -28516,7 +28523,7 @@
       <c r="AF194" s="316"/>
       <c r="AG194" s="309"/>
     </row>
-    <row r="195" spans="1:33" ht="15">
+    <row r="195" spans="1:33" ht="16">
       <c r="A195" s="50">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -28586,7 +28593,7 @@
       <c r="AF195" s="303"/>
       <c r="AG195" s="90"/>
     </row>
-    <row r="196" spans="1:33" ht="27">
+    <row r="196" spans="1:33" ht="30">
       <c r="A196" s="50">
         <f t="shared" ref="A196:A259" si="3">ROW()-2</f>
         <v>194</v>
@@ -28650,7 +28657,7 @@
       <c r="AF196" s="303"/>
       <c r="AG196" s="90"/>
     </row>
-    <row r="197" spans="1:33" ht="15">
+    <row r="197" spans="1:33" ht="16">
       <c r="A197" s="50">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -28720,7 +28727,7 @@
       <c r="AF197" s="303"/>
       <c r="AG197" s="90"/>
     </row>
-    <row r="198" spans="1:33" ht="15">
+    <row r="198" spans="1:33" ht="16">
       <c r="A198" s="50">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -28794,7 +28801,7 @@
       <c r="AF198" s="309"/>
       <c r="AG198" s="309"/>
     </row>
-    <row r="199" spans="1:33" ht="27">
+    <row r="199" spans="1:33" ht="16">
       <c r="A199" s="50">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -28878,7 +28885,7 @@
       </c>
       <c r="AG199" s="309"/>
     </row>
-    <row r="200" spans="1:33" ht="27">
+    <row r="200" spans="1:33" ht="16">
       <c r="A200" s="50">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -28948,7 +28955,7 @@
       </c>
       <c r="AG200" s="309"/>
     </row>
-    <row r="201" spans="1:33" ht="27">
+    <row r="201" spans="1:33" ht="30">
       <c r="A201" s="50">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -29018,7 +29025,7 @@
       <c r="AF201" s="314"/>
       <c r="AG201" s="314"/>
     </row>
-    <row r="202" spans="1:33" ht="40.5">
+    <row r="202" spans="1:33" ht="45">
       <c r="A202" s="50">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -29074,7 +29081,7 @@
       <c r="T202" s="93"/>
       <c r="U202" s="94"/>
       <c r="V202" s="235" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="W202" s="314"/>
       <c r="X202" s="250" t="s">
@@ -29102,7 +29109,7 @@
       </c>
       <c r="AG202" s="314"/>
     </row>
-    <row r="203" spans="1:33" ht="27">
+    <row r="203" spans="1:33" ht="30">
       <c r="A203" s="50">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -29184,7 +29191,7 @@
       <c r="AF203" s="314"/>
       <c r="AG203" s="314"/>
     </row>
-    <row r="204" spans="1:33" ht="15">
+    <row r="204" spans="1:33" ht="16">
       <c r="A204" s="50">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -29268,7 +29275,7 @@
       </c>
       <c r="AG204" s="309"/>
     </row>
-    <row r="205" spans="1:33" ht="40.5">
+    <row r="205" spans="1:33" ht="45">
       <c r="A205" s="50">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -29354,7 +29361,7 @@
       </c>
       <c r="AG205" s="309"/>
     </row>
-    <row r="206" spans="1:33" ht="27">
+    <row r="206" spans="1:33" ht="30">
       <c r="A206" s="50">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -29436,7 +29443,7 @@
       <c r="AF206" s="315"/>
       <c r="AG206" s="309"/>
     </row>
-    <row r="207" spans="1:33" ht="27">
+    <row r="207" spans="1:33" ht="30">
       <c r="A207" s="50">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -29486,7 +29493,7 @@
       <c r="AF207" s="320"/>
       <c r="AG207" s="414"/>
     </row>
-    <row r="208" spans="1:33" ht="81">
+    <row r="208" spans="1:33" ht="90">
       <c r="A208" s="50">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -29554,7 +29561,7 @@
       <c r="AF208" s="388"/>
       <c r="AG208" s="98"/>
     </row>
-    <row r="209" spans="1:33" ht="27">
+    <row r="209" spans="1:33" ht="30">
       <c r="A209" s="50">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -29618,7 +29625,7 @@
       <c r="AF209" s="301"/>
       <c r="AG209" s="98"/>
     </row>
-    <row r="210" spans="1:33">
+    <row r="210" spans="1:33" ht="15">
       <c r="A210" s="50">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -29686,7 +29693,7 @@
       <c r="AF210" s="301"/>
       <c r="AG210" s="98"/>
     </row>
-    <row r="211" spans="1:33" ht="94.5">
+    <row r="211" spans="1:33" ht="105">
       <c r="A211" s="50">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -29754,7 +29761,7 @@
       <c r="AF211" s="301"/>
       <c r="AG211" s="98"/>
     </row>
-    <row r="212" spans="1:33" ht="27">
+    <row r="212" spans="1:33" ht="30">
       <c r="A212" s="50">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -29822,7 +29829,7 @@
       <c r="AF212" s="301"/>
       <c r="AG212" s="98"/>
     </row>
-    <row r="213" spans="1:33" ht="54">
+    <row r="213" spans="1:33" ht="60">
       <c r="A213" s="50">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -29888,7 +29895,7 @@
       <c r="AF213" s="301"/>
       <c r="AG213" s="98"/>
     </row>
-    <row r="214" spans="1:33">
+    <row r="214" spans="1:33" ht="15">
       <c r="A214" s="50">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -29950,7 +29957,7 @@
       <c r="AF214" s="301"/>
       <c r="AG214" s="98"/>
     </row>
-    <row r="215" spans="1:33">
+    <row r="215" spans="1:33" ht="15">
       <c r="A215" s="50">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -30022,7 +30029,7 @@
       <c r="AF215" s="309"/>
       <c r="AG215" s="309"/>
     </row>
-    <row r="216" spans="1:33" ht="15">
+    <row r="216" spans="1:33" ht="16">
       <c r="A216" s="50">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -30102,7 +30109,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="217" spans="1:33" ht="27">
+    <row r="217" spans="1:33" ht="30">
       <c r="A217" s="50">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -30154,7 +30161,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="218" spans="1:33" ht="15">
+    <row r="218" spans="1:33" ht="16">
       <c r="A218" s="50">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -30212,7 +30219,7 @@
       <c r="AF218" s="309"/>
       <c r="AG218" s="309"/>
     </row>
-    <row r="219" spans="1:33" ht="15">
+    <row r="219" spans="1:33" ht="16">
       <c r="A219" s="50">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -30270,7 +30277,7 @@
       <c r="AF219" s="309"/>
       <c r="AG219" s="309"/>
     </row>
-    <row r="220" spans="1:33" ht="15">
+    <row r="220" spans="1:33" ht="16">
       <c r="A220" s="50">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -30348,7 +30355,7 @@
       <c r="AF220" s="309"/>
       <c r="AG220" s="309"/>
     </row>
-    <row r="221" spans="1:33" ht="27">
+    <row r="221" spans="1:33" ht="30">
       <c r="A221" s="50">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -30423,7 +30430,7 @@
       <c r="AF221" s="301"/>
       <c r="AG221" s="98"/>
     </row>
-    <row r="222" spans="1:33" ht="40.5">
+    <row r="222" spans="1:33" ht="45">
       <c r="A222" s="50">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -30499,7 +30506,7 @@
       <c r="AF222" s="301"/>
       <c r="AG222" s="98"/>
     </row>
-    <row r="223" spans="1:33" ht="67.5">
+    <row r="223" spans="1:33" ht="75">
       <c r="A223" s="50">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -30567,7 +30574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:33" ht="40.5">
+    <row r="224" spans="1:33" ht="45">
       <c r="A224" s="50">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -30645,7 +30652,7 @@
       <c r="AF224" s="309"/>
       <c r="AG224" s="309"/>
     </row>
-    <row r="225" spans="1:33" ht="202.5">
+    <row r="225" spans="1:33" ht="210">
       <c r="A225" s="50">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -30744,16 +30751,16 @@
       <c r="O226" s="91" t="s">
         <v>1481</v>
       </c>
-      <c r="P226" s="497" t="s">
+      <c r="P226" s="504" t="s">
         <v>1901</v>
       </c>
-      <c r="Q226" s="498"/>
-      <c r="R226" s="498"/>
-      <c r="S226" s="498"/>
-      <c r="T226" s="498"/>
-      <c r="U226" s="498"/>
-      <c r="V226" s="498"/>
-      <c r="W226" s="499"/>
+      <c r="Q226" s="505"/>
+      <c r="R226" s="505"/>
+      <c r="S226" s="505"/>
+      <c r="T226" s="505"/>
+      <c r="U226" s="505"/>
+      <c r="V226" s="505"/>
+      <c r="W226" s="506"/>
       <c r="X226" s="249" t="s">
         <v>233</v>
       </c>
@@ -30800,16 +30807,16 @@
       <c r="O227" s="91" t="s">
         <v>1482</v>
       </c>
-      <c r="P227" s="497" t="s">
+      <c r="P227" s="504" t="s">
         <v>1483</v>
       </c>
-      <c r="Q227" s="498"/>
-      <c r="R227" s="498"/>
-      <c r="S227" s="498"/>
-      <c r="T227" s="498"/>
-      <c r="U227" s="498"/>
-      <c r="V227" s="498"/>
-      <c r="W227" s="499"/>
+      <c r="Q227" s="505"/>
+      <c r="R227" s="505"/>
+      <c r="S227" s="505"/>
+      <c r="T227" s="505"/>
+      <c r="U227" s="505"/>
+      <c r="V227" s="505"/>
+      <c r="W227" s="506"/>
       <c r="X227" s="258" t="s">
         <v>233</v>
       </c>
@@ -30831,7 +30838,7 @@
       <c r="AF227" s="309"/>
       <c r="AG227" s="309"/>
     </row>
-    <row r="228" spans="1:33" ht="27">
+    <row r="228" spans="1:33" ht="30">
       <c r="A228" s="50">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -30854,16 +30861,16 @@
       <c r="O228" s="91" t="s">
         <v>1484</v>
       </c>
-      <c r="P228" s="497" t="s">
+      <c r="P228" s="504" t="s">
         <v>1902</v>
       </c>
-      <c r="Q228" s="498"/>
-      <c r="R228" s="498"/>
-      <c r="S228" s="498"/>
-      <c r="T228" s="498"/>
-      <c r="U228" s="498"/>
-      <c r="V228" s="498"/>
-      <c r="W228" s="499"/>
+      <c r="Q228" s="505"/>
+      <c r="R228" s="505"/>
+      <c r="S228" s="505"/>
+      <c r="T228" s="505"/>
+      <c r="U228" s="505"/>
+      <c r="V228" s="505"/>
+      <c r="W228" s="506"/>
       <c r="X228" s="259" t="s">
         <v>233</v>
       </c>
@@ -30887,7 +30894,7 @@
       <c r="AF228" s="309"/>
       <c r="AG228" s="309"/>
     </row>
-    <row r="229" spans="1:33" ht="67.5">
+    <row r="229" spans="1:33" ht="75">
       <c r="A229" s="50">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -30969,7 +30976,7 @@
       <c r="AF229" s="358"/>
       <c r="AG229" s="357"/>
     </row>
-    <row r="230" spans="1:33" ht="67.5">
+    <row r="230" spans="1:33" ht="75">
       <c r="A230" s="50">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -31037,7 +31044,7 @@
       <c r="AF230" s="358"/>
       <c r="AG230" s="357"/>
     </row>
-    <row r="231" spans="1:33">
+    <row r="231" spans="1:33" ht="15">
       <c r="A231" s="50">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -31091,7 +31098,7 @@
       <c r="AF231" s="314"/>
       <c r="AG231" s="314"/>
     </row>
-    <row r="232" spans="1:33" ht="296.10000000000002" customHeight="1">
+    <row r="232" spans="1:33" ht="296" customHeight="1">
       <c r="A232" s="50">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -31116,16 +31123,16 @@
       <c r="O232" s="126" t="s">
         <v>1498</v>
       </c>
-      <c r="P232" s="497" t="s">
+      <c r="P232" s="504" t="s">
         <v>2047</v>
       </c>
-      <c r="Q232" s="498"/>
-      <c r="R232" s="498"/>
-      <c r="S232" s="498"/>
-      <c r="T232" s="498"/>
-      <c r="U232" s="498"/>
-      <c r="V232" s="498"/>
-      <c r="W232" s="499"/>
+      <c r="Q232" s="505"/>
+      <c r="R232" s="505"/>
+      <c r="S232" s="505"/>
+      <c r="T232" s="505"/>
+      <c r="U232" s="505"/>
+      <c r="V232" s="505"/>
+      <c r="W232" s="506"/>
       <c r="X232" s="250" t="s">
         <v>295</v>
       </c>
@@ -31151,7 +31158,7 @@
       <c r="AF232" s="314"/>
       <c r="AG232" s="314"/>
     </row>
-    <row r="233" spans="1:33" ht="27">
+    <row r="233" spans="1:33" ht="30">
       <c r="A233" s="50">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -31192,16 +31199,16 @@
       <c r="O233" s="126" t="s">
         <v>1507</v>
       </c>
-      <c r="P233" s="497" t="s">
+      <c r="P233" s="504" t="s">
         <v>2036</v>
       </c>
-      <c r="Q233" s="498"/>
-      <c r="R233" s="498"/>
-      <c r="S233" s="498"/>
-      <c r="T233" s="498"/>
-      <c r="U233" s="498"/>
-      <c r="V233" s="498"/>
-      <c r="W233" s="499"/>
+      <c r="Q233" s="505"/>
+      <c r="R233" s="505"/>
+      <c r="S233" s="505"/>
+      <c r="T233" s="505"/>
+      <c r="U233" s="505"/>
+      <c r="V233" s="505"/>
+      <c r="W233" s="506"/>
       <c r="X233" s="250" t="s">
         <v>295</v>
       </c>
@@ -31227,7 +31234,7 @@
       <c r="AF233" s="314"/>
       <c r="AG233" s="314"/>
     </row>
-    <row r="234" spans="1:33" ht="15">
+    <row r="234" spans="1:33" ht="16">
       <c r="A234" s="50">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -31254,16 +31261,16 @@
       <c r="O234" s="126" t="s">
         <v>1510</v>
       </c>
-      <c r="P234" s="497" t="s">
+      <c r="P234" s="504" t="s">
         <v>2041</v>
       </c>
-      <c r="Q234" s="498"/>
-      <c r="R234" s="498"/>
-      <c r="S234" s="498"/>
-      <c r="T234" s="498"/>
-      <c r="U234" s="498"/>
-      <c r="V234" s="498"/>
-      <c r="W234" s="499"/>
+      <c r="Q234" s="505"/>
+      <c r="R234" s="505"/>
+      <c r="S234" s="505"/>
+      <c r="T234" s="505"/>
+      <c r="U234" s="505"/>
+      <c r="V234" s="505"/>
+      <c r="W234" s="506"/>
       <c r="X234" s="250" t="s">
         <v>295</v>
       </c>
@@ -31289,7 +31296,7 @@
       <c r="AF234" s="314"/>
       <c r="AG234" s="314"/>
     </row>
-    <row r="235" spans="1:33" ht="40.5">
+    <row r="235" spans="1:33" ht="45">
       <c r="A235" s="50">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -31337,7 +31344,7 @@
       <c r="AF235" s="401"/>
       <c r="AG235" s="401"/>
     </row>
-    <row r="236" spans="1:33" ht="81">
+    <row r="236" spans="1:33" ht="90">
       <c r="A236" s="50">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -31417,7 +31424,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="237" spans="1:33" ht="27">
+    <row r="237" spans="1:33" ht="30">
       <c r="A237" s="50">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -31465,7 +31472,7 @@
       <c r="AF237" s="405"/>
       <c r="AG237" s="405"/>
     </row>
-    <row r="238" spans="1:33" ht="27">
+    <row r="238" spans="1:33" ht="30">
       <c r="A238" s="50">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -31527,7 +31534,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="239" spans="1:33" ht="40.5">
+    <row r="239" spans="1:33" ht="45">
       <c r="A239" s="50">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -31597,7 +31604,7 @@
       <c r="AF239" s="302"/>
       <c r="AG239" s="265"/>
     </row>
-    <row r="240" spans="1:33">
+    <row r="240" spans="1:33" ht="15">
       <c r="A240" s="50">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -31677,7 +31684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:33" ht="15">
+    <row r="241" spans="1:33" ht="16">
       <c r="A241" s="50">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -31759,7 +31766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:33" ht="15">
+    <row r="242" spans="1:33" ht="16">
       <c r="A242" s="50">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -31839,7 +31846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:33" ht="27">
+    <row r="243" spans="1:33" ht="30">
       <c r="A243" s="50">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -31915,7 +31922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:33" ht="54">
+    <row r="244" spans="1:33" ht="60">
       <c r="A244" s="50">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -31993,7 +32000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:33" ht="67.5">
+    <row r="245" spans="1:33" ht="75">
       <c r="A245" s="50">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -32057,7 +32064,7 @@
       <c r="AF245" s="301"/>
       <c r="AG245" s="98"/>
     </row>
-    <row r="246" spans="1:33" ht="27">
+    <row r="246" spans="1:33" ht="30">
       <c r="A246" s="50">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -32121,7 +32128,7 @@
       <c r="AF246" s="301"/>
       <c r="AG246" s="98"/>
     </row>
-    <row r="247" spans="1:33" ht="15">
+    <row r="247" spans="1:33" ht="16">
       <c r="A247" s="50">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -32199,7 +32206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:33" ht="15">
+    <row r="248" spans="1:33" ht="16">
       <c r="A248" s="50">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -32281,7 +32288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:33" ht="27">
+    <row r="249" spans="1:33" ht="30">
       <c r="A249" s="50">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -32361,7 +32368,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:33" ht="54">
+    <row r="250" spans="1:33" ht="60">
       <c r="A250" s="50">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -32439,7 +32446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:33" ht="67.5">
+    <row r="251" spans="1:33" ht="75">
       <c r="A251" s="50">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -32503,7 +32510,7 @@
       <c r="AF251" s="303"/>
       <c r="AG251" s="90"/>
     </row>
-    <row r="252" spans="1:33" ht="27">
+    <row r="252" spans="1:33" ht="30">
       <c r="A252" s="50">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -32567,7 +32574,7 @@
       <c r="AF252" s="303"/>
       <c r="AG252" s="90"/>
     </row>
-    <row r="253" spans="1:33" ht="15">
+    <row r="253" spans="1:33" ht="16">
       <c r="A253" s="50">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -32645,7 +32652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="254" spans="1:33" ht="15">
+    <row r="254" spans="1:33" ht="16">
       <c r="A254" s="50">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -32727,7 +32734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:33">
+    <row r="255" spans="1:33" ht="15">
       <c r="A255" s="50">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -32803,7 +32810,7 @@
       <c r="AF255" s="309"/>
       <c r="AG255" s="309"/>
     </row>
-    <row r="256" spans="1:33" ht="108">
+    <row r="256" spans="1:33" ht="120">
       <c r="A256" s="50">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -32875,7 +32882,7 @@
       <c r="AF256" s="302"/>
       <c r="AG256" s="362"/>
     </row>
-    <row r="257" spans="1:33" ht="54">
+    <row r="257" spans="1:33" ht="60">
       <c r="A257" s="50">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -32925,7 +32932,7 @@
       <c r="AF257" s="304"/>
       <c r="AG257" s="109"/>
     </row>
-    <row r="258" spans="1:33" ht="40.5">
+    <row r="258" spans="1:33" ht="45">
       <c r="A258" s="50">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -32975,7 +32982,7 @@
       <c r="AF258" s="416"/>
       <c r="AG258" s="305"/>
     </row>
-    <row r="259" spans="1:33" ht="81">
+    <row r="259" spans="1:33" ht="90">
       <c r="A259" s="50">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -33043,7 +33050,7 @@
       <c r="AF259" s="301"/>
       <c r="AG259" s="98"/>
     </row>
-    <row r="260" spans="1:33" ht="54">
+    <row r="260" spans="1:33" ht="60">
       <c r="A260" s="50">
         <f t="shared" ref="A260:A280" si="4">ROW()-2</f>
         <v>258</v>
@@ -33107,7 +33114,7 @@
       <c r="AF260" s="301"/>
       <c r="AG260" s="98"/>
     </row>
-    <row r="261" spans="1:33" ht="67.5">
+    <row r="261" spans="1:33" ht="75">
       <c r="A261" s="50">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -33171,7 +33178,7 @@
       <c r="AF261" s="372"/>
       <c r="AG261" s="415"/>
     </row>
-    <row r="262" spans="1:33" ht="54">
+    <row r="262" spans="1:33" ht="60">
       <c r="A262" s="50">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -33239,7 +33246,7 @@
       <c r="AF262" s="301"/>
       <c r="AG262" s="98"/>
     </row>
-    <row r="263" spans="1:33">
+    <row r="263" spans="1:33" ht="15">
       <c r="A263" s="50">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -33315,7 +33322,7 @@
       <c r="AF263" s="309"/>
       <c r="AG263" s="309"/>
     </row>
-    <row r="264" spans="1:33" ht="40.5">
+    <row r="264" spans="1:33" ht="45">
       <c r="A264" s="50">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -33405,7 +33412,7 @@
       </c>
       <c r="AG264" s="309"/>
     </row>
-    <row r="265" spans="1:33" ht="15">
+    <row r="265" spans="1:33" ht="16">
       <c r="A265" s="50">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -33487,7 +33494,7 @@
       <c r="AF265" s="309"/>
       <c r="AG265" s="309"/>
     </row>
-    <row r="266" spans="1:33" ht="27">
+    <row r="266" spans="1:33" ht="30">
       <c r="A266" s="50">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -33559,7 +33566,7 @@
       <c r="AF266" s="309"/>
       <c r="AG266" s="309"/>
     </row>
-    <row r="267" spans="1:33">
+    <row r="267" spans="1:33" ht="15">
       <c r="A267" s="50">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -33635,7 +33642,7 @@
       <c r="AF267" s="309"/>
       <c r="AG267" s="309"/>
     </row>
-    <row r="268" spans="1:33" ht="15">
+    <row r="268" spans="1:33" ht="16">
       <c r="A268" s="50">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -33717,7 +33724,7 @@
       <c r="AF268" s="309"/>
       <c r="AG268" s="309"/>
     </row>
-    <row r="269" spans="1:33" ht="15">
+    <row r="269" spans="1:33" ht="16">
       <c r="A269" s="50">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -33805,7 +33812,7 @@
       </c>
       <c r="AG269" s="309"/>
     </row>
-    <row r="270" spans="1:33" ht="15">
+    <row r="270" spans="1:33" ht="16">
       <c r="A270" s="50">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -33871,7 +33878,7 @@
       <c r="AF270" s="301"/>
       <c r="AG270" s="98"/>
     </row>
-    <row r="271" spans="1:33" ht="15">
+    <row r="271" spans="1:33" ht="16">
       <c r="A271" s="50">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -33937,7 +33944,7 @@
       <c r="AF271" s="301"/>
       <c r="AG271" s="98"/>
     </row>
-    <row r="272" spans="1:33" ht="15">
+    <row r="272" spans="1:33" ht="16">
       <c r="A272" s="50">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -34021,7 +34028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="273" spans="1:39" ht="15">
+    <row r="273" spans="1:39" ht="16">
       <c r="A273" s="50">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -34097,7 +34104,7 @@
       <c r="AF273" s="301"/>
       <c r="AG273" s="98"/>
     </row>
-    <row r="274" spans="1:39" ht="40.5">
+    <row r="274" spans="1:39" ht="45">
       <c r="A274" s="50">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -34167,7 +34174,7 @@
       <c r="AF274" s="301"/>
       <c r="AG274" s="98"/>
     </row>
-    <row r="275" spans="1:39" ht="27">
+    <row r="275" spans="1:39" ht="30">
       <c r="A275" s="50">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -34239,7 +34246,7 @@
       <c r="AF275" s="301"/>
       <c r="AG275" s="98"/>
     </row>
-    <row r="276" spans="1:39">
+    <row r="276" spans="1:39" ht="15">
       <c r="A276" s="50">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -34311,7 +34318,7 @@
       <c r="AF276" s="301"/>
       <c r="AG276" s="98"/>
     </row>
-    <row r="277" spans="1:39">
+    <row r="277" spans="1:39" ht="15">
       <c r="A277" s="50">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -34379,7 +34386,7 @@
       <c r="AF277" s="301"/>
       <c r="AG277" s="98"/>
     </row>
-    <row r="278" spans="1:39">
+    <row r="278" spans="1:39" ht="15">
       <c r="A278" s="50">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -34443,7 +34450,7 @@
       <c r="AF278" s="301"/>
       <c r="AG278" s="98"/>
     </row>
-    <row r="279" spans="1:39">
+    <row r="279" spans="1:39" ht="15">
       <c r="A279" s="50">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -34511,7 +34518,7 @@
       <c r="AF279" s="301"/>
       <c r="AG279" s="98"/>
     </row>
-    <row r="280" spans="1:39">
+    <row r="280" spans="1:39" ht="15">
       <c r="A280" s="50">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -34609,14 +34616,14 @@
     </row>
     <row r="282" spans="1:39">
       <c r="M282" s="51"/>
-      <c r="O282" s="503" t="s">
+      <c r="O282" s="508" t="s">
         <v>1995</v>
       </c>
-      <c r="P282" s="504"/>
-      <c r="Q282" s="504"/>
-      <c r="R282" s="504"/>
-      <c r="S282" s="504"/>
-      <c r="T282" s="505"/>
+      <c r="P282" s="509"/>
+      <c r="Q282" s="509"/>
+      <c r="R282" s="509"/>
+      <c r="S282" s="509"/>
+      <c r="T282" s="510"/>
       <c r="U282" s="232" t="s">
         <v>61</v>
       </c>
@@ -34631,14 +34638,14 @@
       <c r="AB282" s="445"/>
       <c r="AC282" s="284"/>
     </row>
-    <row r="283" spans="1:39">
+    <row r="283" spans="1:39" ht="15">
       <c r="M283" s="51"/>
-      <c r="O283" s="506"/>
-      <c r="P283" s="507"/>
-      <c r="Q283" s="507"/>
-      <c r="R283" s="507"/>
-      <c r="S283" s="507"/>
-      <c r="T283" s="508"/>
+      <c r="O283" s="511"/>
+      <c r="P283" s="512"/>
+      <c r="Q283" s="512"/>
+      <c r="R283" s="512"/>
+      <c r="S283" s="512"/>
+      <c r="T283" s="513"/>
       <c r="U283" s="420" t="s">
         <v>21</v>
       </c>
@@ -34655,14 +34662,14 @@
     </row>
     <row r="284" spans="1:39">
       <c r="M284" s="51"/>
-      <c r="O284" s="509" t="s">
+      <c r="O284" s="514" t="s">
         <v>1996</v>
       </c>
-      <c r="P284" s="510"/>
-      <c r="Q284" s="510"/>
-      <c r="R284" s="510"/>
-      <c r="S284" s="510"/>
-      <c r="T284" s="511"/>
+      <c r="P284" s="515"/>
+      <c r="Q284" s="515"/>
+      <c r="R284" s="515"/>
+      <c r="S284" s="515"/>
+      <c r="T284" s="516"/>
       <c r="U284" s="232" t="s">
         <v>89</v>
       </c>
@@ -34679,12 +34686,12 @@
     </row>
     <row r="285" spans="1:39">
       <c r="M285" s="51"/>
-      <c r="O285" s="512"/>
-      <c r="P285" s="513"/>
-      <c r="Q285" s="513"/>
-      <c r="R285" s="513"/>
-      <c r="S285" s="513"/>
-      <c r="T285" s="514"/>
+      <c r="O285" s="517"/>
+      <c r="P285" s="492"/>
+      <c r="Q285" s="492"/>
+      <c r="R285" s="492"/>
+      <c r="S285" s="492"/>
+      <c r="T285" s="518"/>
       <c r="U285" s="232" t="s">
         <v>164</v>
       </c>
@@ -34699,16 +34706,16 @@
       <c r="AB285" s="445"/>
       <c r="AC285" s="284"/>
     </row>
-    <row r="286" spans="1:39">
+    <row r="286" spans="1:39" ht="15">
       <c r="M286" s="51"/>
-      <c r="O286" s="500" t="s">
+      <c r="O286" s="496" t="s">
         <v>2001</v>
       </c>
-      <c r="P286" s="501"/>
-      <c r="Q286" s="501"/>
-      <c r="R286" s="501"/>
-      <c r="S286" s="501"/>
-      <c r="T286" s="524"/>
+      <c r="P286" s="497"/>
+      <c r="Q286" s="497"/>
+      <c r="R286" s="497"/>
+      <c r="S286" s="497"/>
+      <c r="T286" s="528"/>
       <c r="U286" s="420" t="s">
         <v>61</v>
       </c>
@@ -34725,14 +34732,14 @@
     </row>
     <row r="287" spans="1:39">
       <c r="M287" s="51"/>
-      <c r="O287" s="500" t="s">
+      <c r="O287" s="496" t="s">
         <v>1997</v>
       </c>
-      <c r="P287" s="501"/>
-      <c r="Q287" s="501"/>
-      <c r="R287" s="501"/>
-      <c r="S287" s="501"/>
-      <c r="T287" s="524"/>
+      <c r="P287" s="497"/>
+      <c r="Q287" s="497"/>
+      <c r="R287" s="497"/>
+      <c r="S287" s="497"/>
+      <c r="T287" s="528"/>
       <c r="U287" s="64" t="s">
         <v>136</v>
       </c>
@@ -34747,16 +34754,16 @@
       <c r="AB287" s="445"/>
       <c r="AC287" s="284"/>
     </row>
-    <row r="288" spans="1:39">
+    <row r="288" spans="1:39" ht="15">
       <c r="M288" s="51"/>
-      <c r="O288" s="515" t="s">
+      <c r="O288" s="519" t="s">
         <v>1843</v>
       </c>
-      <c r="P288" s="516"/>
-      <c r="Q288" s="516"/>
-      <c r="R288" s="516"/>
-      <c r="S288" s="516"/>
-      <c r="T288" s="517"/>
+      <c r="P288" s="520"/>
+      <c r="Q288" s="520"/>
+      <c r="R288" s="520"/>
+      <c r="S288" s="520"/>
+      <c r="T288" s="521"/>
       <c r="U288" s="57" t="s">
         <v>1839</v>
       </c>
@@ -34774,14 +34781,14 @@
       <c r="AF288" s="229"/>
       <c r="AG288" s="229"/>
     </row>
-    <row r="289" spans="13:33">
+    <row r="289" spans="13:33" ht="15">
       <c r="M289" s="51"/>
-      <c r="O289" s="518"/>
-      <c r="P289" s="519"/>
-      <c r="Q289" s="519"/>
-      <c r="R289" s="519"/>
-      <c r="S289" s="519"/>
-      <c r="T289" s="520"/>
+      <c r="O289" s="522"/>
+      <c r="P289" s="523"/>
+      <c r="Q289" s="523"/>
+      <c r="R289" s="523"/>
+      <c r="S289" s="523"/>
+      <c r="T289" s="524"/>
       <c r="U289" s="1" t="s">
         <v>1840</v>
       </c>
@@ -34799,14 +34806,14 @@
       <c r="AF289" s="229"/>
       <c r="AG289" s="229"/>
     </row>
-    <row r="290" spans="13:33">
+    <row r="290" spans="13:33" ht="15">
       <c r="M290" s="51"/>
-      <c r="O290" s="518"/>
-      <c r="P290" s="519"/>
-      <c r="Q290" s="519"/>
-      <c r="R290" s="519"/>
-      <c r="S290" s="519"/>
-      <c r="T290" s="520"/>
+      <c r="O290" s="522"/>
+      <c r="P290" s="523"/>
+      <c r="Q290" s="523"/>
+      <c r="R290" s="523"/>
+      <c r="S290" s="523"/>
+      <c r="T290" s="524"/>
       <c r="U290" s="58" t="s">
         <v>1841</v>
       </c>
@@ -34824,14 +34831,14 @@
       <c r="AF290" s="229"/>
       <c r="AG290" s="229"/>
     </row>
-    <row r="291" spans="13:33">
+    <row r="291" spans="13:33" ht="15">
       <c r="M291" s="51"/>
-      <c r="O291" s="521"/>
-      <c r="P291" s="522"/>
-      <c r="Q291" s="522"/>
-      <c r="R291" s="522"/>
-      <c r="S291" s="522"/>
-      <c r="T291" s="523"/>
+      <c r="O291" s="525"/>
+      <c r="P291" s="526"/>
+      <c r="Q291" s="526"/>
+      <c r="R291" s="526"/>
+      <c r="S291" s="526"/>
+      <c r="T291" s="527"/>
       <c r="U291" s="378" t="s">
         <v>1842</v>
       </c>
@@ -34849,16 +34856,16 @@
       <c r="AF291" s="229"/>
       <c r="AG291" s="229"/>
     </row>
-    <row r="292" spans="13:33">
+    <row r="292" spans="13:33" ht="15">
       <c r="M292" s="51"/>
-      <c r="O292" s="500" t="s">
+      <c r="O292" s="496" t="s">
         <v>2000</v>
       </c>
-      <c r="P292" s="501"/>
-      <c r="Q292" s="501"/>
-      <c r="R292" s="501"/>
-      <c r="S292" s="501"/>
-      <c r="T292" s="502"/>
+      <c r="P292" s="497"/>
+      <c r="Q292" s="497"/>
+      <c r="R292" s="497"/>
+      <c r="S292" s="497"/>
+      <c r="T292" s="507"/>
       <c r="U292" s="286" t="s">
         <v>1998</v>
       </c>
@@ -40362,12 +40369,11 @@
   </sheetData>
   <autoFilter ref="B2:AG977" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="P23:W24"/>
+    <mergeCell ref="P226:W226"/>
+    <mergeCell ref="P228:W228"/>
+    <mergeCell ref="P227:W227"/>
+    <mergeCell ref="P232:W232"/>
     <mergeCell ref="P233:W233"/>
     <mergeCell ref="P234:W234"/>
     <mergeCell ref="O292:T292"/>
@@ -40376,11 +40382,12 @@
     <mergeCell ref="O288:T291"/>
     <mergeCell ref="O286:T286"/>
     <mergeCell ref="O287:T287"/>
-    <mergeCell ref="P23:W24"/>
-    <mergeCell ref="P226:W226"/>
-    <mergeCell ref="P228:W228"/>
-    <mergeCell ref="P227:W227"/>
-    <mergeCell ref="P232:W232"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="Y28:Y29 Y75:Y76 Y78:Y79 Y81 Y83:Y88 Y90:Y94 Y141:Y146 Y148:Y150 Y179:Y188 Y194 Y259:Y269 Y272 Y276 Y249:Y250 Y191:Y192 Y292:Y977 Y152:Y170 M238:M257 Y62 Q62 Y96:Y123 Q96:Q123 Y198:Y207 Q198:Q207 Y66:Y67 Q66 Q69:Q73 Y69:Y73 Y55:Y60 Y137:Y139 Y125:Y135 Q137:Q139 Q135 Y2:Y25 Y40:Y53 Q25 Q41 Y213:Y222 Y224:Y227 V281 AD281 V282:W286 Y31:Y33 Y35:Y36 M2:M222 M224:M235 Y229:Y235 Y253:Y255 Q253:Q255 N281:T281 U282:U291 Y282:Y287 M259:M977">

--- a/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851C2AD8-B740-E44F-B9BA-A69FC8617FE4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40AEAB9-0AD5-E641-BB63-4FA9423F5F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="100" windowWidth="20080" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="コアインボイス" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コアインボイス!$B$2:$AG$977</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">コアインボイス!$B$2:$AG$978</definedName>
     <definedName name="BBIE">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">コアインボイス!$B$1:$AG$292</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">コアインボイス!$B$1:$AG$293</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">コアインボイス!$1:$2</definedName>
     <definedName name="ｘｘｘ">#REF!</definedName>
     <definedName name="ああ">#REF!</definedName>
@@ -2502,7 +2502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="2090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="2092">
   <si>
     <t>ID</t>
   </si>
@@ -10089,6 +10089,29 @@
 381　Credit note　− (1113) Document/message for providing credit information to the relevant party.
 396　Factored credit note　− Credit note related to assigned invoice(s).
 532　Forwarder's credit note　− Document/message for providing credit information to the relevant party.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>jBT-293</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>明細行の計算方式（税込み／税抜き）を指定。</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シテイ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -12423,12 +12446,111 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12438,12 +12560,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12461,106 +12577,29 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{93A02627-A42B-4075-B69D-189318F2857A}"/>
   </cellStyles>
-  <dxfs count="237">
+  <dxfs count="239">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC5E0B3"/>
+          <bgColor rgb="FFC5E0B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -14676,11 +14715,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AM977"/>
+  <dimension ref="A1:AM978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD217" sqref="AD217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
@@ -14708,50 +14747,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
-      <c r="A1" s="491" t="s">
+      <c r="A1" s="525" t="s">
         <v>2086</v>
       </c>
-      <c r="B1" s="496" t="s">
+      <c r="B1" s="500" t="s">
         <v>1890</v>
       </c>
-      <c r="C1" s="497"/>
-      <c r="D1" s="497"/>
-      <c r="E1" s="497"/>
-      <c r="F1" s="497"/>
-      <c r="G1" s="497"/>
-      <c r="H1" s="497"/>
-      <c r="I1" s="497"/>
-      <c r="J1" s="497"/>
-      <c r="K1" s="497"/>
-      <c r="L1" s="497"/>
-      <c r="M1" s="497"/>
+      <c r="C1" s="501"/>
+      <c r="D1" s="501"/>
+      <c r="E1" s="501"/>
+      <c r="F1" s="501"/>
+      <c r="G1" s="501"/>
+      <c r="H1" s="501"/>
+      <c r="I1" s="501"/>
+      <c r="J1" s="501"/>
+      <c r="K1" s="501"/>
+      <c r="L1" s="501"/>
+      <c r="M1" s="501"/>
       <c r="N1" s="417"/>
-      <c r="O1" s="498" t="s">
+      <c r="O1" s="529" t="s">
         <v>1891</v>
       </c>
-      <c r="P1" s="499"/>
-      <c r="Q1" s="499"/>
-      <c r="R1" s="499"/>
-      <c r="S1" s="499"/>
-      <c r="T1" s="499"/>
-      <c r="U1" s="499"/>
-      <c r="V1" s="499"/>
-      <c r="W1" s="500"/>
-      <c r="X1" s="501" t="s">
+      <c r="P1" s="530"/>
+      <c r="Q1" s="530"/>
+      <c r="R1" s="530"/>
+      <c r="S1" s="530"/>
+      <c r="T1" s="530"/>
+      <c r="U1" s="530"/>
+      <c r="V1" s="530"/>
+      <c r="W1" s="531"/>
+      <c r="X1" s="532" t="s">
         <v>1938</v>
       </c>
-      <c r="Y1" s="502"/>
-      <c r="Z1" s="502"/>
-      <c r="AA1" s="502"/>
-      <c r="AB1" s="502"/>
-      <c r="AC1" s="502"/>
-      <c r="AD1" s="502"/>
-      <c r="AE1" s="502"/>
-      <c r="AF1" s="502"/>
-      <c r="AG1" s="503"/>
+      <c r="Y1" s="533"/>
+      <c r="Z1" s="533"/>
+      <c r="AA1" s="533"/>
+      <c r="AB1" s="533"/>
+      <c r="AC1" s="533"/>
+      <c r="AD1" s="533"/>
+      <c r="AE1" s="533"/>
+      <c r="AF1" s="533"/>
+      <c r="AG1" s="534"/>
     </row>
     <row r="2" spans="1:34" ht="93">
-      <c r="A2" s="492"/>
+      <c r="A2" s="513"/>
       <c r="B2" s="174" t="s">
         <v>0</v>
       </c>
@@ -14794,12 +14833,12 @@
       <c r="Q2" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="493" t="s">
+      <c r="R2" s="526" t="s">
         <v>1903</v>
       </c>
-      <c r="S2" s="494"/>
-      <c r="T2" s="494"/>
-      <c r="U2" s="495"/>
+      <c r="S2" s="527"/>
+      <c r="T2" s="527"/>
+      <c r="U2" s="528"/>
       <c r="V2" s="221" t="s">
         <v>6</v>
       </c>
@@ -14812,12 +14851,12 @@
       <c r="Y2" s="176" t="s">
         <v>1970</v>
       </c>
-      <c r="Z2" s="493" t="s">
+      <c r="Z2" s="526" t="s">
         <v>1971</v>
       </c>
-      <c r="AA2" s="494"/>
-      <c r="AB2" s="494"/>
-      <c r="AC2" s="495"/>
+      <c r="AA2" s="527"/>
+      <c r="AB2" s="527"/>
+      <c r="AC2" s="528"/>
       <c r="AD2" s="221" t="s">
         <v>1982</v>
       </c>
@@ -16092,16 +16131,16 @@
       <c r="O23" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="P23" s="529" t="s">
+      <c r="P23" s="491" t="s">
         <v>2054</v>
       </c>
-      <c r="Q23" s="530"/>
-      <c r="R23" s="530"/>
-      <c r="S23" s="530"/>
-      <c r="T23" s="530"/>
-      <c r="U23" s="530"/>
-      <c r="V23" s="530"/>
-      <c r="W23" s="531"/>
+      <c r="Q23" s="492"/>
+      <c r="R23" s="492"/>
+      <c r="S23" s="492"/>
+      <c r="T23" s="492"/>
+      <c r="U23" s="492"/>
+      <c r="V23" s="492"/>
+      <c r="W23" s="493"/>
       <c r="X23" s="249" t="s">
         <v>1946</v>
       </c>
@@ -16148,14 +16187,14 @@
       <c r="O24" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="P24" s="532"/>
-      <c r="Q24" s="533"/>
-      <c r="R24" s="533"/>
-      <c r="S24" s="533"/>
-      <c r="T24" s="533"/>
-      <c r="U24" s="533"/>
-      <c r="V24" s="533"/>
-      <c r="W24" s="534"/>
+      <c r="P24" s="494"/>
+      <c r="Q24" s="495"/>
+      <c r="R24" s="495"/>
+      <c r="S24" s="495"/>
+      <c r="T24" s="495"/>
+      <c r="U24" s="495"/>
+      <c r="V24" s="495"/>
+      <c r="W24" s="496"/>
       <c r="X24" s="249" t="s">
         <v>1946</v>
       </c>
@@ -28595,7 +28634,7 @@
     </row>
     <row r="196" spans="1:33" ht="30">
       <c r="A196" s="50">
-        <f t="shared" ref="A196:A259" si="3">ROW()-2</f>
+        <f t="shared" ref="A196:A260" si="3">ROW()-2</f>
         <v>194</v>
       </c>
       <c r="B196" s="246" t="s">
@@ -30751,16 +30790,16 @@
       <c r="O226" s="91" t="s">
         <v>1481</v>
       </c>
-      <c r="P226" s="504" t="s">
+      <c r="P226" s="497" t="s">
         <v>1901</v>
       </c>
-      <c r="Q226" s="505"/>
-      <c r="R226" s="505"/>
-      <c r="S226" s="505"/>
-      <c r="T226" s="505"/>
-      <c r="U226" s="505"/>
-      <c r="V226" s="505"/>
-      <c r="W226" s="506"/>
+      <c r="Q226" s="498"/>
+      <c r="R226" s="498"/>
+      <c r="S226" s="498"/>
+      <c r="T226" s="498"/>
+      <c r="U226" s="498"/>
+      <c r="V226" s="498"/>
+      <c r="W226" s="499"/>
       <c r="X226" s="249" t="s">
         <v>233</v>
       </c>
@@ -30807,16 +30846,16 @@
       <c r="O227" s="91" t="s">
         <v>1482</v>
       </c>
-      <c r="P227" s="504" t="s">
+      <c r="P227" s="497" t="s">
         <v>1483</v>
       </c>
-      <c r="Q227" s="505"/>
-      <c r="R227" s="505"/>
-      <c r="S227" s="505"/>
-      <c r="T227" s="505"/>
-      <c r="U227" s="505"/>
-      <c r="V227" s="505"/>
-      <c r="W227" s="506"/>
+      <c r="Q227" s="498"/>
+      <c r="R227" s="498"/>
+      <c r="S227" s="498"/>
+      <c r="T227" s="498"/>
+      <c r="U227" s="498"/>
+      <c r="V227" s="498"/>
+      <c r="W227" s="499"/>
       <c r="X227" s="258" t="s">
         <v>233</v>
       </c>
@@ -30861,16 +30900,16 @@
       <c r="O228" s="91" t="s">
         <v>1484</v>
       </c>
-      <c r="P228" s="504" t="s">
+      <c r="P228" s="497" t="s">
         <v>1902</v>
       </c>
-      <c r="Q228" s="505"/>
-      <c r="R228" s="505"/>
-      <c r="S228" s="505"/>
-      <c r="T228" s="505"/>
-      <c r="U228" s="505"/>
-      <c r="V228" s="505"/>
-      <c r="W228" s="506"/>
+      <c r="Q228" s="498"/>
+      <c r="R228" s="498"/>
+      <c r="S228" s="498"/>
+      <c r="T228" s="498"/>
+      <c r="U228" s="498"/>
+      <c r="V228" s="498"/>
+      <c r="W228" s="499"/>
       <c r="X228" s="259" t="s">
         <v>233</v>
       </c>
@@ -31044,7 +31083,7 @@
       <c r="AF230" s="358"/>
       <c r="AG230" s="357"/>
     </row>
-    <row r="231" spans="1:33" ht="15">
+    <row r="231" spans="1:33" ht="16">
       <c r="A231" s="50">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -31065,150 +31104,132 @@
       <c r="M231" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N231" s="424" t="s">
-        <v>1831</v>
-      </c>
-      <c r="O231" s="126"/>
-      <c r="P231" s="261"/>
-      <c r="Q231" s="262"/>
-      <c r="R231" s="263"/>
-      <c r="S231" s="395"/>
-      <c r="T231" s="264"/>
-      <c r="U231" s="265"/>
-      <c r="V231" s="293"/>
-      <c r="W231" s="313"/>
-      <c r="X231" s="250" t="s">
+      <c r="N231" s="228" t="s">
+        <v>31</v>
+      </c>
+      <c r="O231" s="91" t="s">
+        <v>2090</v>
+      </c>
+      <c r="P231" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="Y231" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z231" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA231" s="28" t="s">
-        <v>1962</v>
-      </c>
-      <c r="AB231" s="29"/>
-      <c r="AC231" s="30"/>
-      <c r="AD231" s="226" t="s">
-        <v>1497</v>
-      </c>
-      <c r="AE231" s="314"/>
-      <c r="AF231" s="314"/>
-      <c r="AG231" s="314"/>
-    </row>
-    <row r="232" spans="1:33" ht="296" customHeight="1">
+      <c r="Q231" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="R231" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="S231" s="62" t="s">
+        <v>1900</v>
+      </c>
+      <c r="T231" s="62"/>
+      <c r="U231" s="63"/>
+      <c r="V231" s="391" t="s">
+        <v>2091</v>
+      </c>
+      <c r="W231" s="425" t="s">
+        <v>136</v>
+      </c>
+      <c r="X231" s="261"/>
+      <c r="Y231" s="77"/>
+      <c r="Z231" s="78"/>
+      <c r="AA231" s="79"/>
+      <c r="AB231" s="79"/>
+      <c r="AC231" s="80"/>
+      <c r="AD231" s="293"/>
+      <c r="AE231" s="313"/>
+      <c r="AF231" s="313"/>
+      <c r="AG231" s="313"/>
+    </row>
+    <row r="232" spans="1:33" ht="15">
       <c r="A232" s="50">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="B232" s="432"/>
-      <c r="C232" s="458"/>
-      <c r="D232" s="429"/>
-      <c r="E232" s="429"/>
-      <c r="F232" s="430" t="s">
-        <v>15</v>
-      </c>
-      <c r="G232" s="430"/>
-      <c r="H232" s="431"/>
-      <c r="I232" s="431"/>
-      <c r="J232" s="432"/>
-      <c r="K232" s="432"/>
-      <c r="L232" s="429"/>
-      <c r="M232" s="433" t="s">
-        <v>15</v>
-      </c>
-      <c r="N232" s="439"/>
-      <c r="O232" s="126" t="s">
-        <v>1498</v>
-      </c>
-      <c r="P232" s="504" t="s">
-        <v>2047</v>
-      </c>
-      <c r="Q232" s="505"/>
-      <c r="R232" s="505"/>
-      <c r="S232" s="505"/>
-      <c r="T232" s="505"/>
-      <c r="U232" s="505"/>
-      <c r="V232" s="505"/>
-      <c r="W232" s="506"/>
+      <c r="B232" s="11"/>
+      <c r="C232" s="451"/>
+      <c r="D232" s="8"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G232" s="9"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="8"/>
+      <c r="M232" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N232" s="424" t="s">
+        <v>1831</v>
+      </c>
+      <c r="O232" s="126"/>
+      <c r="P232" s="261"/>
+      <c r="Q232" s="262"/>
+      <c r="R232" s="263"/>
+      <c r="S232" s="395"/>
+      <c r="T232" s="264"/>
+      <c r="U232" s="265"/>
+      <c r="V232" s="293"/>
+      <c r="W232" s="313"/>
       <c r="X232" s="250" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Y232" s="26" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Z232" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AA232" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB232" s="29" t="s">
-        <v>1499</v>
-      </c>
+      <c r="AA232" s="28" t="s">
+        <v>1962</v>
+      </c>
+      <c r="AB232" s="29"/>
       <c r="AC232" s="30"/>
       <c r="AD232" s="226" t="s">
-        <v>2045</v>
-      </c>
-      <c r="AE232" s="314" t="s">
-        <v>21</v>
-      </c>
+        <v>1497</v>
+      </c>
+      <c r="AE232" s="314"/>
       <c r="AF232" s="314"/>
       <c r="AG232" s="314"/>
     </row>
-    <row r="233" spans="1:33" ht="30">
+    <row r="233" spans="1:33" ht="296" customHeight="1">
       <c r="A233" s="50">
         <f t="shared" si="3"/>
         <v>231</v>
       </c>
-      <c r="B233" s="489" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C233" s="459" t="s">
-        <v>2035</v>
-      </c>
-      <c r="D233" s="434" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E233" s="434" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F233" s="435" t="s">
-        <v>233</v>
-      </c>
-      <c r="G233" s="435"/>
-      <c r="H233" s="436" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I233" s="436"/>
-      <c r="J233" s="437"/>
-      <c r="K233" s="437" t="s">
-        <v>1505</v>
-      </c>
-      <c r="L233" s="434" t="s">
-        <v>1506</v>
-      </c>
-      <c r="M233" s="438" t="s">
-        <v>18</v>
-      </c>
-      <c r="N233" s="441" t="s">
-        <v>141</v>
-      </c>
+      <c r="B233" s="432"/>
+      <c r="C233" s="458"/>
+      <c r="D233" s="429"/>
+      <c r="E233" s="429"/>
+      <c r="F233" s="430" t="s">
+        <v>15</v>
+      </c>
+      <c r="G233" s="430"/>
+      <c r="H233" s="431"/>
+      <c r="I233" s="431"/>
+      <c r="J233" s="432"/>
+      <c r="K233" s="432"/>
+      <c r="L233" s="429"/>
+      <c r="M233" s="433" t="s">
+        <v>15</v>
+      </c>
+      <c r="N233" s="439"/>
       <c r="O233" s="126" t="s">
-        <v>1507</v>
-      </c>
-      <c r="P233" s="504" t="s">
-        <v>2036</v>
-      </c>
-      <c r="Q233" s="505"/>
-      <c r="R233" s="505"/>
-      <c r="S233" s="505"/>
-      <c r="T233" s="505"/>
-      <c r="U233" s="505"/>
-      <c r="V233" s="505"/>
-      <c r="W233" s="506"/>
+        <v>1498</v>
+      </c>
+      <c r="P233" s="497" t="s">
+        <v>2047</v>
+      </c>
+      <c r="Q233" s="498"/>
+      <c r="R233" s="498"/>
+      <c r="S233" s="498"/>
+      <c r="T233" s="498"/>
+      <c r="U233" s="498"/>
+      <c r="V233" s="498"/>
+      <c r="W233" s="499"/>
       <c r="X233" s="250" t="s">
         <v>295</v>
       </c>
@@ -31222,11 +31243,11 @@
         <v>15</v>
       </c>
       <c r="AB233" s="29" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="AC233" s="30"/>
       <c r="AD233" s="226" t="s">
-        <v>1509</v>
+        <v>2045</v>
       </c>
       <c r="AE233" s="314" t="s">
         <v>21</v>
@@ -31234,43 +31255,57 @@
       <c r="AF233" s="314"/>
       <c r="AG233" s="314"/>
     </row>
-    <row r="234" spans="1:33" ht="16">
+    <row r="234" spans="1:33" ht="30">
       <c r="A234" s="50">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="B234" s="11"/>
-      <c r="C234" s="451"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G234" s="9"/>
-      <c r="H234" s="10"/>
-      <c r="I234" s="10"/>
-      <c r="J234" s="11"/>
-      <c r="K234" s="11"/>
-      <c r="L234" s="8"/>
-      <c r="M234" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="N234" s="228" t="s">
-        <v>2034</v>
+      <c r="B234" s="489" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C234" s="459" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D234" s="434" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E234" s="434" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F234" s="435" t="s">
+        <v>233</v>
+      </c>
+      <c r="G234" s="435"/>
+      <c r="H234" s="436" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I234" s="436"/>
+      <c r="J234" s="437"/>
+      <c r="K234" s="437" t="s">
+        <v>1505</v>
+      </c>
+      <c r="L234" s="434" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M234" s="438" t="s">
+        <v>18</v>
+      </c>
+      <c r="N234" s="441" t="s">
+        <v>141</v>
       </c>
       <c r="O234" s="126" t="s">
-        <v>1510</v>
-      </c>
-      <c r="P234" s="504" t="s">
-        <v>2041</v>
-      </c>
-      <c r="Q234" s="505"/>
-      <c r="R234" s="505"/>
-      <c r="S234" s="505"/>
-      <c r="T234" s="505"/>
-      <c r="U234" s="505"/>
-      <c r="V234" s="505"/>
-      <c r="W234" s="506"/>
+        <v>1507</v>
+      </c>
+      <c r="P234" s="497" t="s">
+        <v>2036</v>
+      </c>
+      <c r="Q234" s="498"/>
+      <c r="R234" s="498"/>
+      <c r="S234" s="498"/>
+      <c r="T234" s="498"/>
+      <c r="U234" s="498"/>
+      <c r="V234" s="498"/>
+      <c r="W234" s="499"/>
       <c r="X234" s="250" t="s">
         <v>295</v>
       </c>
@@ -31284,11 +31319,11 @@
         <v>15</v>
       </c>
       <c r="AB234" s="29" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="AC234" s="30"/>
       <c r="AD234" s="226" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="AE234" s="314" t="s">
         <v>21</v>
@@ -31296,469 +31331,449 @@
       <c r="AF234" s="314"/>
       <c r="AG234" s="314"/>
     </row>
-    <row r="235" spans="1:33" ht="45">
+    <row r="235" spans="1:33" ht="16">
       <c r="A235" s="50">
         <f t="shared" si="3"/>
         <v>233</v>
       </c>
-      <c r="B235" s="432"/>
-      <c r="C235" s="458"/>
-      <c r="D235" s="429"/>
-      <c r="E235" s="429"/>
-      <c r="F235" s="430"/>
-      <c r="G235" s="430"/>
-      <c r="H235" s="431"/>
-      <c r="I235" s="431"/>
-      <c r="J235" s="432"/>
-      <c r="K235" s="432"/>
-      <c r="L235" s="429"/>
-      <c r="M235" s="433"/>
-      <c r="N235" s="439"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="451"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G235" s="9"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="11"/>
+      <c r="K235" s="11"/>
+      <c r="L235" s="8"/>
+      <c r="M235" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="N235" s="228" t="s">
+        <v>2034</v>
+      </c>
       <c r="O235" s="126" t="s">
-        <v>1851</v>
-      </c>
-      <c r="P235" s="59" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q235" s="396" t="s">
-        <v>1949</v>
-      </c>
-      <c r="R235" s="397"/>
-      <c r="S235" s="272" t="s">
-        <v>2024</v>
-      </c>
-      <c r="T235" s="272"/>
-      <c r="U235" s="390"/>
-      <c r="V235" s="398" t="s">
-        <v>2029</v>
-      </c>
-      <c r="W235" s="425"/>
-      <c r="X235" s="399"/>
-      <c r="Y235" s="68"/>
-      <c r="Z235" s="69"/>
-      <c r="AA235" s="70"/>
-      <c r="AB235" s="70"/>
-      <c r="AC235" s="71"/>
-      <c r="AD235" s="356"/>
-      <c r="AE235" s="400"/>
-      <c r="AF235" s="401"/>
-      <c r="AG235" s="401"/>
-    </row>
-    <row r="236" spans="1:33" ht="90">
+        <v>1510</v>
+      </c>
+      <c r="P235" s="497" t="s">
+        <v>2041</v>
+      </c>
+      <c r="Q235" s="498"/>
+      <c r="R235" s="498"/>
+      <c r="S235" s="498"/>
+      <c r="T235" s="498"/>
+      <c r="U235" s="498"/>
+      <c r="V235" s="498"/>
+      <c r="W235" s="499"/>
+      <c r="X235" s="250" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y235" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z235" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA235" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB235" s="29" t="s">
+        <v>1511</v>
+      </c>
+      <c r="AC235" s="30"/>
+      <c r="AD235" s="226" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AE235" s="314" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF235" s="314"/>
+      <c r="AG235" s="314"/>
+    </row>
+    <row r="236" spans="1:33" ht="45">
       <c r="A236" s="50">
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="B236" s="489" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C236" s="459" t="s">
-        <v>2035</v>
-      </c>
-      <c r="D236" s="434" t="s">
-        <v>1502</v>
-      </c>
-      <c r="E236" s="434" t="s">
-        <v>1503</v>
-      </c>
-      <c r="F236" s="435" t="s">
-        <v>233</v>
-      </c>
-      <c r="G236" s="435"/>
-      <c r="H236" s="436" t="s">
-        <v>1504</v>
-      </c>
-      <c r="I236" s="436"/>
-      <c r="J236" s="437"/>
-      <c r="K236" s="437" t="s">
-        <v>1505</v>
-      </c>
-      <c r="L236" s="434" t="s">
-        <v>1506</v>
-      </c>
-      <c r="M236" s="438" t="s">
-        <v>18</v>
-      </c>
-      <c r="N236" s="441" t="s">
-        <v>141</v>
-      </c>
-      <c r="O236" s="116" t="s">
-        <v>1507</v>
-      </c>
-      <c r="P236" s="141" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q236" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="R236" s="119"/>
-      <c r="S236" s="120" t="s">
-        <v>1513</v>
-      </c>
-      <c r="T236" s="120"/>
-      <c r="U236" s="121"/>
-      <c r="V236" s="115" t="s">
-        <v>2046</v>
-      </c>
-      <c r="W236" s="314"/>
-      <c r="X236" s="250" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y236" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z236" s="27"/>
-      <c r="AA236" s="29"/>
-      <c r="AB236" s="29" t="s">
-        <v>1937</v>
-      </c>
-      <c r="AC236" s="30"/>
-      <c r="AD236" s="226" t="s">
-        <v>1514</v>
-      </c>
-      <c r="AE236" s="375" t="s">
-        <v>1989</v>
-      </c>
-      <c r="AF236" s="314"/>
-      <c r="AG236" s="314" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="237" spans="1:33" ht="30">
+      <c r="B236" s="432"/>
+      <c r="C236" s="458"/>
+      <c r="D236" s="429"/>
+      <c r="E236" s="429"/>
+      <c r="F236" s="430"/>
+      <c r="G236" s="430"/>
+      <c r="H236" s="431"/>
+      <c r="I236" s="431"/>
+      <c r="J236" s="432"/>
+      <c r="K236" s="432"/>
+      <c r="L236" s="429"/>
+      <c r="M236" s="433"/>
+      <c r="N236" s="439"/>
+      <c r="O236" s="126" t="s">
+        <v>1851</v>
+      </c>
+      <c r="P236" s="59" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q236" s="396" t="s">
+        <v>1949</v>
+      </c>
+      <c r="R236" s="397"/>
+      <c r="S236" s="272" t="s">
+        <v>2024</v>
+      </c>
+      <c r="T236" s="272"/>
+      <c r="U236" s="390"/>
+      <c r="V236" s="398" t="s">
+        <v>2029</v>
+      </c>
+      <c r="W236" s="425"/>
+      <c r="X236" s="399"/>
+      <c r="Y236" s="68"/>
+      <c r="Z236" s="69"/>
+      <c r="AA236" s="70"/>
+      <c r="AB236" s="70"/>
+      <c r="AC236" s="71"/>
+      <c r="AD236" s="356"/>
+      <c r="AE236" s="400"/>
+      <c r="AF236" s="401"/>
+      <c r="AG236" s="401"/>
+    </row>
+    <row r="237" spans="1:33" ht="90">
       <c r="A237" s="50">
         <f t="shared" si="3"/>
         <v>235</v>
       </c>
-      <c r="B237" s="488"/>
-      <c r="C237" s="457"/>
-      <c r="D237" s="86"/>
-      <c r="E237" s="86"/>
-      <c r="F237" s="263"/>
-      <c r="G237" s="263"/>
-      <c r="H237" s="264"/>
-      <c r="I237" s="264"/>
-      <c r="J237" s="265"/>
-      <c r="K237" s="265"/>
-      <c r="L237" s="86"/>
-      <c r="M237" s="266"/>
-      <c r="N237" s="442"/>
+      <c r="B237" s="489" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C237" s="459" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D237" s="434" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E237" s="434" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F237" s="435" t="s">
+        <v>233</v>
+      </c>
+      <c r="G237" s="435"/>
+      <c r="H237" s="436" t="s">
+        <v>1504</v>
+      </c>
+      <c r="I237" s="436"/>
+      <c r="J237" s="437"/>
+      <c r="K237" s="437" t="s">
+        <v>1505</v>
+      </c>
+      <c r="L237" s="434" t="s">
+        <v>1506</v>
+      </c>
+      <c r="M237" s="438" t="s">
+        <v>18</v>
+      </c>
+      <c r="N237" s="441" t="s">
+        <v>141</v>
+      </c>
       <c r="O237" s="116" t="s">
-        <v>2032</v>
-      </c>
-      <c r="P237" s="59" t="s">
-        <v>1848</v>
-      </c>
-      <c r="Q237" s="396" t="s">
-        <v>1949</v>
-      </c>
-      <c r="R237" s="397"/>
-      <c r="S237" s="272" t="s">
-        <v>2025</v>
-      </c>
-      <c r="T237" s="272"/>
-      <c r="U237" s="390"/>
-      <c r="V237" s="398" t="s">
-        <v>2026</v>
-      </c>
-      <c r="W237" s="425"/>
-      <c r="X237" s="261"/>
-      <c r="Y237" s="262"/>
-      <c r="Z237" s="263"/>
-      <c r="AA237" s="264"/>
-      <c r="AB237" s="264"/>
-      <c r="AC237" s="265"/>
-      <c r="AD237" s="293"/>
-      <c r="AE237" s="404"/>
-      <c r="AF237" s="405"/>
-      <c r="AG237" s="405"/>
+        <v>1507</v>
+      </c>
+      <c r="P237" s="141" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q237" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="R237" s="119"/>
+      <c r="S237" s="120" t="s">
+        <v>1513</v>
+      </c>
+      <c r="T237" s="120"/>
+      <c r="U237" s="121"/>
+      <c r="V237" s="115" t="s">
+        <v>2046</v>
+      </c>
+      <c r="W237" s="314"/>
+      <c r="X237" s="250" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y237" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z237" s="27"/>
+      <c r="AA237" s="29"/>
+      <c r="AB237" s="29" t="s">
+        <v>1937</v>
+      </c>
+      <c r="AC237" s="30"/>
+      <c r="AD237" s="226" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AE237" s="375" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AF237" s="314"/>
+      <c r="AG237" s="314" t="s">
+        <v>1992</v>
+      </c>
     </row>
     <row r="238" spans="1:33" ht="30">
       <c r="A238" s="50">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
-      <c r="B238" s="11"/>
-      <c r="C238" s="451"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="9"/>
-      <c r="H238" s="10"/>
-      <c r="I238" s="10"/>
-      <c r="J238" s="11"/>
-      <c r="K238" s="11"/>
-      <c r="L238" s="8"/>
-      <c r="M238" s="12"/>
-      <c r="N238" s="440" t="s">
-        <v>141</v>
-      </c>
+      <c r="B238" s="488"/>
+      <c r="C238" s="457"/>
+      <c r="D238" s="86"/>
+      <c r="E238" s="86"/>
+      <c r="F238" s="263"/>
+      <c r="G238" s="263"/>
+      <c r="H238" s="264"/>
+      <c r="I238" s="264"/>
+      <c r="J238" s="265"/>
+      <c r="K238" s="265"/>
+      <c r="L238" s="86"/>
+      <c r="M238" s="266"/>
+      <c r="N238" s="442"/>
       <c r="O238" s="116" t="s">
-        <v>1515</v>
-      </c>
-      <c r="P238" s="202" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q238" s="203" t="s">
-        <v>18</v>
-      </c>
-      <c r="R238" s="204"/>
-      <c r="S238" s="205" t="s">
-        <v>1516</v>
-      </c>
-      <c r="T238" s="205"/>
-      <c r="U238" s="206"/>
-      <c r="V238" s="402" t="s">
-        <v>1517</v>
+        <v>2032</v>
+      </c>
+      <c r="P238" s="59" t="s">
+        <v>1848</v>
+      </c>
+      <c r="Q238" s="396" t="s">
+        <v>1949</v>
+      </c>
+      <c r="R238" s="397"/>
+      <c r="S238" s="272" t="s">
+        <v>2025</v>
+      </c>
+      <c r="T238" s="272"/>
+      <c r="U238" s="390"/>
+      <c r="V238" s="398" t="s">
+        <v>2026</v>
       </c>
       <c r="W238" s="425"/>
-      <c r="X238" s="250" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y238" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z238" s="27"/>
-      <c r="AA238" s="29"/>
-      <c r="AB238" s="29" t="s">
-        <v>1993</v>
-      </c>
-      <c r="AC238" s="30"/>
-      <c r="AD238" s="226" t="s">
-        <v>1994</v>
-      </c>
-      <c r="AE238" s="360" t="s">
-        <v>1989</v>
-      </c>
-      <c r="AF238" s="359"/>
-      <c r="AG238" s="359" t="s">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="239" spans="1:33" ht="45">
+      <c r="X238" s="261"/>
+      <c r="Y238" s="262"/>
+      <c r="Z238" s="263"/>
+      <c r="AA238" s="264"/>
+      <c r="AB238" s="264"/>
+      <c r="AC238" s="265"/>
+      <c r="AD238" s="293"/>
+      <c r="AE238" s="404"/>
+      <c r="AF238" s="405"/>
+      <c r="AG238" s="405"/>
+    </row>
+    <row r="239" spans="1:33" ht="30">
       <c r="A239" s="50">
         <f t="shared" si="3"/>
         <v>237</v>
       </c>
-      <c r="B239" s="487" t="s">
-        <v>1518</v>
-      </c>
-      <c r="C239" s="455" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F239" s="3" t="s">
+      <c r="B239" s="11"/>
+      <c r="C239" s="451"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="9"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="11"/>
+      <c r="L239" s="8"/>
+      <c r="M239" s="12"/>
+      <c r="N239" s="440" t="s">
+        <v>141</v>
+      </c>
+      <c r="O239" s="116" t="s">
+        <v>1515</v>
+      </c>
+      <c r="P239" s="202" t="s">
         <v>233</v>
       </c>
-      <c r="G239" s="3"/>
-      <c r="H239" s="4" t="s">
-        <v>1521</v>
-      </c>
-      <c r="I239" s="4"/>
-      <c r="J239" s="5"/>
-      <c r="K239" s="5" t="s">
-        <v>1522</v>
-      </c>
-      <c r="L239" s="2" t="s">
-        <v>1523</v>
-      </c>
-      <c r="M239" s="6" t="s">
+      <c r="Q239" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="N239" s="228" t="s">
-        <v>31</v>
-      </c>
-      <c r="O239" s="116" t="s">
-        <v>1524</v>
-      </c>
-      <c r="P239" s="141" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q239" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="R239" s="119"/>
-      <c r="S239" s="120" t="s">
-        <v>2067</v>
-      </c>
-      <c r="T239" s="120"/>
-      <c r="U239" s="121"/>
-      <c r="V239" s="115" t="s">
-        <v>2068</v>
-      </c>
-      <c r="W239" s="314" t="s">
-        <v>136</v>
-      </c>
-      <c r="X239" s="261"/>
-      <c r="Y239" s="262"/>
-      <c r="Z239" s="263"/>
-      <c r="AA239" s="264"/>
-      <c r="AB239" s="264"/>
-      <c r="AC239" s="265"/>
-      <c r="AD239" s="290"/>
-      <c r="AE239" s="102"/>
-      <c r="AF239" s="302"/>
-      <c r="AG239" s="265"/>
-    </row>
-    <row r="240" spans="1:33" ht="15">
+      <c r="R239" s="204"/>
+      <c r="S239" s="205" t="s">
+        <v>1516</v>
+      </c>
+      <c r="T239" s="205"/>
+      <c r="U239" s="206"/>
+      <c r="V239" s="402" t="s">
+        <v>1517</v>
+      </c>
+      <c r="W239" s="425"/>
+      <c r="X239" s="250" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y239" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z239" s="27"/>
+      <c r="AA239" s="29"/>
+      <c r="AB239" s="29" t="s">
+        <v>1993</v>
+      </c>
+      <c r="AC239" s="30"/>
+      <c r="AD239" s="226" t="s">
+        <v>1994</v>
+      </c>
+      <c r="AE239" s="360" t="s">
+        <v>1989</v>
+      </c>
+      <c r="AF239" s="359"/>
+      <c r="AG239" s="359" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="240" spans="1:33" ht="45">
       <c r="A240" s="50">
         <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B240" s="487" t="s">
-        <v>1525</v>
-      </c>
-      <c r="C240" s="456" t="s">
-        <v>1526</v>
+        <v>1518</v>
+      </c>
+      <c r="C240" s="455" t="s">
+        <v>1519</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1527</v>
+        <v>206</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>233</v>
       </c>
       <c r="G240" s="3"/>
-      <c r="H240" s="23" t="s">
-        <v>1529</v>
+      <c r="H240" s="4" t="s">
+        <v>1521</v>
       </c>
       <c r="I240" s="4"/>
       <c r="J240" s="5"/>
       <c r="K240" s="5" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="L240" s="2" t="s">
-        <v>1531</v>
+        <v>1523</v>
       </c>
       <c r="M240" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N240" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="O240" s="216" t="s">
-        <v>1532</v>
-      </c>
-      <c r="P240" s="160" t="s">
+        <v>31</v>
+      </c>
+      <c r="O240" s="116" t="s">
+        <v>1524</v>
+      </c>
+      <c r="P240" s="141" t="s">
         <v>233</v>
       </c>
-      <c r="Q240" s="112" t="s">
+      <c r="Q240" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="R240" s="92"/>
-      <c r="S240" s="164" t="s">
-        <v>1533</v>
-      </c>
-      <c r="T240" s="93"/>
-      <c r="U240" s="94"/>
-      <c r="V240" s="235" t="s">
-        <v>1534</v>
-      </c>
-      <c r="W240" s="314"/>
-      <c r="X240" s="249" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y240" s="225" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z240" s="222"/>
-      <c r="AA240" s="24" t="s">
-        <v>1533</v>
-      </c>
-      <c r="AB240" s="4"/>
-      <c r="AC240" s="5"/>
-      <c r="AD240" s="235" t="s">
-        <v>1534</v>
-      </c>
-      <c r="AE240" s="376"/>
-      <c r="AF240" s="314" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG240" s="314" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="241" spans="1:33" ht="16">
+      <c r="R240" s="119"/>
+      <c r="S240" s="120" t="s">
+        <v>2067</v>
+      </c>
+      <c r="T240" s="120"/>
+      <c r="U240" s="121"/>
+      <c r="V240" s="115" t="s">
+        <v>2068</v>
+      </c>
+      <c r="W240" s="314" t="s">
+        <v>136</v>
+      </c>
+      <c r="X240" s="261"/>
+      <c r="Y240" s="262"/>
+      <c r="Z240" s="263"/>
+      <c r="AA240" s="264"/>
+      <c r="AB240" s="264"/>
+      <c r="AC240" s="265"/>
+      <c r="AD240" s="290"/>
+      <c r="AE240" s="102"/>
+      <c r="AF240" s="302"/>
+      <c r="AG240" s="265"/>
+    </row>
+    <row r="241" spans="1:33" ht="15">
       <c r="A241" s="50">
         <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="B241" s="487" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C241" s="455" t="s">
-        <v>1536</v>
+        <v>1525</v>
+      </c>
+      <c r="C241" s="456" t="s">
+        <v>1526</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1537</v>
+        <v>1527</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1538</v>
+        <v>1528</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="G241" s="3"/>
-      <c r="H241" s="4"/>
-      <c r="I241" s="4" t="s">
-        <v>1539</v>
-      </c>
+      <c r="H241" s="23" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I241" s="4"/>
       <c r="J241" s="5"/>
       <c r="K241" s="5" t="s">
-        <v>1540</v>
+        <v>1530</v>
       </c>
       <c r="L241" s="2" t="s">
-        <v>1541</v>
+        <v>1531</v>
       </c>
       <c r="M241" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N241" s="228" t="s">
-        <v>24</v>
-      </c>
-      <c r="O241" s="91" t="s">
-        <v>1542</v>
+        <v>227</v>
+      </c>
+      <c r="O241" s="216" t="s">
+        <v>1532</v>
       </c>
       <c r="P241" s="160" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Q241" s="112" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="R241" s="92"/>
-      <c r="S241" s="93"/>
-      <c r="T241" s="93" t="s">
-        <v>1543</v>
-      </c>
+      <c r="S241" s="164" t="s">
+        <v>1533</v>
+      </c>
+      <c r="T241" s="93"/>
       <c r="U241" s="94"/>
       <c r="V241" s="235" t="s">
-        <v>1544</v>
+        <v>1534</v>
       </c>
       <c r="W241" s="314"/>
       <c r="X241" s="249" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Y241" s="225" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Z241" s="222"/>
-      <c r="AA241" s="4"/>
-      <c r="AB241" s="4" t="s">
-        <v>1543</v>
-      </c>
+      <c r="AA241" s="24" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AB241" s="4"/>
       <c r="AC241" s="5"/>
       <c r="AD241" s="235" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AE241" s="314" t="s">
-        <v>21</v>
-      </c>
+        <v>1534</v>
+      </c>
+      <c r="AE241" s="376"/>
       <c r="AF241" s="314" t="s">
         <v>15</v>
       </c>
@@ -31772,16 +31787,16 @@
         <v>240</v>
       </c>
       <c r="B242" s="487" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="C242" s="455" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>295</v>
@@ -31789,13 +31804,15 @@
       <c r="G242" s="3"/>
       <c r="H242" s="4"/>
       <c r="I242" s="4" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="J242" s="5"/>
       <c r="K242" s="5" t="s">
-        <v>1550</v>
-      </c>
-      <c r="L242" s="2"/>
+        <v>1540</v>
+      </c>
+      <c r="L242" s="2" t="s">
+        <v>1541</v>
+      </c>
       <c r="M242" s="6" t="s">
         <v>18</v>
       </c>
@@ -31803,7 +31820,7 @@
         <v>24</v>
       </c>
       <c r="O242" s="91" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="P242" s="160" t="s">
         <v>295</v>
@@ -31814,11 +31831,11 @@
       <c r="R242" s="92"/>
       <c r="S242" s="93"/>
       <c r="T242" s="93" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="U242" s="94"/>
       <c r="V242" s="235" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="W242" s="314"/>
       <c r="X242" s="249" t="s">
@@ -31830,11 +31847,11 @@
       <c r="Z242" s="222"/>
       <c r="AA242" s="4"/>
       <c r="AB242" s="4" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="AC242" s="5"/>
       <c r="AD242" s="235" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="AE242" s="314" t="s">
         <v>21</v>
@@ -31846,153 +31863,155 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:33" ht="30">
+    <row r="243" spans="1:33" ht="16">
       <c r="A243" s="50">
         <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B243" s="487" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C243" s="456" t="s">
-        <v>1555</v>
+        <v>1545</v>
+      </c>
+      <c r="C243" s="455" t="s">
+        <v>1546</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="E243" s="2"/>
+        <v>1547</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>1548</v>
+      </c>
       <c r="F243" s="3" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="G243" s="3"/>
-      <c r="H243" s="213" t="s">
-        <v>1557</v>
-      </c>
-      <c r="I243" s="4"/>
+      <c r="H243" s="4"/>
+      <c r="I243" s="4" t="s">
+        <v>1549</v>
+      </c>
       <c r="J243" s="5"/>
       <c r="K243" s="5" t="s">
-        <v>1558</v>
+        <v>1550</v>
       </c>
       <c r="L243" s="2"/>
       <c r="M243" s="6" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="N243" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="O243" s="218" t="s">
-        <v>1559</v>
-      </c>
-      <c r="P243" s="141" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q243" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="R243" s="119"/>
-      <c r="S243" s="165" t="s">
-        <v>1560</v>
-      </c>
-      <c r="T243" s="120"/>
-      <c r="U243" s="121"/>
-      <c r="V243" s="115" t="s">
-        <v>1561</v>
+        <v>24</v>
+      </c>
+      <c r="O243" s="91" t="s">
+        <v>1551</v>
+      </c>
+      <c r="P243" s="160" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q243" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="R243" s="92"/>
+      <c r="S243" s="93"/>
+      <c r="T243" s="93" t="s">
+        <v>1552</v>
+      </c>
+      <c r="U243" s="94"/>
+      <c r="V243" s="235" t="s">
+        <v>1553</v>
       </c>
       <c r="W243" s="314"/>
-      <c r="X243" s="330" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y243" s="331" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z243" s="332"/>
-      <c r="AA243" s="333" t="s">
-        <v>1961</v>
-      </c>
-      <c r="AB243" s="334"/>
-      <c r="AC243" s="335"/>
-      <c r="AD243" s="288" t="s">
-        <v>2013</v>
-      </c>
-      <c r="AE243" s="310"/>
-      <c r="AF243" s="310" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG243" s="310" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="244" spans="1:33" ht="60">
+      <c r="X243" s="249" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y243" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z243" s="222"/>
+      <c r="AA243" s="4"/>
+      <c r="AB243" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="AC243" s="5"/>
+      <c r="AD243" s="235" t="s">
+        <v>1553</v>
+      </c>
+      <c r="AE243" s="314" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF243" s="314" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG243" s="314" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="244" spans="1:33" ht="30">
       <c r="A244" s="50">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="B244" s="246" t="s">
-        <v>1562</v>
-      </c>
-      <c r="C244" s="455" t="s">
-        <v>1563</v>
+      <c r="B244" s="487" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C244" s="456" t="s">
+        <v>1555</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>1072</v>
+        <v>1556</v>
       </c>
       <c r="E244" s="2"/>
       <c r="F244" s="3" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="G244" s="3"/>
-      <c r="H244" s="4"/>
-      <c r="I244" s="4" t="s">
-        <v>1564</v>
-      </c>
+      <c r="H244" s="213" t="s">
+        <v>1557</v>
+      </c>
+      <c r="I244" s="4"/>
       <c r="J244" s="5"/>
       <c r="K244" s="5" t="s">
-        <v>1074</v>
+        <v>1558</v>
       </c>
       <c r="L244" s="2"/>
       <c r="M244" s="6" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="N244" s="228" t="s">
-        <v>1075</v>
-      </c>
-      <c r="O244" s="116" t="s">
-        <v>1565</v>
+        <v>227</v>
+      </c>
+      <c r="O244" s="218" t="s">
+        <v>1559</v>
       </c>
       <c r="P244" s="141" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Q244" s="118" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="R244" s="119"/>
-      <c r="S244" s="120"/>
-      <c r="T244" s="120" t="s">
-        <v>1566</v>
-      </c>
+      <c r="S244" s="165" t="s">
+        <v>1560</v>
+      </c>
+      <c r="T244" s="120"/>
       <c r="U244" s="121"/>
       <c r="V244" s="115" t="s">
-        <v>2075</v>
+        <v>1561</v>
       </c>
       <c r="W244" s="314"/>
       <c r="X244" s="330" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Y244" s="331" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Z244" s="332"/>
-      <c r="AA244" s="334"/>
-      <c r="AB244" s="334" t="s">
-        <v>1960</v>
-      </c>
+      <c r="AA244" s="333" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AB244" s="334"/>
       <c r="AC244" s="335"/>
       <c r="AD244" s="288" t="s">
-        <v>2002</v>
-      </c>
-      <c r="AE244" s="310" t="s">
-        <v>21</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="AE244" s="310"/>
       <c r="AF244" s="310" t="s">
         <v>15</v>
       </c>
@@ -32000,19 +32019,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:33" ht="75">
+    <row r="245" spans="1:33" ht="60">
       <c r="A245" s="50">
         <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B245" s="246" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="C245" s="455" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>1569</v>
+        <v>1072</v>
       </c>
       <c r="E245" s="2"/>
       <c r="F245" s="3" t="s">
@@ -32021,62 +32040,76 @@
       <c r="G245" s="3"/>
       <c r="H245" s="4"/>
       <c r="I245" s="4" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="J245" s="5"/>
       <c r="K245" s="5" t="s">
-        <v>1571</v>
+        <v>1074</v>
       </c>
       <c r="L245" s="2"/>
       <c r="M245" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N245" s="228" t="s">
         <v>1075</v>
       </c>
       <c r="O245" s="116" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="P245" s="141" t="s">
         <v>295</v>
       </c>
       <c r="Q245" s="118" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="R245" s="119"/>
       <c r="S245" s="120"/>
       <c r="T245" s="120" t="s">
-        <v>1898</v>
+        <v>1566</v>
       </c>
       <c r="U245" s="121"/>
       <c r="V245" s="115" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="W245" s="314"/>
-      <c r="X245" s="254"/>
-      <c r="Y245" s="95"/>
-      <c r="Z245" s="96"/>
-      <c r="AA245" s="97"/>
-      <c r="AB245" s="97"/>
-      <c r="AC245" s="98"/>
-      <c r="AD245" s="290"/>
-      <c r="AE245" s="301"/>
-      <c r="AF245" s="301"/>
-      <c r="AG245" s="98"/>
-    </row>
-    <row r="246" spans="1:33" ht="30">
+      <c r="X245" s="330" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y245" s="331" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z245" s="332"/>
+      <c r="AA245" s="334"/>
+      <c r="AB245" s="334" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AC245" s="335"/>
+      <c r="AD245" s="288" t="s">
+        <v>2002</v>
+      </c>
+      <c r="AE245" s="310" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF245" s="310" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG245" s="310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:33" ht="75">
       <c r="A246" s="50">
         <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B246" s="246" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="C246" s="455" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="E246" s="2"/>
       <c r="F246" s="3" t="s">
@@ -32085,21 +32118,21 @@
       <c r="G246" s="3"/>
       <c r="H246" s="4"/>
       <c r="I246" s="4" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="J246" s="5"/>
       <c r="K246" s="5" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="L246" s="2"/>
       <c r="M246" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N246" s="228" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="O246" s="116" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="P246" s="141" t="s">
         <v>295</v>
@@ -32110,11 +32143,11 @@
       <c r="R246" s="119"/>
       <c r="S246" s="120"/>
       <c r="T246" s="120" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="U246" s="121"/>
       <c r="V246" s="115" t="s">
-        <v>1579</v>
+        <v>2077</v>
       </c>
       <c r="W246" s="314"/>
       <c r="X246" s="254"/>
@@ -32128,19 +32161,19 @@
       <c r="AF246" s="301"/>
       <c r="AG246" s="98"/>
     </row>
-    <row r="247" spans="1:33" ht="16">
+    <row r="247" spans="1:33" ht="30">
       <c r="A247" s="50">
         <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B247" s="246" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="C247" s="455" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" s="3" t="s">
@@ -32149,21 +32182,21 @@
       <c r="G247" s="3"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="J247" s="5"/>
       <c r="K247" s="5" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="L247" s="2"/>
       <c r="M247" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N247" s="228" t="s">
-        <v>31</v>
+        <v>1092</v>
       </c>
       <c r="O247" s="116" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="P247" s="141" t="s">
         <v>295</v>
@@ -32174,37 +32207,23 @@
       <c r="R247" s="119"/>
       <c r="S247" s="120"/>
       <c r="T247" s="120" t="s">
-        <v>1586</v>
+        <v>1899</v>
       </c>
       <c r="U247" s="121"/>
       <c r="V247" s="115" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="W247" s="314"/>
-      <c r="X247" s="330" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y247" s="331" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z247" s="332"/>
-      <c r="AA247" s="334"/>
-      <c r="AB247" s="334" t="s">
-        <v>1959</v>
-      </c>
-      <c r="AC247" s="335"/>
-      <c r="AD247" s="288" t="s">
-        <v>1990</v>
-      </c>
-      <c r="AE247" s="310" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF247" s="310" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG247" s="310" t="s">
-        <v>15</v>
-      </c>
+      <c r="X247" s="254"/>
+      <c r="Y247" s="95"/>
+      <c r="Z247" s="96"/>
+      <c r="AA247" s="97"/>
+      <c r="AB247" s="97"/>
+      <c r="AC247" s="98"/>
+      <c r="AD247" s="290"/>
+      <c r="AE247" s="301"/>
+      <c r="AF247" s="301"/>
+      <c r="AG247" s="98"/>
     </row>
     <row r="248" spans="1:33" ht="16">
       <c r="A248" s="50">
@@ -32212,40 +32231,36 @@
         <v>246</v>
       </c>
       <c r="B248" s="246" t="s">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="C248" s="455" t="s">
-        <v>1589</v>
+        <v>1581</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>1591</v>
-      </c>
+        <v>1582</v>
+      </c>
+      <c r="E248" s="2"/>
       <c r="F248" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G248" s="3"/>
       <c r="H248" s="4"/>
       <c r="I248" s="4" t="s">
-        <v>1592</v>
+        <v>1583</v>
       </c>
       <c r="J248" s="5"/>
       <c r="K248" s="5" t="s">
-        <v>1593</v>
-      </c>
-      <c r="L248" s="2" t="s">
-        <v>1594</v>
-      </c>
+        <v>1584</v>
+      </c>
+      <c r="L248" s="2"/>
       <c r="M248" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N248" s="228" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="O248" s="116" t="s">
-        <v>1595</v>
+        <v>1585</v>
       </c>
       <c r="P248" s="141" t="s">
         <v>295</v>
@@ -32256,11 +32271,11 @@
       <c r="R248" s="119"/>
       <c r="S248" s="120"/>
       <c r="T248" s="120" t="s">
-        <v>1596</v>
+        <v>1586</v>
       </c>
       <c r="U248" s="121"/>
       <c r="V248" s="115" t="s">
-        <v>1597</v>
+        <v>1587</v>
       </c>
       <c r="W248" s="314"/>
       <c r="X248" s="330" t="s">
@@ -32272,11 +32287,11 @@
       <c r="Z248" s="332"/>
       <c r="AA248" s="334"/>
       <c r="AB248" s="334" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="AC248" s="335"/>
       <c r="AD248" s="288" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="AE248" s="310" t="s">
         <v>21</v>
@@ -32288,79 +32303,81 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:33" ht="30">
+    <row r="249" spans="1:33" ht="16">
       <c r="A249" s="50">
         <f t="shared" si="3"/>
         <v>247</v>
       </c>
-      <c r="B249" s="487" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C249" s="456" t="s">
-        <v>1599</v>
+      <c r="B249" s="246" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C249" s="455" t="s">
+        <v>1589</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>1600</v>
+        <v>1590</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>1601</v>
+        <v>1591</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="G249" s="3"/>
-      <c r="H249" s="213" t="s">
-        <v>1602</v>
-      </c>
-      <c r="I249" s="4"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="4" t="s">
+        <v>1592</v>
+      </c>
       <c r="J249" s="5"/>
       <c r="K249" s="5" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="L249" s="2" t="s">
-        <v>1604</v>
+        <v>1594</v>
       </c>
       <c r="M249" s="6" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="N249" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="O249" s="219" t="s">
-        <v>1605</v>
-      </c>
-      <c r="P249" s="145" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q249" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="O249" s="116" t="s">
+        <v>1595</v>
+      </c>
+      <c r="P249" s="141" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q249" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="R249" s="72"/>
-      <c r="S249" s="166" t="s">
-        <v>1606</v>
-      </c>
-      <c r="T249" s="73"/>
-      <c r="U249" s="74"/>
+      <c r="R249" s="119"/>
+      <c r="S249" s="120"/>
+      <c r="T249" s="120" t="s">
+        <v>1596</v>
+      </c>
+      <c r="U249" s="121"/>
       <c r="V249" s="115" t="s">
-        <v>1836</v>
+        <v>1597</v>
       </c>
       <c r="W249" s="314"/>
-      <c r="X249" s="336" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y249" s="337" t="s">
+      <c r="X249" s="330" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y249" s="331" t="s">
         <v>18</v>
       </c>
-      <c r="Z249" s="338"/>
-      <c r="AA249" s="339" t="s">
-        <v>1606</v>
-      </c>
-      <c r="AB249" s="340"/>
-      <c r="AC249" s="341"/>
+      <c r="Z249" s="332"/>
+      <c r="AA249" s="334"/>
+      <c r="AB249" s="334" t="s">
+        <v>1958</v>
+      </c>
+      <c r="AC249" s="335"/>
       <c r="AD249" s="288" t="s">
-        <v>1836</v>
-      </c>
-      <c r="AE249" s="310"/>
+        <v>1991</v>
+      </c>
+      <c r="AE249" s="310" t="s">
+        <v>21</v>
+      </c>
       <c r="AF249" s="310" t="s">
         <v>15</v>
       </c>
@@ -32368,77 +32385,79 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:33" ht="60">
+    <row r="250" spans="1:33" ht="30">
       <c r="A250" s="50">
         <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B250" s="487" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C250" s="455" t="s">
-        <v>1608</v>
+        <v>1598</v>
+      </c>
+      <c r="C250" s="456" t="s">
+        <v>1599</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E250" s="2"/>
+        <v>1600</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>1601</v>
+      </c>
       <c r="F250" s="3" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="G250" s="3"/>
-      <c r="H250" s="4"/>
-      <c r="I250" s="4" t="s">
-        <v>1609</v>
-      </c>
+      <c r="H250" s="213" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I250" s="4"/>
       <c r="J250" s="5"/>
       <c r="K250" s="5" t="s">
-        <v>1610</v>
-      </c>
-      <c r="L250" s="2"/>
+        <v>1603</v>
+      </c>
+      <c r="L250" s="2" t="s">
+        <v>1604</v>
+      </c>
       <c r="M250" s="6" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="N250" s="228" t="s">
-        <v>1075</v>
-      </c>
-      <c r="O250" s="75" t="s">
-        <v>1611</v>
+        <v>227</v>
+      </c>
+      <c r="O250" s="219" t="s">
+        <v>1605</v>
       </c>
       <c r="P250" s="145" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Q250" s="146" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="R250" s="72"/>
-      <c r="S250" s="73"/>
-      <c r="T250" s="73" t="s">
-        <v>1612</v>
-      </c>
+      <c r="S250" s="166" t="s">
+        <v>1606</v>
+      </c>
+      <c r="T250" s="73"/>
       <c r="U250" s="74"/>
       <c r="V250" s="115" t="s">
-        <v>2076</v>
+        <v>1836</v>
       </c>
       <c r="W250" s="314"/>
       <c r="X250" s="336" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Y250" s="337" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Z250" s="338"/>
-      <c r="AA250" s="340"/>
-      <c r="AB250" s="340" t="s">
-        <v>1612</v>
-      </c>
+      <c r="AA250" s="339" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AB250" s="340"/>
       <c r="AC250" s="341"/>
       <c r="AD250" s="288" t="s">
-        <v>2003</v>
-      </c>
-      <c r="AE250" s="310" t="s">
-        <v>21</v>
-      </c>
+        <v>1836</v>
+      </c>
+      <c r="AE250" s="310"/>
       <c r="AF250" s="310" t="s">
         <v>15</v>
       </c>
@@ -32446,19 +32465,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:33" ht="75">
+    <row r="251" spans="1:33" ht="60">
       <c r="A251" s="50">
         <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="B251" s="487" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="C251" s="455" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1615</v>
+        <v>1141</v>
       </c>
       <c r="E251" s="2"/>
       <c r="F251" s="3" t="s">
@@ -32467,62 +32486,76 @@
       <c r="G251" s="3"/>
       <c r="H251" s="4"/>
       <c r="I251" s="4" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="J251" s="5"/>
       <c r="K251" s="5" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="L251" s="2"/>
       <c r="M251" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N251" s="228" t="s">
         <v>1075</v>
       </c>
       <c r="O251" s="75" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="P251" s="145" t="s">
         <v>295</v>
       </c>
-      <c r="Q251" s="118" t="s">
-        <v>18</v>
+      <c r="Q251" s="146" t="s">
+        <v>58</v>
       </c>
       <c r="R251" s="72"/>
       <c r="S251" s="73"/>
       <c r="T251" s="73" t="s">
-        <v>1896</v>
+        <v>1612</v>
       </c>
       <c r="U251" s="74"/>
       <c r="V251" s="115" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="W251" s="314"/>
-      <c r="X251" s="256"/>
-      <c r="Y251" s="95"/>
-      <c r="Z251" s="88"/>
-      <c r="AA251" s="89"/>
-      <c r="AB251" s="89"/>
-      <c r="AC251" s="90"/>
-      <c r="AD251" s="290"/>
-      <c r="AE251" s="303"/>
-      <c r="AF251" s="303"/>
-      <c r="AG251" s="90"/>
-    </row>
-    <row r="252" spans="1:33" ht="30">
+      <c r="X251" s="336" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y251" s="337" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z251" s="338"/>
+      <c r="AA251" s="340"/>
+      <c r="AB251" s="340" t="s">
+        <v>1612</v>
+      </c>
+      <c r="AC251" s="341"/>
+      <c r="AD251" s="288" t="s">
+        <v>2003</v>
+      </c>
+      <c r="AE251" s="310" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF251" s="310" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG251" s="310" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:33" ht="75">
       <c r="A252" s="50">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B252" s="487" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="C252" s="455" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="E252" s="2"/>
       <c r="F252" s="3" t="s">
@@ -32531,21 +32564,21 @@
       <c r="G252" s="3"/>
       <c r="H252" s="4"/>
       <c r="I252" s="4" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="J252" s="5"/>
       <c r="K252" s="5" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="L252" s="2"/>
       <c r="M252" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N252" s="228" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
       <c r="O252" s="75" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="P252" s="145" t="s">
         <v>295</v>
@@ -32556,11 +32589,11 @@
       <c r="R252" s="72"/>
       <c r="S252" s="73"/>
       <c r="T252" s="73" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="U252" s="74"/>
       <c r="V252" s="115" t="s">
-        <v>2028</v>
+        <v>2078</v>
       </c>
       <c r="W252" s="314"/>
       <c r="X252" s="256"/>
@@ -32574,19 +32607,19 @@
       <c r="AF252" s="303"/>
       <c r="AG252" s="90"/>
     </row>
-    <row r="253" spans="1:33" ht="16">
+    <row r="253" spans="1:33" ht="30">
       <c r="A253" s="50">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B253" s="487" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="C253" s="455" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1627</v>
+        <v>1621</v>
       </c>
       <c r="E253" s="2"/>
       <c r="F253" s="3" t="s">
@@ -32595,62 +32628,48 @@
       <c r="G253" s="3"/>
       <c r="H253" s="4"/>
       <c r="I253" s="4" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="J253" s="5"/>
       <c r="K253" s="5" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="L253" s="2"/>
       <c r="M253" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N253" s="228" t="s">
-        <v>31</v>
+        <v>1092</v>
       </c>
       <c r="O253" s="75" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="P253" s="145" t="s">
         <v>295</v>
       </c>
-      <c r="Q253" s="146" t="s">
+      <c r="Q253" s="118" t="s">
         <v>18</v>
       </c>
       <c r="R253" s="72"/>
       <c r="S253" s="73"/>
       <c r="T253" s="73" t="s">
-        <v>1631</v>
+        <v>1897</v>
       </c>
       <c r="U253" s="74"/>
       <c r="V253" s="115" t="s">
-        <v>1837</v>
+        <v>2028</v>
       </c>
       <c r="W253" s="314"/>
-      <c r="X253" s="336" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y253" s="337" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z253" s="338"/>
-      <c r="AA253" s="340"/>
-      <c r="AB253" s="340" t="s">
-        <v>1631</v>
-      </c>
-      <c r="AC253" s="341"/>
-      <c r="AD253" s="288" t="s">
-        <v>1837</v>
-      </c>
-      <c r="AE253" s="342" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF253" s="342" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG253" s="342" t="s">
-        <v>15</v>
-      </c>
+      <c r="X253" s="256"/>
+      <c r="Y253" s="95"/>
+      <c r="Z253" s="88"/>
+      <c r="AA253" s="89"/>
+      <c r="AB253" s="89"/>
+      <c r="AC253" s="90"/>
+      <c r="AD253" s="290"/>
+      <c r="AE253" s="303"/>
+      <c r="AF253" s="303"/>
+      <c r="AG253" s="90"/>
     </row>
     <row r="254" spans="1:33" ht="16">
       <c r="A254" s="50">
@@ -32658,40 +32677,36 @@
         <v>252</v>
       </c>
       <c r="B254" s="487" t="s">
-        <v>1632</v>
+        <v>1625</v>
       </c>
       <c r="C254" s="455" t="s">
-        <v>1633</v>
+        <v>1626</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>1635</v>
-      </c>
+        <v>1627</v>
+      </c>
+      <c r="E254" s="2"/>
       <c r="F254" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G254" s="3"/>
       <c r="H254" s="4"/>
       <c r="I254" s="4" t="s">
-        <v>1636</v>
+        <v>1628</v>
       </c>
       <c r="J254" s="5"/>
       <c r="K254" s="5" t="s">
-        <v>1637</v>
-      </c>
-      <c r="L254" s="2" t="s">
-        <v>1638</v>
-      </c>
+        <v>1629</v>
+      </c>
+      <c r="L254" s="2"/>
       <c r="M254" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N254" s="228" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="O254" s="75" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="P254" s="145" t="s">
         <v>295</v>
@@ -32702,11 +32717,11 @@
       <c r="R254" s="72"/>
       <c r="S254" s="73"/>
       <c r="T254" s="73" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="U254" s="74"/>
       <c r="V254" s="115" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="W254" s="314"/>
       <c r="X254" s="336" t="s">
@@ -32718,11 +32733,11 @@
       <c r="Z254" s="338"/>
       <c r="AA254" s="340"/>
       <c r="AB254" s="340" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="AC254" s="341"/>
       <c r="AD254" s="288" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="AE254" s="342" t="s">
         <v>21</v>
@@ -32734,373 +32749,391 @@
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:33" ht="15">
+    <row r="255" spans="1:33" ht="16">
       <c r="A255" s="50">
         <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B255" s="487" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C255" s="456" t="s">
-        <v>1642</v>
+        <v>1632</v>
+      </c>
+      <c r="C255" s="455" t="s">
+        <v>1633</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1643</v>
-      </c>
-      <c r="E255" s="2"/>
+        <v>1634</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>1635</v>
+      </c>
       <c r="F255" s="3" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="G255" s="3"/>
-      <c r="H255" s="213" t="s">
-        <v>1644</v>
-      </c>
-      <c r="I255" s="4"/>
+      <c r="H255" s="4"/>
+      <c r="I255" s="4" t="s">
+        <v>1636</v>
+      </c>
       <c r="J255" s="5"/>
       <c r="K255" s="5" t="s">
-        <v>1645</v>
-      </c>
-      <c r="L255" s="2"/>
+        <v>1637</v>
+      </c>
+      <c r="L255" s="2" t="s">
+        <v>1638</v>
+      </c>
       <c r="M255" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N255" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="O255" s="216" t="s">
-        <v>1646</v>
-      </c>
-      <c r="P255" s="160" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q255" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="R255" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="S255" s="164" t="s">
-        <v>1647</v>
-      </c>
-      <c r="T255" s="93"/>
-      <c r="U255" s="94"/>
-      <c r="V255" s="235" t="s">
-        <v>1648</v>
+        <v>80</v>
+      </c>
+      <c r="O255" s="75" t="s">
+        <v>1639</v>
+      </c>
+      <c r="P255" s="145" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q255" s="146" t="s">
+        <v>18</v>
+      </c>
+      <c r="R255" s="72"/>
+      <c r="S255" s="73"/>
+      <c r="T255" s="73" t="s">
+        <v>1640</v>
+      </c>
+      <c r="U255" s="74"/>
+      <c r="V255" s="115" t="s">
+        <v>1838</v>
       </c>
       <c r="W255" s="314"/>
-      <c r="X255" s="249" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y255" s="225" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z255" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA255" s="24" t="s">
-        <v>1647</v>
-      </c>
-      <c r="AB255" s="4"/>
-      <c r="AC255" s="5"/>
-      <c r="AD255" s="235" t="s">
-        <v>1648</v>
-      </c>
-      <c r="AE255" s="315"/>
-      <c r="AF255" s="309"/>
-      <c r="AG255" s="309"/>
-    </row>
-    <row r="256" spans="1:33" ht="120">
+      <c r="X255" s="336" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y255" s="337" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z255" s="338"/>
+      <c r="AA255" s="340"/>
+      <c r="AB255" s="340" t="s">
+        <v>1640</v>
+      </c>
+      <c r="AC255" s="341"/>
+      <c r="AD255" s="288" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AE255" s="342" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF255" s="342" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG255" s="342" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:33" ht="15">
       <c r="A256" s="50">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B256" s="487" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C256" s="455" t="s">
-        <v>1650</v>
+        <v>1641</v>
+      </c>
+      <c r="C256" s="456" t="s">
+        <v>1642</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>1652</v>
-      </c>
+        <v>1643</v>
+      </c>
+      <c r="E256" s="2"/>
       <c r="F256" s="3" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="G256" s="3"/>
-      <c r="H256" s="4"/>
-      <c r="I256" s="4" t="s">
-        <v>1653</v>
-      </c>
+      <c r="H256" s="213" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I256" s="4"/>
       <c r="J256" s="5"/>
       <c r="K256" s="5" t="s">
-        <v>1654</v>
-      </c>
-      <c r="L256" s="2" t="s">
-        <v>1655</v>
-      </c>
+        <v>1645</v>
+      </c>
+      <c r="L256" s="2"/>
       <c r="M256" s="6" t="s">
         <v>58</v>
       </c>
       <c r="N256" s="228" t="s">
-        <v>1656</v>
-      </c>
-      <c r="O256" s="126" t="s">
-        <v>1657</v>
-      </c>
-      <c r="P256" s="129" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q256" s="135" t="s">
+        <v>227</v>
+      </c>
+      <c r="O256" s="216" t="s">
+        <v>1646</v>
+      </c>
+      <c r="P256" s="160" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q256" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="R256" s="167" t="s">
-        <v>15</v>
-      </c>
-      <c r="S256" s="168" t="s">
-        <v>15</v>
-      </c>
-      <c r="T256" s="168" t="s">
-        <v>1658</v>
-      </c>
-      <c r="U256" s="169"/>
-      <c r="V256" s="243" t="s">
-        <v>2071</v>
+      <c r="R256" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="S256" s="164" t="s">
+        <v>1647</v>
+      </c>
+      <c r="T256" s="93"/>
+      <c r="U256" s="94"/>
+      <c r="V256" s="235" t="s">
+        <v>1648</v>
       </c>
       <c r="W256" s="314"/>
-      <c r="X256" s="362"/>
-      <c r="Y256" s="262"/>
-      <c r="Z256" s="363"/>
-      <c r="AA256" s="364"/>
-      <c r="AB256" s="364"/>
-      <c r="AC256" s="362"/>
-      <c r="AD256" s="355"/>
-      <c r="AE256" s="102"/>
-      <c r="AF256" s="302"/>
-      <c r="AG256" s="362"/>
-    </row>
-    <row r="257" spans="1:33" ht="60">
+      <c r="X256" s="249" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y256" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z256" s="222" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA256" s="24" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AB256" s="4"/>
+      <c r="AC256" s="5"/>
+      <c r="AD256" s="235" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AE256" s="315"/>
+      <c r="AF256" s="309"/>
+      <c r="AG256" s="309"/>
+    </row>
+    <row r="257" spans="1:33" ht="120">
       <c r="A257" s="50">
         <f t="shared" si="3"/>
         <v>255</v>
       </c>
-      <c r="B257" s="467"/>
-      <c r="C257" s="464"/>
-      <c r="D257" s="463"/>
-      <c r="E257" s="463"/>
-      <c r="F257" s="465"/>
-      <c r="G257" s="465"/>
-      <c r="H257" s="466"/>
-      <c r="I257" s="466"/>
-      <c r="J257" s="467"/>
-      <c r="K257" s="467"/>
-      <c r="L257" s="463"/>
-      <c r="M257" s="468"/>
+      <c r="B257" s="487" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C257" s="455" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G257" s="3"/>
+      <c r="H257" s="4"/>
+      <c r="I257" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5" t="s">
+        <v>1654</v>
+      </c>
+      <c r="L257" s="2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="M257" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="N257" s="228" t="s">
         <v>1656</v>
       </c>
-      <c r="O257" s="130" t="s">
-        <v>1659</v>
-      </c>
-      <c r="P257" s="207" t="s">
+      <c r="O257" s="126" t="s">
+        <v>1657</v>
+      </c>
+      <c r="P257" s="129" t="s">
         <v>295</v>
       </c>
-      <c r="Q257" s="208" t="s">
+      <c r="Q257" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="R257" s="209"/>
-      <c r="S257" s="210"/>
-      <c r="T257" s="210" t="s">
-        <v>1660</v>
-      </c>
-      <c r="U257" s="211"/>
-      <c r="V257" s="407" t="s">
-        <v>2069</v>
-      </c>
-      <c r="W257" s="427"/>
-      <c r="X257" s="109"/>
-      <c r="Y257" s="106"/>
-      <c r="Z257" s="107"/>
-      <c r="AA257" s="108"/>
-      <c r="AB257" s="108"/>
-      <c r="AC257" s="109"/>
-      <c r="AD257" s="292"/>
-      <c r="AE257" s="373"/>
-      <c r="AF257" s="304"/>
-      <c r="AG257" s="109"/>
-    </row>
-    <row r="258" spans="1:33" ht="45">
+      <c r="R257" s="167" t="s">
+        <v>15</v>
+      </c>
+      <c r="S257" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="T257" s="168" t="s">
+        <v>1658</v>
+      </c>
+      <c r="U257" s="169"/>
+      <c r="V257" s="243" t="s">
+        <v>2071</v>
+      </c>
+      <c r="W257" s="314"/>
+      <c r="X257" s="362"/>
+      <c r="Y257" s="262"/>
+      <c r="Z257" s="363"/>
+      <c r="AA257" s="364"/>
+      <c r="AB257" s="364"/>
+      <c r="AC257" s="362"/>
+      <c r="AD257" s="355"/>
+      <c r="AE257" s="102"/>
+      <c r="AF257" s="302"/>
+      <c r="AG257" s="362"/>
+    </row>
+    <row r="258" spans="1:33" ht="60">
       <c r="A258" s="50">
         <f t="shared" si="3"/>
         <v>256</v>
       </c>
-      <c r="B258" s="490"/>
-      <c r="C258" s="471"/>
-      <c r="D258" s="470"/>
-      <c r="E258" s="470"/>
-      <c r="F258" s="470"/>
-      <c r="G258" s="470"/>
-      <c r="H258" s="470"/>
-      <c r="I258" s="470"/>
-      <c r="J258" s="470"/>
-      <c r="K258" s="470"/>
-      <c r="L258" s="470"/>
-      <c r="M258" s="472"/>
-      <c r="N258" s="419"/>
-      <c r="O258" s="125" t="s">
-        <v>1835</v>
-      </c>
-      <c r="P258" s="101"/>
-      <c r="Q258" s="102"/>
-      <c r="R258" s="103"/>
-      <c r="S258" s="104"/>
-      <c r="T258" s="104"/>
-      <c r="U258" s="105"/>
-      <c r="V258" s="105"/>
-      <c r="W258" s="105"/>
-      <c r="X258" s="361" t="s">
+      <c r="B258" s="467"/>
+      <c r="C258" s="464"/>
+      <c r="D258" s="463"/>
+      <c r="E258" s="463"/>
+      <c r="F258" s="465"/>
+      <c r="G258" s="465"/>
+      <c r="H258" s="466"/>
+      <c r="I258" s="466"/>
+      <c r="J258" s="467"/>
+      <c r="K258" s="467"/>
+      <c r="L258" s="463"/>
+      <c r="M258" s="468"/>
+      <c r="N258" s="228" t="s">
+        <v>1656</v>
+      </c>
+      <c r="O258" s="130" t="s">
+        <v>1659</v>
+      </c>
+      <c r="P258" s="207" t="s">
         <v>295</v>
       </c>
-      <c r="Y258" s="50" t="s">
+      <c r="Q258" s="208" t="s">
         <v>58</v>
       </c>
-      <c r="Z258" s="53"/>
-      <c r="AA258" s="54"/>
-      <c r="AB258" s="54" t="s">
-        <v>1988</v>
-      </c>
-      <c r="AC258" s="55"/>
-      <c r="AD258" s="371" t="s">
-        <v>2014</v>
-      </c>
-      <c r="AE258" s="305" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF258" s="416"/>
-      <c r="AG258" s="305"/>
-    </row>
-    <row r="259" spans="1:33" ht="90">
+      <c r="R258" s="209"/>
+      <c r="S258" s="210"/>
+      <c r="T258" s="210" t="s">
+        <v>1660</v>
+      </c>
+      <c r="U258" s="211"/>
+      <c r="V258" s="407" t="s">
+        <v>2069</v>
+      </c>
+      <c r="W258" s="427"/>
+      <c r="X258" s="109"/>
+      <c r="Y258" s="106"/>
+      <c r="Z258" s="107"/>
+      <c r="AA258" s="108"/>
+      <c r="AB258" s="108"/>
+      <c r="AC258" s="109"/>
+      <c r="AD258" s="292"/>
+      <c r="AE258" s="373"/>
+      <c r="AF258" s="304"/>
+      <c r="AG258" s="109"/>
+    </row>
+    <row r="259" spans="1:33" ht="45">
       <c r="A259" s="50">
         <f t="shared" si="3"/>
         <v>257</v>
       </c>
-      <c r="B259" s="41" t="s">
+      <c r="B259" s="490"/>
+      <c r="C259" s="471"/>
+      <c r="D259" s="470"/>
+      <c r="E259" s="470"/>
+      <c r="F259" s="470"/>
+      <c r="G259" s="470"/>
+      <c r="H259" s="470"/>
+      <c r="I259" s="470"/>
+      <c r="J259" s="470"/>
+      <c r="K259" s="470"/>
+      <c r="L259" s="470"/>
+      <c r="M259" s="472"/>
+      <c r="N259" s="419"/>
+      <c r="O259" s="125" t="s">
+        <v>1835</v>
+      </c>
+      <c r="P259" s="101"/>
+      <c r="Q259" s="102"/>
+      <c r="R259" s="103"/>
+      <c r="S259" s="104"/>
+      <c r="T259" s="104"/>
+      <c r="U259" s="105"/>
+      <c r="V259" s="105"/>
+      <c r="W259" s="105"/>
+      <c r="X259" s="361" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y259" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z259" s="53"/>
+      <c r="AA259" s="54"/>
+      <c r="AB259" s="54" t="s">
+        <v>1988</v>
+      </c>
+      <c r="AC259" s="55"/>
+      <c r="AD259" s="371" t="s">
+        <v>2014</v>
+      </c>
+      <c r="AE259" s="305" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF259" s="416"/>
+      <c r="AG259" s="305"/>
+    </row>
+    <row r="260" spans="1:33" ht="90">
+      <c r="A260" s="50">
+        <f t="shared" si="3"/>
+        <v>258</v>
+      </c>
+      <c r="B260" s="41" t="s">
         <v>1661</v>
       </c>
-      <c r="C259" s="469" t="s">
+      <c r="C260" s="469" t="s">
         <v>1662</v>
       </c>
-      <c r="D259" s="174" t="s">
+      <c r="D260" s="174" t="s">
         <v>1663</v>
       </c>
-      <c r="E259" s="174" t="s">
+      <c r="E260" s="174" t="s">
         <v>1664</v>
       </c>
-      <c r="F259" s="39" t="s">
+      <c r="F260" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="G259" s="39"/>
-      <c r="H259" s="40"/>
-      <c r="I259" s="40" t="s">
+      <c r="G260" s="39"/>
+      <c r="H260" s="40"/>
+      <c r="I260" s="40" t="s">
         <v>1665</v>
       </c>
-      <c r="J259" s="41"/>
-      <c r="K259" s="41" t="s">
+      <c r="J260" s="41"/>
+      <c r="K260" s="41" t="s">
         <v>1666</v>
       </c>
-      <c r="L259" s="174" t="s">
+      <c r="L260" s="174" t="s">
         <v>1667</v>
       </c>
-      <c r="M259" s="175" t="s">
-        <v>18</v>
-      </c>
-      <c r="N259" s="228" t="s">
-        <v>1656</v>
-      </c>
-      <c r="O259" s="116" t="s">
-        <v>1668</v>
-      </c>
-      <c r="P259" s="141" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q259" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="R259" s="119"/>
-      <c r="S259" s="120"/>
-      <c r="T259" s="120" t="s">
-        <v>1669</v>
-      </c>
-      <c r="U259" s="121"/>
-      <c r="V259" s="115" t="s">
-        <v>2072</v>
-      </c>
-      <c r="W259" s="314"/>
-      <c r="X259" s="254"/>
-      <c r="Y259" s="95"/>
-      <c r="Z259" s="96"/>
-      <c r="AA259" s="97"/>
-      <c r="AB259" s="97"/>
-      <c r="AC259" s="98"/>
-      <c r="AD259" s="290"/>
-      <c r="AE259" s="365"/>
-      <c r="AF259" s="301"/>
-      <c r="AG259" s="98"/>
-    </row>
-    <row r="260" spans="1:33" ht="60">
-      <c r="A260" s="50">
-        <f t="shared" ref="A260:A280" si="4">ROW()-2</f>
-        <v>258</v>
-      </c>
-      <c r="B260" s="246" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C260" s="455" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>1672</v>
-      </c>
-      <c r="E260" s="2"/>
-      <c r="F260" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G260" s="3"/>
-      <c r="H260" s="4"/>
-      <c r="I260" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="J260" s="5"/>
-      <c r="K260" s="5" t="s">
-        <v>1674</v>
-      </c>
-      <c r="L260" s="2"/>
-      <c r="M260" s="6" t="s">
+      <c r="M260" s="175" t="s">
         <v>18</v>
       </c>
       <c r="N260" s="228" t="s">
         <v>1656</v>
       </c>
       <c r="O260" s="116" t="s">
-        <v>1675</v>
+        <v>1668</v>
       </c>
       <c r="P260" s="141" t="s">
         <v>295</v>
       </c>
       <c r="Q260" s="118" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="R260" s="119"/>
       <c r="S260" s="120"/>
       <c r="T260" s="120" t="s">
-        <v>1676</v>
+        <v>1669</v>
       </c>
       <c r="U260" s="121"/>
       <c r="V260" s="115" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="W260" s="314"/>
       <c r="X260" s="254"/>
@@ -33114,19 +33147,19 @@
       <c r="AF260" s="301"/>
       <c r="AG260" s="98"/>
     </row>
-    <row r="261" spans="1:33" ht="75">
+    <row r="261" spans="1:33" ht="60">
       <c r="A261" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A261:A281" si="4">ROW()-2</f>
         <v>259</v>
       </c>
       <c r="B261" s="246" t="s">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="C261" s="455" t="s">
-        <v>1678</v>
+        <v>1671</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>1679</v>
+        <v>1672</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="3" t="s">
@@ -33135,236 +33168,220 @@
       <c r="G261" s="3"/>
       <c r="H261" s="4"/>
       <c r="I261" s="4" t="s">
-        <v>1680</v>
+        <v>1673</v>
       </c>
       <c r="J261" s="5"/>
       <c r="K261" s="5" t="s">
-        <v>1681</v>
+        <v>1674</v>
       </c>
       <c r="L261" s="2"/>
       <c r="M261" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N261" s="228" t="s">
-        <v>1468</v>
-      </c>
-      <c r="O261" s="133" t="s">
-        <v>1682</v>
-      </c>
-      <c r="P261" s="131" t="s">
+        <v>1656</v>
+      </c>
+      <c r="O261" s="116" t="s">
+        <v>1675</v>
+      </c>
+      <c r="P261" s="141" t="s">
         <v>295</v>
       </c>
-      <c r="Q261" s="170" t="s">
-        <v>18</v>
-      </c>
-      <c r="R261" s="171"/>
-      <c r="S261" s="172"/>
-      <c r="T261" s="172" t="s">
-        <v>1680</v>
-      </c>
-      <c r="U261" s="173"/>
-      <c r="V261" s="244" t="s">
-        <v>2074</v>
+      <c r="Q261" s="118" t="s">
+        <v>58</v>
+      </c>
+      <c r="R261" s="119"/>
+      <c r="S261" s="120"/>
+      <c r="T261" s="120" t="s">
+        <v>1676</v>
+      </c>
+      <c r="U261" s="121"/>
+      <c r="V261" s="115" t="s">
+        <v>2073</v>
       </c>
       <c r="W261" s="314"/>
-      <c r="X261" s="325"/>
-      <c r="Y261" s="326"/>
-      <c r="Z261" s="327"/>
-      <c r="AA261" s="328"/>
-      <c r="AB261" s="328"/>
-      <c r="AC261" s="325"/>
-      <c r="AD261" s="329"/>
-      <c r="AE261" s="374"/>
-      <c r="AF261" s="372"/>
-      <c r="AG261" s="415"/>
-    </row>
-    <row r="262" spans="1:33" ht="60">
+      <c r="X261" s="254"/>
+      <c r="Y261" s="95"/>
+      <c r="Z261" s="96"/>
+      <c r="AA261" s="97"/>
+      <c r="AB261" s="97"/>
+      <c r="AC261" s="98"/>
+      <c r="AD261" s="290"/>
+      <c r="AE261" s="365"/>
+      <c r="AF261" s="301"/>
+      <c r="AG261" s="98"/>
+    </row>
+    <row r="262" spans="1:33" ht="75">
       <c r="A262" s="50">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B262" s="246" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="C262" s="455" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>1686</v>
-      </c>
+        <v>1679</v>
+      </c>
+      <c r="E262" s="2"/>
       <c r="F262" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G262" s="3"/>
       <c r="H262" s="4"/>
       <c r="I262" s="4" t="s">
-        <v>1687</v>
+        <v>1680</v>
       </c>
       <c r="J262" s="5"/>
       <c r="K262" s="5" t="s">
-        <v>1688</v>
-      </c>
-      <c r="L262" s="2" t="s">
-        <v>1689</v>
-      </c>
+        <v>1681</v>
+      </c>
+      <c r="L262" s="2"/>
       <c r="M262" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N262" s="228" t="s">
-        <v>80</v>
-      </c>
-      <c r="O262" s="116" t="s">
-        <v>1690</v>
-      </c>
-      <c r="P262" s="141" t="s">
+        <v>1468</v>
+      </c>
+      <c r="O262" s="133" t="s">
+        <v>1682</v>
+      </c>
+      <c r="P262" s="131" t="s">
         <v>295</v>
       </c>
-      <c r="Q262" s="118" t="s">
+      <c r="Q262" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="R262" s="119"/>
-      <c r="S262" s="120"/>
-      <c r="T262" s="120" t="s">
-        <v>1691</v>
-      </c>
-      <c r="U262" s="121"/>
-      <c r="V262" s="115" t="s">
-        <v>2070</v>
+      <c r="R262" s="171"/>
+      <c r="S262" s="172"/>
+      <c r="T262" s="172" t="s">
+        <v>1680</v>
+      </c>
+      <c r="U262" s="173"/>
+      <c r="V262" s="244" t="s">
+        <v>2074</v>
       </c>
       <c r="W262" s="314"/>
-      <c r="X262" s="254"/>
-      <c r="Y262" s="95"/>
-      <c r="Z262" s="96"/>
-      <c r="AA262" s="97"/>
-      <c r="AB262" s="97"/>
-      <c r="AC262" s="98"/>
-      <c r="AD262" s="290"/>
-      <c r="AE262" s="365"/>
-      <c r="AF262" s="301"/>
-      <c r="AG262" s="98"/>
-    </row>
-    <row r="263" spans="1:33" ht="15">
+      <c r="X262" s="325"/>
+      <c r="Y262" s="326"/>
+      <c r="Z262" s="327"/>
+      <c r="AA262" s="328"/>
+      <c r="AB262" s="328"/>
+      <c r="AC262" s="325"/>
+      <c r="AD262" s="329"/>
+      <c r="AE262" s="374"/>
+      <c r="AF262" s="372"/>
+      <c r="AG262" s="415"/>
+    </row>
+    <row r="263" spans="1:33" ht="60">
       <c r="A263" s="50">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="B263" s="246" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C263" s="456" t="s">
-        <v>1693</v>
+        <v>1683</v>
+      </c>
+      <c r="C263" s="455" t="s">
+        <v>1684</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E263" s="2"/>
+        <v>1685</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>1686</v>
+      </c>
       <c r="F263" s="3" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="G263" s="3"/>
-      <c r="H263" s="213" t="s">
-        <v>1695</v>
-      </c>
-      <c r="I263" s="4"/>
+      <c r="H263" s="4"/>
+      <c r="I263" s="4" t="s">
+        <v>1687</v>
+      </c>
       <c r="J263" s="5"/>
       <c r="K263" s="5" t="s">
-        <v>1696</v>
-      </c>
-      <c r="L263" s="2"/>
+        <v>1688</v>
+      </c>
+      <c r="L263" s="2" t="s">
+        <v>1689</v>
+      </c>
       <c r="M263" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="N263" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="O263" s="216" t="s">
-        <v>1697</v>
-      </c>
-      <c r="P263" s="160" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q263" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="R263" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="S263" s="164" t="s">
-        <v>1698</v>
-      </c>
-      <c r="T263" s="93"/>
-      <c r="U263" s="94"/>
-      <c r="V263" s="235" t="s">
-        <v>1699</v>
+        <v>80</v>
+      </c>
+      <c r="O263" s="116" t="s">
+        <v>1690</v>
+      </c>
+      <c r="P263" s="141" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q263" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="R263" s="119"/>
+      <c r="S263" s="120"/>
+      <c r="T263" s="120" t="s">
+        <v>1691</v>
+      </c>
+      <c r="U263" s="121"/>
+      <c r="V263" s="115" t="s">
+        <v>2070</v>
       </c>
       <c r="W263" s="314"/>
-      <c r="X263" s="249" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y263" s="225" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z263" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA263" s="24" t="s">
-        <v>2015</v>
-      </c>
-      <c r="AB263" s="4"/>
-      <c r="AC263" s="5"/>
-      <c r="AD263" s="235" t="s">
-        <v>1699</v>
-      </c>
-      <c r="AE263" s="319"/>
-      <c r="AF263" s="309"/>
-      <c r="AG263" s="309"/>
-    </row>
-    <row r="264" spans="1:33" ht="45">
+      <c r="X263" s="254"/>
+      <c r="Y263" s="95"/>
+      <c r="Z263" s="96"/>
+      <c r="AA263" s="97"/>
+      <c r="AB263" s="97"/>
+      <c r="AC263" s="98"/>
+      <c r="AD263" s="290"/>
+      <c r="AE263" s="365"/>
+      <c r="AF263" s="301"/>
+      <c r="AG263" s="98"/>
+    </row>
+    <row r="264" spans="1:33" ht="15">
       <c r="A264" s="50">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="B264" s="246" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C264" s="455" t="s">
-        <v>1701</v>
+        <v>1692</v>
+      </c>
+      <c r="C264" s="456" t="s">
+        <v>1693</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>1099</v>
-      </c>
+        <v>1694</v>
+      </c>
+      <c r="E264" s="2"/>
       <c r="F264" s="3" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="G264" s="3"/>
-      <c r="H264" s="4"/>
-      <c r="I264" s="4" t="s">
-        <v>1703</v>
-      </c>
+      <c r="H264" s="213" t="s">
+        <v>1695</v>
+      </c>
+      <c r="I264" s="4"/>
       <c r="J264" s="5"/>
       <c r="K264" s="5" t="s">
-        <v>1704</v>
-      </c>
-      <c r="L264" s="2" t="s">
-        <v>1705</v>
-      </c>
+        <v>1696</v>
+      </c>
+      <c r="L264" s="2"/>
       <c r="M264" s="6" t="s">
         <v>58</v>
       </c>
       <c r="N264" s="228" t="s">
-        <v>80</v>
-      </c>
-      <c r="O264" s="91" t="s">
-        <v>1706</v>
+        <v>227</v>
+      </c>
+      <c r="O264" s="216" t="s">
+        <v>1697</v>
       </c>
       <c r="P264" s="160" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Q264" s="112" t="s">
         <v>58</v>
@@ -33372,21 +33389,17 @@
       <c r="R264" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="S264" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="T264" s="93" t="s">
-        <v>1345</v>
-      </c>
+      <c r="S264" s="164" t="s">
+        <v>1698</v>
+      </c>
+      <c r="T264" s="93"/>
       <c r="U264" s="94"/>
       <c r="V264" s="235" t="s">
-        <v>1925</v>
-      </c>
-      <c r="W264" s="314" t="s">
-        <v>136</v>
-      </c>
+        <v>1699</v>
+      </c>
+      <c r="W264" s="314"/>
       <c r="X264" s="249" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Y264" s="225" t="s">
         <v>58</v>
@@ -33394,60 +33407,58 @@
       <c r="Z264" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="AA264" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB264" s="4" t="s">
-        <v>1345</v>
-      </c>
+      <c r="AA264" s="24" t="s">
+        <v>2015</v>
+      </c>
+      <c r="AB264" s="4"/>
       <c r="AC264" s="5"/>
       <c r="AD264" s="235" t="s">
-        <v>1925</v>
-      </c>
-      <c r="AE264" s="309" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF264" s="309" t="s">
-        <v>61</v>
-      </c>
+        <v>1699</v>
+      </c>
+      <c r="AE264" s="319"/>
+      <c r="AF264" s="309"/>
       <c r="AG264" s="309"/>
     </row>
-    <row r="265" spans="1:33" ht="16">
+    <row r="265" spans="1:33" ht="45">
       <c r="A265" s="50">
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="B265" s="246" t="s">
-        <v>1707</v>
+        <v>1700</v>
       </c>
       <c r="C265" s="455" t="s">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E265" s="2"/>
+        <v>1702</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>1099</v>
+      </c>
       <c r="F265" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G265" s="3"/>
       <c r="H265" s="4"/>
       <c r="I265" s="4" t="s">
-        <v>1710</v>
+        <v>1703</v>
       </c>
       <c r="J265" s="5"/>
       <c r="K265" s="5" t="s">
-        <v>1711</v>
-      </c>
-      <c r="L265" s="2"/>
+        <v>1704</v>
+      </c>
+      <c r="L265" s="2" t="s">
+        <v>1705</v>
+      </c>
       <c r="M265" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N265" s="228" t="s">
-        <v>1712</v>
+        <v>80</v>
       </c>
       <c r="O265" s="91" t="s">
-        <v>1713</v>
+        <v>1706</v>
       </c>
       <c r="P265" s="160" t="s">
         <v>295</v>
@@ -33462,13 +33473,15 @@
         <v>15</v>
       </c>
       <c r="T265" s="93" t="s">
-        <v>1335</v>
+        <v>1345</v>
       </c>
       <c r="U265" s="94"/>
       <c r="V265" s="235" t="s">
-        <v>1715</v>
-      </c>
-      <c r="W265" s="314"/>
+        <v>1925</v>
+      </c>
+      <c r="W265" s="314" t="s">
+        <v>136</v>
+      </c>
       <c r="X265" s="249" t="s">
         <v>295</v>
       </c>
@@ -33482,70 +33495,82 @@
         <v>15</v>
       </c>
       <c r="AB265" s="4" t="s">
-        <v>1335</v>
+        <v>1345</v>
       </c>
       <c r="AC265" s="5"/>
       <c r="AD265" s="235" t="s">
-        <v>1715</v>
+        <v>1925</v>
       </c>
       <c r="AE265" s="309" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF265" s="309" t="s">
         <v>61</v>
       </c>
-      <c r="AF265" s="309"/>
       <c r="AG265" s="309"/>
     </row>
-    <row r="266" spans="1:33" ht="30">
+    <row r="266" spans="1:33" ht="16">
       <c r="A266" s="50">
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
-      <c r="B266" s="11"/>
-      <c r="C266" s="451"/>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G266" s="9"/>
-      <c r="H266" s="10"/>
-      <c r="I266" s="10"/>
-      <c r="J266" s="11"/>
-      <c r="K266" s="11"/>
-      <c r="L266" s="8"/>
-      <c r="M266" s="12" t="s">
-        <v>15</v>
+      <c r="B266" s="246" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C266" s="455" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E266" s="2"/>
+      <c r="F266" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G266" s="3"/>
+      <c r="H266" s="4"/>
+      <c r="I266" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="L266" s="2"/>
+      <c r="M266" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="N266" s="228" t="s">
-        <v>80</v>
+        <v>1712</v>
       </c>
       <c r="O266" s="91" t="s">
-        <v>1714</v>
-      </c>
-      <c r="P266" s="59" t="s">
+        <v>1713</v>
+      </c>
+      <c r="P266" s="160" t="s">
         <v>295</v>
       </c>
-      <c r="Q266" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="R266" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="S266" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="T266" s="62" t="s">
-        <v>1355</v>
-      </c>
-      <c r="U266" s="63"/>
-      <c r="V266" s="391" t="s">
-        <v>1356</v>
-      </c>
-      <c r="W266" s="425"/>
+      <c r="Q266" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="R266" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="S266" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="T266" s="93" t="s">
+        <v>1335</v>
+      </c>
+      <c r="U266" s="94"/>
+      <c r="V266" s="235" t="s">
+        <v>1715</v>
+      </c>
+      <c r="W266" s="314"/>
       <c r="X266" s="249" t="s">
         <v>295</v>
       </c>
       <c r="Y266" s="225" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="Z266" s="222" t="s">
         <v>15</v>
@@ -33554,173 +33579,163 @@
         <v>15</v>
       </c>
       <c r="AB266" s="4" t="s">
-        <v>1355</v>
+        <v>1335</v>
       </c>
       <c r="AC266" s="5"/>
       <c r="AD266" s="235" t="s">
-        <v>1356</v>
+        <v>1715</v>
       </c>
       <c r="AE266" s="309" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="AF266" s="309"/>
       <c r="AG266" s="309"/>
     </row>
-    <row r="267" spans="1:33" ht="15">
+    <row r="267" spans="1:33" ht="30">
       <c r="A267" s="50">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
-      <c r="B267" s="246" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C267" s="456" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E267" s="2"/>
-      <c r="F267" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G267" s="3"/>
-      <c r="H267" s="23" t="s">
-        <v>1719</v>
-      </c>
-      <c r="I267" s="4"/>
-      <c r="J267" s="5"/>
-      <c r="K267" s="5" t="s">
-        <v>1720</v>
-      </c>
-      <c r="L267" s="2"/>
-      <c r="M267" s="6" t="s">
-        <v>58</v>
+      <c r="B267" s="11"/>
+      <c r="C267" s="451"/>
+      <c r="D267" s="8"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G267" s="9"/>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="8"/>
+      <c r="M267" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="N267" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="O267" s="216" t="s">
-        <v>1721</v>
-      </c>
-      <c r="P267" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q267" s="225" t="s">
-        <v>58</v>
-      </c>
-      <c r="R267" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="S267" s="24" t="s">
-        <v>1722</v>
-      </c>
-      <c r="T267" s="4"/>
-      <c r="U267" s="5"/>
-      <c r="V267" s="235" t="s">
-        <v>1723</v>
-      </c>
-      <c r="W267" s="314"/>
+        <v>80</v>
+      </c>
+      <c r="O267" s="91" t="s">
+        <v>1714</v>
+      </c>
+      <c r="P267" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q267" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="R267" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="S267" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="T267" s="62" t="s">
+        <v>1355</v>
+      </c>
+      <c r="U267" s="63"/>
+      <c r="V267" s="391" t="s">
+        <v>1356</v>
+      </c>
+      <c r="W267" s="425"/>
       <c r="X267" s="249" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="Y267" s="225" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Z267" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="AA267" s="24" t="s">
-        <v>1722</v>
-      </c>
-      <c r="AB267" s="4"/>
+      <c r="AA267" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB267" s="4" t="s">
+        <v>1355</v>
+      </c>
       <c r="AC267" s="5"/>
       <c r="AD267" s="235" t="s">
-        <v>1723</v>
-      </c>
-      <c r="AE267" s="309"/>
+        <v>1356</v>
+      </c>
+      <c r="AE267" s="309" t="s">
+        <v>21</v>
+      </c>
       <c r="AF267" s="309"/>
       <c r="AG267" s="309"/>
     </row>
-    <row r="268" spans="1:33" ht="16">
+    <row r="268" spans="1:33" ht="15">
       <c r="A268" s="50">
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="B268" s="246" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C268" s="455" t="s">
-        <v>1725</v>
+        <v>1716</v>
+      </c>
+      <c r="C268" s="456" t="s">
+        <v>1717</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1726</v>
+        <v>1718</v>
       </c>
       <c r="E268" s="2"/>
       <c r="F268" s="3" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="G268" s="3"/>
-      <c r="H268" s="4"/>
-      <c r="I268" s="4" t="s">
-        <v>1727</v>
-      </c>
+      <c r="H268" s="23" t="s">
+        <v>1719</v>
+      </c>
+      <c r="I268" s="4"/>
       <c r="J268" s="5"/>
       <c r="K268" s="5" t="s">
-        <v>1728</v>
+        <v>1720</v>
       </c>
       <c r="L268" s="2"/>
       <c r="M268" s="6" t="s">
         <v>58</v>
       </c>
       <c r="N268" s="228" t="s">
-        <v>31</v>
-      </c>
-      <c r="O268" s="91" t="s">
-        <v>1729</v>
+        <v>227</v>
+      </c>
+      <c r="O268" s="216" t="s">
+        <v>1721</v>
       </c>
       <c r="P268" s="21" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Q268" s="225" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="R268" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="S268" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T268" s="4" t="s">
-        <v>1730</v>
-      </c>
+      <c r="S268" s="24" t="s">
+        <v>1722</v>
+      </c>
+      <c r="T268" s="4"/>
       <c r="U268" s="5"/>
       <c r="V268" s="235" t="s">
-        <v>1731</v>
+        <v>1723</v>
       </c>
       <c r="W268" s="314"/>
       <c r="X268" s="249" t="s">
-        <v>295</v>
+        <v>233</v>
       </c>
       <c r="Y268" s="225" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="Z268" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="AA268" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB268" s="4" t="s">
-        <v>1730</v>
-      </c>
+      <c r="AA268" s="24" t="s">
+        <v>1722</v>
+      </c>
+      <c r="AB268" s="4"/>
       <c r="AC268" s="5"/>
       <c r="AD268" s="235" t="s">
-        <v>1731</v>
-      </c>
-      <c r="AE268" s="309" t="s">
-        <v>21</v>
-      </c>
+        <v>1723</v>
+      </c>
+      <c r="AE268" s="309"/>
       <c r="AF268" s="309"/>
       <c r="AG268" s="309"/>
     </row>
@@ -33730,46 +33745,42 @@
         <v>267</v>
       </c>
       <c r="B269" s="246" t="s">
-        <v>1732</v>
+        <v>1724</v>
       </c>
       <c r="C269" s="455" t="s">
-        <v>1733</v>
+        <v>1725</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1734</v>
-      </c>
-      <c r="E269" s="2" t="s">
-        <v>1735</v>
-      </c>
+        <v>1726</v>
+      </c>
+      <c r="E269" s="2"/>
       <c r="F269" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G269" s="3"/>
       <c r="H269" s="4"/>
       <c r="I269" s="4" t="s">
-        <v>1736</v>
+        <v>1727</v>
       </c>
       <c r="J269" s="5"/>
       <c r="K269" s="5" t="s">
-        <v>1737</v>
-      </c>
-      <c r="L269" s="2" t="s">
-        <v>1738</v>
-      </c>
+        <v>1728</v>
+      </c>
+      <c r="L269" s="2"/>
       <c r="M269" s="6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="N269" s="228" t="s">
         <v>31</v>
       </c>
       <c r="O269" s="91" t="s">
-        <v>1739</v>
+        <v>1729</v>
       </c>
       <c r="P269" s="21" t="s">
         <v>295</v>
       </c>
       <c r="Q269" s="225" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="R269" s="222" t="s">
         <v>15</v>
@@ -33778,18 +33789,18 @@
         <v>15</v>
       </c>
       <c r="T269" s="4" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="U269" s="5"/>
       <c r="V269" s="235" t="s">
-        <v>1740</v>
+        <v>1731</v>
       </c>
       <c r="W269" s="314"/>
       <c r="X269" s="249" t="s">
         <v>295</v>
       </c>
       <c r="Y269" s="225" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Z269" s="222" t="s">
         <v>15</v>
@@ -33798,18 +33809,16 @@
         <v>15</v>
       </c>
       <c r="AB269" s="4" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
       <c r="AC269" s="5"/>
       <c r="AD269" s="235" t="s">
-        <v>1740</v>
-      </c>
-      <c r="AE269" s="315" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF269" s="309" t="s">
-        <v>61</v>
-      </c>
+        <v>1731</v>
+      </c>
+      <c r="AE269" s="309" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF269" s="309"/>
       <c r="AG269" s="309"/>
     </row>
     <row r="270" spans="1:33" ht="16">
@@ -33818,65 +33827,87 @@
         <v>268</v>
       </c>
       <c r="B270" s="246" t="s">
-        <v>1741</v>
+        <v>1732</v>
       </c>
       <c r="C270" s="455" t="s">
-        <v>1742</v>
+        <v>1733</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1743</v>
-      </c>
-      <c r="E270" s="2"/>
+        <v>1734</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>1735</v>
+      </c>
       <c r="F270" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G270" s="3"/>
       <c r="H270" s="4"/>
       <c r="I270" s="4" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="J270" s="5"/>
       <c r="K270" s="5" t="s">
-        <v>1745</v>
-      </c>
-      <c r="L270" s="2"/>
+        <v>1737</v>
+      </c>
+      <c r="L270" s="2" t="s">
+        <v>1738</v>
+      </c>
       <c r="M270" s="6" t="s">
         <v>18</v>
       </c>
       <c r="N270" s="228" t="s">
-        <v>20</v>
-      </c>
-      <c r="O270" s="116" t="s">
-        <v>1746</v>
-      </c>
-      <c r="P270" s="141" t="s">
+        <v>31</v>
+      </c>
+      <c r="O270" s="91" t="s">
+        <v>1739</v>
+      </c>
+      <c r="P270" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="Q270" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="R270" s="119"/>
-      <c r="S270" s="120"/>
-      <c r="T270" s="120" t="s">
-        <v>1747</v>
-      </c>
-      <c r="U270" s="121"/>
-      <c r="V270" s="115" t="s">
-        <v>1748</v>
-      </c>
-      <c r="W270" s="314" t="s">
-        <v>136</v>
-      </c>
-      <c r="X270" s="254"/>
-      <c r="Y270" s="95"/>
-      <c r="Z270" s="96"/>
-      <c r="AA270" s="97"/>
-      <c r="AB270" s="97"/>
-      <c r="AC270" s="98"/>
-      <c r="AD270" s="290"/>
-      <c r="AE270" s="365"/>
-      <c r="AF270" s="301"/>
-      <c r="AG270" s="98"/>
+      <c r="Q270" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="R270" s="222" t="s">
+        <v>15</v>
+      </c>
+      <c r="S270" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T270" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="U270" s="5"/>
+      <c r="V270" s="235" t="s">
+        <v>1740</v>
+      </c>
+      <c r="W270" s="314"/>
+      <c r="X270" s="249" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y270" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z270" s="222" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA270" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB270" s="4" t="s">
+        <v>1736</v>
+      </c>
+      <c r="AC270" s="5"/>
+      <c r="AD270" s="235" t="s">
+        <v>1740</v>
+      </c>
+      <c r="AE270" s="315" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF270" s="309" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG270" s="309"/>
     </row>
     <row r="271" spans="1:33" ht="16">
       <c r="A271" s="50">
@@ -33884,13 +33915,13 @@
         <v>269</v>
       </c>
       <c r="B271" s="246" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="C271" s="455" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="E271" s="2"/>
       <c r="F271" s="3" t="s">
@@ -33899,11 +33930,11 @@
       <c r="G271" s="3"/>
       <c r="H271" s="4"/>
       <c r="I271" s="4" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="J271" s="5"/>
       <c r="K271" s="5" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="L271" s="2"/>
       <c r="M271" s="6" t="s">
@@ -33913,7 +33944,7 @@
         <v>20</v>
       </c>
       <c r="O271" s="116" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="P271" s="141" t="s">
         <v>295</v>
@@ -33924,11 +33955,11 @@
       <c r="R271" s="119"/>
       <c r="S271" s="120"/>
       <c r="T271" s="120" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="U271" s="121"/>
       <c r="V271" s="115" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="W271" s="314" t="s">
         <v>136</v>
@@ -33950,13 +33981,13 @@
         <v>270</v>
       </c>
       <c r="B272" s="246" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="C272" s="455" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="E272" s="2"/>
       <c r="F272" s="3" t="s">
@@ -33965,11 +33996,11 @@
       <c r="G272" s="3"/>
       <c r="H272" s="4"/>
       <c r="I272" s="4" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="J272" s="5"/>
       <c r="K272" s="5" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="L272" s="2"/>
       <c r="M272" s="6" t="s">
@@ -33978,55 +34009,37 @@
       <c r="N272" s="228" t="s">
         <v>20</v>
       </c>
-      <c r="O272" s="91" t="s">
-        <v>1762</v>
-      </c>
-      <c r="P272" s="160" t="s">
+      <c r="O272" s="116" t="s">
+        <v>1754</v>
+      </c>
+      <c r="P272" s="141" t="s">
         <v>295</v>
       </c>
-      <c r="Q272" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="R272" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="S272" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="T272" s="93" t="s">
-        <v>1763</v>
-      </c>
-      <c r="U272" s="94"/>
-      <c r="V272" s="235" t="s">
-        <v>1764</v>
+      <c r="Q272" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="R272" s="119"/>
+      <c r="S272" s="120"/>
+      <c r="T272" s="120" t="s">
+        <v>1755</v>
+      </c>
+      <c r="U272" s="121"/>
+      <c r="V272" s="115" t="s">
+        <v>1756</v>
       </c>
       <c r="W272" s="314" t="s">
         <v>136</v>
       </c>
-      <c r="X272" s="249" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y272" s="225" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z272" s="222" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA272" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB272" s="4" t="s">
-        <v>1763</v>
-      </c>
-      <c r="AC272" s="5"/>
-      <c r="AD272" s="235" t="s">
-        <v>1764</v>
-      </c>
-      <c r="AE272" s="305"/>
-      <c r="AF272" s="316"/>
-      <c r="AG272" s="309" t="s">
-        <v>89</v>
-      </c>
+      <c r="X272" s="254"/>
+      <c r="Y272" s="95"/>
+      <c r="Z272" s="96"/>
+      <c r="AA272" s="97"/>
+      <c r="AB272" s="97"/>
+      <c r="AC272" s="98"/>
+      <c r="AD272" s="290"/>
+      <c r="AE272" s="365"/>
+      <c r="AF272" s="301"/>
+      <c r="AG272" s="98"/>
     </row>
     <row r="273" spans="1:39" ht="16">
       <c r="A273" s="50">
@@ -34034,131 +34047,143 @@
         <v>271</v>
       </c>
       <c r="B273" s="246" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="C273" s="455" t="s">
-        <v>1456</v>
+        <v>1758</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>1767</v>
-      </c>
+        <v>1759</v>
+      </c>
+      <c r="E273" s="2"/>
       <c r="F273" s="3" t="s">
-        <v>1769</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H273" s="4" t="s">
-        <v>1769</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G273" s="3"/>
+      <c r="H273" s="4"/>
       <c r="I273" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J273" s="5" t="s">
-        <v>1769</v>
-      </c>
+        <v>1760</v>
+      </c>
+      <c r="J273" s="5"/>
       <c r="K273" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L273" s="2" t="s">
-        <v>1769</v>
-      </c>
+        <v>1761</v>
+      </c>
+      <c r="L273" s="2"/>
       <c r="M273" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N273" s="228"/>
-      <c r="O273" s="116" t="s">
-        <v>1768</v>
-      </c>
-      <c r="P273" s="141" t="s">
-        <v>1769</v>
-      </c>
-      <c r="Q273" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="R273" s="119"/>
-      <c r="S273" s="120"/>
-      <c r="T273" s="120"/>
-      <c r="U273" s="121" t="s">
-        <v>1459</v>
-      </c>
-      <c r="V273" s="115" t="s">
-        <v>15</v>
+      <c r="N273" s="228" t="s">
+        <v>20</v>
+      </c>
+      <c r="O273" s="91" t="s">
+        <v>1762</v>
+      </c>
+      <c r="P273" s="160" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q273" s="112" t="s">
+        <v>58</v>
+      </c>
+      <c r="R273" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="S273" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="T273" s="93" t="s">
+        <v>1763</v>
+      </c>
+      <c r="U273" s="94"/>
+      <c r="V273" s="235" t="s">
+        <v>1764</v>
       </c>
       <c r="W273" s="314" t="s">
         <v>136</v>
       </c>
-      <c r="X273" s="254"/>
-      <c r="Y273" s="95"/>
-      <c r="Z273" s="96"/>
-      <c r="AA273" s="97"/>
-      <c r="AB273" s="97"/>
-      <c r="AC273" s="98"/>
-      <c r="AD273" s="290" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE273" s="365"/>
-      <c r="AF273" s="301"/>
-      <c r="AG273" s="98"/>
-    </row>
-    <row r="274" spans="1:39" ht="45">
+      <c r="X273" s="249" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y273" s="225" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z273" s="222" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA273" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB273" s="4" t="s">
+        <v>1763</v>
+      </c>
+      <c r="AC273" s="5"/>
+      <c r="AD273" s="235" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AE273" s="305"/>
+      <c r="AF273" s="316"/>
+      <c r="AG273" s="309" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="274" spans="1:39" ht="16">
       <c r="A274" s="50">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="B274" s="246" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="C274" s="455" t="s">
-        <v>1771</v>
+        <v>1456</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G274" s="3"/>
-      <c r="H274" s="4"/>
+        <v>1769</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H274" s="4" t="s">
+        <v>1769</v>
+      </c>
       <c r="I274" s="4" t="s">
-        <v>1774</v>
-      </c>
-      <c r="J274" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="J274" s="5" t="s">
+        <v>1769</v>
+      </c>
       <c r="K274" s="5" t="s">
-        <v>1775</v>
+        <v>18</v>
       </c>
       <c r="L274" s="2" t="s">
-        <v>1776</v>
+        <v>1769</v>
       </c>
       <c r="M274" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="N274" s="228" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N274" s="228"/>
       <c r="O274" s="116" t="s">
-        <v>1777</v>
+        <v>1768</v>
       </c>
       <c r="P274" s="141" t="s">
-        <v>295</v>
+        <v>1769</v>
       </c>
       <c r="Q274" s="118" t="s">
         <v>18</v>
       </c>
       <c r="R274" s="119"/>
       <c r="S274" s="120"/>
-      <c r="T274" s="120" t="s">
-        <v>1774</v>
-      </c>
-      <c r="U274" s="121"/>
+      <c r="T274" s="120"/>
+      <c r="U274" s="121" t="s">
+        <v>1459</v>
+      </c>
       <c r="V274" s="115" t="s">
-        <v>1778</v>
+        <v>15</v>
       </c>
       <c r="W274" s="314" t="s">
         <v>136</v>
@@ -34169,55 +34194,53 @@
       <c r="AA274" s="97"/>
       <c r="AB274" s="97"/>
       <c r="AC274" s="98"/>
-      <c r="AD274" s="290"/>
+      <c r="AD274" s="290" t="s">
+        <v>15</v>
+      </c>
       <c r="AE274" s="365"/>
       <c r="AF274" s="301"/>
       <c r="AG274" s="98"/>
     </row>
-    <row r="275" spans="1:39" ht="30">
+    <row r="275" spans="1:39" ht="45">
       <c r="A275" s="50">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="B275" s="246" t="s">
-        <v>1779</v>
+        <v>1770</v>
       </c>
       <c r="C275" s="455" t="s">
-        <v>1456</v>
+        <v>1771</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F275" s="220" t="s">
-        <v>1920</v>
-      </c>
-      <c r="G275" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H275" s="4" t="s">
+        <v>1773</v>
+      </c>
+      <c r="F275" s="3" t="s">
         <v>295</v>
       </c>
+      <c r="G275" s="3"/>
+      <c r="H275" s="4"/>
       <c r="I275" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J275" s="5" t="s">
-        <v>295</v>
-      </c>
+        <v>1774</v>
+      </c>
+      <c r="J275" s="5"/>
       <c r="K275" s="5" t="s">
-        <v>18</v>
+        <v>1775</v>
       </c>
       <c r="L275" s="2" t="s">
-        <v>295</v>
+        <v>1776</v>
       </c>
       <c r="M275" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N275" s="228"/>
+        <v>224</v>
+      </c>
+      <c r="N275" s="228" t="s">
+        <v>20</v>
+      </c>
       <c r="O275" s="116" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
       <c r="P275" s="141" t="s">
         <v>295</v>
@@ -34227,14 +34250,16 @@
       </c>
       <c r="R275" s="119"/>
       <c r="S275" s="120"/>
-      <c r="T275" s="120"/>
-      <c r="U275" s="121" t="s">
-        <v>1459</v>
-      </c>
+      <c r="T275" s="120" t="s">
+        <v>1774</v>
+      </c>
+      <c r="U275" s="121"/>
       <c r="V275" s="115" t="s">
-        <v>1783</v>
-      </c>
-      <c r="W275" s="314"/>
+        <v>1778</v>
+      </c>
+      <c r="W275" s="314" t="s">
+        <v>136</v>
+      </c>
       <c r="X275" s="254"/>
       <c r="Y275" s="95"/>
       <c r="Z275" s="96"/>
@@ -34246,21 +34271,23 @@
       <c r="AF275" s="301"/>
       <c r="AG275" s="98"/>
     </row>
-    <row r="276" spans="1:39" ht="15">
+    <row r="276" spans="1:39" ht="30">
       <c r="A276" s="50">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="B276" s="246" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="C276" s="455" t="s">
-        <v>1785</v>
+        <v>1456</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E276" s="2"/>
+        <v>1780</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>1781</v>
+      </c>
       <c r="F276" s="220" t="s">
         <v>1920</v>
       </c>
@@ -34285,11 +34312,9 @@
       <c r="M276" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N276" s="228" t="s">
-        <v>80</v>
-      </c>
+      <c r="N276" s="228"/>
       <c r="O276" s="116" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="P276" s="141" t="s">
         <v>295</v>
@@ -34301,13 +34326,13 @@
       <c r="S276" s="120"/>
       <c r="T276" s="120"/>
       <c r="U276" s="121" t="s">
-        <v>1787</v>
+        <v>1459</v>
       </c>
       <c r="V276" s="115" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="W276" s="314"/>
-      <c r="X276" s="98"/>
+      <c r="X276" s="254"/>
       <c r="Y276" s="95"/>
       <c r="Z276" s="96"/>
       <c r="AA276" s="97"/>
@@ -34324,31 +34349,35 @@
         <v>275</v>
       </c>
       <c r="B277" s="246" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="C277" s="455" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1792</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="F277" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E277" s="2"/>
+      <c r="F277" s="220" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H277" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G277" s="3"/>
-      <c r="H277" s="4"/>
       <c r="I277" s="4" t="s">
-        <v>1793</v>
-      </c>
-      <c r="J277" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="J277" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="K277" s="5" t="s">
-        <v>1794</v>
+        <v>18</v>
       </c>
       <c r="L277" s="2" t="s">
-        <v>597</v>
+        <v>295</v>
       </c>
       <c r="M277" s="6" t="s">
         <v>18</v>
@@ -34357,7 +34386,7 @@
         <v>80</v>
       </c>
       <c r="O277" s="116" t="s">
-        <v>1795</v>
+        <v>1788</v>
       </c>
       <c r="P277" s="141" t="s">
         <v>295</v>
@@ -34367,15 +34396,15 @@
       </c>
       <c r="R277" s="119"/>
       <c r="S277" s="120"/>
-      <c r="T277" s="120" t="s">
-        <v>1796</v>
-      </c>
-      <c r="U277" s="121"/>
+      <c r="T277" s="120"/>
+      <c r="U277" s="121" t="s">
+        <v>1787</v>
+      </c>
       <c r="V277" s="115" t="s">
-        <v>1797</v>
+        <v>1789</v>
       </c>
       <c r="W277" s="314"/>
-      <c r="X277" s="254"/>
+      <c r="X277" s="98"/>
       <c r="Y277" s="95"/>
       <c r="Z277" s="96"/>
       <c r="AA277" s="97"/>
@@ -34392,36 +34421,40 @@
         <v>276</v>
       </c>
       <c r="B278" s="246" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C278" s="456" t="s">
-        <v>1799</v>
+        <v>1790</v>
+      </c>
+      <c r="C278" s="455" t="s">
+        <v>1791</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E278" s="2"/>
+        <v>1792</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>595</v>
+      </c>
       <c r="F278" s="3" t="s">
         <v>295</v>
       </c>
       <c r="G278" s="3"/>
       <c r="H278" s="4"/>
-      <c r="I278" s="23" t="s">
-        <v>1801</v>
+      <c r="I278" s="4" t="s">
+        <v>1793</v>
       </c>
       <c r="J278" s="5"/>
       <c r="K278" s="5" t="s">
-        <v>1802</v>
-      </c>
-      <c r="L278" s="2"/>
+        <v>1794</v>
+      </c>
+      <c r="L278" s="2" t="s">
+        <v>597</v>
+      </c>
       <c r="M278" s="6" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="N278" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="O278" s="218" t="s">
-        <v>1803</v>
+        <v>80</v>
+      </c>
+      <c r="O278" s="116" t="s">
+        <v>1795</v>
       </c>
       <c r="P278" s="141" t="s">
         <v>295</v>
@@ -34431,21 +34464,21 @@
       </c>
       <c r="R278" s="119"/>
       <c r="S278" s="120"/>
-      <c r="T278" s="165" t="s">
-        <v>1801</v>
+      <c r="T278" s="120" t="s">
+        <v>1796</v>
       </c>
       <c r="U278" s="121"/>
-      <c r="V278" s="245" t="s">
-        <v>1804</v>
+      <c r="V278" s="115" t="s">
+        <v>1797</v>
       </c>
       <c r="W278" s="314"/>
       <c r="X278" s="254"/>
       <c r="Y278" s="95"/>
       <c r="Z278" s="96"/>
       <c r="AA278" s="97"/>
-      <c r="AB278" s="100"/>
+      <c r="AB278" s="97"/>
       <c r="AC278" s="98"/>
-      <c r="AD278" s="291"/>
+      <c r="AD278" s="290"/>
       <c r="AE278" s="365"/>
       <c r="AF278" s="301"/>
       <c r="AG278" s="98"/>
@@ -34456,64 +34489,60 @@
         <v>277</v>
       </c>
       <c r="B279" s="246" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C279" s="460" t="s">
-        <v>1806</v>
+        <v>1798</v>
+      </c>
+      <c r="C279" s="456" t="s">
+        <v>1799</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>1807</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>1808</v>
-      </c>
+        <v>1800</v>
+      </c>
+      <c r="E279" s="2"/>
       <c r="F279" s="3" t="s">
-        <v>1769</v>
+        <v>295</v>
       </c>
       <c r="G279" s="3"/>
       <c r="H279" s="4"/>
-      <c r="I279" s="4"/>
-      <c r="J279" s="5" t="s">
-        <v>1809</v>
-      </c>
+      <c r="I279" s="23" t="s">
+        <v>1801</v>
+      </c>
+      <c r="J279" s="5"/>
       <c r="K279" s="5" t="s">
-        <v>1810</v>
-      </c>
-      <c r="L279" s="2" t="s">
-        <v>1811</v>
-      </c>
+        <v>1802</v>
+      </c>
+      <c r="L279" s="2"/>
       <c r="M279" s="6" t="s">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="N279" s="228" t="s">
-        <v>31</v>
-      </c>
-      <c r="O279" s="116" t="s">
-        <v>1812</v>
+        <v>227</v>
+      </c>
+      <c r="O279" s="218" t="s">
+        <v>1803</v>
       </c>
       <c r="P279" s="141" t="s">
-        <v>1769</v>
+        <v>295</v>
       </c>
       <c r="Q279" s="118" t="s">
         <v>18</v>
       </c>
       <c r="R279" s="119"/>
       <c r="S279" s="120"/>
-      <c r="T279" s="120"/>
-      <c r="U279" s="121" t="s">
-        <v>1809</v>
-      </c>
-      <c r="V279" s="115" t="s">
-        <v>1813</v>
+      <c r="T279" s="165" t="s">
+        <v>1801</v>
+      </c>
+      <c r="U279" s="121"/>
+      <c r="V279" s="245" t="s">
+        <v>1804</v>
       </c>
       <c r="W279" s="314"/>
       <c r="X279" s="254"/>
       <c r="Y279" s="95"/>
       <c r="Z279" s="96"/>
       <c r="AA279" s="97"/>
-      <c r="AB279" s="97"/>
+      <c r="AB279" s="100"/>
       <c r="AC279" s="98"/>
-      <c r="AD279" s="290"/>
+      <c r="AD279" s="291"/>
       <c r="AE279" s="365"/>
       <c r="AF279" s="301"/>
       <c r="AG279" s="98"/>
@@ -34524,16 +34553,16 @@
         <v>278</v>
       </c>
       <c r="B280" s="246" t="s">
-        <v>1814</v>
-      </c>
-      <c r="C280" s="455" t="s">
-        <v>1815</v>
+        <v>1805</v>
+      </c>
+      <c r="C280" s="460" t="s">
+        <v>1806</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>1816</v>
+        <v>1807</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1817</v>
+        <v>1808</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>1769</v>
@@ -34542,13 +34571,13 @@
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
       <c r="J280" s="5" t="s">
-        <v>1818</v>
+        <v>1809</v>
       </c>
       <c r="K280" s="5" t="s">
-        <v>1819</v>
+        <v>1810</v>
       </c>
       <c r="L280" s="2" t="s">
-        <v>1820</v>
+        <v>1811</v>
       </c>
       <c r="M280" s="6" t="s">
         <v>58</v>
@@ -34557,7 +34586,7 @@
         <v>31</v>
       </c>
       <c r="O280" s="116" t="s">
-        <v>1821</v>
+        <v>1812</v>
       </c>
       <c r="P280" s="141" t="s">
         <v>1769</v>
@@ -34569,10 +34598,10 @@
       <c r="S280" s="120"/>
       <c r="T280" s="120"/>
       <c r="U280" s="121" t="s">
-        <v>1818</v>
+        <v>1809</v>
       </c>
       <c r="V280" s="115" t="s">
-        <v>1822</v>
+        <v>1813</v>
       </c>
       <c r="W280" s="314"/>
       <c r="X280" s="254"/>
@@ -34586,71 +34615,117 @@
       <c r="AF280" s="301"/>
       <c r="AG280" s="98"/>
     </row>
-    <row r="281" spans="1:39">
-      <c r="M281" s="51"/>
-      <c r="N281" s="230"/>
-      <c r="O281" s="51" t="s">
-        <v>2033</v>
-      </c>
-      <c r="P281" s="51"/>
-      <c r="Q281" s="51"/>
-      <c r="R281" s="51"/>
-      <c r="S281" s="51"/>
-      <c r="T281" s="51"/>
-      <c r="U281" s="377"/>
-      <c r="V281" s="52"/>
-      <c r="W281" s="7"/>
-      <c r="AA281" s="229"/>
-      <c r="AB281" s="132"/>
-      <c r="AC281" s="227"/>
-      <c r="AD281" s="413"/>
-      <c r="AE281" s="411"/>
-      <c r="AF281" s="411"/>
-      <c r="AG281" s="411"/>
-      <c r="AH281" s="283"/>
-      <c r="AI281" s="229"/>
-      <c r="AJ281" s="132"/>
-      <c r="AK281" s="324"/>
-      <c r="AL281" s="324"/>
-      <c r="AM281" s="214"/>
+    <row r="281" spans="1:39" ht="15">
+      <c r="A281" s="50">
+        <f t="shared" si="4"/>
+        <v>279</v>
+      </c>
+      <c r="B281" s="246" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C281" s="455" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G281" s="3"/>
+      <c r="H281" s="4"/>
+      <c r="I281" s="4"/>
+      <c r="J281" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="K281" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L281" s="2" t="s">
+        <v>1820</v>
+      </c>
+      <c r="M281" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N281" s="228" t="s">
+        <v>31</v>
+      </c>
+      <c r="O281" s="116" t="s">
+        <v>1821</v>
+      </c>
+      <c r="P281" s="141" t="s">
+        <v>1769</v>
+      </c>
+      <c r="Q281" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="R281" s="119"/>
+      <c r="S281" s="120"/>
+      <c r="T281" s="120"/>
+      <c r="U281" s="121" t="s">
+        <v>1818</v>
+      </c>
+      <c r="V281" s="115" t="s">
+        <v>1822</v>
+      </c>
+      <c r="W281" s="314"/>
+      <c r="X281" s="254"/>
+      <c r="Y281" s="95"/>
+      <c r="Z281" s="96"/>
+      <c r="AA281" s="97"/>
+      <c r="AB281" s="97"/>
+      <c r="AC281" s="98"/>
+      <c r="AD281" s="290"/>
+      <c r="AE281" s="365"/>
+      <c r="AF281" s="301"/>
+      <c r="AG281" s="98"/>
     </row>
     <row r="282" spans="1:39">
       <c r="M282" s="51"/>
-      <c r="O282" s="508" t="s">
+      <c r="N282" s="230"/>
+      <c r="O282" s="51" t="s">
+        <v>2033</v>
+      </c>
+      <c r="P282" s="51"/>
+      <c r="Q282" s="51"/>
+      <c r="R282" s="51"/>
+      <c r="S282" s="51"/>
+      <c r="T282" s="51"/>
+      <c r="U282" s="377"/>
+      <c r="V282" s="52"/>
+      <c r="W282" s="7"/>
+      <c r="AA282" s="229"/>
+      <c r="AB282" s="132"/>
+      <c r="AC282" s="227"/>
+      <c r="AD282" s="413"/>
+      <c r="AE282" s="411"/>
+      <c r="AF282" s="411"/>
+      <c r="AG282" s="411"/>
+      <c r="AH282" s="283"/>
+      <c r="AI282" s="229"/>
+      <c r="AJ282" s="132"/>
+      <c r="AK282" s="324"/>
+      <c r="AL282" s="324"/>
+      <c r="AM282" s="214"/>
+    </row>
+    <row r="283" spans="1:39">
+      <c r="M283" s="51"/>
+      <c r="O283" s="503" t="s">
         <v>1995</v>
       </c>
-      <c r="P282" s="509"/>
-      <c r="Q282" s="509"/>
-      <c r="R282" s="509"/>
-      <c r="S282" s="509"/>
-      <c r="T282" s="510"/>
-      <c r="U282" s="232" t="s">
+      <c r="P283" s="504"/>
+      <c r="Q283" s="504"/>
+      <c r="R283" s="504"/>
+      <c r="S283" s="504"/>
+      <c r="T283" s="505"/>
+      <c r="U283" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="V282" s="443" t="s">
+      <c r="V283" s="443" t="s">
         <v>1823</v>
-      </c>
-      <c r="W282" s="428"/>
-      <c r="X282" s="444"/>
-      <c r="Y282" s="444"/>
-      <c r="Z282" s="444"/>
-      <c r="AA282" s="444"/>
-      <c r="AB282" s="445"/>
-      <c r="AC282" s="284"/>
-    </row>
-    <row r="283" spans="1:39" ht="15">
-      <c r="M283" s="51"/>
-      <c r="O283" s="511"/>
-      <c r="P283" s="512"/>
-      <c r="Q283" s="512"/>
-      <c r="R283" s="512"/>
-      <c r="S283" s="512"/>
-      <c r="T283" s="513"/>
-      <c r="U283" s="420" t="s">
-        <v>21</v>
-      </c>
-      <c r="V283" s="443" t="s">
-        <v>1824</v>
       </c>
       <c r="W283" s="428"/>
       <c r="X283" s="444"/>
@@ -34660,21 +34735,19 @@
       <c r="AB283" s="445"/>
       <c r="AC283" s="284"/>
     </row>
-    <row r="284" spans="1:39">
+    <row r="284" spans="1:39" ht="15">
       <c r="M284" s="51"/>
-      <c r="O284" s="514" t="s">
-        <v>1996</v>
-      </c>
-      <c r="P284" s="515"/>
-      <c r="Q284" s="515"/>
-      <c r="R284" s="515"/>
-      <c r="S284" s="515"/>
-      <c r="T284" s="516"/>
-      <c r="U284" s="232" t="s">
-        <v>89</v>
+      <c r="O284" s="506"/>
+      <c r="P284" s="507"/>
+      <c r="Q284" s="507"/>
+      <c r="R284" s="507"/>
+      <c r="S284" s="507"/>
+      <c r="T284" s="508"/>
+      <c r="U284" s="420" t="s">
+        <v>21</v>
       </c>
       <c r="V284" s="443" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="W284" s="428"/>
       <c r="X284" s="444"/>
@@ -34686,17 +34759,19 @@
     </row>
     <row r="285" spans="1:39">
       <c r="M285" s="51"/>
-      <c r="O285" s="517"/>
-      <c r="P285" s="492"/>
-      <c r="Q285" s="492"/>
-      <c r="R285" s="492"/>
-      <c r="S285" s="492"/>
-      <c r="T285" s="518"/>
+      <c r="O285" s="509" t="s">
+        <v>1996</v>
+      </c>
+      <c r="P285" s="510"/>
+      <c r="Q285" s="510"/>
+      <c r="R285" s="510"/>
+      <c r="S285" s="510"/>
+      <c r="T285" s="511"/>
       <c r="U285" s="232" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="V285" s="443" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="W285" s="428"/>
       <c r="X285" s="444"/>
@@ -34706,21 +34781,19 @@
       <c r="AB285" s="445"/>
       <c r="AC285" s="284"/>
     </row>
-    <row r="286" spans="1:39" ht="15">
+    <row r="286" spans="1:39">
       <c r="M286" s="51"/>
-      <c r="O286" s="496" t="s">
-        <v>2001</v>
-      </c>
-      <c r="P286" s="497"/>
-      <c r="Q286" s="497"/>
-      <c r="R286" s="497"/>
-      <c r="S286" s="497"/>
-      <c r="T286" s="528"/>
-      <c r="U286" s="420" t="s">
-        <v>61</v>
+      <c r="O286" s="512"/>
+      <c r="P286" s="513"/>
+      <c r="Q286" s="513"/>
+      <c r="R286" s="513"/>
+      <c r="S286" s="513"/>
+      <c r="T286" s="514"/>
+      <c r="U286" s="232" t="s">
+        <v>164</v>
       </c>
       <c r="V286" s="443" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="W286" s="428"/>
       <c r="X286" s="444"/>
@@ -34730,21 +34803,21 @@
       <c r="AB286" s="445"/>
       <c r="AC286" s="284"/>
     </row>
-    <row r="287" spans="1:39">
+    <row r="287" spans="1:39" ht="15">
       <c r="M287" s="51"/>
-      <c r="O287" s="496" t="s">
-        <v>1997</v>
-      </c>
-      <c r="P287" s="497"/>
-      <c r="Q287" s="497"/>
-      <c r="R287" s="497"/>
-      <c r="S287" s="497"/>
-      <c r="T287" s="528"/>
-      <c r="U287" s="64" t="s">
-        <v>136</v>
+      <c r="O287" s="500" t="s">
+        <v>2001</v>
+      </c>
+      <c r="P287" s="501"/>
+      <c r="Q287" s="501"/>
+      <c r="R287" s="501"/>
+      <c r="S287" s="501"/>
+      <c r="T287" s="524"/>
+      <c r="U287" s="420" t="s">
+        <v>61</v>
       </c>
       <c r="V287" s="443" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="W287" s="428"/>
       <c r="X287" s="444"/>
@@ -34754,46 +34827,45 @@
       <c r="AB287" s="445"/>
       <c r="AC287" s="284"/>
     </row>
-    <row r="288" spans="1:39" ht="15">
+    <row r="288" spans="1:39">
       <c r="M288" s="51"/>
-      <c r="O288" s="519" t="s">
-        <v>1843</v>
-      </c>
-      <c r="P288" s="520"/>
-      <c r="Q288" s="520"/>
-      <c r="R288" s="520"/>
-      <c r="S288" s="520"/>
-      <c r="T288" s="521"/>
-      <c r="U288" s="57" t="s">
-        <v>1839</v>
-      </c>
-      <c r="V288" s="446" t="s">
-        <v>1844</v>
-      </c>
-      <c r="W288" s="447"/>
-      <c r="X288" s="447"/>
-      <c r="Y288" s="447"/>
-      <c r="Z288" s="447"/>
-      <c r="AA288" s="447"/>
-      <c r="AB288" s="418"/>
-      <c r="AC288" s="229"/>
-      <c r="AD288" s="412"/>
-      <c r="AF288" s="229"/>
-      <c r="AG288" s="229"/>
+      <c r="O288" s="500" t="s">
+        <v>1997</v>
+      </c>
+      <c r="P288" s="501"/>
+      <c r="Q288" s="501"/>
+      <c r="R288" s="501"/>
+      <c r="S288" s="501"/>
+      <c r="T288" s="524"/>
+      <c r="U288" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="V288" s="443" t="s">
+        <v>1828</v>
+      </c>
+      <c r="W288" s="428"/>
+      <c r="X288" s="444"/>
+      <c r="Y288" s="444"/>
+      <c r="Z288" s="444"/>
+      <c r="AA288" s="444"/>
+      <c r="AB288" s="445"/>
+      <c r="AC288" s="284"/>
     </row>
     <row r="289" spans="13:33" ht="15">
       <c r="M289" s="51"/>
-      <c r="O289" s="522"/>
-      <c r="P289" s="523"/>
-      <c r="Q289" s="523"/>
-      <c r="R289" s="523"/>
-      <c r="S289" s="523"/>
-      <c r="T289" s="524"/>
-      <c r="U289" s="1" t="s">
-        <v>1840</v>
+      <c r="O289" s="515" t="s">
+        <v>1843</v>
+      </c>
+      <c r="P289" s="516"/>
+      <c r="Q289" s="516"/>
+      <c r="R289" s="516"/>
+      <c r="S289" s="516"/>
+      <c r="T289" s="517"/>
+      <c r="U289" s="57" t="s">
+        <v>1839</v>
       </c>
       <c r="V289" s="446" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="W289" s="447"/>
       <c r="X289" s="447"/>
@@ -34808,17 +34880,17 @@
     </row>
     <row r="290" spans="13:33" ht="15">
       <c r="M290" s="51"/>
-      <c r="O290" s="522"/>
-      <c r="P290" s="523"/>
-      <c r="Q290" s="523"/>
-      <c r="R290" s="523"/>
-      <c r="S290" s="523"/>
-      <c r="T290" s="524"/>
-      <c r="U290" s="58" t="s">
-        <v>1841</v>
+      <c r="O290" s="518"/>
+      <c r="P290" s="519"/>
+      <c r="Q290" s="519"/>
+      <c r="R290" s="519"/>
+      <c r="S290" s="519"/>
+      <c r="T290" s="520"/>
+      <c r="U290" s="1" t="s">
+        <v>1840</v>
       </c>
       <c r="V290" s="446" t="s">
-        <v>2044</v>
+        <v>1845</v>
       </c>
       <c r="W290" s="447"/>
       <c r="X290" s="447"/>
@@ -34833,17 +34905,17 @@
     </row>
     <row r="291" spans="13:33" ht="15">
       <c r="M291" s="51"/>
-      <c r="O291" s="525"/>
-      <c r="P291" s="526"/>
-      <c r="Q291" s="526"/>
-      <c r="R291" s="526"/>
-      <c r="S291" s="526"/>
-      <c r="T291" s="527"/>
-      <c r="U291" s="378" t="s">
-        <v>1842</v>
+      <c r="O291" s="518"/>
+      <c r="P291" s="519"/>
+      <c r="Q291" s="519"/>
+      <c r="R291" s="519"/>
+      <c r="S291" s="519"/>
+      <c r="T291" s="520"/>
+      <c r="U291" s="58" t="s">
+        <v>1841</v>
       </c>
       <c r="V291" s="446" t="s">
-        <v>1846</v>
+        <v>2044</v>
       </c>
       <c r="W291" s="447"/>
       <c r="X291" s="447"/>
@@ -34858,40 +34930,52 @@
     </row>
     <row r="292" spans="13:33" ht="15">
       <c r="M292" s="51"/>
-      <c r="O292" s="496" t="s">
+      <c r="O292" s="521"/>
+      <c r="P292" s="522"/>
+      <c r="Q292" s="522"/>
+      <c r="R292" s="522"/>
+      <c r="S292" s="522"/>
+      <c r="T292" s="523"/>
+      <c r="U292" s="378" t="s">
+        <v>1842</v>
+      </c>
+      <c r="V292" s="446" t="s">
+        <v>1846</v>
+      </c>
+      <c r="W292" s="447"/>
+      <c r="X292" s="447"/>
+      <c r="Y292" s="447"/>
+      <c r="Z292" s="447"/>
+      <c r="AA292" s="447"/>
+      <c r="AB292" s="418"/>
+      <c r="AC292" s="229"/>
+      <c r="AD292" s="412"/>
+      <c r="AF292" s="229"/>
+      <c r="AG292" s="229"/>
+    </row>
+    <row r="293" spans="13:33" ht="15">
+      <c r="M293" s="51"/>
+      <c r="O293" s="500" t="s">
         <v>2000</v>
       </c>
-      <c r="P292" s="497"/>
-      <c r="Q292" s="497"/>
-      <c r="R292" s="497"/>
-      <c r="S292" s="497"/>
-      <c r="T292" s="507"/>
-      <c r="U292" s="286" t="s">
+      <c r="P293" s="501"/>
+      <c r="Q293" s="501"/>
+      <c r="R293" s="501"/>
+      <c r="S293" s="501"/>
+      <c r="T293" s="502"/>
+      <c r="U293" s="286" t="s">
         <v>1998</v>
       </c>
-      <c r="V292" s="448" t="s">
+      <c r="V293" s="448" t="s">
         <v>1999</v>
       </c>
-      <c r="W292" s="428"/>
-      <c r="X292" s="417"/>
-      <c r="Y292" s="423"/>
-      <c r="Z292" s="417"/>
-      <c r="AA292" s="417"/>
-      <c r="AB292" s="418"/>
-      <c r="AC292" s="411"/>
-      <c r="AD292" s="410"/>
-    </row>
-    <row r="293" spans="13:33">
-      <c r="M293" s="51"/>
-      <c r="N293" s="230"/>
-      <c r="Q293" s="51"/>
-      <c r="V293" s="410"/>
-      <c r="X293" s="283"/>
-      <c r="Y293" s="285"/>
-      <c r="Z293" s="283"/>
-      <c r="AA293" s="283"/>
-      <c r="AB293" s="283"/>
-      <c r="AC293" s="283"/>
+      <c r="W293" s="428"/>
+      <c r="X293" s="417"/>
+      <c r="Y293" s="423"/>
+      <c r="Z293" s="417"/>
+      <c r="AA293" s="417"/>
+      <c r="AB293" s="418"/>
+      <c r="AC293" s="411"/>
       <c r="AD293" s="410"/>
     </row>
     <row r="294" spans="13:33">
@@ -34899,7 +34983,12 @@
       <c r="N294" s="230"/>
       <c r="Q294" s="51"/>
       <c r="V294" s="410"/>
-      <c r="Y294" s="51"/>
+      <c r="X294" s="283"/>
+      <c r="Y294" s="285"/>
+      <c r="Z294" s="283"/>
+      <c r="AA294" s="283"/>
+      <c r="AB294" s="283"/>
+      <c r="AC294" s="283"/>
       <c r="AD294" s="410"/>
     </row>
     <row r="295" spans="13:33">
@@ -40366,1213 +40455,1231 @@
       <c r="Y977" s="51"/>
       <c r="AD977" s="410"/>
     </row>
+    <row r="978" spans="13:30">
+      <c r="M978" s="51"/>
+      <c r="N978" s="230"/>
+      <c r="Q978" s="51"/>
+      <c r="V978" s="410"/>
+      <c r="Y978" s="51"/>
+      <c r="AD978" s="410"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:AG977" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:AG978" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="19">
-    <mergeCell ref="P23:W24"/>
-    <mergeCell ref="P226:W226"/>
-    <mergeCell ref="P228:W228"/>
-    <mergeCell ref="P227:W227"/>
-    <mergeCell ref="P232:W232"/>
-    <mergeCell ref="P233:W233"/>
-    <mergeCell ref="P234:W234"/>
-    <mergeCell ref="O292:T292"/>
-    <mergeCell ref="O282:T283"/>
-    <mergeCell ref="O284:T285"/>
-    <mergeCell ref="O288:T291"/>
-    <mergeCell ref="O286:T286"/>
-    <mergeCell ref="O287:T287"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="O1:W1"/>
     <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="P234:W234"/>
+    <mergeCell ref="P235:W235"/>
+    <mergeCell ref="O293:T293"/>
+    <mergeCell ref="O283:T284"/>
+    <mergeCell ref="O285:T286"/>
+    <mergeCell ref="O289:T292"/>
+    <mergeCell ref="O287:T287"/>
+    <mergeCell ref="O288:T288"/>
+    <mergeCell ref="P23:W24"/>
+    <mergeCell ref="P226:W226"/>
+    <mergeCell ref="P228:W228"/>
+    <mergeCell ref="P227:W227"/>
+    <mergeCell ref="P233:W233"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="Y28:Y29 Y75:Y76 Y78:Y79 Y81 Y83:Y88 Y90:Y94 Y141:Y146 Y148:Y150 Y179:Y188 Y194 Y259:Y269 Y272 Y276 Y249:Y250 Y191:Y192 Y292:Y977 Y152:Y170 M238:M257 Y62 Q62 Y96:Y123 Q96:Q123 Y198:Y207 Q198:Q207 Y66:Y67 Q66 Q69:Q73 Y69:Y73 Y55:Y60 Y137:Y139 Y125:Y135 Q137:Q139 Q135 Y2:Y25 Y40:Y53 Q25 Q41 Y213:Y222 Y224:Y227 V281 AD281 V282:W286 Y31:Y33 Y35:Y36 M2:M222 M224:M235 Y229:Y235 Y253:Y255 Q253:Q255 N281:T281 U282:U291 Y282:Y287 M259:M977">
-    <cfRule type="endsWith" dxfId="236" priority="226" operator="endsWith" text="..n">
+  <conditionalFormatting sqref="Y28:Y29 Y75:Y76 Y78:Y79 Y81 Y83:Y88 Y90:Y94 Y141:Y146 Y148:Y150 Y179:Y188 Y194 Y260:Y270 Y273 Y277 Y250:Y251 Y191:Y192 Y293:Y978 Y152:Y170 M239:M258 Y62 Q62 Y96:Y123 Q96:Q123 Y198:Y207 Q198:Q207 Y66:Y67 Q66 Q69:Q73 Y69:Y73 Y55:Y60 Y137:Y139 Y125:Y135 Q137:Q139 Q135 Y2:Y25 Y40:Y53 Q25 Q41 Y213:Y222 Y224:Y227 V282 AD282 V283:W287 Y31:Y33 Y35:Y36 M2:M222 M224:M230 Y229:Y230 Y254:Y256 Q254:Q256 N282:T282 U283:U292 Y283:Y288 M260:M978 Y232:Y236 M232:M236">
+    <cfRule type="endsWith" dxfId="238" priority="228" operator="endsWith" text="..n">
       <formula>RIGHT((M2),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y28:Y29 Y75:Y76 Y78:Y79 Y81 Y83:Y88 Y90:Y94 Y141:Y146 Y148:Y150 Y179:Y188 Y194 Y259:Y269 Y272 Y276 Y249:Y250 Y191:Y192 Y292:Y977 Y152:Y170 M238:M257 Y62 Q62 Y96:Y123 Q96:Q123 Y198:Y207 Q198:Q207 Y66:Y67 Q66 Q69:Q73 Y69:Y73 Y55:Y60 Y137:Y139 Y125:Y135 Q137:Q139 Q135 Y2:Y25 Y40:Y53 Q25 Q41 Y213:Y222 Y224:Y227 V281 AD281 V282:W286 Y31:Y33 Y35:Y36 M2:M222 M224:M235 Y229:Y235 Y253:Y255 Q253:Q255 N281:T281 U282:U291 Y282:Y287 M259:M977">
-    <cfRule type="beginsWith" dxfId="235" priority="227" operator="beginsWith" text="1..">
+  <conditionalFormatting sqref="Y28:Y29 Y75:Y76 Y78:Y79 Y81 Y83:Y88 Y90:Y94 Y141:Y146 Y148:Y150 Y179:Y188 Y194 Y260:Y270 Y273 Y277 Y250:Y251 Y191:Y192 Y293:Y978 Y152:Y170 M239:M258 Y62 Q62 Y96:Y123 Q96:Q123 Y198:Y207 Q198:Q207 Y66:Y67 Q66 Q69:Q73 Y69:Y73 Y55:Y60 Y137:Y139 Y125:Y135 Q137:Q139 Q135 Y2:Y25 Y40:Y53 Q25 Q41 Y213:Y222 Y224:Y227 V282 AD282 V283:W287 Y31:Y33 Y35:Y36 M2:M222 M224:M230 Y229:Y230 Y254:Y256 Q254:Q256 N282:T282 U283:U292 Y283:Y288 M260:M978 Y232:Y236 M232:M236">
+    <cfRule type="beginsWith" dxfId="237" priority="229" operator="beginsWith" text="1..">
       <formula>LEFT((M2),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y140">
-    <cfRule type="endsWith" dxfId="234" priority="228" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="236" priority="230" operator="endsWith" text="..n">
       <formula>RIGHT((Y140),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y140">
-    <cfRule type="beginsWith" dxfId="233" priority="229" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="235" priority="231" operator="beginsWith" text="1..">
       <formula>LEFT((Y140),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y239:Y240">
-    <cfRule type="endsWith" dxfId="232" priority="231" operator="endsWith" text="..n">
-      <formula>RIGHT((Y239),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y240:Y241">
+    <cfRule type="endsWith" dxfId="234" priority="233" operator="endsWith" text="..n">
+      <formula>RIGHT((Y240),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y239:Y240">
-    <cfRule type="beginsWith" dxfId="231" priority="232" operator="beginsWith" text="1..">
-      <formula>LEFT((Y239),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y240:Y241">
+    <cfRule type="beginsWith" dxfId="233" priority="234" operator="beginsWith" text="1..">
+      <formula>LEFT((Y240),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y54">
-    <cfRule type="endsWith" dxfId="230" priority="234" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="232" priority="236" operator="endsWith" text="..n">
       <formula>RIGHT((Y54),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y54">
-    <cfRule type="beginsWith" dxfId="229" priority="235" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="231" priority="237" operator="beginsWith" text="1..">
       <formula>LEFT((Y54),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y74">
-    <cfRule type="endsWith" dxfId="228" priority="238" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="230" priority="240" operator="endsWith" text="..n">
       <formula>RIGHT((Y74),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y74">
-    <cfRule type="beginsWith" dxfId="227" priority="239" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="229" priority="241" operator="beginsWith" text="1..">
       <formula>LEFT((Y74),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y77">
-    <cfRule type="endsWith" dxfId="226" priority="241" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="228" priority="243" operator="endsWith" text="..n">
       <formula>RIGHT((Y77),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y77">
-    <cfRule type="beginsWith" dxfId="225" priority="242" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="227" priority="244" operator="beginsWith" text="1..">
       <formula>LEFT((Y77),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y82">
-    <cfRule type="endsWith" dxfId="224" priority="244" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="226" priority="246" operator="endsWith" text="..n">
       <formula>RIGHT((Y82),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y82">
-    <cfRule type="beginsWith" dxfId="223" priority="245" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="225" priority="247" operator="beginsWith" text="1..">
       <formula>LEFT((Y82),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y95">
-    <cfRule type="endsWith" dxfId="222" priority="247" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="224" priority="249" operator="endsWith" text="..n">
       <formula>RIGHT((Y95),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y95">
-    <cfRule type="beginsWith" dxfId="221" priority="248" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="223" priority="250" operator="beginsWith" text="1..">
       <formula>LEFT((Y95),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y124">
-    <cfRule type="endsWith" dxfId="220" priority="250" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="222" priority="252" operator="endsWith" text="..n">
       <formula>RIGHT((Y124),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y124">
-    <cfRule type="beginsWith" dxfId="219" priority="251" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="221" priority="253" operator="beginsWith" text="1..">
       <formula>LEFT((Y124),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y273">
-    <cfRule type="endsWith" dxfId="218" priority="257" operator="endsWith" text="..n">
-      <formula>RIGHT((Y273),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y274">
+    <cfRule type="endsWith" dxfId="220" priority="259" operator="endsWith" text="..n">
+      <formula>RIGHT((Y274),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y273">
-    <cfRule type="beginsWith" dxfId="217" priority="258" operator="beginsWith" text="1..">
-      <formula>LEFT((Y273),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y274">
+    <cfRule type="beginsWith" dxfId="219" priority="260" operator="beginsWith" text="1..">
+      <formula>LEFT((Y274),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y61">
-    <cfRule type="endsWith" dxfId="216" priority="260" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="218" priority="262" operator="endsWith" text="..n">
       <formula>RIGHT((Y61),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y61">
-    <cfRule type="beginsWith" dxfId="215" priority="261" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="217" priority="263" operator="beginsWith" text="1..">
       <formula>LEFT((Y61),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M223">
-    <cfRule type="endsWith" dxfId="214" priority="264" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="216" priority="266" operator="endsWith" text="..n">
       <formula>RIGHT((M223),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M223">
-    <cfRule type="beginsWith" dxfId="213" priority="265" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="215" priority="267" operator="beginsWith" text="1..">
       <formula>LEFT((M223),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q223">
-    <cfRule type="endsWith" dxfId="212" priority="266" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="214" priority="268" operator="endsWith" text="..n">
       <formula>RIGHT((Q223),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q223">
-    <cfRule type="beginsWith" dxfId="211" priority="267" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="213" priority="269" operator="beginsWith" text="1..">
       <formula>LEFT((Q223),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y243:Y244">
-    <cfRule type="endsWith" dxfId="210" priority="268" operator="endsWith" text="..n">
-      <formula>RIGHT((Y243),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y244:Y245">
+    <cfRule type="endsWith" dxfId="212" priority="270" operator="endsWith" text="..n">
+      <formula>RIGHT((Y244),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y243:Y244">
-    <cfRule type="beginsWith" dxfId="209" priority="269" operator="beginsWith" text="1..">
-      <formula>LEFT((Y243),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y244:Y245">
+    <cfRule type="beginsWith" dxfId="211" priority="271" operator="beginsWith" text="1..">
+      <formula>LEFT((Y244),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y247:Y248">
-    <cfRule type="endsWith" dxfId="208" priority="270" operator="endsWith" text="..n">
-      <formula>RIGHT((Y247),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y248:Y249">
+    <cfRule type="endsWith" dxfId="210" priority="272" operator="endsWith" text="..n">
+      <formula>RIGHT((Y248),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y247:Y248">
-    <cfRule type="beginsWith" dxfId="207" priority="271" operator="beginsWith" text="1..">
-      <formula>LEFT((Y247),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y248:Y249">
+    <cfRule type="beginsWith" dxfId="209" priority="273" operator="beginsWith" text="1..">
+      <formula>LEFT((Y248),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y241:Y242">
-    <cfRule type="endsWith" dxfId="206" priority="272" operator="endsWith" text="..n">
-      <formula>RIGHT((Y241),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y242:Y243">
+    <cfRule type="endsWith" dxfId="208" priority="274" operator="endsWith" text="..n">
+      <formula>RIGHT((Y242),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y241:Y242">
-    <cfRule type="beginsWith" dxfId="205" priority="273" operator="beginsWith" text="1..">
-      <formula>LEFT((Y241),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y242:Y243">
+    <cfRule type="beginsWith" dxfId="207" priority="275" operator="beginsWith" text="1..">
+      <formula>LEFT((Y242),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y171:Y172">
-    <cfRule type="endsWith" dxfId="204" priority="274" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="206" priority="276" operator="endsWith" text="..n">
       <formula>RIGHT((Y171),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y171:Y172">
-    <cfRule type="beginsWith" dxfId="203" priority="275" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="205" priority="277" operator="beginsWith" text="1..">
       <formula>LEFT((Y171),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y173:Y178">
-    <cfRule type="endsWith" dxfId="202" priority="276" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="204" priority="278" operator="endsWith" text="..n">
       <formula>RIGHT((Y173),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y173:Y178">
-    <cfRule type="beginsWith" dxfId="201" priority="277" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="203" priority="279" operator="beginsWith" text="1..">
       <formula>LEFT((Y173),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y270:Y271">
-    <cfRule type="endsWith" dxfId="200" priority="278" operator="endsWith" text="..n">
-      <formula>RIGHT((Y270),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y271:Y272">
+    <cfRule type="endsWith" dxfId="202" priority="280" operator="endsWith" text="..n">
+      <formula>RIGHT((Y271),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y270:Y271">
-    <cfRule type="beginsWith" dxfId="199" priority="279" operator="beginsWith" text="1..">
-      <formula>LEFT((Y270),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y271:Y272">
+    <cfRule type="beginsWith" dxfId="201" priority="281" operator="beginsWith" text="1..">
+      <formula>LEFT((Y271),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y151">
-    <cfRule type="endsWith" dxfId="198" priority="280" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="200" priority="282" operator="endsWith" text="..n">
       <formula>RIGHT((Y151),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y151">
-    <cfRule type="beginsWith" dxfId="197" priority="281" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="199" priority="283" operator="beginsWith" text="1..">
       <formula>LEFT((Y151),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34">
-    <cfRule type="endsWith" dxfId="196" priority="282" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="198" priority="284" operator="endsWith" text="..n">
       <formula>RIGHT((Y34),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34">
-    <cfRule type="beginsWith" dxfId="195" priority="283" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="197" priority="285" operator="beginsWith" text="1..">
       <formula>LEFT((Y34),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y38">
-    <cfRule type="endsWith" dxfId="194" priority="286" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="196" priority="288" operator="endsWith" text="..n">
       <formula>RIGHT((Y38),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y38">
-    <cfRule type="beginsWith" dxfId="193" priority="287" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="195" priority="289" operator="beginsWith" text="1..">
       <formula>LEFT((Y38),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y193">
-    <cfRule type="endsWith" dxfId="192" priority="288" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="194" priority="290" operator="endsWith" text="..n">
       <formula>RIGHT((Y193),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y193">
-    <cfRule type="beginsWith" dxfId="191" priority="289" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="193" priority="291" operator="beginsWith" text="1..">
       <formula>LEFT((Y193),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y195:Y197">
-    <cfRule type="endsWith" dxfId="190" priority="292" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="192" priority="294" operator="endsWith" text="..n">
       <formula>RIGHT((Y195),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y195:Y197">
-    <cfRule type="beginsWith" dxfId="189" priority="293" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="191" priority="295" operator="beginsWith" text="1..">
       <formula>LEFT((Y195),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y208:Y209">
-    <cfRule type="endsWith" dxfId="188" priority="294" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="190" priority="296" operator="endsWith" text="..n">
       <formula>RIGHT((Y208),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y208:Y209">
-    <cfRule type="beginsWith" dxfId="187" priority="295" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="189" priority="297" operator="beginsWith" text="1..">
       <formula>LEFT((Y208),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y210:Y212">
-    <cfRule type="endsWith" dxfId="186" priority="296" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="188" priority="298" operator="endsWith" text="..n">
       <formula>RIGHT((Y210),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y210:Y212">
-    <cfRule type="beginsWith" dxfId="185" priority="297" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="187" priority="299" operator="beginsWith" text="1..">
       <formula>LEFT((Y210),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y274">
-    <cfRule type="endsWith" dxfId="184" priority="298" operator="endsWith" text="..n">
-      <formula>RIGHT((Y274),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y274">
-    <cfRule type="beginsWith" dxfId="183" priority="299" operator="beginsWith" text="1..">
-      <formula>LEFT((Y274),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y275">
-    <cfRule type="endsWith" dxfId="182" priority="300" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="186" priority="300" operator="endsWith" text="..n">
       <formula>RIGHT((Y275),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y275">
-    <cfRule type="beginsWith" dxfId="181" priority="301" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="185" priority="301" operator="beginsWith" text="1..">
       <formula>LEFT((Y275),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y277">
-    <cfRule type="endsWith" dxfId="180" priority="302" operator="endsWith" text="..n">
-      <formula>RIGHT((Y277),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y276">
+    <cfRule type="endsWith" dxfId="184" priority="302" operator="endsWith" text="..n">
+      <formula>RIGHT((Y276),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y277">
-    <cfRule type="beginsWith" dxfId="179" priority="303" operator="beginsWith" text="1..">
-      <formula>LEFT((Y277),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y276">
+    <cfRule type="beginsWith" dxfId="183" priority="303" operator="beginsWith" text="1..">
+      <formula>LEFT((Y276),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y278:Y280">
-    <cfRule type="endsWith" dxfId="178" priority="304" operator="endsWith" text="..n">
+  <conditionalFormatting sqref="Y278">
+    <cfRule type="endsWith" dxfId="182" priority="304" operator="endsWith" text="..n">
       <formula>RIGHT((Y278),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y278:Y280">
-    <cfRule type="beginsWith" dxfId="177" priority="305" operator="beginsWith" text="1..">
+  <conditionalFormatting sqref="Y278">
+    <cfRule type="beginsWith" dxfId="181" priority="305" operator="beginsWith" text="1..">
       <formula>LEFT((Y278),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y279:Y281">
+    <cfRule type="endsWith" dxfId="180" priority="306" operator="endsWith" text="..n">
+      <formula>RIGHT((Y279),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y279:Y281">
+    <cfRule type="beginsWith" dxfId="179" priority="307" operator="beginsWith" text="1..">
+      <formula>LEFT((Y279),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Y37">
-    <cfRule type="endsWith" dxfId="176" priority="306" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="178" priority="308" operator="endsWith" text="..n">
       <formula>RIGHT((Y37),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37">
-    <cfRule type="beginsWith" dxfId="175" priority="307" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="177" priority="309" operator="beginsWith" text="1..">
       <formula>LEFT((Y37),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y80">
-    <cfRule type="endsWith" dxfId="174" priority="308" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="176" priority="310" operator="endsWith" text="..n">
       <formula>RIGHT((Y80),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y80">
-    <cfRule type="beginsWith" dxfId="173" priority="309" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="175" priority="311" operator="beginsWith" text="1..">
       <formula>LEFT((Y80),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M236:M237">
-    <cfRule type="endsWith" dxfId="172" priority="317" operator="endsWith" text="..n">
-      <formula>RIGHT((M236),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="M237:M238">
+    <cfRule type="endsWith" dxfId="174" priority="319" operator="endsWith" text="..n">
+      <formula>RIGHT((M237),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M236:M237">
-    <cfRule type="beginsWith" dxfId="171" priority="318" operator="beginsWith" text="1..">
-      <formula>LEFT((M236),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="M237:M238">
+    <cfRule type="beginsWith" dxfId="173" priority="320" operator="beginsWith" text="1..">
+      <formula>LEFT((M237),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y236:Y238">
-    <cfRule type="endsWith" dxfId="170" priority="319" operator="endsWith" text="..n">
-      <formula>RIGHT((Y236),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y237:Y239">
+    <cfRule type="endsWith" dxfId="172" priority="321" operator="endsWith" text="..n">
+      <formula>RIGHT((Y237),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y236:Y238">
-    <cfRule type="beginsWith" dxfId="169" priority="320" operator="beginsWith" text="1..">
-      <formula>LEFT((Y236),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y237:Y239">
+    <cfRule type="beginsWith" dxfId="171" priority="322" operator="beginsWith" text="1..">
+      <formula>LEFT((Y237),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W257 V258:W258 N257:N258">
-    <cfRule type="beginsWith" dxfId="168" priority="321" operator="beginsWith" text="jBG">
-      <formula>LEFT((N257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="W258 V259:W259 N258:N259">
+    <cfRule type="beginsWith" dxfId="170" priority="323" operator="beginsWith" text="jBG">
+      <formula>LEFT((N258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:Y27">
-    <cfRule type="endsWith" dxfId="167" priority="221" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="169" priority="223" operator="endsWith" text="..n">
       <formula>RIGHT((Y26),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26:Y27">
-    <cfRule type="beginsWith" dxfId="166" priority="222" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="168" priority="224" operator="beginsWith" text="1..">
       <formula>LEFT((Y26),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y136">
-    <cfRule type="endsWith" dxfId="165" priority="216" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="167" priority="218" operator="endsWith" text="..n">
       <formula>RIGHT((Y136),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y136">
-    <cfRule type="beginsWith" dxfId="164" priority="217" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="166" priority="219" operator="beginsWith" text="1..">
       <formula>LEFT((Y136),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y189">
-    <cfRule type="endsWith" dxfId="163" priority="211" operator="endsWith" text="..n">
-      <formula>RIGHT((AC246),LEN("..n"))=("..n")</formula>
+    <cfRule type="endsWith" dxfId="165" priority="213" operator="endsWith" text="..n">
+      <formula>RIGHT((AC247),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y189">
-    <cfRule type="beginsWith" dxfId="162" priority="212" operator="beginsWith" text="1..">
-      <formula>LEFT((AC246),LEN("1.."))=("1..")</formula>
+    <cfRule type="beginsWith" dxfId="164" priority="214" operator="beginsWith" text="1..">
+      <formula>LEFT((AC247),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y245:Y246">
-    <cfRule type="endsWith" dxfId="161" priority="197" operator="endsWith" text="..n">
-      <formula>RIGHT((Y245),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y246:Y247">
+    <cfRule type="endsWith" dxfId="163" priority="199" operator="endsWith" text="..n">
+      <formula>RIGHT((Y246),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y245:Y246">
-    <cfRule type="beginsWith" dxfId="160" priority="198" operator="beginsWith" text="1..">
-      <formula>LEFT((Y245),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y246:Y247">
+    <cfRule type="beginsWith" dxfId="162" priority="200" operator="beginsWith" text="1..">
+      <formula>LEFT((Y246),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y251:Y252">
-    <cfRule type="endsWith" dxfId="159" priority="195" operator="endsWith" text="..n">
-      <formula>RIGHT((Y251),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Y252:Y253">
+    <cfRule type="endsWith" dxfId="161" priority="197" operator="endsWith" text="..n">
+      <formula>RIGHT((Y252),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y251:Y252">
-    <cfRule type="beginsWith" dxfId="158" priority="196" operator="beginsWith" text="1..">
-      <formula>LEFT((Y251),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Y252:Y253">
+    <cfRule type="beginsWith" dxfId="160" priority="198" operator="beginsWith" text="1..">
+      <formula>LEFT((Y252),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q22 Q40:Q53 Q55:Q56 Q75:Q76 Q78:Q79 Q81 Q83 Q90:Q94 Q131:Q135 Q148:Q150 Q179:Q188 Q194 Q224:Q225 Q229:Q230 Q259:Q265 Q272 Q249:Q250 Q191:Q192 Q293:Q977 Q152:Q170 Q28:Q33 Q35:Q36 Q87 Q213:Q222 Q58 Q267:Q269">
-    <cfRule type="endsWith" dxfId="157" priority="117" operator="endsWith" text="..n">
+  <conditionalFormatting sqref="Q2:Q22 Q40:Q53 Q55:Q56 Q75:Q76 Q78:Q79 Q81 Q83 Q90:Q94 Q131:Q135 Q148:Q150 Q179:Q188 Q194 Q224:Q225 Q229:Q230 Q260:Q266 Q273 Q250:Q251 Q191:Q192 Q294:Q978 Q152:Q170 Q28:Q33 Q35:Q36 Q87 Q213:Q222 Q58 Q268:Q270">
+    <cfRule type="endsWith" dxfId="159" priority="119" operator="endsWith" text="..n">
       <formula>RIGHT((Q2),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q22 Q40:Q53 Q55:Q56 Q75:Q76 Q78:Q79 Q81 Q83 Q90:Q94 Q131:Q135 Q148:Q150 Q179:Q188 Q194 Q224:Q225 Q229:Q230 Q259:Q265 Q272 Q249:Q250 Q191:Q192 Q293:Q977 Q152:Q170 Q28:Q33 Q35:Q36 Q87 Q213:Q222 Q58 Q267:Q269">
-    <cfRule type="beginsWith" dxfId="156" priority="118" operator="beginsWith" text="1..">
+  <conditionalFormatting sqref="Q2:Q22 Q40:Q53 Q55:Q56 Q75:Q76 Q78:Q79 Q81 Q83 Q90:Q94 Q131:Q135 Q148:Q150 Q179:Q188 Q194 Q224:Q225 Q229:Q230 Q260:Q266 Q273 Q250:Q251 Q191:Q192 Q294:Q978 Q152:Q170 Q28:Q33 Q35:Q36 Q87 Q213:Q222 Q58 Q268:Q270">
+    <cfRule type="beginsWith" dxfId="158" priority="120" operator="beginsWith" text="1..">
       <formula>LEFT((Q2),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q140">
-    <cfRule type="endsWith" dxfId="155" priority="119" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="157" priority="121" operator="endsWith" text="..n">
       <formula>RIGHT((Q140),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q140">
-    <cfRule type="beginsWith" dxfId="154" priority="120" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="156" priority="122" operator="beginsWith" text="1..">
       <formula>LEFT((Q140),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q239:Q240">
-    <cfRule type="endsWith" dxfId="153" priority="121" operator="endsWith" text="..n">
-      <formula>RIGHT((Q239),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q240:Q241">
+    <cfRule type="endsWith" dxfId="155" priority="123" operator="endsWith" text="..n">
+      <formula>RIGHT((Q240),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q239:Q240">
-    <cfRule type="beginsWith" dxfId="152" priority="122" operator="beginsWith" text="1..">
-      <formula>LEFT((Q239),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q240:Q241">
+    <cfRule type="beginsWith" dxfId="154" priority="124" operator="beginsWith" text="1..">
+      <formula>LEFT((Q240),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="endsWith" dxfId="151" priority="125" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="153" priority="127" operator="endsWith" text="..n">
       <formula>RIGHT((Q74),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q74">
-    <cfRule type="beginsWith" dxfId="150" priority="126" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="152" priority="128" operator="beginsWith" text="1..">
       <formula>LEFT((Q74),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82">
-    <cfRule type="endsWith" dxfId="149" priority="129" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="151" priority="131" operator="endsWith" text="..n">
       <formula>RIGHT((Q82),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q82">
-    <cfRule type="beginsWith" dxfId="148" priority="130" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="150" priority="132" operator="beginsWith" text="1..">
       <formula>LEFT((Q82),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q95">
-    <cfRule type="endsWith" dxfId="147" priority="131" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="149" priority="133" operator="endsWith" text="..n">
       <formula>RIGHT((Q95),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q95">
-    <cfRule type="beginsWith" dxfId="146" priority="132" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="148" priority="134" operator="beginsWith" text="1..">
       <formula>LEFT((Q95),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q124">
-    <cfRule type="endsWith" dxfId="145" priority="133" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="147" priority="135" operator="endsWith" text="..n">
       <formula>RIGHT((Q124),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q124">
-    <cfRule type="beginsWith" dxfId="144" priority="134" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="146" priority="136" operator="beginsWith" text="1..">
       <formula>LEFT((Q124),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q136">
-    <cfRule type="endsWith" dxfId="143" priority="135" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="145" priority="137" operator="endsWith" text="..n">
       <formula>RIGHT((Q136),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q136">
-    <cfRule type="beginsWith" dxfId="142" priority="136" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="144" priority="138" operator="beginsWith" text="1..">
       <formula>LEFT((Q136),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q273">
-    <cfRule type="endsWith" dxfId="141" priority="137" operator="endsWith" text="..n">
-      <formula>RIGHT((Q273),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q274">
+    <cfRule type="endsWith" dxfId="143" priority="139" operator="endsWith" text="..n">
+      <formula>RIGHT((Q274),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q273">
-    <cfRule type="beginsWith" dxfId="140" priority="138" operator="beginsWith" text="1..">
-      <formula>LEFT((Q273),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q274">
+    <cfRule type="beginsWith" dxfId="142" priority="140" operator="beginsWith" text="1..">
+      <formula>LEFT((Q274),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q61">
-    <cfRule type="endsWith" dxfId="139" priority="139" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="141" priority="141" operator="endsWith" text="..n">
       <formula>RIGHT((Q61),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q61">
-    <cfRule type="beginsWith" dxfId="138" priority="140" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="140" priority="142" operator="beginsWith" text="1..">
       <formula>LEFT((Q61),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q243:Q244">
-    <cfRule type="endsWith" dxfId="137" priority="143" operator="endsWith" text="..n">
-      <formula>RIGHT((Q243),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q244:Q245">
+    <cfRule type="endsWith" dxfId="139" priority="145" operator="endsWith" text="..n">
+      <formula>RIGHT((Q244),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q243:Q244">
-    <cfRule type="beginsWith" dxfId="136" priority="144" operator="beginsWith" text="1..">
-      <formula>LEFT((Q243),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q244:Q245">
+    <cfRule type="beginsWith" dxfId="138" priority="146" operator="beginsWith" text="1..">
+      <formula>LEFT((Q244),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q247:Q248">
-    <cfRule type="endsWith" dxfId="135" priority="145" operator="endsWith" text="..n">
-      <formula>RIGHT((Q247),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q248:Q249">
+    <cfRule type="endsWith" dxfId="137" priority="147" operator="endsWith" text="..n">
+      <formula>RIGHT((Q248),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q247:Q248">
-    <cfRule type="beginsWith" dxfId="134" priority="146" operator="beginsWith" text="1..">
-      <formula>LEFT((Q247),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q248:Q249">
+    <cfRule type="beginsWith" dxfId="136" priority="148" operator="beginsWith" text="1..">
+      <formula>LEFT((Q248),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q241:Q242">
-    <cfRule type="endsWith" dxfId="133" priority="147" operator="endsWith" text="..n">
-      <formula>RIGHT((Q241),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q242:Q243">
+    <cfRule type="endsWith" dxfId="135" priority="149" operator="endsWith" text="..n">
+      <formula>RIGHT((Q242),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q241:Q242">
-    <cfRule type="beginsWith" dxfId="132" priority="148" operator="beginsWith" text="1..">
-      <formula>LEFT((Q241),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q242:Q243">
+    <cfRule type="beginsWith" dxfId="134" priority="150" operator="beginsWith" text="1..">
+      <formula>LEFT((Q242),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q171:Q172">
-    <cfRule type="endsWith" dxfId="131" priority="149" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="133" priority="151" operator="endsWith" text="..n">
       <formula>RIGHT((Q171),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q171:Q172">
-    <cfRule type="beginsWith" dxfId="130" priority="150" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="132" priority="152" operator="beginsWith" text="1..">
       <formula>LEFT((Q171),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q173:Q178">
-    <cfRule type="endsWith" dxfId="129" priority="151" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="131" priority="153" operator="endsWith" text="..n">
       <formula>RIGHT((Q173),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q173:Q178">
-    <cfRule type="beginsWith" dxfId="128" priority="152" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="130" priority="154" operator="beginsWith" text="1..">
       <formula>LEFT((Q173),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q270:Q271">
-    <cfRule type="endsWith" dxfId="127" priority="153" operator="endsWith" text="..n">
-      <formula>RIGHT((Q270),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q271:Q272">
+    <cfRule type="endsWith" dxfId="129" priority="155" operator="endsWith" text="..n">
+      <formula>RIGHT((Q271),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q270:Q271">
-    <cfRule type="beginsWith" dxfId="126" priority="154" operator="beginsWith" text="1..">
-      <formula>LEFT((Q270),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q271:Q272">
+    <cfRule type="beginsWith" dxfId="128" priority="156" operator="beginsWith" text="1..">
+      <formula>LEFT((Q271),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q151">
-    <cfRule type="endsWith" dxfId="125" priority="155" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="127" priority="157" operator="endsWith" text="..n">
       <formula>RIGHT((Q151),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q151">
-    <cfRule type="beginsWith" dxfId="124" priority="156" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="126" priority="158" operator="beginsWith" text="1..">
       <formula>LEFT((Q151),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="endsWith" dxfId="123" priority="157" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="125" priority="159" operator="endsWith" text="..n">
       <formula>RIGHT((Q34),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="beginsWith" dxfId="122" priority="158" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="124" priority="160" operator="beginsWith" text="1..">
       <formula>LEFT((Q34),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38:Q39">
-    <cfRule type="endsWith" dxfId="121" priority="159" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="123" priority="161" operator="endsWith" text="..n">
       <formula>RIGHT((Q38),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38:Q39">
-    <cfRule type="beginsWith" dxfId="120" priority="160" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="122" priority="162" operator="beginsWith" text="1..">
       <formula>LEFT((Q38),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q193">
-    <cfRule type="endsWith" dxfId="119" priority="161" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="121" priority="163" operator="endsWith" text="..n">
       <formula>RIGHT((Q193),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q193">
-    <cfRule type="beginsWith" dxfId="118" priority="162" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="120" priority="164" operator="beginsWith" text="1..">
       <formula>LEFT((Q193),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q195 Q197">
-    <cfRule type="endsWith" dxfId="117" priority="163" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="119" priority="165" operator="endsWith" text="..n">
       <formula>RIGHT((Q195),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q195 Q197">
-    <cfRule type="beginsWith" dxfId="116" priority="164" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="118" priority="166" operator="beginsWith" text="1..">
       <formula>LEFT((Q195),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q208:Q209">
-    <cfRule type="endsWith" dxfId="115" priority="167" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="117" priority="169" operator="endsWith" text="..n">
       <formula>RIGHT((Q208),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q208:Q209">
-    <cfRule type="beginsWith" dxfId="114" priority="168" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="116" priority="170" operator="beginsWith" text="1..">
       <formula>LEFT((Q208),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q210:Q212">
-    <cfRule type="endsWith" dxfId="113" priority="169" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="115" priority="171" operator="endsWith" text="..n">
       <formula>RIGHT((Q210),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q210:Q212">
-    <cfRule type="beginsWith" dxfId="112" priority="170" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="114" priority="172" operator="beginsWith" text="1..">
       <formula>LEFT((Q210),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q274">
-    <cfRule type="endsWith" dxfId="111" priority="171" operator="endsWith" text="..n">
-      <formula>RIGHT((Q274),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q274">
-    <cfRule type="beginsWith" dxfId="110" priority="172" operator="beginsWith" text="1..">
-      <formula>LEFT((Q274),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q275">
-    <cfRule type="endsWith" dxfId="109" priority="173" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="113" priority="173" operator="endsWith" text="..n">
       <formula>RIGHT((Q275),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q275">
-    <cfRule type="beginsWith" dxfId="108" priority="174" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="112" priority="174" operator="beginsWith" text="1..">
       <formula>LEFT((Q275),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q276">
+    <cfRule type="endsWith" dxfId="111" priority="175" operator="endsWith" text="..n">
+      <formula>RIGHT((Q276),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q276">
+    <cfRule type="beginsWith" dxfId="110" priority="176" operator="beginsWith" text="1..">
+      <formula>LEFT((Q276),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q278">
+    <cfRule type="endsWith" dxfId="109" priority="177" operator="endsWith" text="..n">
+      <formula>RIGHT((Q278),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q278">
+    <cfRule type="beginsWith" dxfId="108" priority="178" operator="beginsWith" text="1..">
+      <formula>LEFT((Q278),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q279:Q281">
+    <cfRule type="endsWith" dxfId="107" priority="179" operator="endsWith" text="..n">
+      <formula>RIGHT((Q279),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q279:Q281">
+    <cfRule type="beginsWith" dxfId="106" priority="180" operator="beginsWith" text="1..">
+      <formula>LEFT((Q279),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37">
+    <cfRule type="endsWith" dxfId="105" priority="181" operator="endsWith" text="..n">
+      <formula>RIGHT((Q37),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q37">
+    <cfRule type="beginsWith" dxfId="104" priority="182" operator="beginsWith" text="1..">
+      <formula>LEFT((Q37),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q80">
+    <cfRule type="endsWith" dxfId="103" priority="183" operator="endsWith" text="..n">
+      <formula>RIGHT((Q80),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q80">
+    <cfRule type="beginsWith" dxfId="102" priority="184" operator="beginsWith" text="1..">
+      <formula>LEFT((Q80),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q60">
+    <cfRule type="endsWith" dxfId="101" priority="185" operator="endsWith" text="..n">
+      <formula>RIGHT((Q60),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q60">
+    <cfRule type="beginsWith" dxfId="100" priority="186" operator="beginsWith" text="1..">
+      <formula>LEFT((Q60),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P258:U258">
+    <cfRule type="beginsWith" dxfId="99" priority="191" operator="beginsWith" text="jBG">
+      <formula>LEFT((X258),LEN("jBG"))=("jBG")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q237 Q239">
+    <cfRule type="endsWith" dxfId="98" priority="192" operator="endsWith" text="..n">
+      <formula>RIGHT((Q237),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q237 Q239">
+    <cfRule type="beginsWith" dxfId="97" priority="193" operator="beginsWith" text="1..">
+      <formula>LEFT((Q237),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:Q27">
+    <cfRule type="endsWith" dxfId="96" priority="117" operator="endsWith" text="..n">
+      <formula>RIGHT((Q26),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26:Q27">
+    <cfRule type="beginsWith" dxfId="95" priority="118" operator="beginsWith" text="1..">
+      <formula>LEFT((Q26),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q189">
+    <cfRule type="endsWith" dxfId="94" priority="113" operator="endsWith" text="..n">
+      <formula>RIGHT((U247),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q189">
+    <cfRule type="beginsWith" dxfId="93" priority="114" operator="beginsWith" text="1..">
+      <formula>LEFT((U247),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q246:Q247">
+    <cfRule type="endsWith" dxfId="92" priority="109" operator="endsWith" text="..n">
+      <formula>RIGHT((Q246),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q246:Q247">
+    <cfRule type="beginsWith" dxfId="91" priority="110" operator="beginsWith" text="1..">
+      <formula>LEFT((Q246),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q252:Q253">
+    <cfRule type="endsWith" dxfId="90" priority="107" operator="endsWith" text="..n">
+      <formula>RIGHT((Q252),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q252:Q253">
+    <cfRule type="beginsWith" dxfId="89" priority="108" operator="beginsWith" text="1..">
+      <formula>LEFT((Q252),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q84:Q86">
+    <cfRule type="endsWith" dxfId="88" priority="100" operator="endsWith" text="..n">
+      <formula>RIGHT((Q84),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q84:Q86">
+    <cfRule type="beginsWith" dxfId="87" priority="101" operator="beginsWith" text="1..">
+      <formula>LEFT((Q84),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q88">
+    <cfRule type="endsWith" dxfId="86" priority="98" operator="endsWith" text="..n">
+      <formula>RIGHT((Q88),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q88">
+    <cfRule type="beginsWith" dxfId="85" priority="99" operator="beginsWith" text="1..">
+      <formula>LEFT((Q88),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y63:Y65">
+    <cfRule type="endsWith" dxfId="84" priority="96" operator="endsWith" text="..n">
+      <formula>RIGHT((Y63),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y63:Y65">
+    <cfRule type="beginsWith" dxfId="83" priority="97" operator="beginsWith" text="1..">
+      <formula>LEFT((Y63),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q63:Q65">
+    <cfRule type="endsWith" dxfId="82" priority="94" operator="endsWith" text="..n">
+      <formula>RIGHT((Q63),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q63:Q65">
+    <cfRule type="beginsWith" dxfId="81" priority="95" operator="beginsWith" text="1..">
+      <formula>LEFT((Q63),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q67">
+    <cfRule type="endsWith" dxfId="80" priority="92" operator="endsWith" text="..n">
+      <formula>RIGHT((Q67),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q67">
+    <cfRule type="beginsWith" dxfId="79" priority="93" operator="beginsWith" text="1..">
+      <formula>LEFT((Q67),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q77">
+    <cfRule type="endsWith" dxfId="78" priority="90" operator="endsWith" text="..n">
+      <formula>RIGHT((Q77),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q77">
+    <cfRule type="beginsWith" dxfId="77" priority="91" operator="beginsWith" text="1..">
+      <formula>LEFT((Q77),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q125 Q129">
+    <cfRule type="endsWith" dxfId="76" priority="88" operator="endsWith" text="..n">
+      <formula>RIGHT((Q125),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q125 Q129">
+    <cfRule type="beginsWith" dxfId="75" priority="89" operator="beginsWith" text="1..">
+      <formula>LEFT((Q125),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q126:Q128">
+    <cfRule type="endsWith" dxfId="74" priority="86" operator="endsWith" text="..n">
+      <formula>RIGHT((Q126),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q126:Q128">
+    <cfRule type="beginsWith" dxfId="73" priority="87" operator="beginsWith" text="1..">
+      <formula>LEFT((Q126),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q130">
+    <cfRule type="endsWith" dxfId="72" priority="84" operator="endsWith" text="..n">
+      <formula>RIGHT((Q130),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q130">
+    <cfRule type="beginsWith" dxfId="71" priority="85" operator="beginsWith" text="1..">
+      <formula>LEFT((Q130),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q141 Q145">
+    <cfRule type="endsWith" dxfId="70" priority="82" operator="endsWith" text="..n">
+      <formula>RIGHT((Q141),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q141 Q145">
+    <cfRule type="beginsWith" dxfId="69" priority="83" operator="beginsWith" text="1..">
+      <formula>LEFT((Q141),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q142:Q144">
+    <cfRule type="endsWith" dxfId="68" priority="80" operator="endsWith" text="..n">
+      <formula>RIGHT((Q142),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q142:Q144">
+    <cfRule type="beginsWith" dxfId="67" priority="81" operator="beginsWith" text="1..">
+      <formula>LEFT((Q142),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q146">
+    <cfRule type="endsWith" dxfId="66" priority="78" operator="endsWith" text="..n">
+      <formula>RIGHT((Q146),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q146">
+    <cfRule type="beginsWith" dxfId="65" priority="79" operator="beginsWith" text="1..">
+      <formula>LEFT((Q146),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y147">
+    <cfRule type="endsWith" dxfId="64" priority="76" operator="endsWith" text="..n">
+      <formula>RIGHT((Y147),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y147">
+    <cfRule type="beginsWith" dxfId="63" priority="77" operator="beginsWith" text="1..">
+      <formula>LEFT((Y147),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q147">
+    <cfRule type="endsWith" dxfId="62" priority="74" operator="endsWith" text="..n">
+      <formula>RIGHT((Q147),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q147">
+    <cfRule type="beginsWith" dxfId="61" priority="75" operator="beginsWith" text="1..">
+      <formula>LEFT((Q147),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y89">
+    <cfRule type="endsWith" dxfId="60" priority="72" operator="endsWith" text="..n">
+      <formula>RIGHT((Y89),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y89">
+    <cfRule type="beginsWith" dxfId="59" priority="73" operator="beginsWith" text="1..">
+      <formula>LEFT((Y89),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q89">
+    <cfRule type="endsWith" dxfId="58" priority="70" operator="endsWith" text="..n">
+      <formula>RIGHT((Q89),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q89">
+    <cfRule type="beginsWith" dxfId="57" priority="71" operator="beginsWith" text="1..">
+      <formula>LEFT((Q89),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y68">
+    <cfRule type="endsWith" dxfId="56" priority="68" operator="endsWith" text="..n">
+      <formula>RIGHT((Y68),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y68">
+    <cfRule type="beginsWith" dxfId="55" priority="69" operator="beginsWith" text="1..">
+      <formula>LEFT((Y68),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q68">
+    <cfRule type="endsWith" dxfId="54" priority="66" operator="endsWith" text="..n">
+      <formula>RIGHT((Q68),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q68">
+    <cfRule type="beginsWith" dxfId="53" priority="67" operator="beginsWith" text="1..">
+      <formula>LEFT((Q68),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q54">
+    <cfRule type="endsWith" dxfId="52" priority="64" operator="endsWith" text="..n">
+      <formula>RIGHT((Q54),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q54">
+    <cfRule type="beginsWith" dxfId="51" priority="65" operator="beginsWith" text="1..">
+      <formula>LEFT((Q54),LEN("1.."))=("1..")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q277">
-    <cfRule type="endsWith" dxfId="107" priority="175" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="50" priority="60" operator="endsWith" text="..n">
       <formula>RIGHT((Q277),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q277">
-    <cfRule type="beginsWith" dxfId="106" priority="176" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="49" priority="61" operator="beginsWith" text="1..">
       <formula>LEFT((Q277),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q278:Q280">
-    <cfRule type="endsWith" dxfId="105" priority="177" operator="endsWith" text="..n">
-      <formula>RIGHT((Q278),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q278:Q280">
-    <cfRule type="beginsWith" dxfId="104" priority="178" operator="beginsWith" text="1..">
-      <formula>LEFT((Q278),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q37">
-    <cfRule type="endsWith" dxfId="103" priority="179" operator="endsWith" text="..n">
-      <formula>RIGHT((Q37),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q37">
-    <cfRule type="beginsWith" dxfId="102" priority="180" operator="beginsWith" text="1..">
-      <formula>LEFT((Q37),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q80">
-    <cfRule type="endsWith" dxfId="101" priority="181" operator="endsWith" text="..n">
-      <formula>RIGHT((Q80),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q80">
-    <cfRule type="beginsWith" dxfId="100" priority="182" operator="beginsWith" text="1..">
-      <formula>LEFT((Q80),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q60">
-    <cfRule type="endsWith" dxfId="99" priority="183" operator="endsWith" text="..n">
-      <formula>RIGHT((Q60),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q60">
-    <cfRule type="beginsWith" dxfId="98" priority="184" operator="beginsWith" text="1..">
-      <formula>LEFT((Q60),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P257:U257">
-    <cfRule type="beginsWith" dxfId="97" priority="189" operator="beginsWith" text="jBG">
-      <formula>LEFT((X257),LEN("jBG"))=("jBG")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q236 Q238">
-    <cfRule type="endsWith" dxfId="96" priority="190" operator="endsWith" text="..n">
-      <formula>RIGHT((Q236),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q236 Q238">
-    <cfRule type="beginsWith" dxfId="95" priority="191" operator="beginsWith" text="1..">
-      <formula>LEFT((Q236),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q27">
-    <cfRule type="endsWith" dxfId="94" priority="115" operator="endsWith" text="..n">
-      <formula>RIGHT((Q26),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q26:Q27">
-    <cfRule type="beginsWith" dxfId="93" priority="116" operator="beginsWith" text="1..">
-      <formula>LEFT((Q26),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q189">
-    <cfRule type="endsWith" dxfId="92" priority="111" operator="endsWith" text="..n">
-      <formula>RIGHT((U246),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q189">
-    <cfRule type="beginsWith" dxfId="91" priority="112" operator="beginsWith" text="1..">
-      <formula>LEFT((U246),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q245:Q246">
-    <cfRule type="endsWith" dxfId="90" priority="107" operator="endsWith" text="..n">
-      <formula>RIGHT((Q245),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q245:Q246">
-    <cfRule type="beginsWith" dxfId="89" priority="108" operator="beginsWith" text="1..">
-      <formula>LEFT((Q245),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q251:Q252">
-    <cfRule type="endsWith" dxfId="88" priority="105" operator="endsWith" text="..n">
-      <formula>RIGHT((Q251),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q251:Q252">
-    <cfRule type="beginsWith" dxfId="87" priority="106" operator="beginsWith" text="1..">
-      <formula>LEFT((Q251),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q84:Q86">
-    <cfRule type="endsWith" dxfId="86" priority="98" operator="endsWith" text="..n">
-      <formula>RIGHT((Q84),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q84:Q86">
-    <cfRule type="beginsWith" dxfId="85" priority="99" operator="beginsWith" text="1..">
-      <formula>LEFT((Q84),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q88">
-    <cfRule type="endsWith" dxfId="84" priority="96" operator="endsWith" text="..n">
-      <formula>RIGHT((Q88),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q88">
-    <cfRule type="beginsWith" dxfId="83" priority="97" operator="beginsWith" text="1..">
-      <formula>LEFT((Q88),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y63:Y65">
-    <cfRule type="endsWith" dxfId="82" priority="94" operator="endsWith" text="..n">
-      <formula>RIGHT((Y63),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y63:Y65">
-    <cfRule type="beginsWith" dxfId="81" priority="95" operator="beginsWith" text="1..">
-      <formula>LEFT((Y63),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q63:Q65">
-    <cfRule type="endsWith" dxfId="80" priority="92" operator="endsWith" text="..n">
-      <formula>RIGHT((Q63),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q63:Q65">
-    <cfRule type="beginsWith" dxfId="79" priority="93" operator="beginsWith" text="1..">
-      <formula>LEFT((Q63),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q67">
-    <cfRule type="endsWith" dxfId="78" priority="90" operator="endsWith" text="..n">
-      <formula>RIGHT((Q67),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q67">
-    <cfRule type="beginsWith" dxfId="77" priority="91" operator="beginsWith" text="1..">
-      <formula>LEFT((Q67),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q77">
-    <cfRule type="endsWith" dxfId="76" priority="88" operator="endsWith" text="..n">
-      <formula>RIGHT((Q77),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q77">
-    <cfRule type="beginsWith" dxfId="75" priority="89" operator="beginsWith" text="1..">
-      <formula>LEFT((Q77),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q125 Q129">
-    <cfRule type="endsWith" dxfId="74" priority="86" operator="endsWith" text="..n">
-      <formula>RIGHT((Q125),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q125 Q129">
-    <cfRule type="beginsWith" dxfId="73" priority="87" operator="beginsWith" text="1..">
-      <formula>LEFT((Q125),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q126:Q128">
-    <cfRule type="endsWith" dxfId="72" priority="84" operator="endsWith" text="..n">
-      <formula>RIGHT((Q126),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q126:Q128">
-    <cfRule type="beginsWith" dxfId="71" priority="85" operator="beginsWith" text="1..">
-      <formula>LEFT((Q126),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q130">
-    <cfRule type="endsWith" dxfId="70" priority="82" operator="endsWith" text="..n">
-      <formula>RIGHT((Q130),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q130">
-    <cfRule type="beginsWith" dxfId="69" priority="83" operator="beginsWith" text="1..">
-      <formula>LEFT((Q130),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q141 Q145">
-    <cfRule type="endsWith" dxfId="68" priority="80" operator="endsWith" text="..n">
-      <formula>RIGHT((Q141),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q141 Q145">
-    <cfRule type="beginsWith" dxfId="67" priority="81" operator="beginsWith" text="1..">
-      <formula>LEFT((Q141),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q142:Q144">
-    <cfRule type="endsWith" dxfId="66" priority="78" operator="endsWith" text="..n">
-      <formula>RIGHT((Q142),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q142:Q144">
-    <cfRule type="beginsWith" dxfId="65" priority="79" operator="beginsWith" text="1..">
-      <formula>LEFT((Q142),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q146">
-    <cfRule type="endsWith" dxfId="64" priority="76" operator="endsWith" text="..n">
-      <formula>RIGHT((Q146),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q146">
-    <cfRule type="beginsWith" dxfId="63" priority="77" operator="beginsWith" text="1..">
-      <formula>LEFT((Q146),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y147">
-    <cfRule type="endsWith" dxfId="62" priority="74" operator="endsWith" text="..n">
-      <formula>RIGHT((Y147),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y147">
-    <cfRule type="beginsWith" dxfId="61" priority="75" operator="beginsWith" text="1..">
-      <formula>LEFT((Y147),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q147">
-    <cfRule type="endsWith" dxfId="60" priority="72" operator="endsWith" text="..n">
-      <formula>RIGHT((Q147),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q147">
-    <cfRule type="beginsWith" dxfId="59" priority="73" operator="beginsWith" text="1..">
-      <formula>LEFT((Q147),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y89">
-    <cfRule type="endsWith" dxfId="58" priority="70" operator="endsWith" text="..n">
-      <formula>RIGHT((Y89),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y89">
-    <cfRule type="beginsWith" dxfId="57" priority="71" operator="beginsWith" text="1..">
-      <formula>LEFT((Y89),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q89">
-    <cfRule type="endsWith" dxfId="56" priority="68" operator="endsWith" text="..n">
-      <formula>RIGHT((Q89),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q89">
-    <cfRule type="beginsWith" dxfId="55" priority="69" operator="beginsWith" text="1..">
-      <formula>LEFT((Q89),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y68">
-    <cfRule type="endsWith" dxfId="54" priority="66" operator="endsWith" text="..n">
-      <formula>RIGHT((Y68),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y68">
-    <cfRule type="beginsWith" dxfId="53" priority="67" operator="beginsWith" text="1..">
-      <formula>LEFT((Y68),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q68">
-    <cfRule type="endsWith" dxfId="52" priority="64" operator="endsWith" text="..n">
-      <formula>RIGHT((Q68),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q68">
-    <cfRule type="beginsWith" dxfId="51" priority="65" operator="beginsWith" text="1..">
-      <formula>LEFT((Q68),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q54">
-    <cfRule type="endsWith" dxfId="50" priority="62" operator="endsWith" text="..n">
-      <formula>RIGHT((Q54),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q54">
-    <cfRule type="beginsWith" dxfId="49" priority="63" operator="beginsWith" text="1..">
-      <formula>LEFT((Q54),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q276">
-    <cfRule type="endsWith" dxfId="48" priority="58" operator="endsWith" text="..n">
-      <formula>RIGHT((Q276),LEN("..n"))=("..n")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q276">
-    <cfRule type="beginsWith" dxfId="47" priority="59" operator="beginsWith" text="1..">
-      <formula>LEFT((Q276),LEN("1.."))=("1..")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q57">
-    <cfRule type="endsWith" dxfId="46" priority="54" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="48" priority="56" operator="endsWith" text="..n">
       <formula>RIGHT((Q57),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q57">
-    <cfRule type="beginsWith" dxfId="45" priority="55" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="47" priority="57" operator="beginsWith" text="1..">
       <formula>LEFT((Q57),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q59">
-    <cfRule type="endsWith" dxfId="44" priority="52" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="46" priority="54" operator="endsWith" text="..n">
       <formula>RIGHT((Q59),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q59">
-    <cfRule type="beginsWith" dxfId="43" priority="53" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="45" priority="55" operator="beginsWith" text="1..">
       <formula>LEFT((Q59),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q196">
-    <cfRule type="endsWith" dxfId="42" priority="50" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="44" priority="52" operator="endsWith" text="..n">
       <formula>RIGHT((Q196),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q196">
-    <cfRule type="beginsWith" dxfId="41" priority="51" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="43" priority="53" operator="beginsWith" text="1..">
       <formula>LEFT((Q196),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y190">
-    <cfRule type="endsWith" dxfId="40" priority="48" operator="endsWith" text="..n">
-      <formula>RIGHT((AC247),LEN("..n"))=("..n")</formula>
+    <cfRule type="endsWith" dxfId="42" priority="50" operator="endsWith" text="..n">
+      <formula>RIGHT((AC248),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y190">
-    <cfRule type="beginsWith" dxfId="39" priority="49" operator="beginsWith" text="1..">
-      <formula>LEFT((AC247),LEN("1.."))=("1..")</formula>
+    <cfRule type="beginsWith" dxfId="41" priority="51" operator="beginsWith" text="1..">
+      <formula>LEFT((AC248),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q190">
-    <cfRule type="endsWith" dxfId="38" priority="46" operator="endsWith" text="..n">
-      <formula>RIGHT((U247),LEN("..n"))=("..n")</formula>
+    <cfRule type="endsWith" dxfId="40" priority="48" operator="endsWith" text="..n">
+      <formula>RIGHT((U248),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q190">
-    <cfRule type="beginsWith" dxfId="37" priority="47" operator="beginsWith" text="1..">
-      <formula>LEFT((U247),LEN("1.."))=("1..")</formula>
+    <cfRule type="beginsWith" dxfId="39" priority="49" operator="beginsWith" text="1..">
+      <formula>LEFT((U248),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q266">
-    <cfRule type="endsWith" dxfId="36" priority="44" operator="endsWith" text="..n">
-      <formula>RIGHT((Q266),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q267">
+    <cfRule type="endsWith" dxfId="38" priority="46" operator="endsWith" text="..n">
+      <formula>RIGHT((Q267),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q266">
-    <cfRule type="beginsWith" dxfId="35" priority="45" operator="beginsWith" text="1..">
-      <formula>LEFT((Q266),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q267">
+    <cfRule type="beginsWith" dxfId="37" priority="47" operator="beginsWith" text="1..">
+      <formula>LEFT((Q267),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y223">
-    <cfRule type="endsWith" dxfId="34" priority="38" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="36" priority="40" operator="endsWith" text="..n">
       <formula>RIGHT((Y223),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y223">
-    <cfRule type="beginsWith" dxfId="33" priority="39" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="35" priority="41" operator="beginsWith" text="1..">
       <formula>LEFT((Y223),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W257">
-    <cfRule type="beginsWith" dxfId="32" priority="323" operator="beginsWith" text="jBG">
-      <formula>LEFT((AL257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="W258">
+    <cfRule type="beginsWith" dxfId="34" priority="325" operator="beginsWith" text="jBG">
+      <formula>LEFT((AL258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X257">
-    <cfRule type="beginsWith" dxfId="31" priority="325" operator="beginsWith" text="jBG">
-      <formula>LEFT((V257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="X258">
+    <cfRule type="beginsWith" dxfId="33" priority="327" operator="beginsWith" text="jBG">
+      <formula>LEFT((V258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y257:AA257">
-    <cfRule type="beginsWith" dxfId="30" priority="326" operator="beginsWith" text="jBG">
-      <formula>LEFT((AE257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="Y258:AA258">
+    <cfRule type="beginsWith" dxfId="32" priority="328" operator="beginsWith" text="jBG">
+      <formula>LEFT((AE258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W257">
-    <cfRule type="beginsWith" dxfId="29" priority="330" operator="beginsWith" text="jBG">
-      <formula>LEFT((AN257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="W258">
+    <cfRule type="beginsWith" dxfId="31" priority="332" operator="beginsWith" text="jBG">
+      <formula>LEFT((AN258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB257">
-    <cfRule type="beginsWith" dxfId="28" priority="334" operator="beginsWith" text="jBG">
-      <formula>LEFT((W257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="AB258">
+    <cfRule type="beginsWith" dxfId="30" priority="336" operator="beginsWith" text="jBG">
+      <formula>LEFT((W258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE257:AG257">
-    <cfRule type="beginsWith" dxfId="27" priority="335" operator="beginsWith" text="jBG">
-      <formula>LEFT((AJ257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="AE258:AG258">
+    <cfRule type="beginsWith" dxfId="29" priority="337" operator="beginsWith" text="jBG">
+      <formula>LEFT((AJ258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30">
-    <cfRule type="endsWith" dxfId="26" priority="30" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="28" priority="32" operator="endsWith" text="..n">
       <formula>RIGHT((Y30),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30">
-    <cfRule type="beginsWith" dxfId="25" priority="31" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="27" priority="33" operator="beginsWith" text="1..">
       <formula>LEFT((Y30),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39">
-    <cfRule type="endsWith" dxfId="24" priority="28" operator="endsWith" text="..n">
+    <cfRule type="endsWith" dxfId="26" priority="30" operator="endsWith" text="..n">
       <formula>RIGHT((Y39),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39">
-    <cfRule type="beginsWith" dxfId="23" priority="29" operator="beginsWith" text="1..">
+    <cfRule type="beginsWith" dxfId="25" priority="31" operator="beginsWith" text="1..">
       <formula>LEFT((Y39),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC257">
-    <cfRule type="beginsWith" dxfId="22" priority="336" operator="beginsWith" text="jBG">
-      <formula>LEFT((AH257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="AC258">
+    <cfRule type="beginsWith" dxfId="24" priority="338" operator="beginsWith" text="jBG">
+      <formula>LEFT((AH258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD282:AD286">
-    <cfRule type="endsWith" dxfId="21" priority="23" operator="endsWith" text="..n">
-      <formula>RIGHT((AD282),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="AD283:AD287">
+    <cfRule type="endsWith" dxfId="23" priority="25" operator="endsWith" text="..n">
+      <formula>RIGHT((AD283),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD282:AD286">
-    <cfRule type="beginsWith" dxfId="20" priority="24" operator="beginsWith" text="1..">
-      <formula>LEFT((AD282),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="AD283:AD287">
+    <cfRule type="beginsWith" dxfId="22" priority="26" operator="beginsWith" text="1..">
+      <formula>LEFT((AD283),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD257">
-    <cfRule type="beginsWith" dxfId="19" priority="26" operator="beginsWith" text="jBG">
-      <formula>LEFT((AT257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="AD258">
+    <cfRule type="beginsWith" dxfId="21" priority="28" operator="beginsWith" text="jBG">
+      <formula>LEFT((AT258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD257">
-    <cfRule type="beginsWith" dxfId="18" priority="27" operator="beginsWith" text="jBG">
-      <formula>LEFT((AE257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="AD258">
+    <cfRule type="beginsWith" dxfId="20" priority="29" operator="beginsWith" text="jBG">
+      <formula>LEFT((AE258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V257">
-    <cfRule type="beginsWith" dxfId="17" priority="352" operator="beginsWith" text="jBG">
-      <formula>LEFT((AJ257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="V258">
+    <cfRule type="beginsWith" dxfId="19" priority="354" operator="beginsWith" text="jBG">
+      <formula>LEFT((AJ258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N257">
-    <cfRule type="beginsWith" dxfId="16" priority="353" operator="beginsWith" text="jBG">
-      <formula>LEFT((AK257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="N258">
+    <cfRule type="beginsWith" dxfId="18" priority="355" operator="beginsWith" text="jBG">
+      <formula>LEFT((AK258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M258">
-    <cfRule type="endsWith" dxfId="15" priority="16" operator="endsWith" text="..n">
-      <formula>RIGHT((V303),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="M259">
+    <cfRule type="endsWith" dxfId="17" priority="18" operator="endsWith" text="..n">
+      <formula>RIGHT((V304),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M258">
-    <cfRule type="beginsWith" dxfId="14" priority="17" operator="beginsWith" text="1..">
-      <formula>LEFT((V303),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="M259">
+    <cfRule type="beginsWith" dxfId="16" priority="19" operator="beginsWith" text="1..">
+      <formula>LEFT((V304),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X258:AG258">
-    <cfRule type="beginsWith" dxfId="13" priority="18" operator="beginsWith" text="jBG">
-      <formula>LEFT((X258),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="X259:AG259">
+    <cfRule type="beginsWith" dxfId="15" priority="20" operator="beginsWith" text="jBG">
+      <formula>LEFT((X259),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P258:U258">
-    <cfRule type="beginsWith" dxfId="12" priority="15" operator="beginsWith" text="jBG">
-      <formula>LEFT((P258),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="P259:U259">
+    <cfRule type="beginsWith" dxfId="14" priority="17" operator="beginsWith" text="jBG">
+      <formula>LEFT((P259),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q231">
-    <cfRule type="endsWith" dxfId="11" priority="11" operator="endsWith" text="..n">
-      <formula>RIGHT((Q231),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q232">
+    <cfRule type="endsWith" dxfId="13" priority="13" operator="endsWith" text="..n">
+      <formula>RIGHT((Q232),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q231">
-    <cfRule type="beginsWith" dxfId="10" priority="12" operator="beginsWith" text="1..">
-      <formula>LEFT((Q231),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q232">
+    <cfRule type="beginsWith" dxfId="12" priority="14" operator="beginsWith" text="1..">
+      <formula>LEFT((Q232),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q235">
-    <cfRule type="endsWith" dxfId="9" priority="7" operator="endsWith" text="..n">
-      <formula>RIGHT((Q235),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q236">
+    <cfRule type="endsWith" dxfId="11" priority="9" operator="endsWith" text="..n">
+      <formula>RIGHT((Q236),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q235">
-    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="1..">
-      <formula>LEFT((Q235),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q236">
+    <cfRule type="beginsWith" dxfId="10" priority="10" operator="beginsWith" text="1..">
+      <formula>LEFT((Q236),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q235">
-    <cfRule type="endsWith" dxfId="7" priority="5" operator="endsWith" text="..n">
-      <formula>RIGHT((Q235),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q236">
+    <cfRule type="endsWith" dxfId="9" priority="7" operator="endsWith" text="..n">
+      <formula>RIGHT((Q236),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q235">
-    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="1..">
-      <formula>LEFT((Q235),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q236">
+    <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="1..">
+      <formula>LEFT((Q236),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q237">
-    <cfRule type="endsWith" dxfId="5" priority="3" operator="endsWith" text="..n">
-      <formula>RIGHT((Q237),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q238">
+    <cfRule type="endsWith" dxfId="7" priority="5" operator="endsWith" text="..n">
+      <formula>RIGHT((Q238),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q237">
-    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="1..">
-      <formula>LEFT((Q237),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q238">
+    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="1..">
+      <formula>LEFT((Q238),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q237">
-    <cfRule type="endsWith" dxfId="3" priority="1" operator="endsWith" text="..n">
-      <formula>RIGHT((Q237),LEN("..n"))=("..n")</formula>
+  <conditionalFormatting sqref="Q238">
+    <cfRule type="endsWith" dxfId="5" priority="3" operator="endsWith" text="..n">
+      <formula>RIGHT((Q238),LEN("..n"))=("..n")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q237">
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="1..">
-      <formula>LEFT((Q237),LEN("1.."))=("1..")</formula>
+  <conditionalFormatting sqref="Q238">
+    <cfRule type="beginsWith" dxfId="4" priority="4" operator="beginsWith" text="1..">
+      <formula>LEFT((Q238),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V257">
-    <cfRule type="beginsWith" dxfId="1" priority="358" operator="beginsWith" text="jBG">
-      <formula>LEFT((N257),LEN("jBG"))=("jBG")</formula>
+  <conditionalFormatting sqref="V258">
+    <cfRule type="beginsWith" dxfId="3" priority="360" operator="beginsWith" text="jBG">
+      <formula>LEFT((N258),LEN("jBG"))=("jBG")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N257">
-    <cfRule type="beginsWith" dxfId="0" priority="359" operator="beginsWith" text="jBG">
+  <conditionalFormatting sqref="N258">
+    <cfRule type="beginsWith" dxfId="2" priority="361" operator="beginsWith" text="jBG">
       <formula>LEFT((#REF!),LEN("jBG"))=("jBG")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y231 Q231 M231">
+    <cfRule type="endsWith" dxfId="1" priority="1" operator="endsWith" text="..n">
+      <formula>RIGHT((M231),LEN("..n"))=("..n")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y231 Q231 M231">
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="1..">
+      <formula>LEFT((M231),LEN("1.."))=("1..")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
+++ b/日本版コアインボイス/日本版コアインボイス2021-01-12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/日本版コアインボイス/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40AEAB9-0AD5-E641-BB63-4FA9423F5F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF13C75-D44D-1647-AAEA-340FD8715706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="100" windowWidth="20080" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2502,7 +2502,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4656" uniqueCount="2092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4658" uniqueCount="2094">
   <si>
     <t>ID</t>
   </si>
@@ -9071,29 +9071,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>アンナイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>中小企業共通EDI実装必須</t>
-    <rPh sb="9" eb="11">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒッス</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>中小企業共通EDI自動突合対応</t>
-    <rPh sb="9" eb="11">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トツゴウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -10113,6 +10090,35 @@
       <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中小企業共通EDI</t>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トツゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自動突合対応</t>
+  </si>
+  <si>
+    <t>中小企業共通EDI</t>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実装必須</t>
   </si>
 </sst>
 </file>
@@ -14717,9 +14723,9 @@
   </sheetPr>
   <dimension ref="A1:AM978"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD217" sqref="AD217"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V296" sqref="V296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14"/>
@@ -14748,7 +14754,7 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="525" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="B1" s="500" t="s">
         <v>1890</v>
@@ -15748,7 +15754,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="5"/>
       <c r="V17" s="235" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="W17" s="314"/>
       <c r="X17" s="249" t="s">
@@ -15878,7 +15884,7 @@
       <c r="T19" s="62"/>
       <c r="U19" s="63"/>
       <c r="V19" s="391" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="W19" s="425"/>
       <c r="X19" s="249" t="s">
@@ -16132,7 +16138,7 @@
         <v>110</v>
       </c>
       <c r="P23" s="491" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="Q23" s="492"/>
       <c r="R23" s="492"/>
@@ -16650,7 +16656,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="5"/>
       <c r="V31" s="235" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="W31" s="314"/>
       <c r="X31" s="246" t="s">
@@ -16715,7 +16721,7 @@
         <v>17</v>
       </c>
       <c r="Q32" s="225" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="R32" s="222" t="s">
         <v>163</v>
@@ -16724,7 +16730,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="5"/>
       <c r="V32" s="235" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="W32" s="314"/>
       <c r="X32" s="246" t="s">
@@ -16791,7 +16797,7 @@
         <v>17</v>
       </c>
       <c r="Q33" s="225" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="R33" s="222" t="s">
         <v>171</v>
@@ -16800,7 +16806,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="5"/>
       <c r="V33" s="235" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="W33" s="314"/>
       <c r="X33" s="246" t="s">
@@ -16865,16 +16871,16 @@
         <v>17</v>
       </c>
       <c r="Q34" s="118" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="R34" s="119" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="S34" s="120"/>
       <c r="T34" s="120"/>
       <c r="U34" s="121"/>
       <c r="V34" s="226" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="W34" s="314" t="s">
         <v>136</v>
@@ -16931,7 +16937,7 @@
         <v>17</v>
       </c>
       <c r="Q35" s="225" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="R35" s="222" t="s">
         <v>184</v>
@@ -16940,7 +16946,7 @@
       <c r="T35" s="4"/>
       <c r="U35" s="5"/>
       <c r="V35" s="235" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="W35" s="314" t="s">
         <v>136</v>
@@ -17272,7 +17278,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="5"/>
       <c r="V40" s="392" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="W40" s="314"/>
       <c r="X40" s="246" t="s">
@@ -17318,7 +17324,7 @@
         <v>15</v>
       </c>
       <c r="N41" s="228" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="O41" s="91" t="s">
         <v>124</v>
@@ -18436,7 +18442,7 @@
       <c r="T56" s="4"/>
       <c r="U56" s="5"/>
       <c r="V56" s="235" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="W56" s="314"/>
       <c r="X56" s="250" t="s">
@@ -18511,7 +18517,7 @@
       </c>
       <c r="R57" s="188"/>
       <c r="S57" s="189" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="T57" s="189"/>
       <c r="U57" s="190"/>
@@ -20152,7 +20158,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="5"/>
       <c r="V79" s="235" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="W79" s="314"/>
       <c r="X79" s="250" t="s">
@@ -21430,7 +21436,7 @@
       <c r="T96" s="4"/>
       <c r="U96" s="5"/>
       <c r="V96" s="235" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="W96" s="314"/>
       <c r="X96" s="246" t="s">
@@ -21674,7 +21680,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="5"/>
       <c r="V99" s="235" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="W99" s="314"/>
       <c r="X99" s="249" t="s">
@@ -22077,7 +22083,7 @@
         <v>227</v>
       </c>
       <c r="O105" s="473" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="P105" s="200" t="s">
         <v>17</v>
@@ -22224,7 +22230,7 @@
       <c r="T107" s="62"/>
       <c r="U107" s="63"/>
       <c r="V107" s="391" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="W107" s="425"/>
       <c r="X107" s="249" t="s">
@@ -22854,7 +22860,7 @@
       <c r="T116" s="62"/>
       <c r="U116" s="63"/>
       <c r="V116" s="391" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="W116" s="425"/>
       <c r="X116" s="249" t="s">
@@ -24246,7 +24252,7 @@
       <c r="T135" s="198"/>
       <c r="U135" s="199"/>
       <c r="V135" s="406" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="W135" s="462"/>
       <c r="X135" s="251" t="s">
@@ -26474,7 +26480,7 @@
       </c>
       <c r="U165" s="139"/>
       <c r="V165" s="239" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="W165" s="314"/>
       <c r="X165" s="253" t="s">
@@ -26710,7 +26716,7 @@
       </c>
       <c r="U168" s="139"/>
       <c r="V168" s="239" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="W168" s="314"/>
       <c r="X168" s="253" t="s">
@@ -26866,7 +26872,7 @@
       </c>
       <c r="U170" s="139"/>
       <c r="V170" s="239" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="W170" s="314"/>
       <c r="X170" s="253" t="s">
@@ -26946,7 +26952,7 @@
       <c r="T171" s="120"/>
       <c r="U171" s="121"/>
       <c r="V171" s="115" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="W171" s="314"/>
       <c r="X171" s="98"/>
@@ -27466,7 +27472,7 @@
       <c r="T179" s="73"/>
       <c r="U179" s="74"/>
       <c r="V179" s="236" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="W179" s="314"/>
       <c r="X179" s="255"/>
@@ -28058,7 +28064,7 @@
       <c r="T188" s="151"/>
       <c r="U188" s="152"/>
       <c r="V188" s="240" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="W188" s="375"/>
       <c r="X188" s="257" t="s">
@@ -28076,7 +28082,7 @@
       <c r="AB188" s="33"/>
       <c r="AC188" s="34"/>
       <c r="AD188" s="240" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="AE188" s="315" t="s">
         <v>61</v>
@@ -28154,7 +28160,7 @@
       <c r="AB189" s="346"/>
       <c r="AC189" s="347"/>
       <c r="AD189" s="348" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="AE189" s="349" t="s">
         <v>1830</v>
@@ -28236,7 +28242,7 @@
       <c r="AB190" s="351"/>
       <c r="AC190" s="352"/>
       <c r="AD190" s="353" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="AE190" s="354" t="s">
         <v>1830</v>
@@ -28304,7 +28310,7 @@
       <c r="T191" s="4"/>
       <c r="U191" s="5"/>
       <c r="V191" s="235" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="W191" s="314"/>
       <c r="X191" s="249" t="s">
@@ -28322,7 +28328,7 @@
       <c r="AB191" s="4"/>
       <c r="AC191" s="5"/>
       <c r="AD191" s="235" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="AE191" s="309" t="s">
         <v>21</v>
@@ -28386,7 +28392,7 @@
       <c r="T192" s="4"/>
       <c r="U192" s="5"/>
       <c r="V192" s="235" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="W192" s="314"/>
       <c r="X192" s="249" t="s">
@@ -28399,12 +28405,12 @@
         <v>15</v>
       </c>
       <c r="AA192" s="4" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="AB192" s="4"/>
       <c r="AC192" s="5"/>
       <c r="AD192" s="235" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="AE192" s="315" t="s">
         <v>61</v>
@@ -28536,7 +28542,7 @@
       <c r="T194" s="93"/>
       <c r="U194" s="94"/>
       <c r="V194" s="235" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="W194" s="314"/>
       <c r="X194" s="249" t="s">
@@ -28554,7 +28560,7 @@
       <c r="AB194" s="4"/>
       <c r="AC194" s="5"/>
       <c r="AD194" s="235" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="AE194" s="305" t="s">
         <v>21</v>
@@ -29120,7 +29126,7 @@
       <c r="T202" s="93"/>
       <c r="U202" s="94"/>
       <c r="V202" s="235" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="W202" s="314"/>
       <c r="X202" s="250" t="s">
@@ -29138,7 +29144,7 @@
       <c r="AB202" s="66"/>
       <c r="AC202" s="67"/>
       <c r="AD202" s="226" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="AE202" s="314" t="s">
         <v>21</v>
@@ -29222,7 +29228,7 @@
       <c r="AB203" s="66"/>
       <c r="AC203" s="67"/>
       <c r="AD203" s="226" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="AE203" s="314" t="s">
         <v>21</v>
@@ -29501,7 +29507,7 @@
       <c r="M207" s="266"/>
       <c r="N207" s="286"/>
       <c r="O207" s="91" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="P207" s="76"/>
       <c r="Q207" s="262"/>
@@ -29515,19 +29521,19 @@
         <v>233</v>
       </c>
       <c r="Y207" s="267" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="Z207" s="268"/>
       <c r="AA207" s="269" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="AB207" s="269"/>
       <c r="AC207" s="247"/>
       <c r="AD207" s="270" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="AE207" s="320" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="AF207" s="320"/>
       <c r="AG207" s="414"/>
@@ -29650,7 +29656,7 @@
       <c r="T209" s="120"/>
       <c r="U209" s="121"/>
       <c r="V209" s="115" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="W209" s="314"/>
       <c r="X209" s="254"/>
@@ -29786,7 +29792,7 @@
       <c r="T211" s="120"/>
       <c r="U211" s="121"/>
       <c r="V211" s="115" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="W211" s="314"/>
       <c r="X211" s="254"/>
@@ -29920,7 +29926,7 @@
       </c>
       <c r="U213" s="121"/>
       <c r="V213" s="115" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="W213" s="314"/>
       <c r="X213" s="254"/>
@@ -30166,7 +30172,7 @@
       <c r="L217" s="86"/>
       <c r="M217" s="266"/>
       <c r="N217" s="228" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="O217" s="266"/>
       <c r="P217" s="76"/>
@@ -30190,7 +30196,7 @@
       <c r="AB217" s="269"/>
       <c r="AC217" s="247"/>
       <c r="AD217" s="270" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="AE217" s="310" t="s">
         <v>1943</v>
@@ -30400,7 +30406,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="487" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="C221" s="455" t="s">
         <v>1451</v>
@@ -30436,10 +30442,10 @@
         <v>18</v>
       </c>
       <c r="N221" s="228" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="O221" s="75" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="P221" s="403" t="s">
         <v>1849</v>
@@ -30511,7 +30517,7 @@
         <v>18</v>
       </c>
       <c r="N222" s="228" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="O222" s="75" t="s">
         <v>1460</v>
@@ -30585,7 +30591,7 @@
       <c r="T223" s="15"/>
       <c r="U223" s="206"/>
       <c r="V223" s="402" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="W223" s="425"/>
       <c r="X223" s="271" t="s">
@@ -30989,7 +30995,7 @@
       <c r="T229" s="93"/>
       <c r="U229" s="94"/>
       <c r="V229" s="235" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="W229" s="314"/>
       <c r="X229" s="385" t="s">
@@ -31057,7 +31063,7 @@
       <c r="T230" s="62"/>
       <c r="U230" s="63"/>
       <c r="V230" s="391" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="W230" s="425"/>
       <c r="X230" s="385" t="s">
@@ -31108,7 +31114,7 @@
         <v>31</v>
       </c>
       <c r="O231" s="91" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="P231" s="59" t="s">
         <v>233</v>
@@ -31125,7 +31131,7 @@
       <c r="T231" s="62"/>
       <c r="U231" s="63"/>
       <c r="V231" s="391" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="W231" s="425" t="s">
         <v>136</v>
@@ -31221,7 +31227,7 @@
         <v>1498</v>
       </c>
       <c r="P233" s="497" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="Q233" s="498"/>
       <c r="R233" s="498"/>
@@ -31247,7 +31253,7 @@
       </c>
       <c r="AC233" s="30"/>
       <c r="AD233" s="226" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="AE233" s="314" t="s">
         <v>21</v>
@@ -31264,7 +31270,7 @@
         <v>1501</v>
       </c>
       <c r="C234" s="459" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D234" s="434" t="s">
         <v>1502</v>
@@ -31297,7 +31303,7 @@
         <v>1507</v>
       </c>
       <c r="P234" s="497" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="Q234" s="498"/>
       <c r="R234" s="498"/>
@@ -31353,13 +31359,13 @@
         <v>15</v>
       </c>
       <c r="N235" s="228" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="O235" s="126" t="s">
         <v>1510</v>
       </c>
       <c r="P235" s="497" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="Q235" s="498"/>
       <c r="R235" s="498"/>
@@ -31422,12 +31428,12 @@
       </c>
       <c r="R236" s="397"/>
       <c r="S236" s="272" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="T236" s="272"/>
       <c r="U236" s="390"/>
       <c r="V236" s="398" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="W236" s="425"/>
       <c r="X236" s="399"/>
@@ -31450,7 +31456,7 @@
         <v>1501</v>
       </c>
       <c r="C237" s="459" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D237" s="434" t="s">
         <v>1502</v>
@@ -31495,7 +31501,7 @@
       <c r="T237" s="120"/>
       <c r="U237" s="121"/>
       <c r="V237" s="115" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="W237" s="314"/>
       <c r="X237" s="250" t="s">
@@ -31540,7 +31546,7 @@
       <c r="M238" s="266"/>
       <c r="N238" s="442"/>
       <c r="O238" s="116" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="P238" s="59" t="s">
         <v>1848</v>
@@ -31550,12 +31556,12 @@
       </c>
       <c r="R238" s="397"/>
       <c r="S238" s="272" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="T238" s="272"/>
       <c r="U238" s="390"/>
       <c r="V238" s="398" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="W238" s="425"/>
       <c r="X238" s="261"/>
@@ -31680,12 +31686,12 @@
       </c>
       <c r="R240" s="119"/>
       <c r="S240" s="120" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="T240" s="120"/>
       <c r="U240" s="121"/>
       <c r="V240" s="115" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="W240" s="314" t="s">
         <v>136</v>
@@ -32009,7 +32015,7 @@
       <c r="AB244" s="334"/>
       <c r="AC244" s="335"/>
       <c r="AD244" s="288" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="AE244" s="310"/>
       <c r="AF244" s="310" t="s">
@@ -32069,7 +32075,7 @@
       </c>
       <c r="U245" s="121"/>
       <c r="V245" s="115" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="W245" s="314"/>
       <c r="X245" s="330" t="s">
@@ -32085,7 +32091,7 @@
       </c>
       <c r="AC245" s="335"/>
       <c r="AD245" s="288" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="AE245" s="310" t="s">
         <v>21</v>
@@ -32147,7 +32153,7 @@
       </c>
       <c r="U246" s="121"/>
       <c r="V246" s="115" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="W246" s="314"/>
       <c r="X246" s="254"/>
@@ -32515,7 +32521,7 @@
       </c>
       <c r="U251" s="74"/>
       <c r="V251" s="115" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="W251" s="314"/>
       <c r="X251" s="336" t="s">
@@ -32531,7 +32537,7 @@
       </c>
       <c r="AC251" s="341"/>
       <c r="AD251" s="288" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="AE251" s="310" t="s">
         <v>21</v>
@@ -32593,7 +32599,7 @@
       </c>
       <c r="U252" s="74"/>
       <c r="V252" s="115" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="W252" s="314"/>
       <c r="X252" s="256"/>
@@ -32657,7 +32663,7 @@
       </c>
       <c r="U253" s="74"/>
       <c r="V253" s="115" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="W253" s="314"/>
       <c r="X253" s="256"/>
@@ -32965,7 +32971,7 @@
       </c>
       <c r="U257" s="169"/>
       <c r="V257" s="243" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="W257" s="314"/>
       <c r="X257" s="362"/>
@@ -33015,7 +33021,7 @@
       </c>
       <c r="U258" s="211"/>
       <c r="V258" s="407" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="W258" s="427"/>
       <c r="X258" s="109"/>
@@ -33071,7 +33077,7 @@
       </c>
       <c r="AC259" s="55"/>
       <c r="AD259" s="371" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="AE259" s="305" t="s">
         <v>61</v>
@@ -33133,7 +33139,7 @@
       </c>
       <c r="U260" s="121"/>
       <c r="V260" s="115" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="W260" s="314"/>
       <c r="X260" s="254"/>
@@ -33197,7 +33203,7 @@
       </c>
       <c r="U261" s="121"/>
       <c r="V261" s="115" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="W261" s="314"/>
       <c r="X261" s="254"/>
@@ -33261,7 +33267,7 @@
       </c>
       <c r="U262" s="173"/>
       <c r="V262" s="244" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="W262" s="314"/>
       <c r="X262" s="325"/>
@@ -33329,7 +33335,7 @@
       </c>
       <c r="U263" s="121"/>
       <c r="V263" s="115" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="W263" s="314"/>
       <c r="X263" s="254"/>
@@ -33408,7 +33414,7 @@
         <v>15</v>
       </c>
       <c r="AA264" s="24" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="AB264" s="4"/>
       <c r="AC264" s="5"/>
@@ -34687,7 +34693,7 @@
       <c r="M282" s="51"/>
       <c r="N282" s="230"/>
       <c r="O282" s="51" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="P282" s="51"/>
       <c r="Q282" s="51"/>
@@ -34714,7 +34720,7 @@
     <row r="283" spans="1:39">
       <c r="M283" s="51"/>
       <c r="O283" s="503" t="s">
-        <v>1995</v>
+        <v>2092</v>
       </c>
       <c r="P283" s="504"/>
       <c r="Q283" s="504"/>
@@ -34737,7 +34743,9 @@
     </row>
     <row r="284" spans="1:39" ht="15">
       <c r="M284" s="51"/>
-      <c r="O284" s="506"/>
+      <c r="O284" s="506" t="s">
+        <v>2093</v>
+      </c>
       <c r="P284" s="507"/>
       <c r="Q284" s="507"/>
       <c r="R284" s="507"/>
@@ -34760,7 +34768,7 @@
     <row r="285" spans="1:39">
       <c r="M285" s="51"/>
       <c r="O285" s="509" t="s">
-        <v>1996</v>
+        <v>2090</v>
       </c>
       <c r="P285" s="510"/>
       <c r="Q285" s="510"/>
@@ -34783,7 +34791,9 @@
     </row>
     <row r="286" spans="1:39">
       <c r="M286" s="51"/>
-      <c r="O286" s="512"/>
+      <c r="O286" s="512" t="s">
+        <v>2091</v>
+      </c>
       <c r="P286" s="513"/>
       <c r="Q286" s="513"/>
       <c r="R286" s="513"/>
@@ -34806,7 +34816,7 @@
     <row r="287" spans="1:39" ht="15">
       <c r="M287" s="51"/>
       <c r="O287" s="500" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="P287" s="501"/>
       <c r="Q287" s="501"/>
@@ -34830,7 +34840,7 @@
     <row r="288" spans="1:39">
       <c r="M288" s="51"/>
       <c r="O288" s="500" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="P288" s="501"/>
       <c r="Q288" s="501"/>
@@ -34915,7 +34925,7 @@
         <v>1841</v>
       </c>
       <c r="V291" s="446" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="W291" s="447"/>
       <c r="X291" s="447"/>
@@ -34956,7 +34966,7 @@
     <row r="293" spans="13:33" ht="15">
       <c r="M293" s="51"/>
       <c r="O293" s="500" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="P293" s="501"/>
       <c r="Q293" s="501"/>
@@ -34964,10 +34974,10 @@
       <c r="S293" s="501"/>
       <c r="T293" s="502"/>
       <c r="U293" s="286" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="V293" s="448" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="W293" s="428"/>
       <c r="X293" s="417"/>
@@ -40465,7 +40475,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:AG978" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="B1:M1"/>
@@ -40475,11 +40485,13 @@
     <mergeCell ref="P234:W234"/>
     <mergeCell ref="P235:W235"/>
     <mergeCell ref="O293:T293"/>
-    <mergeCell ref="O283:T284"/>
-    <mergeCell ref="O285:T286"/>
     <mergeCell ref="O289:T292"/>
     <mergeCell ref="O287:T287"/>
     <mergeCell ref="O288:T288"/>
+    <mergeCell ref="O283:T283"/>
+    <mergeCell ref="O284:T284"/>
+    <mergeCell ref="O285:T285"/>
+    <mergeCell ref="O286:T286"/>
     <mergeCell ref="P23:W24"/>
     <mergeCell ref="P226:W226"/>
     <mergeCell ref="P228:W228"/>
